--- a/model_cv_log.xlsx
+++ b/model_cv_log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="34120" yWindow="0" windowWidth="34680" windowHeight="27180" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="32660" yWindow="0" windowWidth="36020" windowHeight="27180" tabRatio="838" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,11 @@
     <sheet name="cv_score_3" sheetId="5" r:id="rId5"/>
     <sheet name="cv_score_4" sheetId="6" r:id="rId6"/>
     <sheet name="cv_score_benchmark_mc" sheetId="7" r:id="rId7"/>
+    <sheet name="cv_score_2_mc" sheetId="8" r:id="rId8"/>
+    <sheet name="cv_score_3_mc" sheetId="9" r:id="rId9"/>
+    <sheet name="cv_score_4_mc" sheetId="10" r:id="rId10"/>
+    <sheet name="cv_score_5_mc" sheetId="11" r:id="rId11"/>
+    <sheet name="cv_score_6_mc" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="87">
   <si>
     <t>rsme+kappa</t>
   </si>
@@ -268,6 +273,24 @@
   </si>
   <si>
     <t>kmeans_all</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>centre</t>
+  </si>
+  <si>
+    <t>scale</t>
+  </si>
+  <si>
+    <t>Medical_History_10</t>
+  </si>
+  <si>
+    <t>Medical_History_24</t>
+  </si>
+  <si>
+    <t>custom_var_1-13</t>
   </si>
 </sst>
 </file>
@@ -628,7 +651,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -651,6 +674,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -725,7 +774,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="24">
+  <cellStyles count="50">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -737,6 +786,19 @@
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="27" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="29" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="31" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -748,6 +810,19 @@
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="26" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="28" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="30" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="Linked Cell" xfId="21" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -894,6 +969,142 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="-2129259400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="700">
+          <a:latin typeface="Lucida Sans" panose="020B0602040502020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cv_score_6_mc!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>optim_kappa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>cv_score_6_mc!$B$16:$B$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>cv_score_6_mc!$C$16:$C$20</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2108302728"/>
+        <c:axId val="-2108299768"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2108302728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2108299768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2108299768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2108302728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1476,6 +1687,21 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.619497793066761</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.617125591171767</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.616478893769003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.617633915060381</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.616522926233642</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1485,6 +1711,21 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.665445992805064</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.660192307362387</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.654676660637627</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.661549880270294</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65565618720965</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1561,6 +1802,670 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cv_score_2_mc!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>optim_kappa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>cv_score_2_mc!$B$15:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.620023615153295</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.621556182012849</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.621092137120481</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.619443085363445</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.613651298931431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>cv_score_2_mc!$C$15:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.662289396600237</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.659132957128332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.659646163781672</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.660689520102852</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.659696222209477</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2111357416"/>
+        <c:axId val="-2111372856"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2111357416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2111372856"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2111372856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2111357416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="700">
+          <a:latin typeface="Lucida Sans" panose="020B0602040502020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cv_score_3_mc!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>optim_kappa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>cv_score_3_mc!$B$15:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.619596235064861</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.618958813907223</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.617351337040671</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.618776869566883</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.614876460048935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>cv_score_3_mc!$C$15:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.664050618637206</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.66686417826212</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.658091588576777</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.660742939090695</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.661168495966936</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2113169000"/>
+        <c:axId val="-2118233384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2113169000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2118233384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2118233384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2113169000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="700">
+          <a:latin typeface="Lucida Sans" panose="020B0602040502020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cv_score_4_mc!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>optim_kappa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>cv_score_4_mc!$B$15:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.620117930998286</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.619604185740892</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.617935785619816</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.619400953149216</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.614433473520158</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>cv_score_4_mc!$C$15:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.663527277050926</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.666945753638363</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.662285451070646</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65740938992508</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.653988943859353</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2127588440"/>
+        <c:axId val="-2122498952"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2127588440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2122498952"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2122498952"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2127588440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="700">
+          <a:latin typeface="Lucida Sans" panose="020B0602040502020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cv_score_5_mc!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>optim_kappa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>cv_score_5_mc!$B$15:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.620016417052494</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.61823316463121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.617908835085944</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.618765122940905</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.613936560978388</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>cv_score_5_mc!$C$15:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.658066142208897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.662332714976179</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.657779016910418</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.661687675605769</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.660534673117991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2112770136"/>
+        <c:axId val="-2112767176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2112770136"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2112767176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2112767176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2112770136"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="700">
+          <a:latin typeface="Lucida Sans" panose="020B0602040502020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1579,6 +2484,43 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -1710,6 +2652,154 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2282,6 +3372,1210 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F3" sqref="F2:F3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="8.6640625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="13" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" ht="12" thickTop="1">
+      <c r="A2" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="5">
+        <v>800</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="24"/>
+      <c r="C8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="24"/>
+      <c r="C9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="24"/>
+      <c r="C10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="13" thickBot="1">
+      <c r="A13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" ht="13" thickTop="1" thickBot="1">
+      <c r="A14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="12" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0.62011793099828605</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.66352727705092596</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2.7008929226863798</v>
+      </c>
+      <c r="E15" s="9">
+        <v>3.5222533432780598</v>
+      </c>
+      <c r="F15" s="9">
+        <v>3.9786591965464599</v>
+      </c>
+      <c r="G15" s="9">
+        <v>4.7909817381822704</v>
+      </c>
+      <c r="H15" s="9">
+        <v>5.4303343420112498</v>
+      </c>
+      <c r="I15" s="9">
+        <v>6.4481661651364801</v>
+      </c>
+      <c r="J15" s="9">
+        <v>6.7539945646642003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="12" thickBot="1">
+      <c r="A16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0.61960418574089204</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.66694575363836295</v>
+      </c>
+      <c r="D16" s="10">
+        <v>2.76429672772188</v>
+      </c>
+      <c r="E16" s="10">
+        <v>3.44317722130537</v>
+      </c>
+      <c r="F16" s="10">
+        <v>4.1672979726159003</v>
+      </c>
+      <c r="G16" s="10">
+        <v>4.8952252682620401</v>
+      </c>
+      <c r="H16" s="10">
+        <v>5.3310670486578902</v>
+      </c>
+      <c r="I16" s="10">
+        <v>6.2148213475829799</v>
+      </c>
+      <c r="J16" s="10">
+        <v>6.9388974406861301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="12" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.61793578561981599</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.66228545107064596</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2.4567874444901698</v>
+      </c>
+      <c r="E17" s="9">
+        <v>3.5921730621100001</v>
+      </c>
+      <c r="F17" s="9">
+        <v>4.3036091215537402</v>
+      </c>
+      <c r="G17" s="9">
+        <v>4.7970827344943201</v>
+      </c>
+      <c r="H17" s="9">
+        <v>5.4660446435385301</v>
+      </c>
+      <c r="I17" s="9">
+        <v>6.2263504158113996</v>
+      </c>
+      <c r="J17" s="9">
+        <v>6.9061879219392601</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="12" thickBot="1">
+      <c r="A18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0.61940095314921595</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.65740938992508002</v>
+      </c>
+      <c r="D18" s="10">
+        <v>1.50038939546475</v>
+      </c>
+      <c r="E18" s="10">
+        <v>3.5377062114364901</v>
+      </c>
+      <c r="F18" s="10">
+        <v>4.1445935085419698</v>
+      </c>
+      <c r="G18" s="10">
+        <v>4.8869220325560496</v>
+      </c>
+      <c r="H18" s="10">
+        <v>5.4324552643399597</v>
+      </c>
+      <c r="I18" s="10">
+        <v>6.2619272717806798</v>
+      </c>
+      <c r="J18" s="10">
+        <v>6.72889111638698</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="12" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.61443347352015798</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.65398894385935302</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2.1655213432182099</v>
+      </c>
+      <c r="E19" s="9">
+        <v>3.2106490617643102</v>
+      </c>
+      <c r="F19" s="9">
+        <v>3.8466957080770001</v>
+      </c>
+      <c r="G19" s="9">
+        <v>4.9835278684364797</v>
+      </c>
+      <c r="H19" s="9">
+        <v>5.7294874572529597</v>
+      </c>
+      <c r="I19" s="9">
+        <v>6.1391941241205101</v>
+      </c>
+      <c r="J19" s="9">
+        <v>6.6864073229171002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" s="11">
+        <f>AVERAGE(B15:B19)</f>
+        <v>0.6182984658056736</v>
+      </c>
+      <c r="C20" s="11">
+        <f>AVERAGE(C15:C19)</f>
+        <v>0.66083136310887358</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" ref="D20:J20" si="0">AVERAGE(D15:D19)</f>
+        <v>2.3175775667162775</v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" si="0"/>
+        <v>3.4611917799788459</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" si="0"/>
+        <v>4.0881711014670135</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" si="0"/>
+        <v>4.8707479283862316</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="0"/>
+        <v>5.4778777511601175</v>
+      </c>
+      <c r="I20" s="11">
+        <f t="shared" si="0"/>
+        <v>6.2580918648864108</v>
+      </c>
+      <c r="J20" s="11">
+        <f t="shared" si="0"/>
+        <v>6.8028756733187334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" ht="13" thickBot="1">
+      <c r="A23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" ht="12" thickTop="1">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="8.6640625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="13" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" ht="12" thickTop="1">
+      <c r="A2" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="5">
+        <v>800</v>
+      </c>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="24"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="24"/>
+      <c r="C8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="24"/>
+      <c r="C9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="24"/>
+      <c r="C10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="13" thickBot="1">
+      <c r="A13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" ht="13" thickTop="1" thickBot="1">
+      <c r="A14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="12" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0.620016417052494</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.65806614220889703</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1.81532760850481</v>
+      </c>
+      <c r="E15" s="9">
+        <v>3.4802937876028599</v>
+      </c>
+      <c r="F15" s="9">
+        <v>3.8848337598749501</v>
+      </c>
+      <c r="G15" s="9">
+        <v>4.7478703872922798</v>
+      </c>
+      <c r="H15" s="9">
+        <v>5.5348490361766496</v>
+      </c>
+      <c r="I15" s="9">
+        <v>6.3105535279609404</v>
+      </c>
+      <c r="J15" s="9">
+        <v>6.7530002293282596</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="12" thickBot="1">
+      <c r="A16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0.61823316463121003</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.66233271497617896</v>
+      </c>
+      <c r="D16" s="10">
+        <v>2.2585978017374702</v>
+      </c>
+      <c r="E16" s="10">
+        <v>3.5057039639113601</v>
+      </c>
+      <c r="F16" s="10">
+        <v>4.0815831403204603</v>
+      </c>
+      <c r="G16" s="10">
+        <v>4.90665682319311</v>
+      </c>
+      <c r="H16" s="10">
+        <v>5.4422109949112496</v>
+      </c>
+      <c r="I16" s="10">
+        <v>6.1791852739352704</v>
+      </c>
+      <c r="J16" s="10">
+        <v>6.6469834027188801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="12" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.61790883508594396</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.65777901691041796</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2.1625663901196899</v>
+      </c>
+      <c r="E17" s="9">
+        <v>3.08200629256392</v>
+      </c>
+      <c r="F17" s="9">
+        <v>4.2125197762448199</v>
+      </c>
+      <c r="G17" s="9">
+        <v>4.7533876548787202</v>
+      </c>
+      <c r="H17" s="9">
+        <v>5.4817652192711304</v>
+      </c>
+      <c r="I17" s="9">
+        <v>6.2943561309926297</v>
+      </c>
+      <c r="J17" s="9">
+        <v>6.9039620470046996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="12" thickBot="1">
+      <c r="A18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0.61876512294090502</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.66168767560576902</v>
+      </c>
+      <c r="D18" s="10">
+        <v>2.56421671707507</v>
+      </c>
+      <c r="E18" s="10">
+        <v>3.3778076264516002</v>
+      </c>
+      <c r="F18" s="10">
+        <v>4.1556832758477098</v>
+      </c>
+      <c r="G18" s="10">
+        <v>4.6150188397256802</v>
+      </c>
+      <c r="H18" s="10">
+        <v>5.4367873931973003</v>
+      </c>
+      <c r="I18" s="10">
+        <v>6.47103154684073</v>
+      </c>
+      <c r="J18" s="10">
+        <v>6.7265596154556899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="12" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.613936560978388</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.66053467311799097</v>
+      </c>
+      <c r="D19" s="9">
+        <v>3.0014713807212701</v>
+      </c>
+      <c r="E19" s="9">
+        <v>3.8353339797674799</v>
+      </c>
+      <c r="F19" s="9">
+        <v>3.6480764639080898</v>
+      </c>
+      <c r="G19" s="9">
+        <v>5.14241308491194</v>
+      </c>
+      <c r="H19" s="9">
+        <v>5.4230073361216196</v>
+      </c>
+      <c r="I19" s="9">
+        <v>6.1497453930441699</v>
+      </c>
+      <c r="J19" s="9">
+        <v>6.9122246915866397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" s="11">
+        <f>AVERAGE(B15:B19)</f>
+        <v>0.6177720201377882</v>
+      </c>
+      <c r="C20" s="11">
+        <f>AVERAGE(C15:C19)</f>
+        <v>0.66008004456385072</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" ref="D20:J20" si="0">AVERAGE(D15:D19)</f>
+        <v>2.3604359796316619</v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" si="0"/>
+        <v>3.4562291300594437</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" si="0"/>
+        <v>3.9965392832392062</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" si="0"/>
+        <v>4.8330693580003459</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="0"/>
+        <v>5.4637239959355899</v>
+      </c>
+      <c r="I20" s="11">
+        <f t="shared" si="0"/>
+        <v>6.2809743745547486</v>
+      </c>
+      <c r="J20" s="11">
+        <f t="shared" si="0"/>
+        <v>6.7885459972188329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" ht="13" thickBot="1">
+      <c r="A23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" ht="12" thickTop="1">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="8.6640625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="13" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" ht="12" thickTop="1">
+      <c r="A2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="5">
+        <v>800</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="24"/>
+      <c r="C8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="24"/>
+      <c r="C9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="24"/>
+      <c r="C10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="8" customFormat="1" ht="13" thickBot="1">
+      <c r="A14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="6"/>
+    </row>
+    <row r="15" spans="1:11" ht="13" thickTop="1" thickBot="1">
+      <c r="A15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="12" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+    </row>
+    <row r="17" spans="1:10" ht="12" thickBot="1">
+      <c r="A17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" ht="12" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+    </row>
+    <row r="19" spans="1:10" ht="12" thickBot="1">
+      <c r="A19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" ht="12" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" s="11" t="e">
+        <f>AVERAGE(B16:B20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C21" s="11" t="e">
+        <f>AVERAGE(C16:C20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D21" s="11" t="e">
+        <f t="shared" ref="D21:J21" si="0">AVERAGE(D16:D20)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E21" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F21" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G21" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H21" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I21" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J21" s="11" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:10" ht="13" thickBot="1">
+      <c r="A24" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:10" ht="12" thickTop="1">
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
@@ -2504,8 +4798,8 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -2518,7 +4812,7 @@
     <col min="12" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="13" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -2526,9 +4820,12 @@
         <v>54</v>
       </c>
       <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="11.25" thickTop="1">
+    <row r="2" spans="1:11" ht="12" thickTop="1">
       <c r="A2" s="4" t="s">
         <v>63</v>
       </c>
@@ -2538,8 +4835,11 @@
       <c r="D2" s="5">
         <v>800</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15">
+      <c r="F2" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
@@ -2549,8 +4849,11 @@
       <c r="D3" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15">
+      <c r="F3" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
@@ -2561,7 +4864,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -2572,7 +4875,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15">
+    <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
@@ -2583,7 +4886,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15">
+    <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
@@ -2594,7 +4897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15">
+    <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
         <v>60</v>
       </c>
@@ -2605,7 +4908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15">
+    <row r="9" spans="1:11">
       <c r="A9" s="4" t="s">
         <v>61</v>
       </c>
@@ -2616,7 +4919,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15">
+    <row r="10" spans="1:11">
       <c r="A10" s="4" t="s">
         <v>62</v>
       </c>
@@ -2627,7 +4930,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1">
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="13" thickBot="1">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
@@ -2642,7 +4945,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="12" thickTop="1" thickBot="1">
+    <row r="14" spans="1:11" ht="13" thickTop="1" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -2674,7 +4977,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="11.25" thickBot="1">
+    <row r="15" spans="1:11" ht="12" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
@@ -2706,7 +5009,7 @@
         <v>6.6911006953449803</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="11.25" thickBot="1">
+    <row r="16" spans="1:11" ht="12" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
@@ -2738,7 +5041,7 @@
         <v>6.9220464526529399</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="11.25" thickBot="1">
+    <row r="17" spans="1:10" ht="12" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
@@ -2770,7 +5073,7 @@
         <v>6.8616747026675</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="11.25" thickBot="1">
+    <row r="18" spans="1:10" ht="12" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>77</v>
       </c>
@@ -2802,7 +5105,7 @@
         <v>6.7332206592583903</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="11.25" thickBot="1">
+    <row r="19" spans="1:10" ht="12" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
@@ -2880,7 +5183,7 @@
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:10" ht="12.75" thickBot="1">
+    <row r="23" spans="1:10" ht="13" thickBot="1">
       <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
@@ -2888,7 +5191,7 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:10" ht="11.25" thickTop="1">
+    <row r="24" spans="1:10" ht="12" thickTop="1">
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
@@ -2923,8 +5226,8 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -2937,7 +5240,7 @@
     <col min="12" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="13" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -2945,9 +5248,12 @@
         <v>54</v>
       </c>
       <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="11.25" thickTop="1">
+    <row r="2" spans="1:11" ht="12" thickTop="1">
       <c r="A2" s="4" t="s">
         <v>63</v>
       </c>
@@ -2957,8 +5263,11 @@
       <c r="D2" s="5">
         <v>800</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15">
+      <c r="F2" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
@@ -2968,8 +5277,11 @@
       <c r="D3" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15">
+      <c r="F3" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
@@ -2980,7 +5292,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -2991,7 +5303,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15">
+    <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
@@ -3002,7 +5314,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15">
+    <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
@@ -3013,7 +5325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15">
+    <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
         <v>60</v>
       </c>
@@ -3024,7 +5336,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15">
+    <row r="9" spans="1:11">
       <c r="A9" s="4" t="s">
         <v>61</v>
       </c>
@@ -3035,7 +5347,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15">
+    <row r="10" spans="1:11">
       <c r="A10" s="4" t="s">
         <v>62</v>
       </c>
@@ -3046,7 +5358,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1">
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="13" thickBot="1">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
@@ -3061,7 +5373,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="12" thickTop="1" thickBot="1">
+    <row r="14" spans="1:11" ht="13" thickTop="1" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -3093,7 +5405,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="11.25" thickBot="1">
+    <row r="15" spans="1:11" ht="12" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
@@ -3125,7 +5437,7 @@
         <v>6.8945906286312697</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="11.25" thickBot="1">
+    <row r="16" spans="1:11" ht="12" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
@@ -3157,7 +5469,7 @@
         <v>6.8281100199846199</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="11.25" thickBot="1">
+    <row r="17" spans="1:10" ht="12" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
@@ -3189,7 +5501,7 @@
         <v>6.8673344011032498</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="11.25" thickBot="1">
+    <row r="18" spans="1:10" ht="12" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>77</v>
       </c>
@@ -3221,7 +5533,7 @@
         <v>6.7412807395396701</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="11.25" thickBot="1">
+    <row r="19" spans="1:10" ht="12" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
@@ -3299,7 +5611,7 @@
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:10" ht="12.75" thickBot="1">
+    <row r="23" spans="1:10" ht="13" thickBot="1">
       <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
@@ -3307,7 +5619,7 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:10" ht="11.25" thickTop="1">
+    <row r="24" spans="1:10" ht="12" thickTop="1">
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
@@ -3342,8 +5654,8 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G98" sqref="G98"/>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -3356,7 +5668,7 @@
     <col min="12" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="13" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -3364,9 +5676,12 @@
         <v>54</v>
       </c>
       <c r="D1" s="7"/>
+      <c r="G1" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="11.25" thickTop="1">
+    <row r="2" spans="1:11" ht="12" thickTop="1">
       <c r="A2" s="4" t="s">
         <v>63</v>
       </c>
@@ -3376,8 +5691,11 @@
       <c r="D2" s="5">
         <v>800</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15">
+      <c r="G2" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
@@ -3387,8 +5705,11 @@
       <c r="D3" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15">
+      <c r="G3" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
@@ -3399,7 +5720,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -3410,7 +5731,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15">
+    <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
@@ -3421,7 +5742,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15">
+    <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
@@ -3432,7 +5753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15">
+    <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
         <v>60</v>
       </c>
@@ -3443,7 +5764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15">
+    <row r="9" spans="1:11">
       <c r="A9" s="4" t="s">
         <v>61</v>
       </c>
@@ -3463,7 +5784,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1">
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="13" thickBot="1">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
@@ -3478,7 +5799,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="12" thickTop="1" thickBot="1">
+    <row r="14" spans="1:11" ht="13" thickTop="1" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -3510,7 +5831,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="11.25" thickBot="1">
+    <row r="15" spans="1:11" ht="12" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
@@ -3542,7 +5863,7 @@
         <v>6.6732832938810702</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="11.25" thickBot="1">
+    <row r="16" spans="1:11" ht="12" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
@@ -3574,7 +5895,7 @@
         <v>6.8058979518198699</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="11.25" thickBot="1">
+    <row r="17" spans="1:10" ht="12" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
@@ -3606,7 +5927,7 @@
         <v>6.7521977702184799</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="11.25" thickBot="1">
+    <row r="18" spans="1:10" ht="12" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>77</v>
       </c>
@@ -3638,7 +5959,7 @@
         <v>6.6996182245403899</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="11.25" thickBot="1">
+    <row r="19" spans="1:10" ht="12" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
@@ -3716,7 +6037,7 @@
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:10" ht="12.75" thickBot="1">
+    <row r="23" spans="1:10" ht="13" thickBot="1">
       <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
@@ -3724,7 +6045,7 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:10" ht="11.25" thickTop="1">
+    <row r="24" spans="1:10" ht="12" thickTop="1">
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
@@ -3759,8 +6080,8 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView showGridLines="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -3773,7 +6094,7 @@
     <col min="12" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="13" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -3781,9 +6102,12 @@
         <v>54</v>
       </c>
       <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="11.25" thickTop="1">
+    <row r="2" spans="1:11" ht="12" thickTop="1">
       <c r="A2" s="4" t="s">
         <v>63</v>
       </c>
@@ -3793,8 +6117,11 @@
       <c r="D2" s="5">
         <v>800</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15">
+      <c r="F2" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
@@ -3804,8 +6131,11 @@
       <c r="D3" s="5" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15">
+      <c r="F3" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
@@ -3816,7 +6146,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15">
+    <row r="5" spans="1:11">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -3827,7 +6157,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15">
+    <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
@@ -3838,7 +6168,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15">
+    <row r="7" spans="1:11">
       <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
@@ -3849,7 +6179,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15">
+    <row r="8" spans="1:11">
       <c r="A8" s="4" t="s">
         <v>60</v>
       </c>
@@ -3869,7 +6199,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15">
+    <row r="10" spans="1:11">
       <c r="A10" s="4" t="s">
         <v>62</v>
       </c>
@@ -3880,7 +6210,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1">
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="13" thickBot="1">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
@@ -3895,7 +6225,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="12" thickTop="1" thickBot="1">
+    <row r="14" spans="1:11" ht="13" thickTop="1" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -3927,7 +6257,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="11.25" thickBot="1">
+    <row r="15" spans="1:11" ht="12" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
@@ -3959,7 +6289,7 @@
         <v>6.7646727651795198</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="11.25" thickBot="1">
+    <row r="16" spans="1:11" ht="12" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
@@ -3991,7 +6321,7 @@
         <v>6.8661599101624704</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="11.25" thickBot="1">
+    <row r="17" spans="1:10" ht="12" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
@@ -4023,7 +6353,7 @@
         <v>6.90951404167199</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="11.25" thickBot="1">
+    <row r="18" spans="1:10" ht="12" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>77</v>
       </c>
@@ -4055,7 +6385,7 @@
         <v>6.6797353308937897</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="11.25" thickBot="1">
+    <row r="19" spans="1:10" ht="12" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
@@ -4133,7 +6463,7 @@
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:10" ht="12.75" thickBot="1">
+    <row r="23" spans="1:10" ht="13" thickBot="1">
       <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
@@ -4141,7 +6471,7 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:10" ht="11.25" thickTop="1">
+    <row r="24" spans="1:10" ht="12" thickTop="1">
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
@@ -4176,8 +6506,8 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J42" sqref="J42"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -4198,6 +6528,9 @@
         <v>54</v>
       </c>
       <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" ht="12" thickTop="1">
@@ -4210,6 +6543,9 @@
       <c r="D2" s="5">
         <v>800</v>
       </c>
+      <c r="F2" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
@@ -4221,6 +6557,9 @@
       <c r="D3" s="5" t="s">
         <v>44</v>
       </c>
+      <c r="F3" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
@@ -4289,7 +6628,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>80</v>
       </c>
       <c r="C10" s="4" t="s">
@@ -4355,108 +6694,1054 @@
       <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
+      <c r="B15" s="9">
+        <v>0.619497793066761</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.665445992805064</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2.8163140517590701</v>
+      </c>
+      <c r="E15" s="9">
+        <v>3.5408119394078001</v>
+      </c>
+      <c r="F15" s="9">
+        <v>4.0862827165023603</v>
+      </c>
+      <c r="G15" s="9">
+        <v>4.7636327803166099</v>
+      </c>
+      <c r="H15" s="9">
+        <v>5.4455804170697597</v>
+      </c>
+      <c r="I15" s="9">
+        <v>6.2590691577973097</v>
+      </c>
+      <c r="J15" s="9">
+        <v>6.8968759963197703</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="12" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="B16" s="10">
+        <v>0.61712559117176702</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.66019230736238699</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1.9546472861152</v>
+      </c>
+      <c r="E16" s="10">
+        <v>4.1323391928120596</v>
+      </c>
+      <c r="F16" s="10">
+        <v>3.33096175520493</v>
+      </c>
+      <c r="G16" s="10">
+        <v>4.8204673385758001</v>
+      </c>
+      <c r="H16" s="10">
+        <v>5.4201043239289497</v>
+      </c>
+      <c r="I16" s="10">
+        <v>6.2496106746781201</v>
+      </c>
+      <c r="J16" s="10">
+        <v>6.6855282194435803</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="12" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
+      <c r="B17" s="9">
+        <v>0.616478893769003</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.65467666063762697</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1.8383245536138</v>
+      </c>
+      <c r="E17" s="9">
+        <v>3.4136506324259899</v>
+      </c>
+      <c r="F17" s="9">
+        <v>4.01879908620894</v>
+      </c>
+      <c r="G17" s="9">
+        <v>4.6642855226494797</v>
+      </c>
+      <c r="H17" s="9">
+        <v>5.49023015050855</v>
+      </c>
+      <c r="I17" s="9">
+        <v>6.1643612636166898</v>
+      </c>
+      <c r="J17" s="9">
+        <v>6.9024331543366797</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="12" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="B18" s="10">
+        <v>0.61763391506038101</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.66154988027029404</v>
+      </c>
+      <c r="D18" s="10">
+        <v>2.72754269715016</v>
+      </c>
+      <c r="E18" s="10">
+        <v>3.37196467731067</v>
+      </c>
+      <c r="F18" s="10">
+        <v>4.1549769003653303</v>
+      </c>
+      <c r="G18" s="10">
+        <v>4.8588148509394102</v>
+      </c>
+      <c r="H18" s="10">
+        <v>5.5915870300876502</v>
+      </c>
+      <c r="I18" s="10">
+        <v>6.28544945815612</v>
+      </c>
+      <c r="J18" s="10">
+        <v>6.7941315272638603</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="12" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
+      <c r="B19" s="9">
+        <v>0.61652292623364202</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.65565618720965002</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2.22939277624346</v>
+      </c>
+      <c r="E19" s="9">
+        <v>3.1616965156335399</v>
+      </c>
+      <c r="F19" s="9">
+        <v>4.4236544985052602</v>
+      </c>
+      <c r="G19" s="9">
+        <v>5.0768605950572203</v>
+      </c>
+      <c r="H19" s="9">
+        <v>5.5322414109571199</v>
+      </c>
+      <c r="I19" s="9">
+        <v>6.2651742732805697</v>
+      </c>
+      <c r="J19" s="9">
+        <v>6.8560905320351901</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="B20" s="11" t="e">
+      <c r="B20" s="11">
         <f>AVERAGE(B15:B19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C20" s="11" t="e">
+        <v>0.61745182386031083</v>
+      </c>
+      <c r="C20" s="11">
         <f>AVERAGE(C15:C19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D20" s="11" t="e">
+        <v>0.65950420565700441</v>
+      </c>
+      <c r="D20" s="11">
         <f t="shared" ref="D20:J20" si="0">AVERAGE(D15:D19)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E20" s="11" t="e">
+        <v>2.3132442729763381</v>
+      </c>
+      <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F20" s="11" t="e">
+        <v>3.5240925915180119</v>
+      </c>
+      <c r="F20" s="11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G20" s="11" t="e">
+        <v>4.002934991357364</v>
+      </c>
+      <c r="G20" s="11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H20" s="11" t="e">
+        <v>4.8368122175077044</v>
+      </c>
+      <c r="H20" s="11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I20" s="11" t="e">
+        <v>5.4959486665104063</v>
+      </c>
+      <c r="I20" s="11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J20" s="11" t="e">
+        <v>6.2447329655057615</v>
+      </c>
+      <c r="J20" s="11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>6.8270118858798172</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" ht="13" thickBot="1">
+      <c r="A23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" ht="12" thickTop="1">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="8.6640625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="13" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" ht="12" thickTop="1">
+      <c r="A2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="5">
+        <v>800</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="24"/>
+      <c r="C9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="24"/>
+      <c r="C10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="13" thickBot="1">
+      <c r="A13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" ht="13" thickTop="1" thickBot="1">
+      <c r="A14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="12" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0.62002361515329496</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.662289396600237</v>
+      </c>
+      <c r="D15" s="9">
+        <v>2.2483909922016601</v>
+      </c>
+      <c r="E15" s="9">
+        <v>4.0059265579861503</v>
+      </c>
+      <c r="F15" s="9">
+        <v>3.5235072562841601</v>
+      </c>
+      <c r="G15" s="9">
+        <v>4.8577321407071397</v>
+      </c>
+      <c r="H15" s="9">
+        <v>5.3592541159690699</v>
+      </c>
+      <c r="I15" s="9">
+        <v>6.1645622011860102</v>
+      </c>
+      <c r="J15" s="9">
+        <v>6.6553388696042601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="12" thickBot="1">
+      <c r="A16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0.62155618201284901</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.65913295712833198</v>
+      </c>
+      <c r="D16" s="10">
+        <v>1.1536224714185399</v>
+      </c>
+      <c r="E16" s="10">
+        <v>3.5278130217416899</v>
+      </c>
+      <c r="F16" s="10">
+        <v>4.2669370174699202</v>
+      </c>
+      <c r="G16" s="10">
+        <v>4.8980796983074102</v>
+      </c>
+      <c r="H16" s="10">
+        <v>5.4753955958026204</v>
+      </c>
+      <c r="I16" s="10">
+        <v>6.2875615772513198</v>
+      </c>
+      <c r="J16" s="10">
+        <v>6.7549522318119903</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="12" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.62109213712048095</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.65964616378167196</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2.5951925950693999</v>
+      </c>
+      <c r="E17" s="9">
+        <v>3.10285788152922</v>
+      </c>
+      <c r="F17" s="9">
+        <v>3.9504226887096299</v>
+      </c>
+      <c r="G17" s="9">
+        <v>5.0239550091137</v>
+      </c>
+      <c r="H17" s="9">
+        <v>5.6244478739460604</v>
+      </c>
+      <c r="I17" s="9">
+        <v>6.27737361192818</v>
+      </c>
+      <c r="J17" s="9">
+        <v>6.9523943933410202</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="12" thickBot="1">
+      <c r="A18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0.61944308536344495</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.66068952010285198</v>
+      </c>
+      <c r="D18" s="10">
+        <v>2.67716900337444</v>
+      </c>
+      <c r="E18" s="10">
+        <v>3.6103568420569201</v>
+      </c>
+      <c r="F18" s="10">
+        <v>4.3237034963097702</v>
+      </c>
+      <c r="G18" s="10">
+        <v>4.7512647273475199</v>
+      </c>
+      <c r="H18" s="10">
+        <v>5.4501678952657704</v>
+      </c>
+      <c r="I18" s="10">
+        <v>5.9781455372810903</v>
+      </c>
+      <c r="J18" s="10">
+        <v>6.8505522098505196</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="12" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.613651298931431</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.65969622220947699</v>
+      </c>
+      <c r="D19" s="9">
+        <v>2.9937229644864001</v>
+      </c>
+      <c r="E19" s="9">
+        <v>3.4617294552787401</v>
+      </c>
+      <c r="F19" s="9">
+        <v>3.8168641558418699</v>
+      </c>
+      <c r="G19" s="9">
+        <v>5.1123049059667203</v>
+      </c>
+      <c r="H19" s="9">
+        <v>5.4760962075137796</v>
+      </c>
+      <c r="I19" s="9">
+        <v>6.2145120055375598</v>
+      </c>
+      <c r="J19" s="9">
+        <v>7.0390763744732796</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" s="11">
+        <f>AVERAGE(B15:B19)</f>
+        <v>0.6191532637163002</v>
+      </c>
+      <c r="C20" s="11">
+        <f>AVERAGE(C15:C19)</f>
+        <v>0.66029085196451398</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" ref="D20:J20" si="0">AVERAGE(D15:D19)</f>
+        <v>2.3336196053100879</v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" si="0"/>
+        <v>3.5417367517185441</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" si="0"/>
+        <v>3.9762869229230704</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" si="0"/>
+        <v>4.9286672962884985</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="0"/>
+        <v>5.4770723376994601</v>
+      </c>
+      <c r="I20" s="11">
+        <f t="shared" si="0"/>
+        <v>6.1844309866368317</v>
+      </c>
+      <c r="J20" s="11">
+        <f t="shared" si="0"/>
+        <v>6.8504628158162149</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" ht="13" thickBot="1">
+      <c r="A23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" ht="12" thickTop="1">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G49" sqref="G49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="8.6640625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="13" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" ht="12" thickTop="1">
+      <c r="A2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="5">
+        <v>800</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="24"/>
+      <c r="C8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="24"/>
+      <c r="C9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="24"/>
+      <c r="C10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="13" thickBot="1">
+      <c r="A13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" ht="13" thickTop="1" thickBot="1">
+      <c r="A14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="12" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0.61959623506486095</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.66405061863720605</v>
+      </c>
+      <c r="D15" s="9">
+        <v>3.01452788605167</v>
+      </c>
+      <c r="E15" s="9">
+        <v>3.4831443767686898</v>
+      </c>
+      <c r="F15" s="9">
+        <v>4.1030653255512402</v>
+      </c>
+      <c r="G15" s="9">
+        <v>4.8258765102472898</v>
+      </c>
+      <c r="H15" s="9">
+        <v>5.4183430672878501</v>
+      </c>
+      <c r="I15" s="9">
+        <v>6.1729303625711998</v>
+      </c>
+      <c r="J15" s="9">
+        <v>6.8569107477479996</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="12" thickBot="1">
+      <c r="A16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0.61895881390722296</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.66686417826211997</v>
+      </c>
+      <c r="D16" s="10">
+        <v>2.7530410354087298</v>
+      </c>
+      <c r="E16" s="10">
+        <v>3.6477216661115901</v>
+      </c>
+      <c r="F16" s="10">
+        <v>4.3107534056737604</v>
+      </c>
+      <c r="G16" s="10">
+        <v>5.0233186213791203</v>
+      </c>
+      <c r="H16" s="10">
+        <v>5.5538901655734803</v>
+      </c>
+      <c r="I16" s="10">
+        <v>6.1129435042874301</v>
+      </c>
+      <c r="J16" s="10">
+        <v>6.7610158587790101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="12" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.61735133704067102</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.65809158857677696</v>
+      </c>
+      <c r="D17" s="9">
+        <v>1.99063672693537</v>
+      </c>
+      <c r="E17" s="9">
+        <v>3.49530278850201</v>
+      </c>
+      <c r="F17" s="9">
+        <v>4.0950601538952096</v>
+      </c>
+      <c r="G17" s="9">
+        <v>4.8044678104111398</v>
+      </c>
+      <c r="H17" s="9">
+        <v>5.2882976129994601</v>
+      </c>
+      <c r="I17" s="9">
+        <v>6.3684764544370598</v>
+      </c>
+      <c r="J17" s="9">
+        <v>6.7662670876523796</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="12" thickBot="1">
+      <c r="A18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0.61877686956688305</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.66074293909069504</v>
+      </c>
+      <c r="D18" s="10">
+        <v>2.6218370401712701</v>
+      </c>
+      <c r="E18" s="10">
+        <v>4.06003919373416</v>
+      </c>
+      <c r="F18" s="10">
+        <v>3.2517103512354302</v>
+      </c>
+      <c r="G18" s="10">
+        <v>4.7486908846323601</v>
+      </c>
+      <c r="H18" s="10">
+        <v>5.3965719281343398</v>
+      </c>
+      <c r="I18" s="10">
+        <v>6.1635841392441897</v>
+      </c>
+      <c r="J18" s="10">
+        <v>6.6428315963850899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="12" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.61487646004893504</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.66116849596693605</v>
+      </c>
+      <c r="D19" s="9">
+        <v>3.4956877942267002</v>
+      </c>
+      <c r="E19" s="9">
+        <v>2.9606202805374999</v>
+      </c>
+      <c r="F19" s="9">
+        <v>4.5191289719740704</v>
+      </c>
+      <c r="G19" s="9">
+        <v>4.98721495618351</v>
+      </c>
+      <c r="H19" s="9">
+        <v>5.7036946510497604</v>
+      </c>
+      <c r="I19" s="9">
+        <v>6.1828954340008204</v>
+      </c>
+      <c r="J19" s="9">
+        <v>6.71506095555445</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" s="11">
+        <f>AVERAGE(B15:B19)</f>
+        <v>0.61791194312571462</v>
+      </c>
+      <c r="C20" s="11">
+        <f>AVERAGE(C15:C19)</f>
+        <v>0.66218356410674672</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" ref="D20:J20" si="0">AVERAGE(D15:D19)</f>
+        <v>2.7751460965587484</v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" si="0"/>
+        <v>3.5293656611307904</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" si="0"/>
+        <v>4.0559436416659418</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" si="0"/>
+        <v>4.8779137565706838</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="0"/>
+        <v>5.4721594850089783</v>
+      </c>
+      <c r="I20" s="11">
+        <f t="shared" si="0"/>
+        <v>6.2001659789081396</v>
+      </c>
+      <c r="J20" s="11">
+        <f t="shared" si="0"/>
+        <v>6.7484172492237864</v>
       </c>
     </row>
     <row r="21" spans="1:10">

--- a/model_cv_log.xlsx
+++ b/model_cv_log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="32660" yWindow="0" windowWidth="36020" windowHeight="27180" tabRatio="838" activeTab="11"/>
+    <workbookView xWindow="32700" yWindow="0" windowWidth="36020" windowHeight="27180" tabRatio="838" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="cv_score_4_mc" sheetId="10" r:id="rId10"/>
     <sheet name="cv_score_5_mc" sheetId="11" r:id="rId11"/>
     <sheet name="cv_score_6_mc" sheetId="12" r:id="rId12"/>
+    <sheet name="optimal_cutoff" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="88">
   <si>
     <t>rsme+kappa</t>
   </si>
@@ -291,6 +292,9 @@
   </si>
   <si>
     <t>custom_var_1-13</t>
+  </si>
+  <si>
+    <t>Cutoff Optimising</t>
   </si>
 </sst>
 </file>
@@ -300,7 +304,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -390,6 +394,12 @@
       <color theme="1"/>
       <name val="Lucida Sans"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Lucida Sans"/>
     </font>
   </fonts>
   <fills count="7">
@@ -651,7 +661,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -702,8 +712,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -749,6 +793,8 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="21" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -774,7 +820,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="84">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -799,6 +845,23 @@
     <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="83" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -823,6 +886,23 @@
     <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="82" builtinId="8" hidden="1"/>
     <cellStyle name="Linked Cell" xfId="21" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -939,11 +1019,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2129259400"/>
-        <c:axId val="-2129256376"/>
+        <c:axId val="2113242760"/>
+        <c:axId val="2113237256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2129259400"/>
+        <c:axId val="2113242760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -953,12 +1033,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129256376"/>
+        <c:crossAx val="2113237256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2129256376"/>
+        <c:axId val="2113237256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -968,7 +1048,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129259400"/>
+        <c:crossAx val="2113242760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1053,6 +1133,21 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.609596408355674</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.618172307974431</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.618812845968319</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.621657656862442</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.620247264795767</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1062,6 +1157,21 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.648510322513667</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.658645797741114</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.661980544538332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66555328303503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.662364482878694</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1075,11 +1185,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2108302728"/>
-        <c:axId val="-2108299768"/>
+        <c:axId val="2125895000"/>
+        <c:axId val="2125897880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2108302728"/>
+        <c:axId val="2125895000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,12 +1199,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2108299768"/>
+        <c:crossAx val="2125897880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2108299768"/>
+        <c:axId val="2125897880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1104,7 +1214,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2108302728"/>
+        <c:crossAx val="2125895000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1241,11 +1351,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2089002088"/>
-        <c:axId val="2088999224"/>
+        <c:axId val="2079568184"/>
+        <c:axId val="2118102280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2089002088"/>
+        <c:axId val="2079568184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1255,12 +1365,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088999224"/>
+        <c:crossAx val="2118102280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2088999224"/>
+        <c:axId val="2118102280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1270,7 +1380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2089002088"/>
+        <c:crossAx val="2079568184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1407,11 +1517,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2088960744"/>
-        <c:axId val="2088957880"/>
+        <c:axId val="2107321384"/>
+        <c:axId val="2107324152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2088960744"/>
+        <c:axId val="2107321384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1421,12 +1531,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088957880"/>
+        <c:crossAx val="2107324152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2088957880"/>
+        <c:axId val="2107324152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,7 +1546,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088960744"/>
+        <c:crossAx val="2107321384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1573,11 +1683,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2088918952"/>
-        <c:axId val="2088916088"/>
+        <c:axId val="2107089224"/>
+        <c:axId val="2113234920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2088918952"/>
+        <c:axId val="2107089224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1587,12 +1697,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088916088"/>
+        <c:crossAx val="2113234920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2088916088"/>
+        <c:axId val="2113234920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1602,7 +1712,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088918952"/>
+        <c:crossAx val="2107089224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1739,11 +1849,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2119096840"/>
-        <c:axId val="-2119099704"/>
+        <c:axId val="2119853080"/>
+        <c:axId val="2119662584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2119096840"/>
+        <c:axId val="2119853080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1753,12 +1863,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119099704"/>
+        <c:crossAx val="2119662584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2119099704"/>
+        <c:axId val="2119662584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1768,7 +1878,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119096840"/>
+        <c:crossAx val="2119853080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1905,11 +2015,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2111357416"/>
-        <c:axId val="-2111372856"/>
+        <c:axId val="2119350984"/>
+        <c:axId val="2125727176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2111357416"/>
+        <c:axId val="2119350984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1919,12 +2029,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111372856"/>
+        <c:crossAx val="2125727176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2111372856"/>
+        <c:axId val="2125727176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1934,7 +2044,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111357416"/>
+        <c:crossAx val="2119350984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2071,11 +2181,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2113169000"/>
-        <c:axId val="-2118233384"/>
+        <c:axId val="2125757832"/>
+        <c:axId val="2125791848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2113169000"/>
+        <c:axId val="2125757832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2085,12 +2195,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118233384"/>
+        <c:crossAx val="2125791848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2118233384"/>
+        <c:axId val="2125791848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2100,7 +2210,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113169000"/>
+        <c:crossAx val="2125757832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2237,11 +2347,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2127588440"/>
-        <c:axId val="-2122498952"/>
+        <c:axId val="2119326840"/>
+        <c:axId val="2119184904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2127588440"/>
+        <c:axId val="2119326840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2251,12 +2361,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122498952"/>
+        <c:crossAx val="2119184904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2122498952"/>
+        <c:axId val="2119184904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2266,7 +2376,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127588440"/>
+        <c:crossAx val="2119326840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2403,11 +2513,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2112770136"/>
-        <c:axId val="-2112767176"/>
+        <c:axId val="2125848104"/>
+        <c:axId val="2125850984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2112770136"/>
+        <c:axId val="2125848104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2417,12 +2527,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112767176"/>
+        <c:crossAx val="2125850984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2112767176"/>
+        <c:axId val="2125850984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2432,7 +2542,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112770136"/>
+        <c:crossAx val="2125848104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3380,7 +3490,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F3" sqref="F2:F3"/>
+      <selection activeCell="A13" sqref="A13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -3813,7 +3923,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+      <selection activeCell="B18" activeCellId="1" sqref="B16:J16 B18:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -4237,12 +4347,12 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="9" tint="-0.249977111117893"/>
+    <tabColor rgb="FFFF6600"/>
   </sheetPr>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -4428,108 +4538,198 @@
       <c r="A16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
+      <c r="B16" s="9">
+        <v>0.60959640835567397</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.64851032251366703</v>
+      </c>
+      <c r="D16" s="9">
+        <v>1.2943712651126</v>
+      </c>
+      <c r="E16" s="9">
+        <v>3.5137458587669701</v>
+      </c>
+      <c r="F16" s="9">
+        <v>4.0954505465039102</v>
+      </c>
+      <c r="G16" s="9">
+        <v>4.8552574376048403</v>
+      </c>
+      <c r="H16" s="9">
+        <v>5.4759159397670096</v>
+      </c>
+      <c r="I16" s="9">
+        <v>6.2945795292947002</v>
+      </c>
+      <c r="J16" s="9">
+        <v>6.8196132047847904</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="12" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="B17" s="10">
+        <v>0.61817230797443101</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.65864579774111398</v>
+      </c>
+      <c r="D17" s="10">
+        <v>1.56643048892255</v>
+      </c>
+      <c r="E17" s="10">
+        <v>3.3562880892307301</v>
+      </c>
+      <c r="F17" s="10">
+        <v>4.1210368506779602</v>
+      </c>
+      <c r="G17" s="10">
+        <v>4.7013795980102904</v>
+      </c>
+      <c r="H17" s="10">
+        <v>5.4384313562446396</v>
+      </c>
+      <c r="I17" s="10">
+        <v>6.2893149965622897</v>
+      </c>
+      <c r="J17" s="10">
+        <v>6.8440970909699201</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="12" thickBot="1">
       <c r="A18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
+      <c r="B18" s="9">
+        <v>0.61881284596831898</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.66198054453833199</v>
+      </c>
+      <c r="D18" s="9">
+        <v>2.15392306676969</v>
+      </c>
+      <c r="E18" s="9">
+        <v>4.1489266116733097</v>
+      </c>
+      <c r="F18" s="9">
+        <v>3.48423691323383</v>
+      </c>
+      <c r="G18" s="9">
+        <v>4.8342425224635903</v>
+      </c>
+      <c r="H18" s="9">
+        <v>5.38819360002634</v>
+      </c>
+      <c r="I18" s="9">
+        <v>6.1310647254822896</v>
+      </c>
+      <c r="J18" s="9">
+        <v>6.7693038649915698</v>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="12" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
+      <c r="B19" s="10">
+        <v>0.62165765686244201</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.66555328303503003</v>
+      </c>
+      <c r="D19" s="10">
+        <v>2.5671244489184701</v>
+      </c>
+      <c r="E19" s="10">
+        <v>3.45879508966437</v>
+      </c>
+      <c r="F19" s="10">
+        <v>3.8820841842942801</v>
+      </c>
+      <c r="G19" s="10">
+        <v>5.0254088449911398</v>
+      </c>
+      <c r="H19" s="10">
+        <v>5.5961408398560604</v>
+      </c>
+      <c r="I19" s="10">
+        <v>6.16195023887619</v>
+      </c>
+      <c r="J19" s="10">
+        <v>6.9017922459699301</v>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="12" thickBot="1">
       <c r="A20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
+      <c r="B20" s="9">
+        <v>0.62024726479576697</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.66236448287869398</v>
+      </c>
+      <c r="D20" s="9">
+        <v>2.7280039108349099</v>
+      </c>
+      <c r="E20" s="9">
+        <v>3.2991507686825599</v>
+      </c>
+      <c r="F20" s="9">
+        <v>4.0836930629430004</v>
+      </c>
+      <c r="G20" s="9">
+        <v>4.8114948575207404</v>
+      </c>
+      <c r="H20" s="9">
+        <v>5.5920631589143603</v>
+      </c>
+      <c r="I20" s="9">
+        <v>6.1749704664397402</v>
+      </c>
+      <c r="J20" s="9">
+        <v>6.9738321106974004</v>
+      </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="B21" s="11" t="e">
+      <c r="B21" s="11">
         <f>AVERAGE(B16:B20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C21" s="11" t="e">
+        <v>0.61769729679132657</v>
+      </c>
+      <c r="C21" s="11">
         <f>AVERAGE(C16:C20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D21" s="11" t="e">
+        <v>0.65941088614136745</v>
+      </c>
+      <c r="D21" s="11">
         <f t="shared" ref="D21:J21" si="0">AVERAGE(D16:D20)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E21" s="11" t="e">
+        <v>2.0619706361116443</v>
+      </c>
+      <c r="E21" s="11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F21" s="11" t="e">
+        <v>3.5553812836035883</v>
+      </c>
+      <c r="F21" s="11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G21" s="11" t="e">
+        <v>3.9333003115305964</v>
+      </c>
+      <c r="G21" s="11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H21" s="11" t="e">
+        <v>4.8455566521181197</v>
+      </c>
+      <c r="H21" s="11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I21" s="11" t="e">
+        <v>5.498148978961682</v>
+      </c>
+      <c r="I21" s="11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J21" s="11" t="e">
+        <v>6.210375991331043</v>
+      </c>
+      <c r="J21" s="11">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>6.8617277034827229</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -4568,6 +4768,508 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="11" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="12" thickBot="1">
+      <c r="A1" s="25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+    </row>
+    <row r="2" spans="1:9" ht="13" thickTop="1" thickBot="1">
+      <c r="A2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12" thickBot="1">
+      <c r="A3" s="9">
+        <v>0.619497793066761</v>
+      </c>
+      <c r="B3" s="9">
+        <v>0.665445992805064</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2.8163140517590701</v>
+      </c>
+      <c r="D3" s="9">
+        <v>3.5408119394078001</v>
+      </c>
+      <c r="E3" s="9">
+        <v>4.0862827165023603</v>
+      </c>
+      <c r="F3" s="9">
+        <v>4.7636327803166099</v>
+      </c>
+      <c r="G3" s="9">
+        <v>5.4455804170697597</v>
+      </c>
+      <c r="H3" s="9">
+        <v>6.2590691577973097</v>
+      </c>
+      <c r="I3" s="9">
+        <v>6.8968759963197703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12" thickBot="1">
+      <c r="A4" s="10">
+        <v>0.61763391506038101</v>
+      </c>
+      <c r="B4" s="10">
+        <v>0.66154988027029404</v>
+      </c>
+      <c r="C4" s="10">
+        <v>2.72754269715016</v>
+      </c>
+      <c r="D4" s="10">
+        <v>3.37196467731067</v>
+      </c>
+      <c r="E4" s="10">
+        <v>4.1549769003653303</v>
+      </c>
+      <c r="F4" s="10">
+        <v>4.8588148509394102</v>
+      </c>
+      <c r="G4" s="10">
+        <v>5.5915870300876502</v>
+      </c>
+      <c r="H4" s="10">
+        <v>6.28544945815612</v>
+      </c>
+      <c r="I4" s="10">
+        <v>6.7941315272638603</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12" thickBot="1">
+      <c r="A5" s="9">
+        <v>0.62002361515329496</v>
+      </c>
+      <c r="B5" s="9">
+        <v>0.662289396600237</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2.2483909922016601</v>
+      </c>
+      <c r="D5" s="9">
+        <v>4.0059265579861503</v>
+      </c>
+      <c r="E5" s="9">
+        <v>3.5235072562841601</v>
+      </c>
+      <c r="F5" s="9">
+        <v>4.8577321407071397</v>
+      </c>
+      <c r="G5" s="9">
+        <v>5.3592541159690699</v>
+      </c>
+      <c r="H5" s="9">
+        <v>6.1645622011860102</v>
+      </c>
+      <c r="I5" s="9">
+        <v>6.6553388696042601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="12" thickBot="1">
+      <c r="A6" s="10">
+        <v>0.61944308536344495</v>
+      </c>
+      <c r="B6" s="10">
+        <v>0.66068952010285198</v>
+      </c>
+      <c r="C6" s="10">
+        <v>2.67716900337444</v>
+      </c>
+      <c r="D6" s="10">
+        <v>3.6103568420569201</v>
+      </c>
+      <c r="E6" s="10">
+        <v>4.3237034963097702</v>
+      </c>
+      <c r="F6" s="10">
+        <v>4.7512647273475199</v>
+      </c>
+      <c r="G6" s="10">
+        <v>5.4501678952657704</v>
+      </c>
+      <c r="H6" s="10">
+        <v>5.9781455372810903</v>
+      </c>
+      <c r="I6" s="10">
+        <v>6.8505522098505196</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="12" thickBot="1">
+      <c r="A7" s="9">
+        <v>0.61959623506486095</v>
+      </c>
+      <c r="B7" s="9">
+        <v>0.66405061863720605</v>
+      </c>
+      <c r="C7" s="9">
+        <v>3.01452788605167</v>
+      </c>
+      <c r="D7" s="9">
+        <v>3.4831443767686898</v>
+      </c>
+      <c r="E7" s="9">
+        <v>4.1030653255512402</v>
+      </c>
+      <c r="F7" s="9">
+        <v>4.8258765102472898</v>
+      </c>
+      <c r="G7" s="9">
+        <v>5.4183430672878501</v>
+      </c>
+      <c r="H7" s="9">
+        <v>6.1729303625711998</v>
+      </c>
+      <c r="I7" s="9">
+        <v>6.8569107477479996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="12" thickBot="1">
+      <c r="A8" s="10">
+        <v>0.61895881390722296</v>
+      </c>
+      <c r="B8" s="10">
+        <v>0.66686417826211997</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2.7530410354087298</v>
+      </c>
+      <c r="D8" s="10">
+        <v>3.6477216661115901</v>
+      </c>
+      <c r="E8" s="10">
+        <v>4.3107534056737604</v>
+      </c>
+      <c r="F8" s="10">
+        <v>5.0233186213791203</v>
+      </c>
+      <c r="G8" s="10">
+        <v>5.5538901655734803</v>
+      </c>
+      <c r="H8" s="10">
+        <v>6.1129435042874301</v>
+      </c>
+      <c r="I8" s="10">
+        <v>6.7610158587790101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="12" thickBot="1">
+      <c r="A9" s="10">
+        <v>0.61877686956688305</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0.66074293909069504</v>
+      </c>
+      <c r="C9" s="10">
+        <v>2.6218370401712701</v>
+      </c>
+      <c r="D9" s="10">
+        <v>4.06003919373416</v>
+      </c>
+      <c r="E9" s="10">
+        <v>3.2517103512354302</v>
+      </c>
+      <c r="F9" s="10">
+        <v>4.7486908846323601</v>
+      </c>
+      <c r="G9" s="10">
+        <v>5.3965719281343398</v>
+      </c>
+      <c r="H9" s="10">
+        <v>6.1635841392441897</v>
+      </c>
+      <c r="I9" s="10">
+        <v>6.6428315963850899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="12" thickBot="1">
+      <c r="A10" s="9">
+        <v>0.61487646004893504</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0.66116849596693605</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3.4956877942267002</v>
+      </c>
+      <c r="D10" s="9">
+        <v>2.9606202805374999</v>
+      </c>
+      <c r="E10" s="9">
+        <v>4.5191289719740704</v>
+      </c>
+      <c r="F10" s="9">
+        <v>4.98721495618351</v>
+      </c>
+      <c r="G10" s="9">
+        <v>5.7036946510497604</v>
+      </c>
+      <c r="H10" s="9">
+        <v>6.1828954340008204</v>
+      </c>
+      <c r="I10" s="9">
+        <v>6.71506095555445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="12" thickBot="1">
+      <c r="A11" s="9">
+        <v>0.62011793099828605</v>
+      </c>
+      <c r="B11" s="9">
+        <v>0.66352727705092596</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2.7008929226863798</v>
+      </c>
+      <c r="D11" s="9">
+        <v>3.5222533432780598</v>
+      </c>
+      <c r="E11" s="9">
+        <v>3.9786591965464599</v>
+      </c>
+      <c r="F11" s="9">
+        <v>4.7909817381822704</v>
+      </c>
+      <c r="G11" s="9">
+        <v>5.4303343420112498</v>
+      </c>
+      <c r="H11" s="9">
+        <v>6.4481661651364801</v>
+      </c>
+      <c r="I11" s="9">
+        <v>6.7539945646642003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="12" thickBot="1">
+      <c r="A12" s="10">
+        <v>0.61960418574089204</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.66694575363836295</v>
+      </c>
+      <c r="C12" s="10">
+        <v>2.76429672772188</v>
+      </c>
+      <c r="D12" s="10">
+        <v>3.44317722130537</v>
+      </c>
+      <c r="E12" s="10">
+        <v>4.1672979726159003</v>
+      </c>
+      <c r="F12" s="10">
+        <v>4.8952252682620401</v>
+      </c>
+      <c r="G12" s="10">
+        <v>5.3310670486578902</v>
+      </c>
+      <c r="H12" s="10">
+        <v>6.2148213475829799</v>
+      </c>
+      <c r="I12" s="10">
+        <v>6.9388974406861301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="12" thickBot="1">
+      <c r="A13" s="9">
+        <v>0.61793578561981599</v>
+      </c>
+      <c r="B13" s="9">
+        <v>0.66228545107064596</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2.4567874444901698</v>
+      </c>
+      <c r="D13" s="9">
+        <v>3.5921730621100001</v>
+      </c>
+      <c r="E13" s="9">
+        <v>4.3036091215537402</v>
+      </c>
+      <c r="F13" s="9">
+        <v>4.7970827344943201</v>
+      </c>
+      <c r="G13" s="9">
+        <v>5.4660446435385301</v>
+      </c>
+      <c r="H13" s="9">
+        <v>6.2263504158113996</v>
+      </c>
+      <c r="I13" s="9">
+        <v>6.9061879219392601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="12" thickBot="1">
+      <c r="A14" s="10">
+        <v>0.61823316463121003</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.66233271497617896</v>
+      </c>
+      <c r="C14" s="10">
+        <v>2.2585978017374702</v>
+      </c>
+      <c r="D14" s="10">
+        <v>3.5057039639113601</v>
+      </c>
+      <c r="E14" s="10">
+        <v>4.0815831403204603</v>
+      </c>
+      <c r="F14" s="10">
+        <v>4.90665682319311</v>
+      </c>
+      <c r="G14" s="10">
+        <v>5.4422109949112496</v>
+      </c>
+      <c r="H14" s="10">
+        <v>6.1791852739352704</v>
+      </c>
+      <c r="I14" s="10">
+        <v>6.6469834027188801</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="12" thickBot="1">
+      <c r="A15" s="10">
+        <v>0.61876512294090502</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.66168767560576902</v>
+      </c>
+      <c r="C15" s="10">
+        <v>2.56421671707507</v>
+      </c>
+      <c r="D15" s="10">
+        <v>3.3778076264516002</v>
+      </c>
+      <c r="E15" s="10">
+        <v>4.1556832758477098</v>
+      </c>
+      <c r="F15" s="10">
+        <v>4.6150188397256802</v>
+      </c>
+      <c r="G15" s="10">
+        <v>5.4367873931973003</v>
+      </c>
+      <c r="H15" s="10">
+        <v>6.47103154684073</v>
+      </c>
+      <c r="I15" s="10">
+        <v>6.7265596154556899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="12" thickBot="1">
+      <c r="A16" s="9">
+        <v>0.613936560978388</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0.66053467311799097</v>
+      </c>
+      <c r="C16" s="9">
+        <v>3.0014713807212701</v>
+      </c>
+      <c r="D16" s="9">
+        <v>3.8353339797674799</v>
+      </c>
+      <c r="E16" s="9">
+        <v>3.6480764639080898</v>
+      </c>
+      <c r="F16" s="9">
+        <v>5.14241308491194</v>
+      </c>
+      <c r="G16" s="9">
+        <v>5.4230073361216196</v>
+      </c>
+      <c r="H16" s="9">
+        <v>6.1497453930441699</v>
+      </c>
+      <c r="I16" s="9">
+        <v>6.9122246915866397</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="C17" s="26">
+        <f>AVERAGE(C3:C16)</f>
+        <v>2.7214838210554246</v>
+      </c>
+      <c r="D17" s="26">
+        <f t="shared" ref="D17:I17" si="0">AVERAGE(D3:D16)</f>
+        <v>3.5683596236240964</v>
+      </c>
+      <c r="E17" s="26">
+        <f t="shared" si="0"/>
+        <v>4.0434312567634629</v>
+      </c>
+      <c r="F17" s="26">
+        <f t="shared" si="0"/>
+        <v>4.8545659971801651</v>
+      </c>
+      <c r="G17" s="26">
+        <f t="shared" si="0"/>
+        <v>5.4606100734911092</v>
+      </c>
+      <c r="H17" s="26">
+        <f t="shared" si="0"/>
+        <v>6.2149199954910861</v>
+      </c>
+      <c r="I17" s="26">
+        <f t="shared" si="0"/>
+        <v>6.7898260998968398</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4601,14 +5303,14 @@
       <c r="B1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
-    </row>
-    <row r="2" spans="1:5" ht="15">
-      <c r="A2" s="28" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="29"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="30" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -4624,8 +5326,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15">
-      <c r="A3" s="29"/>
+    <row r="3" spans="1:5">
+      <c r="A3" s="31"/>
       <c r="B3" s="16" t="s">
         <v>24</v>
       </c>
@@ -4639,8 +5341,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="15">
-      <c r="A4" s="29"/>
+    <row r="4" spans="1:5">
+      <c r="A4" s="31"/>
       <c r="B4" s="16" t="s">
         <v>25</v>
       </c>
@@ -4654,8 +5356,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15">
-      <c r="A5" s="29"/>
+    <row r="5" spans="1:5">
+      <c r="A5" s="31"/>
       <c r="B5" s="16" t="s">
         <v>26</v>
       </c>
@@ -4669,8 +5371,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="29"/>
+    <row r="6" spans="1:5">
+      <c r="A6" s="31"/>
       <c r="B6" s="16" t="s">
         <v>27</v>
       </c>
@@ -4684,8 +5386,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="15">
-      <c r="A7" s="29"/>
+    <row r="7" spans="1:5">
+      <c r="A7" s="31"/>
       <c r="B7" s="16" t="s">
         <v>28</v>
       </c>
@@ -4699,8 +5401,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="15">
-      <c r="A8" s="30"/>
+    <row r="8" spans="1:5">
+      <c r="A8" s="32"/>
       <c r="B8" s="16" t="s">
         <v>29</v>
       </c>
@@ -4745,8 +5447,8 @@
       <c r="E14" s="17"/>
     </row>
     <row r="15" spans="1:5" ht="5" customHeight="1"/>
-    <row r="16" spans="1:5" ht="15">
-      <c r="A16" s="31" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="33" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -4761,7 +5463,7 @@
       <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A17" s="32"/>
+      <c r="A17" s="34"/>
       <c r="B17" s="21" t="s">
         <v>37</v>
       </c>
@@ -6507,7 +7209,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="B18" activeCellId="1" sqref="B15:J15 B18:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -6940,7 +7642,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="B14" sqref="B14:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -7369,7 +8071,7 @@
   <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+      <selection activeCell="B18" activeCellId="1" sqref="B15:J16 B18:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>

--- a/model_cv_log.xlsx
+++ b/model_cv_log.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="32700" yWindow="60" windowWidth="36015" windowHeight="16380" tabRatio="838" firstSheet="1" activeTab="18"/>
+    <workbookView xWindow="33440" yWindow="2040" windowWidth="36020" windowHeight="22760" tabRatio="838" firstSheet="1" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -973,7 +973,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1025,16 +1025,16 @@
                   <c:v>0.61901751459276</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61931506464039898</c:v>
+                  <c:v>0.619315064640399</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.618065115489004</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61945466853967701</c:v>
+                  <c:v>0.619454668539677</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61174478394752696</c:v>
+                  <c:v>0.611744783947527</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1049,16 +1049,16 @@
                   <c:v>0.663622086680284</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66724040819910402</c:v>
+                  <c:v>0.667240408199104</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65658122035271604</c:v>
+                  <c:v>0.656581220352716</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66363376459410495</c:v>
+                  <c:v>0.663633764594105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65430944980911199</c:v>
+                  <c:v>0.654309449809112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1073,11 +1073,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="95657984"/>
-        <c:axId val="95659520"/>
+        <c:axId val="2115496392"/>
+        <c:axId val="2115513912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="95657984"/>
+        <c:axId val="2115496392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1087,12 +1087,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95659520"/>
+        <c:crossAx val="2115513912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="95659520"/>
+        <c:axId val="2115513912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1102,7 +1102,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95657984"/>
+        <c:crossAx val="2115496392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1139,7 +1139,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1188,19 +1188,19 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.60959640835567397</c:v>
+                  <c:v>0.609596408355674</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61817230797443101</c:v>
+                  <c:v>0.618172307974431</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61881284596831898</c:v>
+                  <c:v>0.618812845968319</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.62165765686244201</c:v>
+                  <c:v>0.621657656862442</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.62024726479576697</c:v>
+                  <c:v>0.620247264795767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1212,19 +1212,19 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.64851032251366703</c:v>
+                  <c:v>0.648510322513667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65864579774111398</c:v>
+                  <c:v>0.658645797741114</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66198054453833199</c:v>
+                  <c:v>0.661980544538332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66555328303503003</c:v>
+                  <c:v>0.66555328303503</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66236448287869398</c:v>
+                  <c:v>0.662364482878694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1239,11 +1239,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112440832"/>
-        <c:axId val="112442368"/>
+        <c:axId val="2115801976"/>
+        <c:axId val="2115804856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112440832"/>
+        <c:axId val="2115801976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1253,12 +1253,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112442368"/>
+        <c:crossAx val="2115804856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112442368"/>
+        <c:axId val="2115804856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,7 +1268,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112440832"/>
+        <c:crossAx val="2115801976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1305,7 +1305,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1354,34 +1354,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.61292261193754705</c:v>
+                  <c:v>0.612922611937547</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62875572870102603</c:v>
+                  <c:v>0.628755728701026</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63282607528101098</c:v>
+                  <c:v>0.632826075281011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61542897912573302</c:v>
+                  <c:v>0.615428979125733</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61245747410757001</c:v>
+                  <c:v>0.61245747410757</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.62591947466061904</c:v>
+                  <c:v>0.625919474660619</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60801748914141496</c:v>
+                  <c:v>0.608017489141415</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.59413918968514101</c:v>
+                  <c:v>0.594139189685141</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61386609536388004</c:v>
+                  <c:v>0.61386609536388</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.62999315833369995</c:v>
+                  <c:v>0.6299931583337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1393,34 +1393,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.65863712574458499</c:v>
+                  <c:v>0.658637125744585</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66834460793614403</c:v>
+                  <c:v>0.668344607936144</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.67915494509166696</c:v>
+                  <c:v>0.679154945091667</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66386188090906495</c:v>
+                  <c:v>0.663861880909065</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65243585853569197</c:v>
+                  <c:v>0.652435858535692</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66928171313160301</c:v>
+                  <c:v>0.669281713131603</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.64677452261832502</c:v>
+                  <c:v>0.646774522618325</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.645045760285343</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.66000740001077995</c:v>
+                  <c:v>0.66000740001078</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.67686984140461204</c:v>
+                  <c:v>0.676869841404612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1435,11 +1435,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112496000"/>
-        <c:axId val="112510080"/>
+        <c:axId val="2114814856"/>
+        <c:axId val="2114817736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112496000"/>
+        <c:axId val="2114814856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1449,12 +1449,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112510080"/>
+        <c:crossAx val="2114817736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112510080"/>
+        <c:axId val="2114817736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1464,7 +1464,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112496000"/>
+        <c:crossAx val="2114814856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1501,7 +1501,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1550,34 +1550,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.61292261193754705</c:v>
+                  <c:v>0.612922611937547</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62875572870102603</c:v>
+                  <c:v>0.628755728701026</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63282607528101098</c:v>
+                  <c:v>0.632826075281011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61542897912573302</c:v>
+                  <c:v>0.615428979125733</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61245747410757001</c:v>
+                  <c:v>0.61245747410757</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.62591947466061904</c:v>
+                  <c:v>0.625919474660619</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60801748914141496</c:v>
+                  <c:v>0.608017489141415</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.59413918968514101</c:v>
+                  <c:v>0.594139189685141</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61386609536388004</c:v>
+                  <c:v>0.61386609536388</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.62999315833369995</c:v>
+                  <c:v>0.6299931583337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1592,28 +1592,28 @@
                   <c:v>0.65756876714182</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67041571273533096</c:v>
+                  <c:v>0.670415712735331</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.67690409037431998</c:v>
+                  <c:v>0.67690409037432</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65916593784772204</c:v>
+                  <c:v>0.659165937847722</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65559786527597097</c:v>
+                  <c:v>0.655597865275971</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66861571810995002</c:v>
+                  <c:v>0.66861571810995</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.65051948081722</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.64027169758270097</c:v>
+                  <c:v>0.640271697582701</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.65896023576762497</c:v>
+                  <c:v>0.658960235767625</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.676008965923936</c:v>
@@ -1631,11 +1631,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112551040"/>
-        <c:axId val="112552576"/>
+        <c:axId val="2114845464"/>
+        <c:axId val="2114848344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112551040"/>
+        <c:axId val="2114845464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1645,12 +1645,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112552576"/>
+        <c:crossAx val="2114848344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112552576"/>
+        <c:axId val="2114848344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1660,7 +1660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112551040"/>
+        <c:crossAx val="2114845464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1697,7 +1697,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1746,34 +1746,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.61143358042505203</c:v>
+                  <c:v>0.611433580425052</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.628080868255673</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63338610616118496</c:v>
+                  <c:v>0.633386106161185</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61378443719159004</c:v>
+                  <c:v>0.61378443719159</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61220435376771898</c:v>
+                  <c:v>0.612204353767719</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.62638656146763305</c:v>
+                  <c:v>0.626386561467633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60801557795254302</c:v>
+                  <c:v>0.608015577952543</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.59058534359677195</c:v>
+                  <c:v>0.590585343596772</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61705567291203101</c:v>
+                  <c:v>0.617055672912031</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.63298446431541699</c:v>
+                  <c:v>0.632984464315417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1785,34 +1785,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.65811355285617401</c:v>
+                  <c:v>0.658113552856174</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.67293952973128202</c:v>
+                  <c:v>0.672939529731282</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.67428283924575105</c:v>
+                  <c:v>0.674282839245751</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66824218486430298</c:v>
+                  <c:v>0.668242184864303</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65441811120510196</c:v>
+                  <c:v>0.654418111205102</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66764352534700999</c:v>
+                  <c:v>0.66764352534701</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.65197757434325199</c:v>
+                  <c:v>0.651977574343252</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.63845168016877596</c:v>
+                  <c:v>0.638451680168776</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.66108573934676895</c:v>
+                  <c:v>0.661085739346769</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.68228206543647796</c:v>
+                  <c:v>0.682282065436478</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1827,11 +1827,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112700416"/>
-        <c:axId val="112706304"/>
+        <c:axId val="2114889384"/>
+        <c:axId val="2114892264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112700416"/>
+        <c:axId val="2114889384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1841,12 +1841,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112706304"/>
+        <c:crossAx val="2114892264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112706304"/>
+        <c:axId val="2114892264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1856,7 +1856,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112700416"/>
+        <c:crossAx val="2114889384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1893,7 +1893,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1942,34 +1942,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.61143358042505203</c:v>
+                  <c:v>0.611433580425052</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.628080868255673</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63338610616118496</c:v>
+                  <c:v>0.633386106161185</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61378443719159004</c:v>
+                  <c:v>0.61378443719159</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61220435376771898</c:v>
+                  <c:v>0.612204353767719</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.62638656146763305</c:v>
+                  <c:v>0.626386561467633</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60801557795254302</c:v>
+                  <c:v>0.608015577952543</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.59058534359677195</c:v>
+                  <c:v>0.590585343596772</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61705567291203101</c:v>
+                  <c:v>0.617055672912031</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.63298446431541699</c:v>
+                  <c:v>0.632984464315417</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1981,34 +1981,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.65591224871988796</c:v>
+                  <c:v>0.655912248719888</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66976488065662099</c:v>
+                  <c:v>0.669764880656621</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.67812819855518502</c:v>
+                  <c:v>0.678128198555185</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66477718606421199</c:v>
+                  <c:v>0.664777186064212</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65274575167215698</c:v>
+                  <c:v>0.652745751672157</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66721096276194303</c:v>
+                  <c:v>0.667210962761943</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.64895312372803804</c:v>
+                  <c:v>0.648953123728038</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.64140016958187596</c:v>
+                  <c:v>0.641400169581876</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.65915714830774896</c:v>
+                  <c:v>0.659157148307749</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.67639870076707698</c:v>
+                  <c:v>0.676398700767077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2023,11 +2023,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112739072"/>
-        <c:axId val="112740608"/>
+        <c:axId val="2114919944"/>
+        <c:axId val="2114922824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112739072"/>
+        <c:axId val="2114919944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2037,12 +2037,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112740608"/>
+        <c:crossAx val="2114922824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112740608"/>
+        <c:axId val="2114922824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2052,7 +2052,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112739072"/>
+        <c:crossAx val="2114919944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2089,7 +2089,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2138,25 +2138,25 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.62909460476023504</c:v>
+                  <c:v>0.629094604760235</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.619178433605306</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61418965786352397</c:v>
+                  <c:v>0.614189657863524</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61000131356916998</c:v>
+                  <c:v>0.61000131356917</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61500071488220298</c:v>
+                  <c:v>0.615000714882203</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61308186273569498</c:v>
+                  <c:v>0.613081862735695</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.62674039169738305</c:v>
+                  <c:v>0.626740391697383</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.622662085880898</c:v>
@@ -2165,7 +2165,7 @@
                   <c:v>0.625136311830089</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.62175271684948297</c:v>
+                  <c:v>0.621752716849483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2177,34 +2177,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.67079374675598402</c:v>
+                  <c:v>0.670793746755984</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66353802511948101</c:v>
+                  <c:v>0.663538025119481</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65939456137919805</c:v>
+                  <c:v>0.659394561379198</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65477607148905703</c:v>
+                  <c:v>0.654776071489057</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66035654413544598</c:v>
+                  <c:v>0.660356544135446</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65373586404126205</c:v>
+                  <c:v>0.653735864041262</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.67179208016732095</c:v>
+                  <c:v>0.671792080167321</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.66487250147716703</c:v>
+                  <c:v>0.664872501477167</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.66660211077375198</c:v>
+                  <c:v>0.666602110773752</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.66155985175858401</c:v>
+                  <c:v>0.661559851758584</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2219,11 +2219,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112781952"/>
-        <c:axId val="100667776"/>
+        <c:axId val="2115848888"/>
+        <c:axId val="2115851768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112781952"/>
+        <c:axId val="2115848888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2233,12 +2233,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100667776"/>
+        <c:crossAx val="2115851768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100667776"/>
+        <c:axId val="2115851768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2248,7 +2248,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112781952"/>
+        <c:crossAx val="2115848888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2285,7 +2285,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2334,25 +2334,25 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.62909460476023504</c:v>
+                  <c:v>0.629094604760235</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.619178433605306</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61418965786352397</c:v>
+                  <c:v>0.614189657863524</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61000131356916998</c:v>
+                  <c:v>0.61000131356917</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61500071488220298</c:v>
+                  <c:v>0.615000714882203</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61308186273569498</c:v>
+                  <c:v>0.613081862735695</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.62674039169738305</c:v>
+                  <c:v>0.626740391697383</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.622662085880898</c:v>
@@ -2361,7 +2361,7 @@
                   <c:v>0.625136311830089</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.62175271684948297</c:v>
+                  <c:v>0.621752716849483</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2373,31 +2373,31 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.67377597235665299</c:v>
+                  <c:v>0.673775972356653</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66158144723768297</c:v>
+                  <c:v>0.661581447237683</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.658777683401775</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65619593406733601</c:v>
+                  <c:v>0.656195934067336</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65561944692735596</c:v>
+                  <c:v>0.655619446927356</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.655971986332618</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66935274382072996</c:v>
+                  <c:v>0.66935274382073</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.66127938986159296</c:v>
+                  <c:v>0.661279389861593</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.66451101373974097</c:v>
+                  <c:v>0.664511013739741</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.661703422228067</c:v>
@@ -2415,11 +2415,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="98865536"/>
-        <c:axId val="98867072"/>
+        <c:axId val="2115878520"/>
+        <c:axId val="2115881400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98865536"/>
+        <c:axId val="2115878520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2429,12 +2429,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98867072"/>
+        <c:crossAx val="2115881400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98867072"/>
+        <c:axId val="2115881400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2444,7 +2444,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98865536"/>
+        <c:crossAx val="2115878520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2481,7 +2481,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2530,34 +2530,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.62623780653449901</c:v>
+                  <c:v>0.626237806534499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62213341169407199</c:v>
+                  <c:v>0.622133411694072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61644208318481997</c:v>
+                  <c:v>0.61644208318482</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61180764506758101</c:v>
+                  <c:v>0.611807645067581</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61824041632982496</c:v>
+                  <c:v>0.618240416329825</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.611853237375238</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.62690372998850197</c:v>
+                  <c:v>0.626903729988502</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.62301447814865496</c:v>
+                  <c:v>0.623014478148655</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.62155740995920095</c:v>
+                  <c:v>0.621557409959201</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.61605246604999098</c:v>
+                  <c:v>0.616052466049991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2569,34 +2569,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.66984174072566804</c:v>
+                  <c:v>0.669841740725668</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66354089828542795</c:v>
+                  <c:v>0.663540898285428</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65957340697609002</c:v>
+                  <c:v>0.65957340697609</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65203531841374296</c:v>
+                  <c:v>0.652035318413743</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65537435565305502</c:v>
+                  <c:v>0.655374355653055</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.66134652022406604</c:v>
+                  <c:v>0.661346520224066</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.67091373763142803</c:v>
+                  <c:v>0.670913737631428</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.665248841650949</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.66906422048502101</c:v>
+                  <c:v>0.669064220485021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.66132625105545195</c:v>
+                  <c:v>0.661326251055452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2611,11 +2611,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="101161216"/>
-        <c:axId val="112230400"/>
+        <c:axId val="2115921848"/>
+        <c:axId val="2115924728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101161216"/>
+        <c:axId val="2115921848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2625,12 +2625,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112230400"/>
+        <c:crossAx val="2115924728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112230400"/>
+        <c:axId val="2115924728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2640,7 +2640,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101161216"/>
+        <c:crossAx val="2115921848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2677,7 +2677,7 @@
 <file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2726,34 +2726,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.62623780653449901</c:v>
+                  <c:v>0.626237806534499</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62213341169407199</c:v>
+                  <c:v>0.622133411694072</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61644208318481997</c:v>
+                  <c:v>0.61644208318482</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61180764506758101</c:v>
+                  <c:v>0.611807645067581</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61824041632982496</c:v>
+                  <c:v>0.618240416329825</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.611853237375238</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.62690372998850197</c:v>
+                  <c:v>0.626903729988502</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.62301447814865496</c:v>
+                  <c:v>0.623014478148655</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.62155740995920095</c:v>
+                  <c:v>0.621557409959201</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.61605246604999098</c:v>
+                  <c:v>0.616052466049991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2765,34 +2765,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.66865611036457595</c:v>
+                  <c:v>0.668656110364576</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66236704699790705</c:v>
+                  <c:v>0.662367046997907</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65861066218714304</c:v>
+                  <c:v>0.658610662187143</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65128653601736997</c:v>
+                  <c:v>0.65128653601737</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65947047127371405</c:v>
+                  <c:v>0.659470471273714</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65514102757966497</c:v>
+                  <c:v>0.655141027579665</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66835171848877095</c:v>
+                  <c:v>0.668351718488771</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.65904898348743401</c:v>
+                  <c:v>0.659048983487434</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.66517865548648503</c:v>
+                  <c:v>0.665178655486485</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.65661585747412399</c:v>
+                  <c:v>0.656615857474124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2807,11 +2807,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112246784"/>
-        <c:axId val="112248320"/>
+        <c:axId val="2115952776"/>
+        <c:axId val="2115955656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112246784"/>
+        <c:axId val="2115952776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2821,12 +2821,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112248320"/>
+        <c:crossAx val="2115955656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112248320"/>
+        <c:axId val="2115955656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2836,7 +2836,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112246784"/>
+        <c:crossAx val="2115952776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2873,7 +2873,7 @@
 <file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2922,34 +2922,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.62902200200597802</c:v>
+                  <c:v>0.629022002005978</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61931844095661004</c:v>
+                  <c:v>0.61931844095661</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61923726728614903</c:v>
+                  <c:v>0.619237267286149</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61083494419471795</c:v>
+                  <c:v>0.610834944194718</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61542510397407402</c:v>
+                  <c:v>0.615425103974074</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61277337878693605</c:v>
+                  <c:v>0.612773378786936</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.62615679639221</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.62179384702986895</c:v>
+                  <c:v>0.621793847029869</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.62345659771581996</c:v>
+                  <c:v>0.62345659771582</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.62015727838481505</c:v>
+                  <c:v>0.620157278384815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2961,31 +2961,31 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.67418421383580895</c:v>
+                  <c:v>0.674184213835809</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66217345285937801</c:v>
+                  <c:v>0.662173452859378</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65980920326461301</c:v>
+                  <c:v>0.659809203264613</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65440305928392195</c:v>
+                  <c:v>0.654403059283922</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66073095587404995</c:v>
+                  <c:v>0.66073095587405</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65212126625658295</c:v>
+                  <c:v>0.652121266256583</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66588876993871304</c:v>
+                  <c:v>0.665888769938713</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.65997364322472496</c:v>
+                  <c:v>0.659973643224725</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.66898160769386095</c:v>
+                  <c:v>0.668981607693861</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.666867221434991</c:v>
@@ -3003,11 +3003,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112367488"/>
-        <c:axId val="112369024"/>
+        <c:axId val="2115997512"/>
+        <c:axId val="2116000392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112367488"/>
+        <c:axId val="2115997512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3017,12 +3017,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112369024"/>
+        <c:crossAx val="2116000392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112369024"/>
+        <c:axId val="2116000392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3032,7 +3032,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112367488"/>
+        <c:crossAx val="2115997512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3069,7 +3069,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3118,19 +3118,19 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.62075253093753702</c:v>
+                  <c:v>0.620752530937537</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61801806464507603</c:v>
+                  <c:v>0.618018064645076</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61823670450496704</c:v>
+                  <c:v>0.618236704504967</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61795415045153701</c:v>
+                  <c:v>0.617954150451537</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61176572296971599</c:v>
+                  <c:v>0.611765722969716</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3142,19 +3142,19 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.66286709811516598</c:v>
+                  <c:v>0.662867098115166</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66267799732677701</c:v>
+                  <c:v>0.662677997326777</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.657632173733112</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65625061810033503</c:v>
+                  <c:v>0.656250618100335</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65542912104940099</c:v>
+                  <c:v>0.655429121049401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3169,11 +3169,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="98854784"/>
-        <c:axId val="98856320"/>
+        <c:axId val="2116481144"/>
+        <c:axId val="2116484024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98854784"/>
+        <c:axId val="2116481144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3183,12 +3183,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98856320"/>
+        <c:crossAx val="2116484024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98856320"/>
+        <c:axId val="2116484024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3198,7 +3198,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98854784"/>
+        <c:crossAx val="2116481144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3235,7 +3235,7 @@
 <file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3284,34 +3284,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.62902200200597802</c:v>
+                  <c:v>0.629022002005978</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61931844095661004</c:v>
+                  <c:v>0.61931844095661</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61923726728614903</c:v>
+                  <c:v>0.619237267286149</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61083494419471795</c:v>
+                  <c:v>0.610834944194718</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61542510397407402</c:v>
+                  <c:v>0.615425103974074</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.61277337878693605</c:v>
+                  <c:v>0.612773378786936</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.62615679639221</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.62179384702986895</c:v>
+                  <c:v>0.621793847029869</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.62345659771581996</c:v>
+                  <c:v>0.62345659771582</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.62015727838481505</c:v>
+                  <c:v>0.620157278384815</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3323,34 +3323,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.67271828296276803</c:v>
+                  <c:v>0.672718282962768</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66136720294123796</c:v>
+                  <c:v>0.661367202941238</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65951313703762404</c:v>
+                  <c:v>0.659513137037624</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65282230057399704</c:v>
+                  <c:v>0.652822300573997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65352925611452495</c:v>
+                  <c:v>0.653529256114525</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65607807221193504</c:v>
+                  <c:v>0.656078072211935</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.66726234019880704</c:v>
+                  <c:v>0.667262340198807</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.66160849523605003</c:v>
+                  <c:v>0.66160849523605</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.66200940547259601</c:v>
+                  <c:v>0.662009405472596</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.66009846924472804</c:v>
+                  <c:v>0.660098469244728</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3365,11 +3365,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112872832"/>
-        <c:axId val="112874624"/>
+        <c:axId val="2114997416"/>
+        <c:axId val="2114994552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112872832"/>
+        <c:axId val="2114997416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3379,12 +3379,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112874624"/>
+        <c:crossAx val="2114994552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112874624"/>
+        <c:axId val="2114994552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3394,7 +3394,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112872832"/>
+        <c:crossAx val="2114997416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3431,7 +3431,7 @@
 <file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3480,34 +3480,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.61240598116102796</c:v>
+                  <c:v>0.612405981161028</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60927207347012802</c:v>
+                  <c:v>0.609272073470128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63250884390525197</c:v>
+                  <c:v>0.632508843905252</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61637117887928194</c:v>
+                  <c:v>0.616371178879282</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60982645636260602</c:v>
+                  <c:v>0.609826456362606</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.608857168524081</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60716881191303995</c:v>
+                  <c:v>0.60716881191304</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.61944294520542598</c:v>
+                  <c:v>0.619442945205426</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61981915564784895</c:v>
+                  <c:v>0.619819155647849</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.62663198637544903</c:v>
+                  <c:v>0.626631986375449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3519,34 +3519,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.65889898103556099</c:v>
+                  <c:v>0.658898981035561</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.658260811472965</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.67190272257807604</c:v>
+                  <c:v>0.671902722578076</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65996940077321198</c:v>
+                  <c:v>0.659969400773212</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65735450159890496</c:v>
+                  <c:v>0.657354501598905</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.65420842177754102</c:v>
+                  <c:v>0.654208421777541</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.64743152009693095</c:v>
+                  <c:v>0.647431520096931</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.66759490019079304</c:v>
+                  <c:v>0.667594900190793</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.66824521619234101</c:v>
+                  <c:v>0.668245216192341</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.67618265088733198</c:v>
+                  <c:v>0.676182650887332</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3561,11 +3561,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112949120"/>
-        <c:axId val="112950656"/>
+        <c:axId val="2118188504"/>
+        <c:axId val="2118191384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112949120"/>
+        <c:axId val="2118188504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3575,12 +3575,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112950656"/>
+        <c:crossAx val="2118191384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112950656"/>
+        <c:axId val="2118191384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3590,7 +3590,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112949120"/>
+        <c:crossAx val="2118188504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3627,7 +3627,7 @@
 <file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3676,34 +3676,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.61240598116102796</c:v>
+                  <c:v>0.612405981161028</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.60927207347012802</c:v>
+                  <c:v>0.609272073470128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.63250884390525197</c:v>
+                  <c:v>0.632508843905252</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61637117887928194</c:v>
+                  <c:v>0.616371178879282</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60982645636260602</c:v>
+                  <c:v>0.609826456362606</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.608857168524081</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.60716881191303995</c:v>
+                  <c:v>0.60716881191304</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.61944294520542598</c:v>
+                  <c:v>0.619442945205426</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.61981915564784895</c:v>
+                  <c:v>0.619819155647849</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.62663198637544903</c:v>
+                  <c:v>0.626631986375449</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3715,34 +3715,34 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.65229566515390902</c:v>
+                  <c:v>0.652295665153909</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65418555955792601</c:v>
+                  <c:v>0.654185559557926</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.67462497226852103</c:v>
+                  <c:v>0.674624972268521</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65452401281225403</c:v>
+                  <c:v>0.654524012812254</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.650274033373206</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64939502308991304</c:v>
+                  <c:v>0.649395023089913</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.64342434099542001</c:v>
+                  <c:v>0.64342434099542</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.66221078124587396</c:v>
+                  <c:v>0.662210781245874</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.66378369640587598</c:v>
+                  <c:v>0.663783696405876</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.66918799255412498</c:v>
+                  <c:v>0.669187992554125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3757,11 +3757,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="112967040"/>
-        <c:axId val="112989312"/>
+        <c:axId val="2118219304"/>
+        <c:axId val="2118222184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="112967040"/>
+        <c:axId val="2118219304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3771,12 +3771,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112989312"/>
+        <c:crossAx val="2118222184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112989312"/>
+        <c:axId val="2118222184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3786,7 +3786,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112967040"/>
+        <c:crossAx val="2118219304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3823,7 +3823,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3872,19 +3872,19 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.61483278721934698</c:v>
+                  <c:v>0.614832787219347</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.615076082735593</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61165539913087896</c:v>
+                  <c:v>0.611655399130879</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61193721721300998</c:v>
+                  <c:v>0.61193721721301</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60718470513969902</c:v>
+                  <c:v>0.607184705139699</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3896,19 +3896,19 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.65554359188815403</c:v>
+                  <c:v>0.655543591888154</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66487922452318904</c:v>
+                  <c:v>0.664879224523189</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65414150091685297</c:v>
+                  <c:v>0.654141500916853</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65437034396508498</c:v>
+                  <c:v>0.654370343965085</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65509666409851997</c:v>
+                  <c:v>0.65509666409852</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3923,11 +3923,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="94429184"/>
-        <c:axId val="94430720"/>
+        <c:axId val="2116521784"/>
+        <c:axId val="2116524664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="94429184"/>
+        <c:axId val="2116521784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3937,12 +3937,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94430720"/>
+        <c:crossAx val="2116524664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="94430720"/>
+        <c:axId val="2116524664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3952,7 +3952,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94429184"/>
+        <c:crossAx val="2116521784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3989,7 +3989,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4038,19 +4038,19 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.62157620223119303</c:v>
+                  <c:v>0.621576202231193</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61998481275890605</c:v>
+                  <c:v>0.619984812758906</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61888993513951196</c:v>
+                  <c:v>0.618889935139512</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61671904333622596</c:v>
+                  <c:v>0.616719043336226</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61443536230951301</c:v>
+                  <c:v>0.614435362309513</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4062,19 +4062,19 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.66414203507166303</c:v>
+                  <c:v>0.664142035071663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66767753928015094</c:v>
+                  <c:v>0.667677539280151</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65776407092896405</c:v>
+                  <c:v>0.657764070928964</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66014947955449199</c:v>
+                  <c:v>0.660149479554492</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66004127748671804</c:v>
+                  <c:v>0.660041277486718</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4089,11 +4089,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="99297152"/>
-        <c:axId val="99298688"/>
+        <c:axId val="2115558792"/>
+        <c:axId val="2115561672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="99297152"/>
+        <c:axId val="2115558792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4103,12 +4103,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99298688"/>
+        <c:crossAx val="2115561672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="99298688"/>
+        <c:axId val="2115561672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4118,7 +4118,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="99297152"/>
+        <c:crossAx val="2115558792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4155,7 +4155,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4207,16 +4207,16 @@
                   <c:v>0.619497793066761</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61712559117176702</c:v>
+                  <c:v>0.617125591171767</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.616478893769003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61763391506038101</c:v>
+                  <c:v>0.617633915060381</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61652292623364202</c:v>
+                  <c:v>0.616522926233642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4231,16 +4231,16 @@
                   <c:v>0.665445992805064</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66019230736238699</c:v>
+                  <c:v>0.660192307362387</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65467666063762697</c:v>
+                  <c:v>0.654676660637627</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66154988027029404</c:v>
+                  <c:v>0.661549880270294</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65565618720965002</c:v>
+                  <c:v>0.65565618720965</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4255,11 +4255,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="100550144"/>
-        <c:axId val="100551680"/>
+        <c:axId val="2115600104"/>
+        <c:axId val="2115602984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100550144"/>
+        <c:axId val="2115600104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4269,12 +4269,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100551680"/>
+        <c:crossAx val="2115602984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100551680"/>
+        <c:axId val="2115602984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4284,7 +4284,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100550144"/>
+        <c:crossAx val="2115600104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4321,7 +4321,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4370,16 +4370,16 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.62002361515329496</c:v>
+                  <c:v>0.620023615153295</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.62155618201284901</c:v>
+                  <c:v>0.621556182012849</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.62109213712048095</c:v>
+                  <c:v>0.621092137120481</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61944308536344495</c:v>
+                  <c:v>0.619443085363445</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.613651298931431</c:v>
@@ -4397,16 +4397,16 @@
                   <c:v>0.662289396600237</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.65913295712833198</c:v>
+                  <c:v>0.659132957128332</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65964616378167196</c:v>
+                  <c:v>0.659646163781672</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66068952010285198</c:v>
+                  <c:v>0.660689520102852</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65969622220947699</c:v>
+                  <c:v>0.659696222209477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4421,11 +4421,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="100576640"/>
-        <c:axId val="100590720"/>
+        <c:axId val="2115639960"/>
+        <c:axId val="2115642840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100576640"/>
+        <c:axId val="2115639960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4435,12 +4435,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100590720"/>
+        <c:crossAx val="2115642840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100590720"/>
+        <c:axId val="2115642840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4450,7 +4450,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100576640"/>
+        <c:crossAx val="2115639960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4487,7 +4487,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4536,19 +4536,19 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.61959623506486095</c:v>
+                  <c:v>0.619596235064861</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61895881390722296</c:v>
+                  <c:v>0.618958813907223</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61735133704067102</c:v>
+                  <c:v>0.617351337040671</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61877686956688305</c:v>
+                  <c:v>0.618776869566883</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61487646004893504</c:v>
+                  <c:v>0.614876460048935</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4560,19 +4560,19 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.66405061863720605</c:v>
+                  <c:v>0.664050618637206</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66686417826211997</c:v>
+                  <c:v>0.66686417826212</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65809158857677696</c:v>
+                  <c:v>0.658091588576777</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66074293909069504</c:v>
+                  <c:v>0.660742939090695</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66116849596693605</c:v>
+                  <c:v>0.661168495966936</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4587,11 +4587,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="101066240"/>
-        <c:axId val="101067776"/>
+        <c:axId val="2115680616"/>
+        <c:axId val="2115683496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101066240"/>
+        <c:axId val="2115680616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4601,12 +4601,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101067776"/>
+        <c:crossAx val="2115683496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101067776"/>
+        <c:axId val="2115683496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4616,7 +4616,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101066240"/>
+        <c:crossAx val="2115680616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4653,7 +4653,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4702,19 +4702,19 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.62011793099828605</c:v>
+                  <c:v>0.620117930998286</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61960418574089204</c:v>
+                  <c:v>0.619604185740892</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61793578561981599</c:v>
+                  <c:v>0.617935785619816</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61940095314921595</c:v>
+                  <c:v>0.619400953149216</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.61443347352015798</c:v>
+                  <c:v>0.614433473520158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4726,19 +4726,19 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.66352727705092596</c:v>
+                  <c:v>0.663527277050926</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66694575363836295</c:v>
+                  <c:v>0.666945753638363</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.66228545107064596</c:v>
+                  <c:v>0.662285451070646</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.65740938992508002</c:v>
+                  <c:v>0.65740938992508</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.65398894385935302</c:v>
+                  <c:v>0.653988943859353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4753,11 +4753,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="101117312"/>
-        <c:axId val="101123200"/>
+        <c:axId val="2115719768"/>
+        <c:axId val="2115722648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101117312"/>
+        <c:axId val="2115719768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4767,12 +4767,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101123200"/>
+        <c:crossAx val="2115722648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101123200"/>
+        <c:axId val="2115722648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4782,7 +4782,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101117312"/>
+        <c:crossAx val="2115719768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4819,7 +4819,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4871,13 +4871,13 @@
                   <c:v>0.620016417052494</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.61823316463121003</c:v>
+                  <c:v>0.61823316463121</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.61790883508594396</c:v>
+                  <c:v>0.617908835085944</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61876512294090502</c:v>
+                  <c:v>0.618765122940905</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0.613936560978388</c:v>
@@ -4892,19 +4892,19 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.65806614220889703</c:v>
+                  <c:v>0.658066142208897</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.66233271497617896</c:v>
+                  <c:v>0.662332714976179</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.65777901691041796</c:v>
+                  <c:v>0.657779016910418</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.66168767560576902</c:v>
+                  <c:v>0.661687675605769</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.66053467311799097</c:v>
+                  <c:v>0.660534673117991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4919,11 +4919,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="101129600"/>
-        <c:axId val="112399488"/>
+        <c:axId val="2115760584"/>
+        <c:axId val="2115763464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101129600"/>
+        <c:axId val="2115760584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4933,12 +4933,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="112399488"/>
+        <c:crossAx val="2115763464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="112399488"/>
+        <c:axId val="2115763464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4948,7 +4948,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101129600"/>
+        <c:crossAx val="2115760584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6094,18 +6094,18 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="11" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="2.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="8.625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.6640625" style="6" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="11" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="23" customFormat="1">
       <c r="A1" s="23" t="s">
         <v>7</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -6170,7 +6170,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -6229,7 +6229,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -6246,7 +6246,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>0.62146769999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7">
       <c r="A12" s="6">
         <v>9</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7">
       <c r="A13" s="6">
         <v>9</v>
       </c>
@@ -6309,21 +6309,21 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F3" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="8.625" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.875" style="6"/>
+    <col min="2" max="2" width="8.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="8.6640625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -6336,7 +6336,7 @@
       </c>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="11.25" thickTop="1">
       <c r="A2" s="24" t="s">
         <v>63</v>
       </c>
@@ -6350,7 +6350,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="15">
       <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15">
       <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="24"/>
       <c r="C8" s="4" t="s">
         <v>51</v>
@@ -6423,7 +6423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="24"/>
       <c r="C9" s="4" t="s">
         <v>52</v>
@@ -6432,7 +6432,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="24"/>
       <c r="C10" s="4" t="s">
         <v>53</v>
@@ -6441,12 +6441,12 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15">
       <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
@@ -6461,7 +6461,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="12" thickTop="1" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="11.25" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
@@ -6525,7 +6525,7 @@
         <v>6.7539945646642003</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="11.25" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
@@ -6557,7 +6557,7 @@
         <v>6.9388974406861301</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="11.25" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
@@ -6589,7 +6589,7 @@
         <v>6.9061879219392601</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="11.25" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>77</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>6.72889111638698</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="11.25" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>6.6864073229171002</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="B20" s="11">
         <f>AVERAGE(B15:B19)</f>
         <v>0.6182984658056736</v>
@@ -6691,15 +6691,15 @@
         <v>6.8028756733187334</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="12.75" thickBot="1">
       <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
@@ -6707,19 +6707,19 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:10" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="11.25" thickTop="1">
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
     </row>
@@ -6742,21 +6742,21 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="8.625" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.875" style="6"/>
+    <col min="2" max="2" width="8.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="8.6640625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -6769,7 +6769,7 @@
       </c>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="11.25" thickTop="1">
       <c r="A2" s="24" t="s">
         <v>63</v>
       </c>
@@ -6781,7 +6781,7 @@
       </c>
       <c r="F2" s="24"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
@@ -6793,7 +6793,7 @@
       </c>
       <c r="F3" s="24"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -6818,7 +6818,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="15">
       <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
@@ -6832,7 +6832,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15">
       <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="24"/>
       <c r="C8" s="4" t="s">
         <v>51</v>
@@ -6852,7 +6852,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="24"/>
       <c r="C9" s="4" t="s">
         <v>52</v>
@@ -6861,7 +6861,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="24"/>
       <c r="C10" s="4" t="s">
         <v>53</v>
@@ -6870,12 +6870,12 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15">
       <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
@@ -6890,7 +6890,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="12" thickTop="1" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -6922,7 +6922,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="11.25" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>6.7530002293282596</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="11.25" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>6.6469834027188801</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="11.25" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
@@ -7018,7 +7018,7 @@
         <v>6.9039620470046996</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="11.25" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>77</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>6.7265596154556899</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="11.25" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
@@ -7082,7 +7082,7 @@
         <v>6.9122246915866397</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="B20" s="11">
         <f>AVERAGE(B15:B19)</f>
         <v>0.6177720201377882</v>
@@ -7120,15 +7120,15 @@
         <v>6.7885459972188329</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="12.75" thickBot="1">
       <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
@@ -7136,19 +7136,19 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:10" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="11.25" thickTop="1">
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
     </row>
@@ -7171,21 +7171,21 @@
   </sheetPr>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="8.625" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.875" style="6"/>
+    <col min="2" max="2" width="8.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="8.6640625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -7198,7 +7198,7 @@
       </c>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="11.25" thickTop="1">
       <c r="A2" s="4" t="s">
         <v>63</v>
       </c>
@@ -7212,7 +7212,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
@@ -7226,7 +7226,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
@@ -7237,7 +7237,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -7248,7 +7248,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="15">
       <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
@@ -7259,7 +7259,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15">
       <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
@@ -7270,7 +7270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="24"/>
       <c r="C8" s="4" t="s">
         <v>51</v>
@@ -7279,7 +7279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="24"/>
       <c r="C9" s="4" t="s">
         <v>52</v>
@@ -7288,7 +7288,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="24"/>
       <c r="C10" s="4" t="s">
         <v>53</v>
@@ -7297,17 +7297,17 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15">
       <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:11" ht="15">
       <c r="A12" s="24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1">
       <c r="A14" s="7" t="s">
         <v>64</v>
       </c>
@@ -7322,7 +7322,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:11" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="12" thickTop="1" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
@@ -7354,7 +7354,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="11.25" thickBot="1">
       <c r="A16" s="2" t="s">
         <v>74</v>
       </c>
@@ -7386,7 +7386,7 @@
         <v>6.8196132047847904</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="11.25" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>75</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>6.8440970909699201</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="11.25" thickBot="1">
       <c r="A18" s="2" t="s">
         <v>76</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>6.7693038649915698</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="11.25" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>77</v>
       </c>
@@ -7482,7 +7482,7 @@
         <v>6.9017922459699301</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" ht="11.25" thickBot="1">
       <c r="A20" s="2" t="s">
         <v>78</v>
       </c>
@@ -7514,7 +7514,7 @@
         <v>6.9738321106974004</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="B21" s="11">
         <f>AVERAGE(B16:B20)</f>
         <v>0.61769729679132657</v>
@@ -7552,15 +7552,15 @@
         <v>6.8617277034827229</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:10">
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
     </row>
-    <row r="24" spans="1:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="12.75" thickBot="1">
       <c r="A24" s="7" t="s">
         <v>79</v>
       </c>
@@ -7568,19 +7568,19 @@
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" spans="1:10" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10" ht="11.25" thickTop="1">
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:10">
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
     </row>
@@ -7598,21 +7598,21 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="10.875" style="6"/>
+    <col min="1" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="11.25" thickBot="1">
       <c r="A1" s="25" t="s">
         <v>87</v>
       </c>
@@ -7625,7 +7625,7 @@
       <c r="H1" s="25"/>
       <c r="I1" s="25"/>
     </row>
-    <row r="2" spans="1:9" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="12" thickTop="1" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -7654,7 +7654,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="11.25" thickBot="1">
       <c r="A3" s="9">
         <v>0.619497793066761</v>
       </c>
@@ -7683,7 +7683,7 @@
         <v>6.8968759963197703</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="11.25" thickBot="1">
       <c r="A4" s="10">
         <v>0.61763391506038101</v>
       </c>
@@ -7712,7 +7712,7 @@
         <v>6.7941315272638603</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="11.25" thickBot="1">
       <c r="A5" s="9">
         <v>0.62002361515329496</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>6.6553388696042601</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="11.25" thickBot="1">
       <c r="A6" s="10">
         <v>0.61944308536344495</v>
       </c>
@@ -7770,7 +7770,7 @@
         <v>6.8505522098505196</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="11.25" thickBot="1">
       <c r="A7" s="9">
         <v>0.61959623506486095</v>
       </c>
@@ -7799,7 +7799,7 @@
         <v>6.8569107477479996</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="11.25" thickBot="1">
       <c r="A8" s="10">
         <v>0.61895881390722296</v>
       </c>
@@ -7828,7 +7828,7 @@
         <v>6.7610158587790101</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="11.25" thickBot="1">
       <c r="A9" s="10">
         <v>0.61877686956688305</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>6.6428315963850899</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="11.25" thickBot="1">
       <c r="A10" s="9">
         <v>0.61487646004893504</v>
       </c>
@@ -7886,7 +7886,7 @@
         <v>6.71506095555445</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="11.25" thickBot="1">
       <c r="A11" s="9">
         <v>0.62011793099828605</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>6.7539945646642003</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="11.25" thickBot="1">
       <c r="A12" s="10">
         <v>0.61960418574089204</v>
       </c>
@@ -7944,7 +7944,7 @@
         <v>6.9388974406861301</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="11.25" thickBot="1">
       <c r="A13" s="9">
         <v>0.61793578561981599</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>6.9061879219392601</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="11.25" thickBot="1">
       <c r="A14" s="10">
         <v>0.61823316463121003</v>
       </c>
@@ -8002,7 +8002,7 @@
         <v>6.6469834027188801</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="11.25" thickBot="1">
       <c r="A15" s="10">
         <v>0.61876512294090502</v>
       </c>
@@ -8031,7 +8031,7 @@
         <v>6.7265596154556899</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="11.25" thickBot="1">
       <c r="A16" s="9">
         <v>0.613936560978388</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>6.9122246915866397</v>
       </c>
     </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="3:9">
       <c r="C17" s="26">
         <f>AVERAGE(C3:C16)</f>
         <v>2.7214838210554246</v>
@@ -8103,26 +8103,26 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="6" customWidth="1"/>
-    <col min="5" max="11" width="7.625" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.875" style="6"/>
+    <col min="2" max="2" width="6.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="6" customWidth="1"/>
+    <col min="5" max="11" width="7.6640625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="12.75" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -8135,7 +8135,7 @@
       </c>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:12" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="11.25" thickTop="1">
       <c r="A2" s="4" t="s">
         <v>63</v>
       </c>
@@ -8149,7 +8149,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
@@ -8163,7 +8163,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
@@ -8174,7 +8174,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="15">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -8185,7 +8185,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="15">
       <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
@@ -8196,7 +8196,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="15">
       <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
@@ -8207,7 +8207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8" s="24"/>
       <c r="C8" s="4" t="s">
         <v>51</v>
@@ -8216,7 +8216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="24"/>
       <c r="C9" s="4" t="s">
         <v>52</v>
@@ -8225,7 +8225,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="24"/>
       <c r="C10" s="4" t="s">
         <v>53</v>
@@ -8234,17 +8234,17 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="15">
       <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="15">
       <c r="A12" s="24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="8" customFormat="1" ht="12.75" thickBot="1">
       <c r="A14" s="7" t="s">
         <v>64</v>
       </c>
@@ -8259,7 +8259,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:12" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="12" thickTop="1" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="11.25" thickBot="1">
       <c r="A16" s="2" t="s">
         <v>74</v>
       </c>
@@ -8333,7 +8333,7 @@
         <v>1.0683586027649961E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="11.25" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>75</v>
       </c>
@@ -8372,7 +8372,7 @@
         <v>-2.0711047991869291E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="11.25" thickBot="1">
       <c r="A18" s="2" t="s">
         <v>76</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>2.2508547173469839E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="11.25" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>77</v>
       </c>
@@ -8450,7 +8450,7 @@
         <v>4.695943061342911E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="11.25" thickBot="1">
       <c r="A20" s="2" t="s">
         <v>78</v>
       </c>
@@ -8489,7 +8489,7 @@
         <v>-3.1620067402789998E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="11.25" thickBot="1">
       <c r="A21" s="2" t="s">
         <v>89</v>
       </c>
@@ -8528,7 +8528,7 @@
         <v>6.6599502165298752E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="11.25" thickBot="1">
       <c r="A22" s="3" t="s">
         <v>90</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>-3.7449581988949765E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="11.25" thickBot="1">
       <c r="A23" s="2" t="s">
         <v>91</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>4.7740627026420235E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="11.25" thickBot="1">
       <c r="A24" s="3" t="s">
         <v>92</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>1.0471642431549855E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="11.25" thickBot="1">
       <c r="A25" s="2" t="s">
         <v>93</v>
       </c>
@@ -8684,7 +8684,7 @@
         <v>8.608754806760377E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12">
       <c r="B26" s="11">
         <f>AVERAGE(B16:B25)</f>
         <v>0.61743262763376416</v>
@@ -8726,15 +8726,15 @@
         <v>6.8376873171536205</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12">
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="12.75" thickBot="1">
       <c r="A29" s="7" t="s">
         <v>79</v>
       </c>
@@ -8742,19 +8742,19 @@
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:12" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" ht="11.25" thickTop="1">
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12">
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12">
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:4">
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
     </row>
@@ -8774,8 +8774,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -8794,32 +8794,35 @@
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C26" sqref="C26:D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="6" customWidth="1"/>
-    <col min="5" max="11" width="7.625" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.875" style="6"/>
+    <col min="2" max="2" width="6.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="6" customWidth="1"/>
+    <col min="5" max="11" width="7.6640625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="12.75" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -8832,7 +8835,7 @@
       </c>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:12" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="11.25" thickTop="1">
       <c r="A2" s="4" t="s">
         <v>63</v>
       </c>
@@ -8846,7 +8849,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
@@ -8860,7 +8863,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
@@ -8871,7 +8874,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="15">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -8882,7 +8885,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="15">
       <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
@@ -8893,7 +8896,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="15">
       <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
@@ -8904,7 +8907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8" s="24"/>
       <c r="C8" s="4" t="s">
         <v>51</v>
@@ -8913,7 +8916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="24"/>
       <c r="C9" s="4" t="s">
         <v>52</v>
@@ -8922,7 +8925,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="24"/>
       <c r="C10" s="4" t="s">
         <v>53</v>
@@ -8931,17 +8934,17 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="15">
       <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" ht="15">
       <c r="A12" s="24" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="8" customFormat="1" ht="12.75" thickBot="1">
       <c r="A14" s="7" t="s">
         <v>64</v>
       </c>
@@ -8956,7 +8959,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:12" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="12" thickTop="1" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
@@ -8991,7 +8994,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="11.25" thickBot="1">
       <c r="A16" s="2" t="s">
         <v>74</v>
       </c>
@@ -9030,7 +9033,7 @@
         <v>2.201304136286053E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="11.25" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>75</v>
       </c>
@@ -9069,7 +9072,7 @@
         <v>3.174649074661029E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="11.25" thickBot="1">
       <c r="A18" s="2" t="s">
         <v>76</v>
       </c>
@@ -9108,7 +9111,7 @@
         <v>-3.8453593094339711E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="11.25" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>77</v>
       </c>
@@ -9147,7 +9150,7 @@
         <v>3.4649988000909904E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="11.25" thickBot="1">
       <c r="A20" s="2" t="s">
         <v>78</v>
       </c>
@@ -9186,7 +9189,7 @@
         <v>1.6723595329449781E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="11.25" thickBot="1">
       <c r="A21" s="2" t="s">
         <v>89</v>
       </c>
@@ -9225,7 +9228,7 @@
         <v>4.3256258506696454E-4</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="11.25" thickBot="1">
       <c r="A22" s="3" t="s">
         <v>90</v>
       </c>
@@ -9264,7 +9267,7 @@
         <v>3.0244506152139472E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="11.25" thickBot="1">
       <c r="A23" s="2" t="s">
         <v>91</v>
       </c>
@@ -9303,7 +9306,7 @@
         <v>-2.9484894130999972E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="11.25" thickBot="1">
       <c r="A24" s="3" t="s">
         <v>92</v>
       </c>
@@ -9342,7 +9345,7 @@
         <v>1.928591039019989E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="11.25" thickBot="1">
       <c r="A25" s="2" t="s">
         <v>93</v>
       </c>
@@ -9381,7 +9384,7 @@
         <v>5.8833646694009811E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12">
       <c r="B26" s="11">
         <f>AVERAGE(B16:B25)</f>
         <v>0.61739169660456139</v>
@@ -9423,15 +9426,15 @@
         <v>6.7946630578935467</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12">
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="12.75" thickBot="1">
       <c r="A29" s="7" t="s">
         <v>79</v>
       </c>
@@ -9439,19 +9442,19 @@
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:12" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" ht="11.25" thickTop="1">
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12">
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12">
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:4">
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
     </row>
@@ -9471,8 +9474,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -9491,32 +9494,35 @@
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="O45" sqref="O45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="6" customWidth="1"/>
-    <col min="5" max="11" width="7.625" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.875" style="6"/>
+    <col min="2" max="2" width="6.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="6" customWidth="1"/>
+    <col min="5" max="11" width="7.6640625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="12.75" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -9529,7 +9535,7 @@
       </c>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:12" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="11.25" thickTop="1">
       <c r="A2" s="4" t="s">
         <v>63</v>
       </c>
@@ -9543,7 +9549,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
@@ -9557,7 +9563,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
@@ -9568,7 +9574,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="15">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -9579,7 +9585,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="15">
       <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
@@ -9590,7 +9596,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="15">
       <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
@@ -9601,7 +9607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8" s="24"/>
       <c r="C8" s="4" t="s">
         <v>51</v>
@@ -9610,7 +9616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="24"/>
       <c r="C9" s="4" t="s">
         <v>52</v>
@@ -9619,7 +9625,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="24"/>
       <c r="C10" s="4" t="s">
         <v>53</v>
@@ -9628,12 +9634,12 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="15">
       <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="8" customFormat="1" ht="12.75" thickBot="1">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
@@ -9648,7 +9654,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:12" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="12" thickTop="1" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -9683,7 +9689,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="11.25" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
@@ -9722,7 +9728,7 @@
         <v>-2.982225600668964E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="11.25" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
@@ -9761,7 +9767,7 @@
         <v>1.9565778817980384E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="11.25" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
@@ -9800,7 +9806,7 @@
         <v>6.1687797742304706E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="11.25" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>77</v>
       </c>
@@ -9839,7 +9845,7 @@
         <v>-1.4198625782789742E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="11.25" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
@@ -9878,7 +9884,7 @@
         <v>4.7370972080900131E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="11.25" thickBot="1">
       <c r="A20" s="2" t="s">
         <v>89</v>
       </c>
@@ -9917,7 +9923,7 @@
         <v>-2.2361222913559464E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="11.25" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>90</v>
       </c>
@@ -9956,7 +9962,7 @@
         <v>2.4393363465909923E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="11.25" thickBot="1">
       <c r="A22" s="2" t="s">
         <v>91</v>
       </c>
@@ -9995,7 +10001,7 @@
         <v>3.5931116155740739E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="11.25" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>92</v>
       </c>
@@ -10034,7 +10040,7 @@
         <v>2.0910970340110024E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="11.25" thickBot="1">
       <c r="A24" s="2" t="s">
         <v>93</v>
       </c>
@@ -10073,7 +10079,7 @@
         <v>-1.4357046948298979E-4</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12">
       <c r="B25" s="11">
         <f>AVERAGE(B15:B24)</f>
         <v>0.61968380936739864</v>
@@ -10115,15 +10121,15 @@
         <v>6.8011689975608807</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12">
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="12.75" thickBot="1">
       <c r="A28" s="7" t="s">
         <v>79</v>
       </c>
@@ -10131,19 +10137,19 @@
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:12" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" ht="11.25" thickTop="1">
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12">
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12">
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12">
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
     </row>
@@ -10163,8 +10169,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -10183,32 +10189,35 @@
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="O25" sqref="O25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="6" customWidth="1"/>
-    <col min="5" max="11" width="7.625" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.875" style="6"/>
+    <col min="2" max="2" width="6.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="6" customWidth="1"/>
+    <col min="5" max="11" width="7.6640625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="13" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -10221,7 +10230,7 @@
       </c>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:12" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="12" thickTop="1">
       <c r="A2" s="4" t="s">
         <v>63</v>
       </c>
@@ -10235,7 +10244,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
@@ -10249,7 +10258,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
@@ -10263,7 +10272,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -10274,7 +10283,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
@@ -10285,7 +10294,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
@@ -10296,7 +10305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8" s="24"/>
       <c r="C8" s="4" t="s">
         <v>51</v>
@@ -10305,7 +10314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="24"/>
       <c r="C9" s="4" t="s">
         <v>52</v>
@@ -10314,7 +10323,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="24"/>
       <c r="C10" s="4" t="s">
         <v>53</v>
@@ -10323,12 +10332,12 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="8" customFormat="1" ht="13" thickBot="1">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
@@ -10343,7 +10352,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:12" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="24" thickTop="1" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -10378,7 +10387,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="12" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
@@ -10417,7 +10426,7 @@
         <v>1.1856303610920937E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="12" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
@@ -10456,7 +10465,7 @@
         <v>1.1738512875208995E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="12" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
@@ -10495,7 +10504,7 @@
         <v>9.6274478894697868E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="12" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>77</v>
       </c>
@@ -10534,7 +10543,7 @@
         <v>7.4878239637299338E-4</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="12" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
@@ -10573,7 +10582,7 @@
         <v>-4.0961156206590355E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="12" thickBot="1">
       <c r="A20" s="2" t="s">
         <v>89</v>
       </c>
@@ -10612,7 +10621,7 @@
         <v>6.2054926444010672E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="12" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>90</v>
       </c>
@@ -10651,7 +10660,7 @@
         <v>2.5620191426570793E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="12" thickBot="1">
       <c r="A22" s="2" t="s">
         <v>91</v>
       </c>
@@ -10690,7 +10699,7 @@
         <v>6.1998581635149819E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="12" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>92</v>
       </c>
@@ -10729,7 +10738,7 @@
         <v>3.8855649985359841E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="12" thickBot="1">
       <c r="A24" s="2" t="s">
         <v>93</v>
       </c>
@@ -10768,7 +10777,7 @@
         <v>4.7103935813279652E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12">
       <c r="B25" s="11">
         <f>AVERAGE(B15:B24)</f>
         <v>0.6194242684332385</v>
@@ -10810,15 +10819,15 @@
         <v>6.8137750722973305</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12">
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="13" thickBot="1">
       <c r="A28" s="7" t="s">
         <v>79</v>
       </c>
@@ -10826,19 +10835,19 @@
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:12" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" ht="12" thickTop="1">
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12">
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12">
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12">
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
     </row>
@@ -10858,8 +10867,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -10878,32 +10887,35 @@
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:L32"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="6" customWidth="1"/>
-    <col min="5" max="11" width="7.625" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.875" style="6"/>
+    <col min="2" max="2" width="6.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="6" customWidth="1"/>
+    <col min="5" max="11" width="7.6640625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="12.75" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -10916,7 +10928,7 @@
       </c>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:12" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="11.25" thickTop="1">
       <c r="A2" s="4" t="s">
         <v>63</v>
       </c>
@@ -10930,7 +10942,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" ht="15">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
@@ -10944,7 +10956,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" ht="15">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
@@ -10958,7 +10970,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" ht="15">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -10969,7 +10981,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" ht="15">
       <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
@@ -10980,7 +10992,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" ht="15">
       <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
@@ -10991,7 +11003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8" s="24"/>
       <c r="C8" s="4" t="s">
         <v>51</v>
@@ -11000,7 +11012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="24"/>
       <c r="C9" s="4" t="s">
         <v>52</v>
@@ -11009,7 +11021,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="24"/>
       <c r="C10" s="4" t="s">
         <v>53</v>
@@ -11018,12 +11030,12 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" ht="15">
       <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="8" customFormat="1" ht="12.75" thickBot="1">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
@@ -11038,7 +11050,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
     </row>
-    <row r="14" spans="1:12" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="12" thickTop="1" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -11073,7 +11085,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="11.25" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
@@ -11112,7 +11124,7 @@
         <v>1.4659308730409215E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="11.25" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
@@ -11151,7 +11163,7 @@
         <v>8.062499181400451E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="11.25" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
@@ -11190,7 +11202,7 @@
         <v>2.960662269889669E-4</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="11.25" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>77</v>
       </c>
@@ -11229,7 +11241,7 @@
         <v>1.5807587099249121E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="11.25" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
@@ -11268,7 +11280,7 @@
         <v>7.2016997595250043E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="11.25" thickBot="1">
       <c r="A20" s="2" t="s">
         <v>89</v>
       </c>
@@ -11307,7 +11319,7 @@
         <v>-3.9568059553520829E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="11.25" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>90</v>
       </c>
@@ -11346,7 +11358,7 @@
         <v>-1.3735702600939925E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="11.25" thickBot="1">
       <c r="A22" s="2" t="s">
         <v>91</v>
       </c>
@@ -11385,7 +11397,7 @@
         <v>-1.634852011325072E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="11.25" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>92</v>
       </c>
@@ -11424,7 +11436,7 @@
         <v>6.9722022212649337E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="11.25" thickBot="1">
       <c r="A24" s="2" t="s">
         <v>93</v>
       </c>
@@ -11463,7 +11475,7 @@
         <v>6.768752190262961E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:12">
       <c r="B25" s="11">
         <f>AVERAGE(B15:B24)</f>
         <v>0.61981756567271784</v>
@@ -11505,15 +11517,15 @@
         <v>6.8021759134310997</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12">
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
     </row>
-    <row r="28" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="12.75" thickBot="1">
       <c r="A28" s="7" t="s">
         <v>79</v>
       </c>
@@ -11521,19 +11533,19 @@
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:12" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:12" ht="11.25" thickTop="1">
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12">
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12">
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12">
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
     </row>
@@ -11553,8 +11565,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -11573,32 +11585,35 @@
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="8"/>
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.375" style="6" customWidth="1"/>
-    <col min="5" max="11" width="7.625" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.875" style="6"/>
+    <col min="2" max="2" width="6.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="6" customWidth="1"/>
+    <col min="5" max="11" width="7.6640625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="13" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -11611,7 +11626,7 @@
       </c>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:12" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" ht="12" thickTop="1">
       <c r="A2" s="4" t="s">
         <v>63</v>
       </c>
@@ -11625,7 +11640,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
@@ -11639,7 +11654,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
@@ -11653,7 +11668,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -11664,7 +11679,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12">
       <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
@@ -11675,7 +11690,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12">
       <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
@@ -11686,7 +11701,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12">
       <c r="A8" s="24"/>
       <c r="C8" s="4" t="s">
         <v>51</v>
@@ -11695,7 +11710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12">
       <c r="A9" s="24"/>
       <c r="C9" s="4" t="s">
         <v>52</v>
@@ -11704,7 +11719,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12">
       <c r="A10" s="24"/>
       <c r="C10" s="4" t="s">
         <v>53</v>
@@ -11713,17 +11728,17 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12">
       <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12">
       <c r="A12" s="24" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" s="8" customFormat="1" ht="13" thickBot="1">
       <c r="A14" s="7" t="s">
         <v>64</v>
       </c>
@@ -11738,7 +11753,7 @@
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
     </row>
-    <row r="15" spans="1:12" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="24" thickTop="1" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
@@ -11773,7 +11788,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="12" thickBot="1">
       <c r="A16" s="2" t="s">
         <v>74</v>
       </c>
@@ -11812,7 +11827,7 @@
         <v>6.6033158816519721E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="12" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>75</v>
       </c>
@@ -11851,7 +11866,7 @@
         <v>4.075251915038991E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="12" thickBot="1">
       <c r="A18" s="2" t="s">
         <v>76</v>
       </c>
@@ -11890,7 +11905,7 @@
         <v>-2.7222496904449889E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="12" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>77</v>
       </c>
@@ -11929,7 +11944,7 @@
         <v>5.4453879609579481E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="12" thickBot="1">
       <c r="A20" s="2" t="s">
         <v>78</v>
       </c>
@@ -11968,7 +11983,7 @@
         <v>7.0804682256989659E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="12" thickBot="1">
       <c r="A21" s="2" t="s">
         <v>89</v>
       </c>
@@ -12007,7 +12022,7 @@
         <v>4.8133986876279788E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="12" thickBot="1">
       <c r="A22" s="3" t="s">
         <v>90</v>
       </c>
@@ -12046,7 +12061,7 @@
         <v>4.0071791015109381E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="12" thickBot="1">
       <c r="A23" s="2" t="s">
         <v>91</v>
       </c>
@@ -12085,7 +12100,7 @@
         <v>5.3841189449190807E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="12" thickBot="1">
       <c r="A24" s="3" t="s">
         <v>92</v>
       </c>
@@ -12124,7 +12139,7 @@
         <v>4.4615197864650291E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="12" thickBot="1">
       <c r="A25" s="2" t="s">
         <v>93</v>
       </c>
@@ -12163,7 +12178,7 @@
         <v>6.9946583332070045E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:12">
       <c r="B26" s="11">
         <f>AVERAGE(B16:B25)</f>
         <v>0.61623046014441418</v>
@@ -12205,15 +12220,15 @@
         <v>6.8168698893199107</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12">
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12">
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
     </row>
-    <row r="29" spans="1:12" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="13" thickBot="1">
       <c r="A29" s="7" t="s">
         <v>79</v>
       </c>
@@ -12221,19 +12236,19 @@
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" spans="1:12" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" ht="12" thickTop="1">
       <c r="C30" s="12"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:12">
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12">
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:4">
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
     </row>
@@ -12253,8 +12268,8 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -12273,6 +12288,9 @@
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -12285,17 +12303,17 @@
       <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.875" style="6"/>
+    <col min="1" max="1" width="20.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>16</v>
       </c>
@@ -12308,7 +12326,7 @@
       <c r="D1" s="30"/>
       <c r="E1" s="31"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" ht="15">
       <c r="A2" s="32" t="s">
         <v>19</v>
       </c>
@@ -12325,7 +12343,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" ht="15">
       <c r="A3" s="33"/>
       <c r="B3" s="16" t="s">
         <v>24</v>
@@ -12340,7 +12358,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" ht="15">
       <c r="A4" s="33"/>
       <c r="B4" s="16" t="s">
         <v>25</v>
@@ -12355,7 +12373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" ht="15">
       <c r="A5" s="33"/>
       <c r="B5" s="16" t="s">
         <v>26</v>
@@ -12370,7 +12388,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" ht="15">
       <c r="A6" s="33"/>
       <c r="B6" s="16" t="s">
         <v>27</v>
@@ -12385,7 +12403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" ht="15">
       <c r="A7" s="33"/>
       <c r="B7" s="16" t="s">
         <v>28</v>
@@ -12400,7 +12418,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" ht="15">
       <c r="A8" s="34"/>
       <c r="B8" s="16" t="s">
         <v>29</v>
@@ -12415,8 +12433,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="6.95" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" ht="7" customHeight="1"/>
+    <row r="10" spans="1:5">
       <c r="A10" s="18" t="s">
         <v>30</v>
       </c>
@@ -12425,8 +12443,8 @@
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
     </row>
-    <row r="11" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" ht="6" customHeight="1"/>
+    <row r="12" spans="1:5">
       <c r="A12" s="18" t="s">
         <v>31</v>
       </c>
@@ -12435,8 +12453,8 @@
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
     </row>
-    <row r="13" spans="1:5" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="6" customHeight="1"/>
+    <row r="14" spans="1:5">
       <c r="A14" s="18" t="s">
         <v>32</v>
       </c>
@@ -12445,8 +12463,8 @@
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
     </row>
-    <row r="15" spans="1:5" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="5" customHeight="1"/>
+    <row r="16" spans="1:5" ht="15">
       <c r="A16" s="35" t="s">
         <v>33</v>
       </c>
@@ -12461,7 +12479,7 @@
       </c>
       <c r="E16" s="20"/>
     </row>
-    <row r="17" spans="1:5" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="16" customHeight="1" thickBot="1">
       <c r="A17" s="36"/>
       <c r="B17" s="21" t="s">
         <v>37</v>
@@ -12476,7 +12494,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5">
       <c r="A20" s="27" t="s">
         <v>100</v>
       </c>
@@ -12484,25 +12502,25 @@
         <v>94</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" s="27"/>
       <c r="B21" s="6" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22" s="27"/>
       <c r="B22" s="6" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23" s="27"/>
       <c r="B23" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" s="27"/>
       <c r="B24" s="6" t="s">
         <v>97</v>
@@ -12531,21 +12549,21 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="8.625" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.875" style="6"/>
+    <col min="2" max="2" width="8.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="8.6640625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -12558,7 +12576,7 @@
       </c>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="11.25" thickTop="1">
       <c r="A2" s="4" t="s">
         <v>63</v>
       </c>
@@ -12572,7 +12590,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
@@ -12586,7 +12604,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
@@ -12597,7 +12615,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -12608,7 +12626,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="15">
       <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
@@ -12619,7 +12637,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15">
       <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
@@ -12630,7 +12648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15">
       <c r="A8" s="4" t="s">
         <v>60</v>
       </c>
@@ -12641,7 +12659,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="15">
       <c r="A9" s="4" t="s">
         <v>61</v>
       </c>
@@ -12652,7 +12670,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15">
       <c r="A10" s="4" t="s">
         <v>62</v>
       </c>
@@ -12663,7 +12681,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
@@ -12678,7 +12696,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="12" thickTop="1" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -12710,7 +12728,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="11.25" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
@@ -12742,7 +12760,7 @@
         <v>6.6911006953449803</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="11.25" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
@@ -12774,7 +12792,7 @@
         <v>6.9220464526529399</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="11.25" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
@@ -12806,7 +12824,7 @@
         <v>6.8616747026675</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="11.25" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>77</v>
       </c>
@@ -12838,7 +12856,7 @@
         <v>6.7332206592583903</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="11.25" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
@@ -12870,7 +12888,7 @@
         <v>6.7673124139589396</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="B20" s="11">
         <f>AVERAGE(B15:B19)</f>
         <v>0.61751942944187344</v>
@@ -12908,15 +12926,15 @@
         <v>6.7950709847765491</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="12.75" thickBot="1">
       <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
@@ -12924,19 +12942,19 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:10" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="11.25" thickTop="1">
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
     </row>
@@ -12959,21 +12977,21 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J48" sqref="J48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="8.625" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.875" style="6"/>
+    <col min="2" max="2" width="8.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="8.6640625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -12986,7 +13004,7 @@
       </c>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="11.25" thickTop="1">
       <c r="A2" s="4" t="s">
         <v>63</v>
       </c>
@@ -13000,7 +13018,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
@@ -13014,7 +13032,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
@@ -13025,7 +13043,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -13036,7 +13054,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="15">
       <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
@@ -13047,7 +13065,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15">
       <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
@@ -13058,7 +13076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15">
       <c r="A8" s="4" t="s">
         <v>60</v>
       </c>
@@ -13069,7 +13087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="15">
       <c r="A9" s="4" t="s">
         <v>61</v>
       </c>
@@ -13080,7 +13098,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15">
       <c r="A10" s="4" t="s">
         <v>62</v>
       </c>
@@ -13091,7 +13109,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
@@ -13106,7 +13124,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="12" thickTop="1" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -13138,7 +13156,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="11.25" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
@@ -13170,7 +13188,7 @@
         <v>6.8945906286312697</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="11.25" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
@@ -13202,7 +13220,7 @@
         <v>6.8281100199846199</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="11.25" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
@@ -13234,7 +13252,7 @@
         <v>6.8673344011032498</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="11.25" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>77</v>
       </c>
@@ -13266,7 +13284,7 @@
         <v>6.7412807395396701</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="11.25" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
@@ -13298,7 +13316,7 @@
         <v>6.79904394187857</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="B20" s="11">
         <f>AVERAGE(B15:B19)</f>
         <v>0.61734543470176662</v>
@@ -13336,15 +13354,15 @@
         <v>6.8260719462274766</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="12.75" thickBot="1">
       <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
@@ -13352,19 +13370,19 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:10" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="11.25" thickTop="1">
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
     </row>
@@ -13387,21 +13405,21 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="8.625" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.875" style="6"/>
+    <col min="2" max="2" width="8.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="8.6640625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -13414,7 +13432,7 @@
       </c>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="11.25" thickTop="1">
       <c r="A2" s="4" t="s">
         <v>63</v>
       </c>
@@ -13428,7 +13446,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
@@ -13442,7 +13460,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
@@ -13453,7 +13471,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -13464,7 +13482,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="15">
       <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
@@ -13475,7 +13493,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15">
       <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
@@ -13486,7 +13504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15">
       <c r="A8" s="4" t="s">
         <v>60</v>
       </c>
@@ -13497,7 +13515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="15">
       <c r="A9" s="4" t="s">
         <v>61</v>
       </c>
@@ -13508,7 +13526,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="24"/>
       <c r="C10" s="4" t="s">
         <v>53</v>
@@ -13517,7 +13535,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
@@ -13532,7 +13550,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="12" thickTop="1" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -13564,7 +13582,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="11.25" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
@@ -13596,7 +13614,7 @@
         <v>6.6732832938810702</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="11.25" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
@@ -13628,7 +13646,7 @@
         <v>6.8058979518198699</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="11.25" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
@@ -13660,7 +13678,7 @@
         <v>6.7521977702184799</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="11.25" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>77</v>
       </c>
@@ -13692,7 +13710,7 @@
         <v>6.6996182245403899</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="11.25" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
@@ -13724,7 +13742,7 @@
         <v>6.7753519223685599</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="B20" s="11">
         <f>AVERAGE(B15:B19)</f>
         <v>0.6121372382877055</v>
@@ -13762,15 +13780,15 @@
         <v>6.7412698325656732</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="12.75" thickBot="1">
       <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
@@ -13778,19 +13796,19 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:10" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="11.25" thickTop="1">
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
     </row>
@@ -13813,21 +13831,21 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="8.625" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.875" style="6"/>
+    <col min="2" max="2" width="8.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="8.6640625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -13840,7 +13858,7 @@
       </c>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="11.25" thickTop="1">
       <c r="A2" s="4" t="s">
         <v>63</v>
       </c>
@@ -13854,7 +13872,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
@@ -13868,7 +13886,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
@@ -13879,7 +13897,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -13890,7 +13908,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="15">
       <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
@@ -13901,7 +13919,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15">
       <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
@@ -13912,7 +13930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15">
       <c r="A8" s="4" t="s">
         <v>60</v>
       </c>
@@ -13923,7 +13941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="24"/>
       <c r="C9" s="4" t="s">
         <v>52</v>
@@ -13932,7 +13950,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15">
       <c r="A10" s="4" t="s">
         <v>62</v>
       </c>
@@ -13943,7 +13961,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
@@ -13958,7 +13976,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="12" thickTop="1" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -13990,7 +14008,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="11.25" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
@@ -14022,7 +14040,7 @@
         <v>6.7646727651795198</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="11.25" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
@@ -14054,7 +14072,7 @@
         <v>6.8661599101624704</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="11.25" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
@@ -14086,7 +14104,7 @@
         <v>6.90951404167199</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="11.25" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>77</v>
       </c>
@@ -14118,7 +14136,7 @@
         <v>6.6797353308937897</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="11.25" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
@@ -14150,7 +14168,7 @@
         <v>6.8260659342616696</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="B20" s="11">
         <f>AVERAGE(B15:B19)</f>
         <v>0.61832107115506996</v>
@@ -14188,15 +14206,15 @@
         <v>6.8092295964338891</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="12.75" thickBot="1">
       <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
@@ -14204,19 +14222,19 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:10" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="11.25" thickTop="1">
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
     </row>
@@ -14239,21 +14257,21 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="8.625" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.875" style="6"/>
+    <col min="2" max="2" width="8.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="8.6640625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -14266,7 +14284,7 @@
       </c>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="11.25" thickTop="1">
       <c r="A2" s="4" t="s">
         <v>63</v>
       </c>
@@ -14280,7 +14298,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
@@ -14294,7 +14312,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
@@ -14305,7 +14323,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -14316,7 +14334,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="15">
       <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
@@ -14327,7 +14345,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15">
       <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
@@ -14338,7 +14356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15">
       <c r="A8" s="4" t="s">
         <v>60</v>
       </c>
@@ -14349,7 +14367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" ht="15">
       <c r="A9" s="4" t="s">
         <v>61</v>
       </c>
@@ -14360,7 +14378,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" ht="15">
       <c r="A10" s="4" t="s">
         <v>80</v>
       </c>
@@ -14371,12 +14389,12 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15">
       <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
@@ -14391,7 +14409,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="12" thickTop="1" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -14423,7 +14441,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="11.25" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
@@ -14455,7 +14473,7 @@
         <v>6.8968759963197703</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="11.25" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
@@ -14487,7 +14505,7 @@
         <v>6.6855282194435803</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="11.25" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
@@ -14519,7 +14537,7 @@
         <v>6.9024331543366797</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="11.25" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>77</v>
       </c>
@@ -14551,7 +14569,7 @@
         <v>6.7941315272638603</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="11.25" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
@@ -14583,7 +14601,7 @@
         <v>6.8560905320351901</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="B20" s="11">
         <f>AVERAGE(B15:B19)</f>
         <v>0.61745182386031083</v>
@@ -14621,15 +14639,15 @@
         <v>6.8270118858798172</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="12.75" thickBot="1">
       <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
@@ -14637,19 +14655,19 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:10" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="11.25" thickTop="1">
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
     </row>
@@ -14672,21 +14690,21 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="8.625" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.875" style="6"/>
+    <col min="2" max="2" width="8.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="8.6640625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -14699,7 +14717,7 @@
       </c>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="11.25" thickTop="1">
       <c r="A2" s="4" t="s">
         <v>63</v>
       </c>
@@ -14713,7 +14731,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
@@ -14727,7 +14745,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
@@ -14738,7 +14756,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -14749,7 +14767,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="15">
       <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
@@ -14760,7 +14778,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15">
       <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
@@ -14771,7 +14789,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" ht="15">
       <c r="A8" s="4" t="s">
         <v>60</v>
       </c>
@@ -14782,7 +14800,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="24"/>
       <c r="C9" s="4" t="s">
         <v>52</v>
@@ -14791,7 +14809,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="24"/>
       <c r="C10" s="4" t="s">
         <v>53</v>
@@ -14800,12 +14818,12 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15">
       <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
@@ -14820,7 +14838,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="12" thickTop="1" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -14852,7 +14870,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="11.25" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
@@ -14884,7 +14902,7 @@
         <v>6.6553388696042601</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="11.25" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
@@ -14916,7 +14934,7 @@
         <v>6.7549522318119903</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="11.25" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
@@ -14948,7 +14966,7 @@
         <v>6.9523943933410202</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="11.25" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>77</v>
       </c>
@@ -14980,7 +14998,7 @@
         <v>6.8505522098505196</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="11.25" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
@@ -15012,7 +15030,7 @@
         <v>7.0390763744732796</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="B20" s="11">
         <f>AVERAGE(B15:B19)</f>
         <v>0.6191532637163002</v>
@@ -15050,15 +15068,15 @@
         <v>6.8504628158162149</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="12.75" thickBot="1">
       <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
@@ -15066,19 +15084,19 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:10" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="11.25" thickTop="1">
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
     </row>
@@ -15101,21 +15119,21 @@
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F51" sqref="F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="8.625" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.875" style="6"/>
+    <col min="2" max="2" width="8.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="8.6640625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1">
       <c r="A1" s="7" t="s">
         <v>41</v>
       </c>
@@ -15128,7 +15146,7 @@
       </c>
       <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" ht="11.25" thickTop="1">
       <c r="A2" s="4" t="s">
         <v>63</v>
       </c>
@@ -15142,7 +15160,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" ht="15">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
@@ -15156,7 +15174,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" ht="15">
       <c r="A4" s="4" t="s">
         <v>56</v>
       </c>
@@ -15167,7 +15185,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" ht="15">
       <c r="A5" s="4" t="s">
         <v>57</v>
       </c>
@@ -15178,7 +15196,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" ht="15">
       <c r="A6" s="4" t="s">
         <v>58</v>
       </c>
@@ -15189,7 +15207,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" ht="15">
       <c r="A7" s="4" t="s">
         <v>59</v>
       </c>
@@ -15200,7 +15218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11">
       <c r="A8" s="24"/>
       <c r="C8" s="4" t="s">
         <v>51</v>
@@ -15209,7 +15227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11">
       <c r="A9" s="24"/>
       <c r="C9" s="4" t="s">
         <v>52</v>
@@ -15218,7 +15236,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11">
       <c r="A10" s="24"/>
       <c r="C10" s="4" t="s">
         <v>53</v>
@@ -15227,12 +15245,12 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" ht="15">
       <c r="A11" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="12.75" thickBot="1">
       <c r="A13" s="7" t="s">
         <v>64</v>
       </c>
@@ -15247,7 +15265,7 @@
       <c r="J13" s="7"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="12" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="12" thickTop="1" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>65</v>
       </c>
@@ -15279,7 +15297,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="11.25" thickBot="1">
       <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
@@ -15311,7 +15329,7 @@
         <v>6.8569107477479996</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="11.25" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
@@ -15343,7 +15361,7 @@
         <v>6.7610158587790101</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" ht="11.25" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
@@ -15375,7 +15393,7 @@
         <v>6.7662670876523796</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" ht="11.25" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>77</v>
       </c>
@@ -15407,7 +15425,7 @@
         <v>6.6428315963850899</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="11.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" ht="11.25" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
@@ -15439,7 +15457,7 @@
         <v>6.71506095555445</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:10">
       <c r="B20" s="11">
         <f>AVERAGE(B15:B19)</f>
         <v>0.61791194312571462</v>
@@ -15477,15 +15495,15 @@
         <v>6.7484172492237864</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:10">
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:10">
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
     </row>
-    <row r="23" spans="1:10" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" ht="12.75" thickBot="1">
       <c r="A23" s="7" t="s">
         <v>79</v>
       </c>
@@ -15493,19 +15511,19 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" spans="1:10" ht="11.25" thickTop="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:10" ht="11.25" thickTop="1">
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:10">
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:10">
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:10">
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
     </row>

--- a/model_cv_log.xlsx
+++ b/model_cv_log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28440" yWindow="0" windowWidth="39840" windowHeight="25360" tabRatio="838" firstSheet="2" activeTab="24"/>
+    <workbookView xWindow="28440" yWindow="0" windowWidth="39840" windowHeight="25360" tabRatio="838" firstSheet="3" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -33,6 +33,8 @@
     <sheet name="cv_dist_2" sheetId="23" r:id="rId24"/>
     <sheet name="cv_leaf_1" sheetId="25" r:id="rId25"/>
     <sheet name="cv_leaf_2" sheetId="26" r:id="rId26"/>
+    <sheet name="cv_n_6" sheetId="27" r:id="rId27"/>
+    <sheet name="cv_leaf_3" sheetId="28" r:id="rId28"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="108">
   <si>
     <t>rsme+kappa</t>
   </si>
@@ -365,6 +367,9 @@
   </si>
   <si>
     <t>200-350</t>
+  </si>
+  <si>
+    <t>New Seed : 1989</t>
   </si>
 </sst>
 </file>
@@ -739,7 +744,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="113">
+  <cellStyleXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -853,6 +858,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -940,7 +947,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="113">
+  <cellStyles count="115">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -996,6 +1003,7 @@
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1051,6 +1059,7 @@
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
     <cellStyle name="Linked Cell" xfId="21" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="90" builtinId="5"/>
@@ -6113,6 +6122,15 @@
                 <c:pt idx="6">
                   <c:v>0.624486684645911</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.615293807519774</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.606131262749176</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.624977390049589</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6142,6 +6160,15 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.667129739711993</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.661024323936047</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.648192482433905</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66472458754265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6291,6 +6318,15 @@
                 <c:pt idx="6">
                   <c:v>0.624486684645911</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.615293807519774</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.606131262749176</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.624977390049589</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6320,6 +6356,15 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.658581519476275</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.652867978210499</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.645316145564746</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.663456007603674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6669,6 +6714,414 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cv_n_6!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>optim_kappa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>cv_n_6!$B$15:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>cv_n_6!$C$15:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2121892552"/>
+        <c:axId val="-2121934488"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2121892552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2121934488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2121934488"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2121892552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="700">
+          <a:latin typeface="Lucida Sans" panose="020B0602040502020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cv_n_6!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fixed_kappa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>cv_n_6!$B$15:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>cv_n_6!$D$15:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2121970920"/>
+        <c:axId val="-2121967960"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2121970920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2121967960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2121967960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2121970920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="700">
+          <a:latin typeface="Lucida Sans" panose="020B0602040502020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cv_leaf_3!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>optim_kappa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>cv_leaf_3!$B$16:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>cv_leaf_3!$C$16:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2125910168"/>
+        <c:axId val="-2125843240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2125910168"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2125843240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2125843240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2125910168"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="700">
+          <a:latin typeface="Lucida Sans" panose="020B0602040502020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
@@ -6802,6 +7255,142 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="-2133165688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="700">
+          <a:latin typeface="Lucida Sans" panose="020B0602040502020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cv_leaf_3!$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fixed_kappa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>cv_leaf_3!$B$16:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>cv_leaf_3!$D$16:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2122950184"/>
+        <c:axId val="-2122949544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2122950184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2122949544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2122949544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2122950184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8673,6 +9262,144 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing24.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing25.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -17718,7 +18445,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -19846,8 +20573,8 @@
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -20317,110 +21044,176 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="12" thickBot="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="A23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.61529380751977403</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0.66102432393604704</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.65286797821049902</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2.8300344305490199</v>
+      </c>
+      <c r="F23" s="9">
+        <v>3.6429294321005101</v>
+      </c>
+      <c r="G23" s="9">
+        <v>4.7864998548743998</v>
+      </c>
+      <c r="H23" s="9">
+        <v>4.1081797668417996</v>
+      </c>
+      <c r="I23" s="9">
+        <v>5.5436677109586698</v>
+      </c>
+      <c r="J23" s="9">
+        <v>6.0650008820587002</v>
+      </c>
+      <c r="K23" s="9">
+        <v>6.8377424449979101</v>
+      </c>
       <c r="L23" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.1563457255480198E-3</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="12" thickBot="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
+      <c r="A24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="10">
+        <v>0.60613126274917595</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.64819248243390504</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.64531614556474604</v>
+      </c>
+      <c r="E24" s="10">
+        <v>2.4748848748521599</v>
+      </c>
+      <c r="F24" s="10">
+        <v>3.2489602714780399</v>
+      </c>
+      <c r="G24" s="10">
+        <v>4.1382694162372804</v>
+      </c>
+      <c r="H24" s="10">
+        <v>4.9122735461888896</v>
+      </c>
+      <c r="I24" s="10">
+        <v>5.5118106916923804</v>
+      </c>
+      <c r="J24" s="10">
+        <v>6.2507529546801504</v>
+      </c>
+      <c r="K24" s="10">
+        <v>6.9192422010575303</v>
+      </c>
       <c r="L24" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.8763368691590019E-3</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="12" thickBot="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="A25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="9">
+        <v>0.62497739004958897</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.66472458754264996</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.66345600760367396</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2.6486947703093402</v>
+      </c>
+      <c r="F25" s="9">
+        <v>3.5816482484484302</v>
+      </c>
+      <c r="G25" s="9">
+        <v>3.3442659802429202</v>
+      </c>
+      <c r="H25" s="9">
+        <v>4.7342131269100598</v>
+      </c>
+      <c r="I25" s="9">
+        <v>5.4939881612936396</v>
+      </c>
+      <c r="J25" s="9">
+        <v>6.22944711077026</v>
+      </c>
+      <c r="K25" s="9">
+        <v>6.8398643643217403</v>
+      </c>
       <c r="L25" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.268579938976E-3</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="B26" s="11">
         <f>AVERAGE(B16:B25)</f>
-        <v>0.62232968874293559</v>
+        <v>0.62027102815190882</v>
       </c>
       <c r="C26" s="11">
         <f t="shared" ref="C26:K26" si="1">AVERAGE(C16:C25)</f>
-        <v>0.66539829891001112</v>
+        <v>0.66317294862826803</v>
       </c>
       <c r="D26" s="11">
         <f t="shared" si="1"/>
-        <v>0.66173697891906813</v>
+        <v>0.65937989838123967</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
-        <v>2.4970052808539029</v>
+        <v>2.5432651041687842</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="1"/>
-        <v>3.3764609698429728</v>
+        <v>3.4108764740927788</v>
       </c>
       <c r="G26" s="11">
         <f t="shared" si="1"/>
-        <v>4.0850997512558544</v>
+        <v>4.0864733510145586</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="1"/>
-        <v>4.9280109176021432</v>
+        <v>4.8250742863155747</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" si="1"/>
-        <v>5.4615517858893563</v>
+        <v>5.4780329065170195</v>
       </c>
       <c r="J26" s="11">
         <f t="shared" si="1"/>
-        <v>6.1920914182233782</v>
+        <v>6.1889840875072757</v>
       </c>
       <c r="K26" s="11">
         <f t="shared" si="1"/>
-        <v>6.8609250488986335</v>
+        <v>6.8623324352667607</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="B27" s="29">
         <f>VAR(B16:B25)</f>
-        <v>6.4508198376802235E-5</v>
+        <v>7.3730145271260571E-5</v>
       </c>
       <c r="C27" s="29">
         <f>VAR(C16:C25)</f>
-        <v>7.9391394942390897E-5</v>
+        <v>8.2494688397624752E-5</v>
       </c>
       <c r="D27" s="29">
         <f>VAR(D16:D25)</f>
-        <v>5.5523196570002026E-5</v>
+        <v>6.9870988226602811E-5</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -20995,6 +21788,1015 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:L32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:K24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="6" customWidth="1"/>
+    <col min="5" max="11" width="7.6640625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="13" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" ht="12" thickTop="1">
+      <c r="A2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="13">
+        <v>850</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="24"/>
+      <c r="C8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="13">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="24"/>
+      <c r="C9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="24"/>
+      <c r="C10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="8" customFormat="1" ht="13" thickBot="1">
+      <c r="A13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+    </row>
+    <row r="14" spans="1:12" ht="24" thickTop="1" thickBot="1">
+      <c r="A14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="12" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="12">
+        <f>C15-D15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="12" thickBot="1">
+      <c r="A16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="12">
+        <f t="shared" ref="L16:L24" si="0">C16-D16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="12" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="9"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="12" thickBot="1">
+      <c r="A18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="12" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="12" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="12" thickBot="1">
+      <c r="A21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="12" thickBot="1">
+      <c r="A22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="12" thickBot="1">
+      <c r="A23" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="12" thickBot="1">
+      <c r="A24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="B25" s="11" t="e">
+        <f>AVERAGE(B15:B24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C25" s="11" t="e">
+        <f t="shared" ref="C25:K25" si="1">AVERAGE(C15:C24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G25" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H25" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I25" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J25" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K25" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="B26" s="29" t="e">
+        <f>VAR(B15:B24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C26" s="29" t="e">
+        <f>VAR(C15:C24)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="29" t="e">
+        <f>VAR(D15:D24)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
+    <row r="28" spans="1:12" ht="13" thickBot="1">
+      <c r="A28" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+    </row>
+    <row r="29" spans="1:12" ht="12" thickTop="1">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="L15:L24">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9F21D62A-C88D-3C49-A5D2-C7F12B3061CA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9F21D62A-C88D-3C49-A5D2-C7F12B3061CA}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L15:L24</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="5"/>
+  </sheetPr>
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="6" customWidth="1"/>
+    <col min="5" max="11" width="7.6640625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="13" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" ht="12" thickTop="1">
+      <c r="A2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="5">
+        <v>800</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="24"/>
+      <c r="C8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="24"/>
+      <c r="C9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="24"/>
+      <c r="C10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="8" customFormat="1" ht="13" thickBot="1">
+      <c r="A14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" ht="24" thickTop="1" thickBot="1">
+      <c r="A15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="12" thickBot="1">
+      <c r="A16" s="2"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="12">
+        <f>C16-D16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="12" thickBot="1">
+      <c r="A17" s="3"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="12">
+        <f t="shared" ref="L17:L25" si="0">C17-D17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="12" thickBot="1">
+      <c r="A18" s="2"/>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="12" thickBot="1">
+      <c r="A19" s="3"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="12" thickBot="1">
+      <c r="A20" s="2"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="12" thickBot="1">
+      <c r="A21" s="2"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="12" thickBot="1">
+      <c r="A22" s="3"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="12" thickBot="1">
+      <c r="A23" s="2"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="12" thickBot="1">
+      <c r="A24" s="3"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="12" thickBot="1">
+      <c r="A25" s="2"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="B26" s="11" t="e">
+        <f>AVERAGE(B16:B25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C26" s="11" t="e">
+        <f t="shared" ref="C26:K26" si="1">AVERAGE(C16:C25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="B27" s="29" t="e">
+        <f>VAR(B16:B25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C27" s="29" t="e">
+        <f>VAR(C16:C25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="29" t="e">
+        <f>VAR(D16:D25)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:12" ht="13" thickBot="1">
+      <c r="A29" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" ht="12" thickTop="1">
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="L16:L25">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{074F09EB-1575-D141-86BB-70E95A722D2E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{074F09EB-1575-D141-86BB-70E95A722D2E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L16:L25</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">

--- a/model_cv_log.xlsx
+++ b/model_cv_log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28440" yWindow="0" windowWidth="39840" windowHeight="25360" tabRatio="838" firstSheet="3" activeTab="27"/>
+    <workbookView xWindow="12540" yWindow="0" windowWidth="39840" windowHeight="25360" tabRatio="838" firstSheet="3" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="109">
   <si>
     <t>rsme+kappa</t>
   </si>
@@ -370,6 +370,9 @@
   </si>
   <si>
     <t>New Seed : 1989</t>
+  </si>
+  <si>
+    <t>155-433</t>
   </si>
 </sst>
 </file>
@@ -744,7 +747,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="115">
+  <cellStyleXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -860,6 +863,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -947,7 +956,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="115">
+  <cellStyles count="121">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1004,6 +1013,9 @@
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1060,6 +1072,9 @@
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Linked Cell" xfId="21" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="90" builtinId="5"/>
@@ -6493,6 +6508,36 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.619029546178577</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.624597062138906</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.624991725509072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.632913654252401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.608263750275094</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.616984513267004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.623971855570436</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.618067990802512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.608068981781546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.623906646278318</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6502,6 +6547,36 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.659559811675249</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.672742648561793</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.662089873617615</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.681142086362324</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.653991249561108</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.66432969485515</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.666696658544452</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.658417844779667</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.644596836122269</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.665861420639367</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6629,6 +6704,36 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.619029546178577</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.624597062138906</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.624991725509072</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.632913654252401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.608263750275094</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.616984513267004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.623971855570436</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.618067990802512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.608068981781546</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.623906646278318</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6638,6 +6743,36 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.65514141118606</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.669813306135937</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.662553722550361</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.67349774312457</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.654079709545091</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.663466687873398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.658075302632841</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.654208148305736</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.646241802927721</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.664619518889491</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6765,6 +6900,36 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.608063379631147</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.616639718602397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.620883038439521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.606624884643734</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.620414388119528</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.613814293950696</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.619158005510766</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.607257814862939</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.603951853132794</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.621372097893472</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6774,6 +6939,36 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.654507759762595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.659215501871594</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.669211882214907</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.645647726959646</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.668393935923084</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.659251648488965</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.667441600279612</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.656193758400095</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.652011387158895</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.673247332627846</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6901,6 +7096,36 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.608063379631147</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.616639718602397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.620883038439521</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.606624884643734</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.620414388119528</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.613814293950696</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.619158005510766</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.607257814862939</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.603951853132794</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.621372097893472</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -6910,6 +7135,36 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.654616218937262</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.662369141692166</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.663560963556884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.647690435585725</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.662966824344746</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.656108535646329</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.664784242229509</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.654622752029455</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.648206134147299</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.666138813327656</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7037,6 +7292,36 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.609545490702403</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.611486534143618</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.620289879628778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.625772835299594</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.624432393837589</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.636914200109734</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.638180069835594</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.602766990651834</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.618081221789586</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.619153171097068</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7046,6 +7331,36 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.652562764748986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.655794247820818</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.667146133806674</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.664496020139821</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66380546707272</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.682686806230646</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.685024028370024</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.643564887740421</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.662105639330886</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.661402094600788</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7339,6 +7654,36 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.609545490702403</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.611486534143618</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.620289879628778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.625772835299594</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.624432393837589</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.636914200109734</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.638180069835594</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.602766990651834</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.618081221789586</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.619153171097068</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7348,6 +7693,36 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.64829893713983</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.651550820872423</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.662885821104551</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.667138328977898</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.661046074254026</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.679974706826071</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.681638707047013</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.645797217978512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.659113013114161</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.656471824914953</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -19866,7 +20241,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D26" sqref="B26:D26"/>
+      <selection activeCell="P59" sqref="P59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -21295,7 +21670,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="R59" sqref="R59"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -21328,11 +21703,11 @@
       <c r="C2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="5">
-        <v>800</v>
-      </c>
-      <c r="E2" s="38">
-        <v>300</v>
+      <c r="D2" s="13">
+        <v>850</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>108</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>82</v>
@@ -21422,8 +21797,8 @@
       <c r="C10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="5">
-        <v>0.67</v>
+      <c r="D10" s="13">
+        <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -21492,229 +21867,449 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="12" thickBot="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="A16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0.61902954617857697</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.65955981167524902</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.65514141118605995</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2.5384590757712502</v>
+      </c>
+      <c r="F16" s="9">
+        <v>3.2721513968907199</v>
+      </c>
+      <c r="G16" s="9">
+        <v>4.0338468624186596</v>
+      </c>
+      <c r="H16" s="9">
+        <v>5.1151688573144503</v>
+      </c>
+      <c r="I16" s="9">
+        <v>5.6013890366622103</v>
+      </c>
+      <c r="J16" s="9">
+        <v>6.1334812220017501</v>
+      </c>
+      <c r="K16" s="9">
+        <v>6.9386103633280403</v>
+      </c>
       <c r="L16" s="12">
         <f>C16-D16</f>
-        <v>0</v>
+        <v>4.4184004891890671E-3</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="12" thickBot="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="A17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0.62459706213890598</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.672742648561793</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.66981330613593704</v>
+      </c>
+      <c r="E17" s="10">
+        <v>2.4874784650041502</v>
+      </c>
+      <c r="F17" s="10">
+        <v>3.5404364515062499</v>
+      </c>
+      <c r="G17" s="10">
+        <v>4.0106560303273797</v>
+      </c>
+      <c r="H17" s="10">
+        <v>4.9176170141244304</v>
+      </c>
+      <c r="I17" s="10">
+        <v>5.5035642151771302</v>
+      </c>
+      <c r="J17" s="10">
+        <v>6.1830769529839298</v>
+      </c>
+      <c r="K17" s="10">
+        <v>6.8248542569428903</v>
+      </c>
       <c r="L17" s="12">
         <f t="shared" ref="L17:L25" si="0">C17-D17</f>
-        <v>0</v>
+        <v>2.9293424258559631E-3</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="12" thickBot="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="A18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.624991725509072</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.66208987361761495</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.66255372255036105</v>
+      </c>
+      <c r="E18" s="9">
+        <v>3.5038981012662398</v>
+      </c>
+      <c r="F18" s="9">
+        <v>2.73521610823691</v>
+      </c>
+      <c r="G18" s="9">
+        <v>3.8013576890327299</v>
+      </c>
+      <c r="H18" s="9">
+        <v>4.7477321515988802</v>
+      </c>
+      <c r="I18" s="9">
+        <v>5.3293087913113499</v>
+      </c>
+      <c r="J18" s="9">
+        <v>6.1960323945901399</v>
+      </c>
+      <c r="K18" s="9">
+        <v>6.7412052901437001</v>
+      </c>
       <c r="L18" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.6384893274609151E-4</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="12" thickBot="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="A19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0.63291365425240098</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.68114208636232398</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.67349774312457</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2.9039622330392598</v>
+      </c>
+      <c r="F19" s="10">
+        <v>4.1825933012202299</v>
+      </c>
+      <c r="G19" s="10">
+        <v>3.8912613397781799</v>
+      </c>
+      <c r="H19" s="10">
+        <v>4.8173044235383999</v>
+      </c>
+      <c r="I19" s="10">
+        <v>5.5944853079752104</v>
+      </c>
+      <c r="J19" s="10">
+        <v>6.2279001509951497</v>
+      </c>
+      <c r="K19" s="10">
+        <v>6.6794982881885003</v>
+      </c>
       <c r="L19" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.6443432377539811E-3</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="12" thickBot="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="A20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.60826375027509405</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.65399124956110799</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.65407970954509098</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2.1543706969946701</v>
+      </c>
+      <c r="F20" s="9">
+        <v>3.3892877633205898</v>
+      </c>
+      <c r="G20" s="9">
+        <v>4.1403323846240401</v>
+      </c>
+      <c r="H20" s="9">
+        <v>4.9074013840180797</v>
+      </c>
+      <c r="I20" s="9">
+        <v>5.1547209465167496</v>
+      </c>
+      <c r="J20" s="9">
+        <v>6.3700537833802802</v>
+      </c>
+      <c r="K20" s="9">
+        <v>6.7952876750370397</v>
+      </c>
       <c r="L20" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-8.8459983982991375E-5</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="12" thickBot="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="A21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.61698451326700399</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.66432969485515003</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.66346668787339802</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2.1310776386300301</v>
+      </c>
+      <c r="F21" s="9">
+        <v>3.22221601315182</v>
+      </c>
+      <c r="G21" s="9">
+        <v>4.1648623558400297</v>
+      </c>
+      <c r="H21" s="9">
+        <v>4.8979036825064401</v>
+      </c>
+      <c r="I21" s="9">
+        <v>5.5768628624368803</v>
+      </c>
+      <c r="J21" s="9">
+        <v>6.1844356376107497</v>
+      </c>
+      <c r="K21" s="9">
+        <v>6.8475687575162096</v>
+      </c>
       <c r="L21" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.6300698175201251E-4</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="12" thickBot="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
+      <c r="A22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0.623971855570436</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.66669665854445204</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.65807530263284097</v>
+      </c>
+      <c r="E22" s="10">
+        <v>2.8269253004943402</v>
+      </c>
+      <c r="F22" s="10">
+        <v>3.0850097219403301</v>
+      </c>
+      <c r="G22" s="10">
+        <v>4.3304468485373304</v>
+      </c>
+      <c r="H22" s="10">
+        <v>4.7826126055282296</v>
+      </c>
+      <c r="I22" s="10">
+        <v>5.3729777720142398</v>
+      </c>
+      <c r="J22" s="10">
+        <v>6.1227882868425496</v>
+      </c>
+      <c r="K22" s="10">
+        <v>6.9952829435058401</v>
+      </c>
       <c r="L22" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.6213559116110616E-3</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="12" thickBot="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="A23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.61806799080251196</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0.65841784477966703</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.65420814830573604</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2.3974113964994799</v>
+      </c>
+      <c r="F23" s="9">
+        <v>3.3603586987894301</v>
+      </c>
+      <c r="G23" s="9">
+        <v>4.08603204291098</v>
+      </c>
+      <c r="H23" s="9">
+        <v>4.5710811620469496</v>
+      </c>
+      <c r="I23" s="9">
+        <v>5.6244297705278496</v>
+      </c>
+      <c r="J23" s="9">
+        <v>6.1836239672863504</v>
+      </c>
+      <c r="K23" s="9">
+        <v>6.8269072382611196</v>
+      </c>
       <c r="L23" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.2096964739309906E-3</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="12" thickBot="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
+      <c r="A24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="10">
+        <v>0.608068981781546</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.64459683612226903</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.64624180292772104</v>
+      </c>
+      <c r="E24" s="10">
+        <v>2.45009408696815</v>
+      </c>
+      <c r="F24" s="10">
+        <v>3.2666699918512299</v>
+      </c>
+      <c r="G24" s="10">
+        <v>4.0652237852801898</v>
+      </c>
+      <c r="H24" s="10">
+        <v>4.5419891855614702</v>
+      </c>
+      <c r="I24" s="10">
+        <v>5.5355502886744503</v>
+      </c>
+      <c r="J24" s="10">
+        <v>6.2061089743773996</v>
+      </c>
+      <c r="K24" s="10">
+        <v>6.6319922432994298</v>
+      </c>
       <c r="L24" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1.6449668054520084E-3</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="12" thickBot="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="A25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="9">
+        <v>0.62390664627831804</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.66586142063936704</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.664619518889491</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2.4377177689977301</v>
+      </c>
+      <c r="F25" s="9">
+        <v>3.2827046710821701</v>
+      </c>
+      <c r="G25" s="9">
+        <v>4.1003970811462498</v>
+      </c>
+      <c r="H25" s="9">
+        <v>4.8936102777299801</v>
+      </c>
+      <c r="I25" s="9">
+        <v>5.4726444684563997</v>
+      </c>
+      <c r="J25" s="9">
+        <v>6.4119148331376996</v>
+      </c>
+      <c r="K25" s="9">
+        <v>6.8748032828619996</v>
+      </c>
       <c r="L25" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.2419017498760399E-3</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="B26" s="11" t="e">
+      <c r="B26" s="11">
         <f>AVERAGE(B16:B25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C26" s="11" t="e">
+        <v>0.6200795726053866</v>
+      </c>
+      <c r="C26" s="11">
         <f t="shared" ref="C26:K26" si="1">AVERAGE(C16:C25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D26" s="11" t="e">
+        <v>0.66294281247189946</v>
+      </c>
+      <c r="D26" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E26" s="11" t="e">
+        <v>0.66016973531712053</v>
+      </c>
+      <c r="E26" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="11" t="e">
+        <v>2.5831394763665299</v>
+      </c>
+      <c r="F26" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="11" t="e">
+        <v>3.333664411798968</v>
+      </c>
+      <c r="G26" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H26" s="11" t="e">
+        <v>4.0624416419895768</v>
+      </c>
+      <c r="H26" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="11" t="e">
+        <v>4.8192420743967306</v>
+      </c>
+      <c r="I26" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" s="11" t="e">
+        <v>5.4765933459752469</v>
+      </c>
+      <c r="J26" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="11" t="e">
+        <v>6.2219416203206004</v>
+      </c>
+      <c r="K26" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>6.8156010339084769</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="B27" s="29" t="e">
+      <c r="B27" s="29">
         <f>VAR(B16:B25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C27" s="29" t="e">
+        <v>5.9738147507606725E-5</v>
+      </c>
+      <c r="C27" s="29">
         <f>VAR(C16:C25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D27" s="29" t="e">
+        <v>1.001262547451283E-4</v>
+      </c>
+      <c r="D27" s="29">
         <f>VAR(D16:D25)</f>
-        <v>#DIV/0!</v>
+        <v>6.7030560162051157E-5</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -21796,7 +22391,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:K24"/>
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -21983,246 +22578,446 @@
       <c r="A15" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="B15" s="9">
+        <v>0.60806337963114698</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.65450775976259501</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.65461621893726196</v>
+      </c>
+      <c r="E15" s="9">
+        <v>1.61612401524977</v>
+      </c>
+      <c r="F15" s="9">
+        <v>3.6352637749211598</v>
+      </c>
+      <c r="G15" s="9">
+        <v>3.9959938509456499</v>
+      </c>
+      <c r="H15" s="9">
+        <v>4.8018105635299397</v>
+      </c>
+      <c r="I15" s="9">
+        <v>5.5535911243639102</v>
+      </c>
+      <c r="J15" s="9">
+        <v>6.17496028746341</v>
+      </c>
+      <c r="K15" s="9">
+        <v>6.8061989337306201</v>
+      </c>
       <c r="L15" s="12">
         <f>C15-D15</f>
-        <v>0</v>
+        <v>-1.0845917466695276E-4</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="12" thickBot="1">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
+      <c r="B16" s="10">
+        <v>0.61663971860239697</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.65921550187159395</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.66236914169216599</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1.8538412485357101</v>
+      </c>
+      <c r="F16" s="10">
+        <v>3.4464606925249099</v>
+      </c>
+      <c r="G16" s="10">
+        <v>3.7908483001612199</v>
+      </c>
+      <c r="H16" s="10">
+        <v>4.8492660577225104</v>
+      </c>
+      <c r="I16" s="10">
+        <v>5.6107263562857499</v>
+      </c>
+      <c r="J16" s="10">
+        <v>6.2375138369360199</v>
+      </c>
+      <c r="K16" s="10">
+        <v>6.6752579504338696</v>
+      </c>
       <c r="L16" s="12">
         <f t="shared" ref="L16:L24" si="0">C16-D16</f>
-        <v>0</v>
+        <v>-3.1536398205720406E-3</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="12" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="B17" s="9">
+        <v>0.62088303843952097</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.66921188221490702</v>
+      </c>
+      <c r="D17" s="9">
+        <v>0.66356096355688399</v>
+      </c>
+      <c r="E17" s="9">
+        <v>2.75777879740515</v>
+      </c>
+      <c r="F17" s="9">
+        <v>3.4426039567476598</v>
+      </c>
+      <c r="G17" s="9">
+        <v>4.1479071463711099</v>
+      </c>
+      <c r="H17" s="9">
+        <v>4.8282745300073602</v>
+      </c>
+      <c r="I17" s="9">
+        <v>5.59666352156081</v>
+      </c>
+      <c r="J17" s="9">
+        <v>6.0942312015745497</v>
+      </c>
+      <c r="K17" s="9">
+        <v>6.7909095597774396</v>
+      </c>
       <c r="L17" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.6509186580230297E-3</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="12" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="B18" s="10">
+        <v>0.60662488464373399</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.64564772695964601</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.64769043558572503</v>
+      </c>
+      <c r="E18" s="10">
+        <v>1.54094575498283</v>
+      </c>
+      <c r="F18" s="10">
+        <v>3.4962846423292602</v>
+      </c>
+      <c r="G18" s="10">
+        <v>4.0832112984099602</v>
+      </c>
+      <c r="H18" s="10">
+        <v>4.7128411241769701</v>
+      </c>
+      <c r="I18" s="10">
+        <v>5.5860892321332898</v>
+      </c>
+      <c r="J18" s="10">
+        <v>6.3221200933324004</v>
+      </c>
+      <c r="K18" s="10">
+        <v>6.80474473353381</v>
+      </c>
       <c r="L18" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2.0427086260790261E-3</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="12" thickBot="1">
       <c r="A19" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
+      <c r="B19" s="9">
+        <v>0.62041438811952798</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.66839393592308405</v>
+      </c>
+      <c r="D19" s="9">
+        <v>0.66296682434474596</v>
+      </c>
+      <c r="E19" s="9">
+        <v>2.9276378366581102</v>
+      </c>
+      <c r="F19" s="9">
+        <v>3.60155617369271</v>
+      </c>
+      <c r="G19" s="9">
+        <v>4.1187433596231902</v>
+      </c>
+      <c r="H19" s="9">
+        <v>4.6976202221842103</v>
+      </c>
+      <c r="I19" s="9">
+        <v>5.4404846722081697</v>
+      </c>
+      <c r="J19" s="9">
+        <v>6.2644227373524597</v>
+      </c>
+      <c r="K19" s="9">
+        <v>6.80673635699294</v>
+      </c>
       <c r="L19" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.4271115783380841E-3</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="12" thickBot="1">
       <c r="A20" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="B20" s="9">
+        <v>0.61381429395069598</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.659251648488965</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.65610853564632898</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2.93026791111672</v>
+      </c>
+      <c r="F20" s="9">
+        <v>3.4611223926122698</v>
+      </c>
+      <c r="G20" s="9">
+        <v>4.2685178191362603</v>
+      </c>
+      <c r="H20" s="9">
+        <v>4.6824165613736604</v>
+      </c>
+      <c r="I20" s="9">
+        <v>5.48703840513374</v>
+      </c>
+      <c r="J20" s="9">
+        <v>6.1549702647914204</v>
+      </c>
+      <c r="K20" s="9">
+        <v>6.7639781862795596</v>
+      </c>
       <c r="L20" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.14311284263602E-3</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="12" thickBot="1">
       <c r="A21" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
+      <c r="B21" s="10">
+        <v>0.61915800551076605</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.66744160027961197</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.66478424222950905</v>
+      </c>
+      <c r="E21" s="10">
+        <v>2.8883488492307499</v>
+      </c>
+      <c r="F21" s="10">
+        <v>3.4326616183905201</v>
+      </c>
+      <c r="G21" s="10">
+        <v>4.2582255496520203</v>
+      </c>
+      <c r="H21" s="10">
+        <v>5.0522178585635196</v>
+      </c>
+      <c r="I21" s="10">
+        <v>5.5857390510821796</v>
+      </c>
+      <c r="J21" s="10">
+        <v>6.3790289383326897</v>
+      </c>
+      <c r="K21" s="10">
+        <v>6.5820390963324602</v>
+      </c>
       <c r="L21" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.6573580501029204E-3</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="12" thickBot="1">
       <c r="A22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="B22" s="9">
+        <v>0.60725781486293895</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.65619375840009497</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.65462275202945497</v>
+      </c>
+      <c r="E22" s="9">
+        <v>2.2374476089748798</v>
+      </c>
+      <c r="F22" s="9">
+        <v>3.19450669993839</v>
+      </c>
+      <c r="G22" s="9">
+        <v>4.3457270012113796</v>
+      </c>
+      <c r="H22" s="9">
+        <v>4.9397661612429298</v>
+      </c>
+      <c r="I22" s="9">
+        <v>5.3812681920677203</v>
+      </c>
+      <c r="J22" s="9">
+        <v>6.2650463223327302</v>
+      </c>
+      <c r="K22" s="9">
+        <v>6.7680000873348503</v>
+      </c>
       <c r="L22" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5710063706400046E-3</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="12" thickBot="1">
       <c r="A23" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
+      <c r="B23" s="10">
+        <v>0.60395185313279398</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.65201138715889495</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.648206134147299</v>
+      </c>
+      <c r="E23" s="10">
+        <v>2.2043523167622801</v>
+      </c>
+      <c r="F23" s="10">
+        <v>3.3779418239056498</v>
+      </c>
+      <c r="G23" s="10">
+        <v>4.0428324528511101</v>
+      </c>
+      <c r="H23" s="10">
+        <v>4.91001663087017</v>
+      </c>
+      <c r="I23" s="10">
+        <v>5.4283403693448404</v>
+      </c>
+      <c r="J23" s="10">
+        <v>6.2157864360636399</v>
+      </c>
+      <c r="K23" s="10">
+        <v>6.8129339729085796</v>
+      </c>
       <c r="L23" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.8052530115959549E-3</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="12" thickBot="1">
       <c r="A24" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="B24" s="9">
+        <v>0.62137209789347203</v>
+      </c>
+      <c r="C24" s="9">
+        <v>0.67324733262784597</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0.66613881332765601</v>
+      </c>
+      <c r="E24" s="9">
+        <v>2.84857781233007</v>
+      </c>
+      <c r="F24" s="9">
+        <v>4.0703826479166496</v>
+      </c>
+      <c r="G24" s="9">
+        <v>5.2558427061454003</v>
+      </c>
+      <c r="H24" s="9">
+        <v>3.7938811898812999</v>
+      </c>
+      <c r="I24" s="9">
+        <v>4.8277337219309899</v>
+      </c>
+      <c r="J24" s="9">
+        <v>6.2157299908832897</v>
+      </c>
+      <c r="K24" s="9">
+        <v>6.8092933593679899</v>
+      </c>
       <c r="L24" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7.1085193001899638E-3</v>
       </c>
     </row>
     <row r="25" spans="1:12">
-      <c r="B25" s="11" t="e">
+      <c r="B25" s="11">
         <f>AVERAGE(B15:B24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C25" s="11" t="e">
+        <v>0.61381794747869933</v>
+      </c>
+      <c r="C25" s="11">
         <f t="shared" ref="C25:K25" si="1">AVERAGE(C15:C24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="11" t="e">
+        <v>0.66051225336872388</v>
+      </c>
+      <c r="D25" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="11" t="e">
+        <v>0.65810640614970306</v>
+      </c>
+      <c r="E25" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F25" s="11" t="e">
+        <v>2.3805322151246271</v>
+      </c>
+      <c r="F25" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G25" s="11" t="e">
+        <v>3.5158784422979181</v>
+      </c>
+      <c r="G25" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H25" s="11" t="e">
+        <v>4.2307849484507303</v>
+      </c>
+      <c r="H25" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I25" s="11" t="e">
+        <v>4.7268110899552571</v>
+      </c>
+      <c r="I25" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J25" s="11" t="e">
+        <v>5.4497674646111403</v>
+      </c>
+      <c r="J25" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K25" s="11" t="e">
+        <v>6.232381010906261</v>
+      </c>
+      <c r="K25" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>6.762009223669212</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="B26" s="29" t="e">
+      <c r="B26" s="29">
         <f>VAR(B15:B24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C26" s="29" t="e">
+        <v>4.5800301660980302E-5</v>
+      </c>
+      <c r="C26" s="29">
         <f>VAR(C15:C24)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D26" s="29" t="e">
+        <v>7.7688384149831593E-5</v>
+      </c>
+      <c r="D26" s="29">
         <f>VAR(D15:D24)</f>
-        <v>#DIV/0!</v>
+        <v>4.6164044832445042E-5</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -22299,12 +23094,12 @@
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="5"/>
+    <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="N49" sqref="N49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -22337,8 +23132,8 @@
       <c r="C2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D2" s="5">
-        <v>800</v>
+      <c r="D2" s="13">
+        <v>850</v>
       </c>
       <c r="E2" s="38"/>
       <c r="F2" s="4" t="s">
@@ -22411,8 +23206,8 @@
       <c r="C8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="5">
-        <v>3</v>
+      <c r="D8" s="13">
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -22429,8 +23224,8 @@
       <c r="C10" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="5">
-        <v>0.67</v>
+      <c r="D10" s="13">
+        <v>0.7</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -22501,229 +23296,449 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="12" thickBot="1">
-      <c r="A16" s="2"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="A16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0.60954549070240305</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.652562764748986</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.64829893713983</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2.7100469631731801</v>
+      </c>
+      <c r="F16" s="9">
+        <v>3.6070665828977302</v>
+      </c>
+      <c r="G16" s="9">
+        <v>4.2492159342140603</v>
+      </c>
+      <c r="H16" s="9">
+        <v>4.8357953851168496</v>
+      </c>
+      <c r="I16" s="9">
+        <v>5.5438843651836001</v>
+      </c>
+      <c r="J16" s="9">
+        <v>6.2723707430247497</v>
+      </c>
+      <c r="K16" s="9">
+        <v>6.7710991439370698</v>
+      </c>
       <c r="L16" s="12">
         <f>C16-D16</f>
-        <v>0</v>
+        <v>4.2638276091560012E-3</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="12" thickBot="1">
-      <c r="A17" s="3"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="A17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0.61148653414361798</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.65579424782081797</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.651550820872423</v>
+      </c>
+      <c r="E17" s="10">
+        <v>2.6231060641316799</v>
+      </c>
+      <c r="F17" s="10">
+        <v>3.3769059877626302</v>
+      </c>
+      <c r="G17" s="10">
+        <v>4.3922150390028998</v>
+      </c>
+      <c r="H17" s="10">
+        <v>4.7765541988380198</v>
+      </c>
+      <c r="I17" s="10">
+        <v>5.4265687334123101</v>
+      </c>
+      <c r="J17" s="10">
+        <v>6.0843742139952699</v>
+      </c>
+      <c r="K17" s="10">
+        <v>6.6050156202515904</v>
+      </c>
       <c r="L17" s="12">
         <f t="shared" ref="L17:L25" si="0">C17-D17</f>
-        <v>0</v>
+        <v>4.2434269483949683E-3</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="12" thickBot="1">
-      <c r="A18" s="2"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="A18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.62028987962877802</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.66714613380667398</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.66288582110455097</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2.6357046767088099</v>
+      </c>
+      <c r="F18" s="9">
+        <v>3.2642585908674402</v>
+      </c>
+      <c r="G18" s="9">
+        <v>4.3120421540165204</v>
+      </c>
+      <c r="H18" s="9">
+        <v>4.9410242478582296</v>
+      </c>
+      <c r="I18" s="9">
+        <v>5.5254989440380999</v>
+      </c>
+      <c r="J18" s="9">
+        <v>6.2339410259588401</v>
+      </c>
+      <c r="K18" s="9">
+        <v>6.6757172742822997</v>
+      </c>
       <c r="L18" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.2603127021230147E-3</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="12" thickBot="1">
-      <c r="A19" s="3"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="A19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0.62577283529959404</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.66449602013982101</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.66713832897789804</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2.20996124575412</v>
+      </c>
+      <c r="F19" s="10">
+        <v>3.3117381120808802</v>
+      </c>
+      <c r="G19" s="10">
+        <v>3.7301905448286701</v>
+      </c>
+      <c r="H19" s="10">
+        <v>4.5695317986748201</v>
+      </c>
+      <c r="I19" s="10">
+        <v>5.4066025968376996</v>
+      </c>
+      <c r="J19" s="10">
+        <v>6.3571127566154599</v>
+      </c>
+      <c r="K19" s="10">
+        <v>6.8705243587774198</v>
+      </c>
       <c r="L19" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2.6423088380770343E-3</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="12" thickBot="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="A20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.62443239383758897</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.66380546707272003</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.66104607425402595</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2.55456357851916</v>
+      </c>
+      <c r="F20" s="9">
+        <v>3.2451236689344198</v>
+      </c>
+      <c r="G20" s="9">
+        <v>4.2927990852711302</v>
+      </c>
+      <c r="H20" s="9">
+        <v>4.8159078654004999</v>
+      </c>
+      <c r="I20" s="9">
+        <v>5.4982353916915701</v>
+      </c>
+      <c r="J20" s="9">
+        <v>6.4849426047102297</v>
+      </c>
+      <c r="K20" s="9">
+        <v>6.5967453896682304</v>
+      </c>
       <c r="L20" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7593928186940841E-3</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="12" thickBot="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="A21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.63691420010973399</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.68268680623064604</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.67997470682607097</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2.27704021308474</v>
+      </c>
+      <c r="F21" s="9">
+        <v>3.3577199826375801</v>
+      </c>
+      <c r="G21" s="9">
+        <v>3.9472224388813899</v>
+      </c>
+      <c r="H21" s="9">
+        <v>4.79736232963345</v>
+      </c>
+      <c r="I21" s="9">
+        <v>5.4178625861695302</v>
+      </c>
+      <c r="J21" s="9">
+        <v>6.1879524828026096</v>
+      </c>
+      <c r="K21" s="9">
+        <v>6.9558837385349301</v>
+      </c>
       <c r="L21" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7120994045750635E-3</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="12" thickBot="1">
-      <c r="A22" s="3"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
+      <c r="A22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0.63818006983559405</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.68502402837002396</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.68163870704701301</v>
+      </c>
+      <c r="E22" s="10">
+        <v>2.6591928247048902</v>
+      </c>
+      <c r="F22" s="10">
+        <v>3.3053331019131802</v>
+      </c>
+      <c r="G22" s="10">
+        <v>4.1326034627788104</v>
+      </c>
+      <c r="H22" s="10">
+        <v>5.0964414223607299</v>
+      </c>
+      <c r="I22" s="10">
+        <v>5.4574404867685704</v>
+      </c>
+      <c r="J22" s="10">
+        <v>6.20298473766921</v>
+      </c>
+      <c r="K22" s="10">
+        <v>6.8507964942211999</v>
+      </c>
       <c r="L22" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.385321323010948E-3</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="12" thickBot="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="A23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.60276699065183403</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0.64356488774042098</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.64579721797851197</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2.0856129857963701</v>
+      </c>
+      <c r="F23" s="9">
+        <v>2.96629245152476</v>
+      </c>
+      <c r="G23" s="9">
+        <v>3.9161664836802301</v>
+      </c>
+      <c r="H23" s="9">
+        <v>4.96320787654094</v>
+      </c>
+      <c r="I23" s="9">
+        <v>5.5497884998297504</v>
+      </c>
+      <c r="J23" s="9">
+        <v>6.2953255709873703</v>
+      </c>
+      <c r="K23" s="9">
+        <v>6.9539720372035196</v>
+      </c>
       <c r="L23" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2.232330238090996E-3</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="12" thickBot="1">
-      <c r="A24" s="3"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
+      <c r="A24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="10">
+        <v>0.61808122178958602</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.66210563933088595</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.65911301311416104</v>
+      </c>
+      <c r="E24" s="10">
+        <v>2.05730807225132</v>
+      </c>
+      <c r="F24" s="10">
+        <v>3.3743304373033101</v>
+      </c>
+      <c r="G24" s="10">
+        <v>4.09647508167882</v>
+      </c>
+      <c r="H24" s="10">
+        <v>4.6600758291340396</v>
+      </c>
+      <c r="I24" s="10">
+        <v>5.5841703091878996</v>
+      </c>
+      <c r="J24" s="10">
+        <v>6.1253237953020303</v>
+      </c>
+      <c r="K24" s="10">
+        <v>6.8082557814338696</v>
+      </c>
       <c r="L24" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.992626216724914E-3</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="12" thickBot="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="A25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="9">
+        <v>0.61915317109706802</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.66140209460078803</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.65647182491495304</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2.8468091382791298</v>
+      </c>
+      <c r="F25" s="9">
+        <v>3.5030125561774099</v>
+      </c>
+      <c r="G25" s="9">
+        <v>4.0255093758435398</v>
+      </c>
+      <c r="H25" s="9">
+        <v>4.7381446067322601</v>
+      </c>
+      <c r="I25" s="9">
+        <v>5.56472022392383</v>
+      </c>
+      <c r="J25" s="9">
+        <v>6.1962357393446803</v>
+      </c>
+      <c r="K25" s="9">
+        <v>7.0028985362604699</v>
+      </c>
       <c r="L25" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.930269685834987E-3</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="B26" s="11" t="e">
+      <c r="B26" s="11">
         <f>AVERAGE(B16:B25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C26" s="11" t="e">
+        <v>0.6206622787095798</v>
+      </c>
+      <c r="C26" s="11">
         <f t="shared" ref="C26:K26" si="1">AVERAGE(C16:C25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D26" s="11" t="e">
+        <v>0.66385880898617844</v>
+      </c>
+      <c r="D26" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E26" s="11" t="e">
+        <v>0.66139154522294374</v>
+      </c>
+      <c r="E26" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="11" t="e">
+        <v>2.4659345762403402</v>
+      </c>
+      <c r="F26" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="11" t="e">
+        <v>3.331178147209934</v>
+      </c>
+      <c r="G26" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H26" s="11" t="e">
+        <v>4.1094439600196067</v>
+      </c>
+      <c r="H26" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="11" t="e">
+        <v>4.8194045560289842</v>
+      </c>
+      <c r="I26" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" s="11" t="e">
+        <v>5.4974772137042853</v>
+      </c>
+      <c r="J26" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="11" t="e">
+        <v>6.2440563670410452</v>
+      </c>
+      <c r="K26" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>6.8090908374570605</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="B27" s="29" t="e">
+      <c r="B27" s="29">
         <f>VAR(B16:B25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C27" s="29" t="e">
+        <v>1.2760289468459896E-4</v>
+      </c>
+      <c r="C27" s="29">
         <f>VAR(C16:C25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D27" s="29" t="e">
+        <v>1.5858504787028568E-4</v>
+      </c>
+      <c r="D27" s="29">
         <f>VAR(D16:D25)</f>
-        <v>#DIV/0!</v>
+        <v>1.4794375911909993E-4</v>
       </c>
     </row>
     <row r="28" spans="1:12">

--- a/model_cv_log.xlsx
+++ b/model_cv_log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="0" windowWidth="39840" windowHeight="25360" tabRatio="838" firstSheet="3" activeTab="27"/>
+    <workbookView xWindow="12540" yWindow="0" windowWidth="52100" windowHeight="27200" tabRatio="838" firstSheet="3" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -488,7 +488,7 @@
       <name val="Lucida Sans"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,6 +523,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDFDFD"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -747,7 +759,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="121">
+  <cellStyleXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -869,8 +881,36 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -925,6 +965,12 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="90" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -949,14 +995,14 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="121">
+  <cellStyles count="149">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1016,6 +1062,20 @@
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1075,6 +1135,20 @@
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Linked Cell" xfId="21" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="90" builtinId="5"/>
@@ -1192,11 +1266,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2117688280"/>
-        <c:axId val="-2117685320"/>
+        <c:axId val="2104505304"/>
+        <c:axId val="2104517880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2117688280"/>
+        <c:axId val="2104505304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1206,12 +1280,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117685320"/>
+        <c:crossAx val="2104517880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2117685320"/>
+        <c:axId val="2104517880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1221,7 +1295,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117688280"/>
+        <c:crossAx val="2104505304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1358,11 +1432,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2117137592"/>
-        <c:axId val="-2117134632"/>
+        <c:axId val="2131481256"/>
+        <c:axId val="2131484136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2117137592"/>
+        <c:axId val="2131481256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1372,12 +1446,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117134632"/>
+        <c:crossAx val="2131484136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2117134632"/>
+        <c:axId val="2131484136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1387,7 +1461,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117137592"/>
+        <c:crossAx val="2131481256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1554,11 +1628,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2118054456"/>
-        <c:axId val="-2118051496"/>
+        <c:axId val="2131536264"/>
+        <c:axId val="2131539144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2118054456"/>
+        <c:axId val="2131536264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1568,12 +1642,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118051496"/>
+        <c:crossAx val="2131539144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2118051496"/>
+        <c:axId val="2131539144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1583,7 +1657,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118054456"/>
+        <c:crossAx val="2131536264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1750,11 +1824,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2118023656"/>
-        <c:axId val="-2118020696"/>
+        <c:axId val="2131566824"/>
+        <c:axId val="2131569704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2118023656"/>
+        <c:axId val="2131566824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1764,12 +1838,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118020696"/>
+        <c:crossAx val="2131569704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2118020696"/>
+        <c:axId val="2131569704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1779,7 +1853,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118023656"/>
+        <c:crossAx val="2131566824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1946,11 +2020,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2117190280"/>
-        <c:axId val="-2143831672"/>
+        <c:axId val="2131615032"/>
+        <c:axId val="2131617912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2117190280"/>
+        <c:axId val="2131615032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1960,12 +2034,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143831672"/>
+        <c:crossAx val="2131617912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2143831672"/>
+        <c:axId val="2131617912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1975,7 +2049,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117190280"/>
+        <c:crossAx val="2131615032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2142,11 +2216,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2117258696"/>
-        <c:axId val="-2117255736"/>
+        <c:axId val="2131645592"/>
+        <c:axId val="2131648472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2117258696"/>
+        <c:axId val="2131645592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2156,12 +2230,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117255736"/>
+        <c:crossAx val="2131648472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2117255736"/>
+        <c:axId val="2131648472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2171,7 +2245,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117258696"/>
+        <c:crossAx val="2131645592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2338,11 +2412,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2117787560"/>
-        <c:axId val="-2117712104"/>
+        <c:axId val="2131695320"/>
+        <c:axId val="2131698200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2117787560"/>
+        <c:axId val="2131695320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2352,12 +2426,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117712104"/>
+        <c:crossAx val="2131698200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2117712104"/>
+        <c:axId val="2131698200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2367,7 +2441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117787560"/>
+        <c:crossAx val="2131695320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2534,11 +2608,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2117370104"/>
-        <c:axId val="-2117367144"/>
+        <c:axId val="2131726120"/>
+        <c:axId val="2131729000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2117370104"/>
+        <c:axId val="2131726120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2548,12 +2622,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117367144"/>
+        <c:crossAx val="2131729000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2117367144"/>
+        <c:axId val="2131729000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2563,7 +2637,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2117370104"/>
+        <c:crossAx val="2131726120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2730,11 +2804,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142287640"/>
-        <c:axId val="-2143178904"/>
+        <c:axId val="2130997048"/>
+        <c:axId val="2130994184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142287640"/>
+        <c:axId val="2130997048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2744,12 +2818,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143178904"/>
+        <c:crossAx val="2130994184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2143178904"/>
+        <c:axId val="2130994184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2759,7 +2833,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142287640"/>
+        <c:crossAx val="2130997048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2926,11 +3000,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142265672"/>
-        <c:axId val="-2142262712"/>
+        <c:axId val="2130967336"/>
+        <c:axId val="2130964472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142265672"/>
+        <c:axId val="2130967336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2940,12 +3014,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142262712"/>
+        <c:crossAx val="2130964472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142262712"/>
+        <c:axId val="2130964472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2955,7 +3029,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142265672"/>
+        <c:crossAx val="2130967336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3122,11 +3196,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142427000"/>
-        <c:axId val="-2142424040"/>
+        <c:axId val="2130917656"/>
+        <c:axId val="2130914792"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142427000"/>
+        <c:axId val="2130917656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3136,12 +3210,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142424040"/>
+        <c:crossAx val="2130914792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142424040"/>
+        <c:axId val="2130914792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3151,7 +3225,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142427000"/>
+        <c:crossAx val="2130917656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3288,11 +3362,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2133434040"/>
-        <c:axId val="-2133431080"/>
+        <c:axId val="2131117640"/>
+        <c:axId val="2131120520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2133434040"/>
+        <c:axId val="2131117640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3302,12 +3376,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133431080"/>
+        <c:crossAx val="2131120520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2133431080"/>
+        <c:axId val="2131120520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3317,7 +3391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133434040"/>
+        <c:crossAx val="2131117640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3484,11 +3558,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142452152"/>
-        <c:axId val="-2142460248"/>
+        <c:axId val="2130886296"/>
+        <c:axId val="2130883432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142452152"/>
+        <c:axId val="2130886296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3498,12 +3572,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142460248"/>
+        <c:crossAx val="2130883432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142460248"/>
+        <c:axId val="2130883432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3513,7 +3587,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142452152"/>
+        <c:crossAx val="2130886296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3680,11 +3754,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142513032"/>
-        <c:axId val="-2142510072"/>
+        <c:axId val="2130836248"/>
+        <c:axId val="2130833384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142513032"/>
+        <c:axId val="2130836248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3694,12 +3768,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142510072"/>
+        <c:crossAx val="2130833384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142510072"/>
+        <c:axId val="2130833384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3709,7 +3783,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142513032"/>
+        <c:crossAx val="2130836248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3876,11 +3950,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142551720"/>
-        <c:axId val="-2142548760"/>
+        <c:axId val="2130805448"/>
+        <c:axId val="2130802584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142551720"/>
+        <c:axId val="2130805448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3890,12 +3964,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142548760"/>
+        <c:crossAx val="2130802584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142548760"/>
+        <c:axId val="2130802584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3905,7 +3979,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142551720"/>
+        <c:crossAx val="2130805448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4072,11 +4146,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142594648"/>
-        <c:axId val="-2142603432"/>
+        <c:axId val="2130754792"/>
+        <c:axId val="2130751928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142594648"/>
+        <c:axId val="2130754792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4086,12 +4160,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142603432"/>
+        <c:crossAx val="2130751928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142603432"/>
+        <c:axId val="2130751928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4101,7 +4175,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142594648"/>
+        <c:crossAx val="2130754792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4268,11 +4342,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142630680"/>
-        <c:axId val="-2142634712"/>
+        <c:axId val="2130723992"/>
+        <c:axId val="2130721128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142630680"/>
+        <c:axId val="2130723992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4282,12 +4356,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142634712"/>
+        <c:crossAx val="2130721128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142634712"/>
+        <c:axId val="2130721128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4297,7 +4371,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142630680"/>
+        <c:crossAx val="2130723992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4464,11 +4538,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142691736"/>
-        <c:axId val="-2142696632"/>
+        <c:axId val="2132122328"/>
+        <c:axId val="2132125208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142691736"/>
+        <c:axId val="2132122328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4478,12 +4552,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142696632"/>
+        <c:crossAx val="2132125208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142696632"/>
+        <c:axId val="2132125208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4493,7 +4567,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142691736"/>
+        <c:crossAx val="2132122328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4660,11 +4734,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142727816"/>
-        <c:axId val="-2142728968"/>
+        <c:axId val="2132153128"/>
+        <c:axId val="2132156008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142727816"/>
+        <c:axId val="2132153128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4674,12 +4748,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142728968"/>
+        <c:crossAx val="2132156008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142728968"/>
+        <c:axId val="2132156008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4689,7 +4763,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142727816"/>
+        <c:crossAx val="2132153128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4856,11 +4930,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2135892696"/>
-        <c:axId val="-2135347848"/>
+        <c:axId val="2132201640"/>
+        <c:axId val="2132204520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2135892696"/>
+        <c:axId val="2132201640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4870,12 +4944,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2135347848"/>
+        <c:crossAx val="2132204520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2135347848"/>
+        <c:axId val="2132204520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4885,7 +4959,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2135892696"/>
+        <c:crossAx val="2132201640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5052,11 +5126,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2123918344"/>
-        <c:axId val="-2123915384"/>
+        <c:axId val="2132232440"/>
+        <c:axId val="2132235320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2123918344"/>
+        <c:axId val="2132232440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5066,12 +5140,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123915384"/>
+        <c:crossAx val="2132235320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2123915384"/>
+        <c:axId val="2132235320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5081,7 +5155,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123918344"/>
+        <c:crossAx val="2132232440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5248,11 +5322,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142776424"/>
-        <c:axId val="-2142792168"/>
+        <c:axId val="2132283112"/>
+        <c:axId val="2132285992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142776424"/>
+        <c:axId val="2132283112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5262,12 +5336,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142792168"/>
+        <c:crossAx val="2132285992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142792168"/>
+        <c:axId val="2132285992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5277,7 +5351,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142776424"/>
+        <c:crossAx val="2132283112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5414,11 +5488,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2133757176"/>
-        <c:axId val="-2133754216"/>
+        <c:axId val="2131162776"/>
+        <c:axId val="2131165656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2133757176"/>
+        <c:axId val="2131162776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5428,12 +5502,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133754216"/>
+        <c:crossAx val="2131165656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2133754216"/>
+        <c:axId val="2131165656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5443,7 +5517,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133757176"/>
+        <c:crossAx val="2131162776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5610,11 +5684,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142840168"/>
-        <c:axId val="-2142837208"/>
+        <c:axId val="2132314472"/>
+        <c:axId val="2132317352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142840168"/>
+        <c:axId val="2132314472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5624,12 +5698,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142837208"/>
+        <c:crossAx val="2132317352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142837208"/>
+        <c:axId val="2132317352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5639,7 +5713,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142840168"/>
+        <c:crossAx val="2132314472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5806,11 +5880,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142859960"/>
-        <c:axId val="-2142868184"/>
+        <c:axId val="2104415864"/>
+        <c:axId val="2104418744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142859960"/>
+        <c:axId val="2104415864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5820,12 +5894,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142868184"/>
+        <c:crossAx val="2104418744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142868184"/>
+        <c:axId val="2104418744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5835,7 +5909,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142859960"/>
+        <c:crossAx val="2104415864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6002,11 +6076,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142904632"/>
-        <c:axId val="-2142901672"/>
+        <c:axId val="2104447032"/>
+        <c:axId val="2104449912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142904632"/>
+        <c:axId val="2104447032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6016,12 +6090,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142901672"/>
+        <c:crossAx val="2104449912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142901672"/>
+        <c:axId val="2104449912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6031,7 +6105,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142904632"/>
+        <c:crossAx val="2104447032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6198,11 +6272,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2130732120"/>
-        <c:axId val="-2130729160"/>
+        <c:axId val="2102344264"/>
+        <c:axId val="2102347144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2130732120"/>
+        <c:axId val="2102344264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6212,12 +6286,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130729160"/>
+        <c:crossAx val="2102347144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2130729160"/>
+        <c:axId val="2102347144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6227,7 +6301,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2130732120"/>
+        <c:crossAx val="2102344264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6394,11 +6468,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2111931544"/>
-        <c:axId val="2111867560"/>
+        <c:axId val="2101669176"/>
+        <c:axId val="2101666312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2111931544"/>
+        <c:axId val="2101669176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6408,12 +6482,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111867560"/>
+        <c:crossAx val="2101666312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2111867560"/>
+        <c:axId val="2101666312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6423,7 +6497,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111931544"/>
+        <c:crossAx val="2101669176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6590,11 +6664,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2131259976"/>
-        <c:axId val="-2131217720"/>
+        <c:axId val="2101614040"/>
+        <c:axId val="2101611176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2131259976"/>
+        <c:axId val="2101614040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6604,12 +6678,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131217720"/>
+        <c:crossAx val="2101611176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2131217720"/>
+        <c:axId val="2101611176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6619,7 +6693,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2131259976"/>
+        <c:crossAx val="2101614040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6786,11 +6860,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2127773608"/>
-        <c:axId val="-2128003048"/>
+        <c:axId val="2101583240"/>
+        <c:axId val="2101580376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2127773608"/>
+        <c:axId val="2101583240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6800,12 +6874,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128003048"/>
+        <c:crossAx val="2101580376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2128003048"/>
+        <c:axId val="2101580376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6815,7 +6889,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127773608"/>
+        <c:crossAx val="2101583240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6982,11 +7056,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2121892552"/>
-        <c:axId val="-2121934488"/>
+        <c:axId val="2132377304"/>
+        <c:axId val="2132380184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2121892552"/>
+        <c:axId val="2132377304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6996,12 +7070,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2121934488"/>
+        <c:crossAx val="2132380184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2121934488"/>
+        <c:axId val="2132380184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7011,7 +7085,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2121892552"/>
+        <c:crossAx val="2132377304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7178,11 +7252,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2121970920"/>
-        <c:axId val="-2121967960"/>
+        <c:axId val="2132408072"/>
+        <c:axId val="2132410952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2121970920"/>
+        <c:axId val="2132408072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7192,12 +7266,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2121967960"/>
+        <c:crossAx val="2132410952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2121967960"/>
+        <c:axId val="2132410952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7207,7 +7281,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2121970920"/>
+        <c:crossAx val="2132408072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7374,11 +7448,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2125910168"/>
-        <c:axId val="-2125843240"/>
+        <c:axId val="2132457416"/>
+        <c:axId val="2132460296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2125910168"/>
+        <c:axId val="2132457416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7388,12 +7462,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125843240"/>
+        <c:crossAx val="2132460296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2125843240"/>
+        <c:axId val="2132460296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7403,7 +7477,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125910168"/>
+        <c:crossAx val="2132457416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7540,11 +7614,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2133165688"/>
-        <c:axId val="-2133167528"/>
+        <c:axId val="2131207880"/>
+        <c:axId val="2131210760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2133165688"/>
+        <c:axId val="2131207880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7554,12 +7628,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133167528"/>
+        <c:crossAx val="2131210760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2133167528"/>
+        <c:axId val="2131210760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7569,7 +7643,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133165688"/>
+        <c:crossAx val="2131207880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7736,11 +7810,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2122950184"/>
-        <c:axId val="-2122949544"/>
+        <c:axId val="2132488776"/>
+        <c:axId val="2132491656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2122950184"/>
+        <c:axId val="2132488776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7750,12 +7824,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122949544"/>
+        <c:crossAx val="2132491656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2122949544"/>
+        <c:axId val="2132491656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7765,7 +7839,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2122950184"/>
+        <c:crossAx val="2132488776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7902,11 +7976,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2133383976"/>
-        <c:axId val="-2133381016"/>
+        <c:axId val="2131253608"/>
+        <c:axId val="2131256488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2133383976"/>
+        <c:axId val="2131253608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7916,12 +7990,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133381016"/>
+        <c:crossAx val="2131256488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2133381016"/>
+        <c:axId val="2131256488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7931,7 +8005,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133383976"/>
+        <c:crossAx val="2131253608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8068,11 +8142,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2133241160"/>
-        <c:axId val="-2133248520"/>
+        <c:axId val="2131298712"/>
+        <c:axId val="2131301592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2133241160"/>
+        <c:axId val="2131298712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8082,12 +8156,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133248520"/>
+        <c:crossAx val="2131301592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2133248520"/>
+        <c:axId val="2131301592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8097,7 +8171,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133241160"/>
+        <c:crossAx val="2131298712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8234,11 +8308,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2133340584"/>
-        <c:axId val="-2133337624"/>
+        <c:axId val="2131343960"/>
+        <c:axId val="2131346840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2133340584"/>
+        <c:axId val="2131343960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8248,12 +8322,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133337624"/>
+        <c:crossAx val="2131346840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2133337624"/>
+        <c:axId val="2131346840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8263,7 +8337,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133340584"/>
+        <c:crossAx val="2131343960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8400,11 +8474,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2133840008"/>
-        <c:axId val="-2133837048"/>
+        <c:axId val="2131388424"/>
+        <c:axId val="2131391304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2133840008"/>
+        <c:axId val="2131388424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8414,12 +8488,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133837048"/>
+        <c:crossAx val="2131391304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2133837048"/>
+        <c:axId val="2131391304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8429,7 +8503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133840008"/>
+        <c:crossAx val="2131388424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8566,11 +8640,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2133793896"/>
-        <c:axId val="-2133439736"/>
+        <c:axId val="2131434552"/>
+        <c:axId val="2131437432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2133793896"/>
+        <c:axId val="2131434552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8580,12 +8654,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133439736"/>
+        <c:crossAx val="2131437432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2133439736"/>
+        <c:axId val="2131437432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8595,7 +8669,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133793896"/>
+        <c:crossAx val="2131434552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11890,10 +11964,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -12377,6 +12451,2129 @@
       <c r="I17" s="26">
         <f t="shared" si="0"/>
         <v>6.7898260998968398</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="C19" s="12">
+        <f>AVERAGE(C21:C111)</f>
+        <v>2.5230242982947333</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" ref="D19:I19" si="1">AVERAGE(D21:D111)</f>
+        <v>3.4288276609611863</v>
+      </c>
+      <c r="E19" s="12">
+        <f t="shared" si="1"/>
+        <v>4.1210031906443634</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="1"/>
+        <v>4.8380217767123117</v>
+      </c>
+      <c r="G19" s="12">
+        <f t="shared" si="1"/>
+        <v>5.4787827123814159</v>
+      </c>
+      <c r="H19" s="12">
+        <f t="shared" si="1"/>
+        <v>6.220438329180161</v>
+      </c>
+      <c r="I19" s="12">
+        <f t="shared" si="1"/>
+        <v>6.8004531289573098</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9" ht="12" thickBot="1">
+      <c r="C21" s="9">
+        <v>2.7100469631731801</v>
+      </c>
+      <c r="D21" s="9">
+        <v>3.6070665828977302</v>
+      </c>
+      <c r="E21" s="9">
+        <v>4.2492159342140603</v>
+      </c>
+      <c r="F21" s="9">
+        <v>4.8357953851168496</v>
+      </c>
+      <c r="G21" s="9">
+        <v>5.5438843651836001</v>
+      </c>
+      <c r="H21" s="9">
+        <v>6.2723707430247497</v>
+      </c>
+      <c r="I21" s="9">
+        <v>6.7710991439370698</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9" ht="12" thickBot="1">
+      <c r="C22" s="10">
+        <v>2.6231060641316799</v>
+      </c>
+      <c r="D22" s="10">
+        <v>3.3769059877626302</v>
+      </c>
+      <c r="E22" s="10">
+        <v>4.3922150390028998</v>
+      </c>
+      <c r="F22" s="10">
+        <v>4.7765541988380198</v>
+      </c>
+      <c r="G22" s="10">
+        <v>5.4265687334123101</v>
+      </c>
+      <c r="H22" s="10">
+        <v>6.0843742139952699</v>
+      </c>
+      <c r="I22" s="10">
+        <v>6.6050156202515904</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9" ht="12" thickBot="1">
+      <c r="C23" s="9">
+        <v>2.6357046767088099</v>
+      </c>
+      <c r="D23" s="9">
+        <v>3.2642585908674402</v>
+      </c>
+      <c r="E23" s="9">
+        <v>4.3120421540165204</v>
+      </c>
+      <c r="F23" s="9">
+        <v>4.9410242478582296</v>
+      </c>
+      <c r="G23" s="9">
+        <v>5.5254989440380999</v>
+      </c>
+      <c r="H23" s="9">
+        <v>6.2339410259588401</v>
+      </c>
+      <c r="I23" s="9">
+        <v>6.6757172742822997</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9" ht="12" thickBot="1">
+      <c r="C24" s="9">
+        <v>2.55456357851916</v>
+      </c>
+      <c r="D24" s="9">
+        <v>3.2451236689344198</v>
+      </c>
+      <c r="E24" s="9">
+        <v>4.2927990852711302</v>
+      </c>
+      <c r="F24" s="9">
+        <v>4.8159078654004999</v>
+      </c>
+      <c r="G24" s="9">
+        <v>5.4982353916915701</v>
+      </c>
+      <c r="H24" s="9">
+        <v>6.4849426047102297</v>
+      </c>
+      <c r="I24" s="9">
+        <v>6.5967453896682304</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9" ht="12" thickBot="1">
+      <c r="C25" s="9">
+        <v>2.27704021308474</v>
+      </c>
+      <c r="D25" s="9">
+        <v>3.3577199826375801</v>
+      </c>
+      <c r="E25" s="9">
+        <v>3.9472224388813899</v>
+      </c>
+      <c r="F25" s="9">
+        <v>4.79736232963345</v>
+      </c>
+      <c r="G25" s="9">
+        <v>5.4178625861695302</v>
+      </c>
+      <c r="H25" s="9">
+        <v>6.1879524828026096</v>
+      </c>
+      <c r="I25" s="9">
+        <v>6.9558837385349301</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" ht="12" thickBot="1">
+      <c r="C26" s="10">
+        <v>2.6591928247048902</v>
+      </c>
+      <c r="D26" s="10">
+        <v>3.3053331019131802</v>
+      </c>
+      <c r="E26" s="10">
+        <v>4.1326034627788104</v>
+      </c>
+      <c r="F26" s="10">
+        <v>5.0964414223607299</v>
+      </c>
+      <c r="G26" s="10">
+        <v>5.4574404867685704</v>
+      </c>
+      <c r="H26" s="10">
+        <v>6.20298473766921</v>
+      </c>
+      <c r="I26" s="10">
+        <v>6.8507964942211999</v>
+      </c>
+    </row>
+    <row r="27" spans="3:9" ht="12" thickBot="1">
+      <c r="C27" s="10">
+        <v>2.05730807225132</v>
+      </c>
+      <c r="D27" s="10">
+        <v>3.3743304373033101</v>
+      </c>
+      <c r="E27" s="10">
+        <v>4.09647508167882</v>
+      </c>
+      <c r="F27" s="10">
+        <v>4.6600758291340396</v>
+      </c>
+      <c r="G27" s="10">
+        <v>5.5841703091878996</v>
+      </c>
+      <c r="H27" s="10">
+        <v>6.1253237953020303</v>
+      </c>
+      <c r="I27" s="10">
+        <v>6.8082557814338696</v>
+      </c>
+    </row>
+    <row r="28" spans="3:9" ht="12" thickBot="1">
+      <c r="C28" s="9">
+        <v>2.8468091382791298</v>
+      </c>
+      <c r="D28" s="9">
+        <v>3.5030125561774099</v>
+      </c>
+      <c r="E28" s="9">
+        <v>4.0255093758435398</v>
+      </c>
+      <c r="F28" s="9">
+        <v>4.7381446067322601</v>
+      </c>
+      <c r="G28" s="9">
+        <v>5.56472022392383</v>
+      </c>
+      <c r="H28" s="9">
+        <v>6.1962357393446803</v>
+      </c>
+      <c r="I28" s="9">
+        <v>7.0028985362604699</v>
+      </c>
+    </row>
+    <row r="29" spans="3:9" ht="12" thickBot="1">
+      <c r="C29" s="9">
+        <v>2.75777879740515</v>
+      </c>
+      <c r="D29" s="9">
+        <v>3.4426039567476598</v>
+      </c>
+      <c r="E29" s="9">
+        <v>4.1479071463711099</v>
+      </c>
+      <c r="F29" s="9">
+        <v>4.8282745300073602</v>
+      </c>
+      <c r="G29" s="9">
+        <v>5.59666352156081</v>
+      </c>
+      <c r="H29" s="9">
+        <v>6.0942312015745497</v>
+      </c>
+      <c r="I29" s="9">
+        <v>6.7909095597774396</v>
+      </c>
+    </row>
+    <row r="30" spans="3:9" ht="12" thickBot="1">
+      <c r="C30" s="9">
+        <v>2.9276378366581102</v>
+      </c>
+      <c r="D30" s="9">
+        <v>3.60155617369271</v>
+      </c>
+      <c r="E30" s="9">
+        <v>4.1187433596231902</v>
+      </c>
+      <c r="F30" s="9">
+        <v>4.6976202221842103</v>
+      </c>
+      <c r="G30" s="9">
+        <v>5.4404846722081697</v>
+      </c>
+      <c r="H30" s="9">
+        <v>6.2644227373524597</v>
+      </c>
+      <c r="I30" s="9">
+        <v>6.80673635699294</v>
+      </c>
+    </row>
+    <row r="31" spans="3:9" ht="12" thickBot="1">
+      <c r="C31" s="9">
+        <v>2.93026791111672</v>
+      </c>
+      <c r="D31" s="9">
+        <v>3.4611223926122698</v>
+      </c>
+      <c r="E31" s="9">
+        <v>4.2685178191362603</v>
+      </c>
+      <c r="F31" s="9">
+        <v>4.6824165613736604</v>
+      </c>
+      <c r="G31" s="9">
+        <v>5.48703840513374</v>
+      </c>
+      <c r="H31" s="9">
+        <v>6.1549702647914204</v>
+      </c>
+      <c r="I31" s="9">
+        <v>6.7639781862795596</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" ht="12" thickBot="1">
+      <c r="C32" s="10">
+        <v>2.8883488492307499</v>
+      </c>
+      <c r="D32" s="10">
+        <v>3.4326616183905201</v>
+      </c>
+      <c r="E32" s="10">
+        <v>4.2582255496520203</v>
+      </c>
+      <c r="F32" s="10">
+        <v>5.0522178585635196</v>
+      </c>
+      <c r="G32" s="10">
+        <v>5.5857390510821796</v>
+      </c>
+      <c r="H32" s="10">
+        <v>6.3790289383326897</v>
+      </c>
+      <c r="I32" s="10">
+        <v>6.5820390963324602</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" ht="12" thickBot="1">
+      <c r="C33" s="9">
+        <v>2.2374476089748798</v>
+      </c>
+      <c r="D33" s="9">
+        <v>3.19450669993839</v>
+      </c>
+      <c r="E33" s="9">
+        <v>4.3457270012113796</v>
+      </c>
+      <c r="F33" s="9">
+        <v>4.9397661612429298</v>
+      </c>
+      <c r="G33" s="9">
+        <v>5.3812681920677203</v>
+      </c>
+      <c r="H33" s="9">
+        <v>6.2650463223327302</v>
+      </c>
+      <c r="I33" s="9">
+        <v>6.7680000873348503</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" ht="12" thickBot="1">
+      <c r="C34" s="10">
+        <v>2.2043523167622801</v>
+      </c>
+      <c r="D34" s="10">
+        <v>3.3779418239056498</v>
+      </c>
+      <c r="E34" s="10">
+        <v>4.0428324528511101</v>
+      </c>
+      <c r="F34" s="10">
+        <v>4.91001663087017</v>
+      </c>
+      <c r="G34" s="10">
+        <v>5.4283403693448404</v>
+      </c>
+      <c r="H34" s="10">
+        <v>6.2157864360636399</v>
+      </c>
+      <c r="I34" s="10">
+        <v>6.8129339729085796</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" ht="12" thickBot="1">
+      <c r="C35" s="9">
+        <v>2.84857781233007</v>
+      </c>
+      <c r="D35" s="9">
+        <v>4.0703826479166496</v>
+      </c>
+      <c r="E35" s="9">
+        <v>5.2558427061454003</v>
+      </c>
+      <c r="F35" s="9">
+        <v>3.7938811898812999</v>
+      </c>
+      <c r="G35" s="9">
+        <v>4.8277337219309899</v>
+      </c>
+      <c r="H35" s="9">
+        <v>6.2157299908832897</v>
+      </c>
+      <c r="I35" s="9">
+        <v>6.8092933593679899</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" ht="12" thickBot="1">
+      <c r="C36" s="9">
+        <v>2.5384590757712502</v>
+      </c>
+      <c r="D36" s="9">
+        <v>3.2721513968907199</v>
+      </c>
+      <c r="E36" s="9">
+        <v>4.0338468624186596</v>
+      </c>
+      <c r="F36" s="9">
+        <v>5.1151688573144503</v>
+      </c>
+      <c r="G36" s="9">
+        <v>5.6013890366622103</v>
+      </c>
+      <c r="H36" s="9">
+        <v>6.1334812220017501</v>
+      </c>
+      <c r="I36" s="9">
+        <v>6.9386103633280403</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" ht="12" thickBot="1">
+      <c r="C37" s="10">
+        <v>2.4874784650041502</v>
+      </c>
+      <c r="D37" s="10">
+        <v>3.5404364515062499</v>
+      </c>
+      <c r="E37" s="10">
+        <v>4.0106560303273797</v>
+      </c>
+      <c r="F37" s="10">
+        <v>4.9176170141244304</v>
+      </c>
+      <c r="G37" s="10">
+        <v>5.5035642151771302</v>
+      </c>
+      <c r="H37" s="10">
+        <v>6.1830769529839298</v>
+      </c>
+      <c r="I37" s="10">
+        <v>6.8248542569428903</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" ht="12" thickBot="1">
+      <c r="C38" s="10">
+        <v>2.9039622330392598</v>
+      </c>
+      <c r="D38" s="10">
+        <v>4.1825933012202299</v>
+      </c>
+      <c r="E38" s="10">
+        <v>3.8912613397781799</v>
+      </c>
+      <c r="F38" s="10">
+        <v>4.8173044235383999</v>
+      </c>
+      <c r="G38" s="10">
+        <v>5.5944853079752104</v>
+      </c>
+      <c r="H38" s="10">
+        <v>6.2279001509951497</v>
+      </c>
+      <c r="I38" s="10">
+        <v>6.6794982881885003</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" ht="12" thickBot="1">
+      <c r="C39" s="9">
+        <v>2.1310776386300301</v>
+      </c>
+      <c r="D39" s="9">
+        <v>3.22221601315182</v>
+      </c>
+      <c r="E39" s="9">
+        <v>4.1648623558400297</v>
+      </c>
+      <c r="F39" s="9">
+        <v>4.8979036825064401</v>
+      </c>
+      <c r="G39" s="9">
+        <v>5.5768628624368803</v>
+      </c>
+      <c r="H39" s="9">
+        <v>6.1844356376107497</v>
+      </c>
+      <c r="I39" s="9">
+        <v>6.8475687575162096</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" ht="12" thickBot="1">
+      <c r="C40" s="10">
+        <v>2.8269253004943402</v>
+      </c>
+      <c r="D40" s="10">
+        <v>3.0850097219403301</v>
+      </c>
+      <c r="E40" s="10">
+        <v>4.3304468485373304</v>
+      </c>
+      <c r="F40" s="10">
+        <v>4.7826126055282296</v>
+      </c>
+      <c r="G40" s="10">
+        <v>5.3729777720142398</v>
+      </c>
+      <c r="H40" s="10">
+        <v>6.1227882868425496</v>
+      </c>
+      <c r="I40" s="10">
+        <v>6.9952829435058401</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" ht="12" thickBot="1">
+      <c r="C41" s="9">
+        <v>2.3974113964994799</v>
+      </c>
+      <c r="D41" s="9">
+        <v>3.3603586987894301</v>
+      </c>
+      <c r="E41" s="9">
+        <v>4.08603204291098</v>
+      </c>
+      <c r="F41" s="9">
+        <v>4.5710811620469496</v>
+      </c>
+      <c r="G41" s="9">
+        <v>5.6244297705278496</v>
+      </c>
+      <c r="H41" s="9">
+        <v>6.1836239672863504</v>
+      </c>
+      <c r="I41" s="9">
+        <v>6.8269072382611196</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" ht="12" thickBot="1">
+      <c r="C42" s="9">
+        <v>2.4377177689977301</v>
+      </c>
+      <c r="D42" s="9">
+        <v>3.2827046710821701</v>
+      </c>
+      <c r="E42" s="9">
+        <v>4.1003970811462498</v>
+      </c>
+      <c r="F42" s="9">
+        <v>4.8936102777299801</v>
+      </c>
+      <c r="G42" s="9">
+        <v>5.4726444684563997</v>
+      </c>
+      <c r="H42" s="9">
+        <v>6.4119148331376996</v>
+      </c>
+      <c r="I42" s="9">
+        <v>6.8748032828619996</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" ht="12" thickBot="1">
+      <c r="C43" s="9">
+        <v>2.8587148542003402</v>
+      </c>
+      <c r="D43" s="9">
+        <v>3.0882324571667601</v>
+      </c>
+      <c r="E43" s="9">
+        <v>4.0809773798429996</v>
+      </c>
+      <c r="F43" s="9">
+        <v>5.0809580037085</v>
+      </c>
+      <c r="G43" s="9">
+        <v>5.4572514730466999</v>
+      </c>
+      <c r="H43" s="9">
+        <v>6.1907046375437496</v>
+      </c>
+      <c r="I43" s="9">
+        <v>6.9199023623273099</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" ht="12" thickBot="1">
+      <c r="C44" s="10">
+        <v>2.3868984400056998</v>
+      </c>
+      <c r="D44" s="10">
+        <v>3.38876938940047</v>
+      </c>
+      <c r="E44" s="10">
+        <v>4.2200533216201803</v>
+      </c>
+      <c r="F44" s="10">
+        <v>4.8362149473528797</v>
+      </c>
+      <c r="G44" s="10">
+        <v>5.5628931541815998</v>
+      </c>
+      <c r="H44" s="10">
+        <v>6.0171203034552203</v>
+      </c>
+      <c r="I44" s="10">
+        <v>6.6379845901278296</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" ht="12" thickBot="1">
+      <c r="C45" s="9">
+        <v>2.8131366667035298</v>
+      </c>
+      <c r="D45" s="9">
+        <v>3.2153205553266302</v>
+      </c>
+      <c r="E45" s="9">
+        <v>4.15290858711856</v>
+      </c>
+      <c r="F45" s="9">
+        <v>4.9888113623426404</v>
+      </c>
+      <c r="G45" s="9">
+        <v>5.4439485868629403</v>
+      </c>
+      <c r="H45" s="9">
+        <v>6.3142716939479602</v>
+      </c>
+      <c r="I45" s="9">
+        <v>6.8245612455500204</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" ht="12" thickBot="1">
+      <c r="C46" s="10">
+        <v>2.80851595026905</v>
+      </c>
+      <c r="D46" s="10">
+        <v>3.5431224138475899</v>
+      </c>
+      <c r="E46" s="10">
+        <v>4.1544133465310704</v>
+      </c>
+      <c r="F46" s="10">
+        <v>4.9711004935113401</v>
+      </c>
+      <c r="G46" s="10">
+        <v>5.5542096030150301</v>
+      </c>
+      <c r="H46" s="10">
+        <v>6.0795444284136799</v>
+      </c>
+      <c r="I46" s="10">
+        <v>6.7958175966584697</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" ht="12" thickBot="1">
+      <c r="C47" s="9">
+        <v>2.4502830071816701</v>
+      </c>
+      <c r="D47" s="9">
+        <v>3.4209145036019502</v>
+      </c>
+      <c r="E47" s="9">
+        <v>4.0156706576154404</v>
+      </c>
+      <c r="F47" s="9">
+        <v>5.0408803446639796</v>
+      </c>
+      <c r="G47" s="9">
+        <v>5.5862953404503299</v>
+      </c>
+      <c r="H47" s="9">
+        <v>6.1705366643754598</v>
+      </c>
+      <c r="I47" s="9">
+        <v>6.8910211780601802</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" ht="12" thickBot="1">
+      <c r="C48" s="10">
+        <v>2.4631572149354102</v>
+      </c>
+      <c r="D48" s="10">
+        <v>3.53654588881761</v>
+      </c>
+      <c r="E48" s="10">
+        <v>3.8006140935519701</v>
+      </c>
+      <c r="F48" s="10">
+        <v>4.8460206609168903</v>
+      </c>
+      <c r="G48" s="10">
+        <v>5.3946238987880397</v>
+      </c>
+      <c r="H48" s="10">
+        <v>6.1531514354415</v>
+      </c>
+      <c r="I48" s="10">
+        <v>7.0292713855918496</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" ht="12" thickBot="1">
+      <c r="C49" s="9">
+        <v>2.8300344305490199</v>
+      </c>
+      <c r="D49" s="9">
+        <v>3.6429294321005101</v>
+      </c>
+      <c r="E49" s="9">
+        <v>4.7864998548743998</v>
+      </c>
+      <c r="F49" s="9">
+        <v>4.1081797668417996</v>
+      </c>
+      <c r="G49" s="9">
+        <v>5.5436677109586698</v>
+      </c>
+      <c r="H49" s="9">
+        <v>6.0650008820587002</v>
+      </c>
+      <c r="I49" s="9">
+        <v>6.8377424449979101</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" ht="12" thickBot="1">
+      <c r="C50" s="10">
+        <v>2.4748848748521599</v>
+      </c>
+      <c r="D50" s="10">
+        <v>3.2489602714780399</v>
+      </c>
+      <c r="E50" s="10">
+        <v>4.1382694162372804</v>
+      </c>
+      <c r="F50" s="10">
+        <v>4.9122735461888896</v>
+      </c>
+      <c r="G50" s="10">
+        <v>5.5118106916923804</v>
+      </c>
+      <c r="H50" s="10">
+        <v>6.2507529546801504</v>
+      </c>
+      <c r="I50" s="10">
+        <v>6.9192422010575303</v>
+      </c>
+    </row>
+    <row r="51" spans="3:9" ht="12" thickBot="1">
+      <c r="C51" s="9">
+        <v>2.6486947703093402</v>
+      </c>
+      <c r="D51" s="9">
+        <v>3.5816482484484302</v>
+      </c>
+      <c r="E51" s="9">
+        <v>3.3442659802429202</v>
+      </c>
+      <c r="F51" s="9">
+        <v>4.7342131269100598</v>
+      </c>
+      <c r="G51" s="9">
+        <v>5.4939881612936396</v>
+      </c>
+      <c r="H51" s="9">
+        <v>6.22944711077026</v>
+      </c>
+      <c r="I51" s="9">
+        <v>6.8398643643217403</v>
+      </c>
+    </row>
+    <row r="52" spans="3:9" ht="12" thickBot="1">
+      <c r="C52" s="9">
+        <v>2.3403552393599201</v>
+      </c>
+      <c r="D52" s="9">
+        <v>3.4815045860028802</v>
+      </c>
+      <c r="E52" s="9">
+        <v>4.2096208172902001</v>
+      </c>
+      <c r="F52" s="9">
+        <v>4.9747374335263403</v>
+      </c>
+      <c r="G52" s="9">
+        <v>5.4896626470559697</v>
+      </c>
+      <c r="H52" s="9">
+        <v>5.8785273461067504</v>
+      </c>
+      <c r="I52" s="9">
+        <v>6.7698742384715</v>
+      </c>
+    </row>
+    <row r="53" spans="3:9" ht="12" thickBot="1">
+      <c r="C53" s="9">
+        <v>2.96385440540084</v>
+      </c>
+      <c r="D53" s="9">
+        <v>3.5112598058016902</v>
+      </c>
+      <c r="E53" s="9">
+        <v>4.0818085114973099</v>
+      </c>
+      <c r="F53" s="9">
+        <v>4.84891645635728</v>
+      </c>
+      <c r="G53" s="9">
+        <v>5.3173183675360702</v>
+      </c>
+      <c r="H53" s="9">
+        <v>6.3620080045051299</v>
+      </c>
+      <c r="I53" s="9">
+        <v>6.9414027211956499</v>
+      </c>
+    </row>
+    <row r="54" spans="3:9" ht="12" thickBot="1">
+      <c r="C54" s="10">
+        <v>2.13068611462753</v>
+      </c>
+      <c r="D54" s="10">
+        <v>3.5062093630151701</v>
+      </c>
+      <c r="E54" s="10">
+        <v>3.8139174424642901</v>
+      </c>
+      <c r="F54" s="10">
+        <v>4.6113280246864896</v>
+      </c>
+      <c r="G54" s="10">
+        <v>5.6911931164929799</v>
+      </c>
+      <c r="H54" s="10">
+        <v>6.2038345046616499</v>
+      </c>
+      <c r="I54" s="10">
+        <v>6.7032797592881996</v>
+      </c>
+    </row>
+    <row r="55" spans="3:9" ht="12" thickBot="1">
+      <c r="C55" s="9">
+        <v>2.4482685891681699</v>
+      </c>
+      <c r="D55" s="9">
+        <v>3.53799034378107</v>
+      </c>
+      <c r="E55" s="9">
+        <v>3.9740120578532299</v>
+      </c>
+      <c r="F55" s="9">
+        <v>4.9504157438191898</v>
+      </c>
+      <c r="G55" s="9">
+        <v>5.5591878459575401</v>
+      </c>
+      <c r="H55" s="9">
+        <v>6.2908590404365903</v>
+      </c>
+      <c r="I55" s="9">
+        <v>6.7803020166608503</v>
+      </c>
+    </row>
+    <row r="56" spans="3:9" ht="12" thickBot="1">
+      <c r="C56" s="10">
+        <v>2.4779386431940398</v>
+      </c>
+      <c r="D56" s="10">
+        <v>3.18566068106343</v>
+      </c>
+      <c r="E56" s="10">
+        <v>3.9101661612118801</v>
+      </c>
+      <c r="F56" s="10">
+        <v>4.9028519948034601</v>
+      </c>
+      <c r="G56" s="10">
+        <v>5.5737460567746204</v>
+      </c>
+      <c r="H56" s="10">
+        <v>6.1722047570324596</v>
+      </c>
+      <c r="I56" s="10">
+        <v>6.9264900679024199</v>
+      </c>
+    </row>
+    <row r="57" spans="3:9" ht="12" thickBot="1">
+      <c r="C57" s="9">
+        <v>2.64126242840993</v>
+      </c>
+      <c r="D57" s="9">
+        <v>3.6714395744536401</v>
+      </c>
+      <c r="E57" s="9">
+        <v>4.30499037694441</v>
+      </c>
+      <c r="F57" s="9">
+        <v>4.6868237436589899</v>
+      </c>
+      <c r="G57" s="9">
+        <v>5.5963983718881201</v>
+      </c>
+      <c r="H57" s="9">
+        <v>6.1735478917543096</v>
+      </c>
+      <c r="I57" s="9">
+        <v>6.9203786184425899</v>
+      </c>
+    </row>
+    <row r="58" spans="3:9" ht="12" thickBot="1">
+      <c r="C58" s="9">
+        <v>2.8841764682148501</v>
+      </c>
+      <c r="D58" s="9">
+        <v>3.4711002985151298</v>
+      </c>
+      <c r="E58" s="9">
+        <v>4.1672158167667304</v>
+      </c>
+      <c r="F58" s="9">
+        <v>5.0075723500852298</v>
+      </c>
+      <c r="G58" s="9">
+        <v>5.8351561202416997</v>
+      </c>
+      <c r="H58" s="9">
+        <v>5.6869933400527701</v>
+      </c>
+      <c r="I58" s="9">
+        <v>6.7626424469745103</v>
+      </c>
+    </row>
+    <row r="59" spans="3:9" ht="12" thickBot="1">
+      <c r="C59" s="10">
+        <v>2.2755836934801099</v>
+      </c>
+      <c r="D59" s="10">
+        <v>4.0032800090050298</v>
+      </c>
+      <c r="E59" s="10">
+        <v>3.5196932233498401</v>
+      </c>
+      <c r="F59" s="10">
+        <v>4.7862706243543203</v>
+      </c>
+      <c r="G59" s="10">
+        <v>5.1427360741587202</v>
+      </c>
+      <c r="H59" s="10">
+        <v>6.1603172706022296</v>
+      </c>
+      <c r="I59" s="10">
+        <v>6.82711750881837</v>
+      </c>
+    </row>
+    <row r="60" spans="3:9" ht="12" thickBot="1">
+      <c r="C60" s="9">
+        <v>2.3688563374816201</v>
+      </c>
+      <c r="D60" s="9">
+        <v>3.5098720037105999</v>
+      </c>
+      <c r="E60" s="9">
+        <v>4.4093199753284296</v>
+      </c>
+      <c r="F60" s="9">
+        <v>4.7104017302502701</v>
+      </c>
+      <c r="G60" s="9">
+        <v>5.3209055467026696</v>
+      </c>
+      <c r="H60" s="9">
+        <v>6.1826932358679301</v>
+      </c>
+      <c r="I60" s="9">
+        <v>6.7176114658166997</v>
+      </c>
+    </row>
+    <row r="61" spans="3:9" ht="12" thickBot="1">
+      <c r="C61" s="10">
+        <v>2.5998341273675001</v>
+      </c>
+      <c r="D61" s="10">
+        <v>3.61807803239385</v>
+      </c>
+      <c r="E61" s="10">
+        <v>4.3170089486756398</v>
+      </c>
+      <c r="F61" s="10">
+        <v>4.9350485854740596</v>
+      </c>
+      <c r="G61" s="10">
+        <v>5.6399958803515702</v>
+      </c>
+      <c r="H61" s="10">
+        <v>6.1662028637697501</v>
+      </c>
+      <c r="I61" s="10">
+        <v>7.0623669299227902</v>
+      </c>
+    </row>
+    <row r="62" spans="3:9" ht="12" thickBot="1">
+      <c r="C62" s="9">
+        <v>3.0615914657892498</v>
+      </c>
+      <c r="D62" s="9">
+        <v>3.5338325490381099</v>
+      </c>
+      <c r="E62" s="9">
+        <v>3.9919837933214199</v>
+      </c>
+      <c r="F62" s="9">
+        <v>4.91121424459633</v>
+      </c>
+      <c r="G62" s="9">
+        <v>5.2612350354509401</v>
+      </c>
+      <c r="H62" s="9">
+        <v>6.2185844142301301</v>
+      </c>
+      <c r="I62" s="9">
+        <v>6.89349901733104</v>
+      </c>
+    </row>
+    <row r="63" spans="3:9" ht="12" thickBot="1">
+      <c r="C63" s="9">
+        <v>2.0706662640242599</v>
+      </c>
+      <c r="D63" s="9">
+        <v>3.3267555654823302</v>
+      </c>
+      <c r="E63" s="9">
+        <v>4.0785445236390601</v>
+      </c>
+      <c r="F63" s="9">
+        <v>4.7214830394563601</v>
+      </c>
+      <c r="G63" s="9">
+        <v>5.3603688884294298</v>
+      </c>
+      <c r="H63" s="9">
+        <v>6.2556856368943397</v>
+      </c>
+      <c r="I63" s="9">
+        <v>6.9740208658373604</v>
+      </c>
+    </row>
+    <row r="64" spans="3:9" ht="12" thickBot="1">
+      <c r="C64" s="10">
+        <v>2.1025450451677599</v>
+      </c>
+      <c r="D64" s="10">
+        <v>3.51626617961514</v>
+      </c>
+      <c r="E64" s="10">
+        <v>4.2955889937120002</v>
+      </c>
+      <c r="F64" s="10">
+        <v>4.9965775194923099</v>
+      </c>
+      <c r="G64" s="10">
+        <v>5.5830853045628102</v>
+      </c>
+      <c r="H64" s="10">
+        <v>6.2390978062820803</v>
+      </c>
+      <c r="I64" s="10">
+        <v>6.7613501960421099</v>
+      </c>
+    </row>
+    <row r="65" spans="3:9" ht="12" thickBot="1">
+      <c r="C65" s="10">
+        <v>2.6561608008737001</v>
+      </c>
+      <c r="D65" s="10">
+        <v>4.0179402905597899</v>
+      </c>
+      <c r="E65" s="10">
+        <v>3.35494162377841</v>
+      </c>
+      <c r="F65" s="10">
+        <v>5.03574825934398</v>
+      </c>
+      <c r="G65" s="10">
+        <v>5.4047015080123098</v>
+      </c>
+      <c r="H65" s="10">
+        <v>6.08536933900064</v>
+      </c>
+      <c r="I65" s="10">
+        <v>6.7604383677379403</v>
+      </c>
+    </row>
+    <row r="66" spans="3:9" ht="12" thickBot="1">
+      <c r="C66" s="9">
+        <v>1.6901866196153299</v>
+      </c>
+      <c r="D66" s="9">
+        <v>3.40473308142206</v>
+      </c>
+      <c r="E66" s="9">
+        <v>4.0840114950205102</v>
+      </c>
+      <c r="F66" s="9">
+        <v>4.8024876457026702</v>
+      </c>
+      <c r="G66" s="9">
+        <v>5.5454984786551904</v>
+      </c>
+      <c r="H66" s="9">
+        <v>6.1518707414537399</v>
+      </c>
+      <c r="I66" s="9">
+        <v>6.8947821808555503</v>
+      </c>
+    </row>
+    <row r="67" spans="3:9" ht="12" thickBot="1">
+      <c r="C67" s="9">
+        <v>2.2102209118976002</v>
+      </c>
+      <c r="D67" s="9">
+        <v>3.6650622457182802</v>
+      </c>
+      <c r="E67" s="9">
+        <v>3.9871568545081502</v>
+      </c>
+      <c r="F67" s="9">
+        <v>4.8352521198201899</v>
+      </c>
+      <c r="G67" s="9">
+        <v>5.3089659782763201</v>
+      </c>
+      <c r="H67" s="9">
+        <v>6.2743106793938299</v>
+      </c>
+      <c r="I67" s="9">
+        <v>6.9512834791689997</v>
+      </c>
+    </row>
+    <row r="68" spans="3:9" ht="12" thickBot="1">
+      <c r="C68" s="10">
+        <v>2.8607031523503901</v>
+      </c>
+      <c r="D68" s="10">
+        <v>2.89232707132718</v>
+      </c>
+      <c r="E68" s="10">
+        <v>4.2039054605483201</v>
+      </c>
+      <c r="F68" s="10">
+        <v>4.7687463057972304</v>
+      </c>
+      <c r="G68" s="10">
+        <v>5.6091558818678298</v>
+      </c>
+      <c r="H68" s="10">
+        <v>6.1653637714671099</v>
+      </c>
+      <c r="I68" s="10">
+        <v>6.9072849025157099</v>
+      </c>
+    </row>
+    <row r="69" spans="3:9" ht="12" thickBot="1">
+      <c r="C69" s="10">
+        <v>2.4525949683334001</v>
+      </c>
+      <c r="D69" s="10">
+        <v>3.3754092913083298</v>
+      </c>
+      <c r="E69" s="10">
+        <v>4.1137009474138502</v>
+      </c>
+      <c r="F69" s="10">
+        <v>4.7530838349872901</v>
+      </c>
+      <c r="G69" s="10">
+        <v>5.4074995368256102</v>
+      </c>
+      <c r="H69" s="10">
+        <v>6.2872381629990599</v>
+      </c>
+      <c r="I69" s="10">
+        <v>6.7182383161354098</v>
+      </c>
+    </row>
+    <row r="70" spans="3:9" ht="12" thickBot="1">
+      <c r="C70" s="9">
+        <v>2.8039057885401801</v>
+      </c>
+      <c r="D70" s="9">
+        <v>3.25340407642924</v>
+      </c>
+      <c r="E70" s="9">
+        <v>4.2026145146475802</v>
+      </c>
+      <c r="F70" s="9">
+        <v>4.9711000403305903</v>
+      </c>
+      <c r="G70" s="9">
+        <v>5.4476483059577401</v>
+      </c>
+      <c r="H70" s="9">
+        <v>6.37288586196527</v>
+      </c>
+      <c r="I70" s="9">
+        <v>6.8929620954553004</v>
+      </c>
+    </row>
+    <row r="71" spans="3:9" ht="12" thickBot="1">
+      <c r="C71" s="9">
+        <v>2.4538548276308401</v>
+      </c>
+      <c r="D71" s="9">
+        <v>3.9155740069512999</v>
+      </c>
+      <c r="E71" s="9">
+        <v>3.30591161580735</v>
+      </c>
+      <c r="F71" s="9">
+        <v>4.7563962422511299</v>
+      </c>
+      <c r="G71" s="9">
+        <v>5.3230159118487803</v>
+      </c>
+      <c r="H71" s="9">
+        <v>6.2803551587100896</v>
+      </c>
+      <c r="I71" s="9">
+        <v>6.6259496255097501</v>
+      </c>
+    </row>
+    <row r="72" spans="3:9" ht="12" thickBot="1">
+      <c r="C72" s="9">
+        <v>2.7195160444017201</v>
+      </c>
+      <c r="D72" s="9">
+        <v>3.22060947268572</v>
+      </c>
+      <c r="E72" s="9">
+        <v>4.1304056840688004</v>
+      </c>
+      <c r="F72" s="9">
+        <v>4.8859953427937004</v>
+      </c>
+      <c r="G72" s="9">
+        <v>5.6830738370017997</v>
+      </c>
+      <c r="H72" s="9">
+        <v>6.1195736647541104</v>
+      </c>
+      <c r="I72" s="9">
+        <v>7.0252098488997401</v>
+      </c>
+    </row>
+    <row r="73" spans="3:9" ht="12" thickBot="1">
+      <c r="C73" s="10">
+        <v>2.6049838632779698</v>
+      </c>
+      <c r="D73" s="10">
+        <v>3.36391192019255</v>
+      </c>
+      <c r="E73" s="10">
+        <v>4.31682330953402</v>
+      </c>
+      <c r="F73" s="10">
+        <v>4.6728617520312596</v>
+      </c>
+      <c r="G73" s="10">
+        <v>5.4898850926303098</v>
+      </c>
+      <c r="H73" s="10">
+        <v>6.2088721879024398</v>
+      </c>
+      <c r="I73" s="10">
+        <v>6.9287541263403796</v>
+      </c>
+    </row>
+    <row r="74" spans="3:9" ht="12" thickBot="1">
+      <c r="C74" s="9">
+        <v>2.4245915037756198</v>
+      </c>
+      <c r="D74" s="9">
+        <v>3.3368997439592598</v>
+      </c>
+      <c r="E74" s="9">
+        <v>4.18107365037626</v>
+      </c>
+      <c r="F74" s="9">
+        <v>4.7313792975096902</v>
+      </c>
+      <c r="G74" s="9">
+        <v>5.6167906708666502</v>
+      </c>
+      <c r="H74" s="9">
+        <v>6.0846451315780001</v>
+      </c>
+      <c r="I74" s="9">
+        <v>6.9360788912628299</v>
+      </c>
+    </row>
+    <row r="75" spans="3:9" ht="12" thickBot="1">
+      <c r="C75" s="10">
+        <v>2.8663729634350501</v>
+      </c>
+      <c r="D75" s="10">
+        <v>3.4778558901101402</v>
+      </c>
+      <c r="E75" s="10">
+        <v>4.2064283635630098</v>
+      </c>
+      <c r="F75" s="10">
+        <v>4.9494342804655096</v>
+      </c>
+      <c r="G75" s="10">
+        <v>5.3860541963567599</v>
+      </c>
+      <c r="H75" s="10">
+        <v>6.2215155445473798</v>
+      </c>
+      <c r="I75" s="10">
+        <v>6.8671437521665801</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" ht="12" thickBot="1">
+      <c r="C76" s="9">
+        <v>2.6284347794598202</v>
+      </c>
+      <c r="D76" s="9">
+        <v>3.4901219259768301</v>
+      </c>
+      <c r="E76" s="9">
+        <v>4.0516854108641898</v>
+      </c>
+      <c r="F76" s="9">
+        <v>4.91488455440295</v>
+      </c>
+      <c r="G76" s="9">
+        <v>5.5135268293214601</v>
+      </c>
+      <c r="H76" s="9">
+        <v>6.1794899944605302</v>
+      </c>
+      <c r="I76" s="9">
+        <v>6.9480540822302901</v>
+      </c>
+    </row>
+    <row r="77" spans="3:9" ht="12" thickBot="1">
+      <c r="C77" s="10">
+        <v>2.32743151806786</v>
+      </c>
+      <c r="D77" s="10">
+        <v>3.3235065178894398</v>
+      </c>
+      <c r="E77" s="10">
+        <v>4.2030329233353196</v>
+      </c>
+      <c r="F77" s="10">
+        <v>4.74157319124122</v>
+      </c>
+      <c r="G77" s="10">
+        <v>5.4482426485523403</v>
+      </c>
+      <c r="H77" s="10">
+        <v>6.20111548018793</v>
+      </c>
+      <c r="I77" s="10">
+        <v>6.9523385129213597</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9" ht="12" thickBot="1">
+      <c r="C78" s="9">
+        <v>2.6580768267681298</v>
+      </c>
+      <c r="D78" s="9">
+        <v>3.4627981515741699</v>
+      </c>
+      <c r="E78" s="9">
+        <v>4.0617679770605504</v>
+      </c>
+      <c r="F78" s="9">
+        <v>4.76261554922743</v>
+      </c>
+      <c r="G78" s="9">
+        <v>5.5920451410436796</v>
+      </c>
+      <c r="H78" s="9">
+        <v>6.1890916194174004</v>
+      </c>
+      <c r="I78" s="9">
+        <v>6.8646727078489898</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9" ht="12" thickBot="1">
+      <c r="C79" s="9">
+        <v>2.27496761568927</v>
+      </c>
+      <c r="D79" s="9">
+        <v>3.2920581707873899</v>
+      </c>
+      <c r="E79" s="9">
+        <v>3.95382405736478</v>
+      </c>
+      <c r="F79" s="9">
+        <v>4.8877047010508097</v>
+      </c>
+      <c r="G79" s="9">
+        <v>5.3758003270916497</v>
+      </c>
+      <c r="H79" s="9">
+        <v>6.9260290936381104</v>
+      </c>
+      <c r="I79" s="9">
+        <v>6.3652620876743198</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9" ht="12" thickBot="1">
+      <c r="C80" s="10">
+        <v>2.38397409712063</v>
+      </c>
+      <c r="D80" s="10">
+        <v>3.6247795579833402</v>
+      </c>
+      <c r="E80" s="10">
+        <v>4.3106109435555799</v>
+      </c>
+      <c r="F80" s="10">
+        <v>4.94348773758046</v>
+      </c>
+      <c r="G80" s="10">
+        <v>6.0369566979432197</v>
+      </c>
+      <c r="H80" s="10">
+        <v>6.4370356516980198</v>
+      </c>
+      <c r="I80" s="10">
+        <v>5.4514422528324697</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" ht="12" thickBot="1">
+      <c r="C81" s="9">
+        <v>2.3186320649896599</v>
+      </c>
+      <c r="D81" s="9">
+        <v>3.4241953846515099</v>
+      </c>
+      <c r="E81" s="9">
+        <v>4.0695737487841601</v>
+      </c>
+      <c r="F81" s="9">
+        <v>5.2677361321142699</v>
+      </c>
+      <c r="G81" s="9">
+        <v>4.85122704623857</v>
+      </c>
+      <c r="H81" s="9">
+        <v>6.40101044084909</v>
+      </c>
+      <c r="I81" s="9">
+        <v>6.7359186993994102</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9" ht="12" thickBot="1">
+      <c r="C82" s="10">
+        <v>2.6754606391095002</v>
+      </c>
+      <c r="D82" s="10">
+        <v>3.3216088714261001</v>
+      </c>
+      <c r="E82" s="10">
+        <v>4.22069165501523</v>
+      </c>
+      <c r="F82" s="10">
+        <v>4.8067639341361499</v>
+      </c>
+      <c r="G82" s="10">
+        <v>5.3492356883848498</v>
+      </c>
+      <c r="H82" s="10">
+        <v>6.1023157294205701</v>
+      </c>
+      <c r="I82" s="10">
+        <v>6.7855744145381003</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" ht="12" thickBot="1">
+      <c r="C83" s="9">
+        <v>2.3701472637797698</v>
+      </c>
+      <c r="D83" s="9">
+        <v>3.4250743016240799</v>
+      </c>
+      <c r="E83" s="9">
+        <v>4.2930378925661401</v>
+      </c>
+      <c r="F83" s="9">
+        <v>4.8372453348463296</v>
+      </c>
+      <c r="G83" s="9">
+        <v>5.5197038573872099</v>
+      </c>
+      <c r="H83" s="9">
+        <v>6.1277590502206003</v>
+      </c>
+      <c r="I83" s="9">
+        <v>6.6339243632252503</v>
+      </c>
+    </row>
+    <row r="84" spans="3:9" ht="12" thickBot="1">
+      <c r="C84" s="9">
+        <v>2.2554826469115001</v>
+      </c>
+      <c r="D84" s="9">
+        <v>3.3696340973941301</v>
+      </c>
+      <c r="E84" s="9">
+        <v>3.9287659712479499</v>
+      </c>
+      <c r="F84" s="9">
+        <v>4.9692493439443401</v>
+      </c>
+      <c r="G84" s="9">
+        <v>5.5350500920090697</v>
+      </c>
+      <c r="H84" s="9">
+        <v>6.1677928858024602</v>
+      </c>
+      <c r="I84" s="9">
+        <v>6.8669934400863601</v>
+      </c>
+    </row>
+    <row r="85" spans="3:9" ht="12" thickBot="1">
+      <c r="C85" s="10">
+        <v>2.28026275199311</v>
+      </c>
+      <c r="D85" s="10">
+        <v>3.21461762278172</v>
+      </c>
+      <c r="E85" s="10">
+        <v>4.2302487701096201</v>
+      </c>
+      <c r="F85" s="10">
+        <v>4.7918369921380704</v>
+      </c>
+      <c r="G85" s="10">
+        <v>5.5607854264533598</v>
+      </c>
+      <c r="H85" s="10">
+        <v>6.2959199955230298</v>
+      </c>
+      <c r="I85" s="10">
+        <v>6.9789460679753397</v>
+      </c>
+    </row>
+    <row r="86" spans="3:9" ht="12" thickBot="1">
+      <c r="C86" s="9">
+        <v>2.4049741425814801</v>
+      </c>
+      <c r="D86" s="9">
+        <v>3.3364963664708398</v>
+      </c>
+      <c r="E86" s="9">
+        <v>4.27733584512037</v>
+      </c>
+      <c r="F86" s="9">
+        <v>4.8908885226707</v>
+      </c>
+      <c r="G86" s="9">
+        <v>5.48304212420362</v>
+      </c>
+      <c r="H86" s="9">
+        <v>6.3905474219490399</v>
+      </c>
+      <c r="I86" s="9">
+        <v>6.7515259840011499</v>
+      </c>
+    </row>
+    <row r="87" spans="3:9" ht="12" thickBot="1">
+      <c r="C87" s="10">
+        <v>2.45455897519517</v>
+      </c>
+      <c r="D87" s="10">
+        <v>3.2085300341510599</v>
+      </c>
+      <c r="E87" s="10">
+        <v>4.1582875367102696</v>
+      </c>
+      <c r="F87" s="10">
+        <v>4.9254774180108196</v>
+      </c>
+      <c r="G87" s="10">
+        <v>5.6209529985361204</v>
+      </c>
+      <c r="H87" s="10">
+        <v>6.1939284600487996</v>
+      </c>
+      <c r="I87" s="10">
+        <v>6.7878065081677503</v>
+      </c>
+    </row>
+    <row r="88" spans="3:9" ht="12" thickBot="1">
+      <c r="C88" s="9">
+        <v>2.4068533757946602</v>
+      </c>
+      <c r="D88" s="9">
+        <v>3.2661661813184799</v>
+      </c>
+      <c r="E88" s="9">
+        <v>4.2262508406182704</v>
+      </c>
+      <c r="F88" s="9">
+        <v>4.7301053400505699</v>
+      </c>
+      <c r="G88" s="9">
+        <v>5.4542028202628696</v>
+      </c>
+      <c r="H88" s="9">
+        <v>6.3542184902924399</v>
+      </c>
+      <c r="I88" s="9">
+        <v>6.8673715739562899</v>
+      </c>
+    </row>
+    <row r="89" spans="3:9" ht="12" thickBot="1">
+      <c r="C89" s="9">
+        <v>2.59591581185146</v>
+      </c>
+      <c r="D89" s="9">
+        <v>3.5469000929355801</v>
+      </c>
+      <c r="E89" s="9">
+        <v>4.3280345505679598</v>
+      </c>
+      <c r="F89" s="9">
+        <v>4.7866716904538498</v>
+      </c>
+      <c r="G89" s="9">
+        <v>5.5335396618947996</v>
+      </c>
+      <c r="H89" s="9">
+        <v>6.1355572945100398</v>
+      </c>
+      <c r="I89" s="9">
+        <v>6.8737313737210401</v>
+      </c>
+    </row>
+    <row r="90" spans="3:9" ht="12" thickBot="1">
+      <c r="C90" s="9">
+        <v>2.19178838574951</v>
+      </c>
+      <c r="D90" s="9">
+        <v>2.9896756278442602</v>
+      </c>
+      <c r="E90" s="9">
+        <v>3.9111661275812102</v>
+      </c>
+      <c r="F90" s="9">
+        <v>5.0053974817995197</v>
+      </c>
+      <c r="G90" s="9">
+        <v>5.4925529976921803</v>
+      </c>
+      <c r="H90" s="9">
+        <v>6.1267586242493897</v>
+      </c>
+      <c r="I90" s="9">
+        <v>6.8658201477842198</v>
+      </c>
+    </row>
+    <row r="91" spans="3:9" ht="12" thickBot="1">
+      <c r="C91" s="10">
+        <v>2.43747367838407</v>
+      </c>
+      <c r="D91" s="10">
+        <v>3.4902415217999101</v>
+      </c>
+      <c r="E91" s="10">
+        <v>4.1244980584465196</v>
+      </c>
+      <c r="F91" s="10">
+        <v>4.68933647106308</v>
+      </c>
+      <c r="G91" s="10">
+        <v>5.4818484316840701</v>
+      </c>
+      <c r="H91" s="10">
+        <v>6.2384163043003502</v>
+      </c>
+      <c r="I91" s="10">
+        <v>6.9837699754398104</v>
+      </c>
+    </row>
+    <row r="92" spans="3:9" ht="12" thickBot="1">
+      <c r="C92" s="9">
+        <v>2.8898599879877498</v>
+      </c>
+      <c r="D92" s="9">
+        <v>3.5101582517169998</v>
+      </c>
+      <c r="E92" s="9">
+        <v>4.1878886900710599</v>
+      </c>
+      <c r="F92" s="9">
+        <v>4.7054020280618296</v>
+      </c>
+      <c r="G92" s="9">
+        <v>5.4629722418877797</v>
+      </c>
+      <c r="H92" s="9">
+        <v>6.13639734734189</v>
+      </c>
+      <c r="I92" s="9">
+        <v>7.0193460872392297</v>
+      </c>
+    </row>
+    <row r="93" spans="3:9" ht="12" thickBot="1">
+      <c r="C93" s="10">
+        <v>2.8663729634350501</v>
+      </c>
+      <c r="D93" s="10">
+        <v>3.4778558901101402</v>
+      </c>
+      <c r="E93" s="10">
+        <v>4.2064283635630098</v>
+      </c>
+      <c r="F93" s="10">
+        <v>4.9494342804655096</v>
+      </c>
+      <c r="G93" s="10">
+        <v>5.3860541963567599</v>
+      </c>
+      <c r="H93" s="10">
+        <v>6.2215155445473798</v>
+      </c>
+      <c r="I93" s="10">
+        <v>6.8671437521665801</v>
+      </c>
+    </row>
+    <row r="94" spans="3:9" ht="12" thickBot="1">
+      <c r="C94" s="9">
+        <v>2.4467436575041002</v>
+      </c>
+      <c r="D94" s="9">
+        <v>3.4415491203554698</v>
+      </c>
+      <c r="E94" s="9">
+        <v>4.0747329598134199</v>
+      </c>
+      <c r="F94" s="9">
+        <v>4.9327900929271804</v>
+      </c>
+      <c r="G94" s="9">
+        <v>5.3915434108274303</v>
+      </c>
+      <c r="H94" s="9">
+        <v>6.2139204090317302</v>
+      </c>
+      <c r="I94" s="9">
+        <v>6.9466392738499199</v>
+      </c>
+    </row>
+    <row r="95" spans="3:9" ht="12" thickBot="1">
+      <c r="C95" s="10">
+        <v>2.2962849729082002</v>
+      </c>
+      <c r="D95" s="10">
+        <v>3.0986478088384501</v>
+      </c>
+      <c r="E95" s="10">
+        <v>3.8536958654864399</v>
+      </c>
+      <c r="F95" s="10">
+        <v>4.7528435492071903</v>
+      </c>
+      <c r="G95" s="10">
+        <v>5.3735605637870902</v>
+      </c>
+      <c r="H95" s="10">
+        <v>6.2401425359009997</v>
+      </c>
+      <c r="I95" s="10">
+        <v>6.8165465477741201</v>
+      </c>
+    </row>
+    <row r="96" spans="3:9" ht="12" thickBot="1">
+      <c r="C96" s="9">
+        <v>2.6369171756724801</v>
+      </c>
+      <c r="D96" s="9">
+        <v>3.5078941425744001</v>
+      </c>
+      <c r="E96" s="9">
+        <v>4.2234553660790803</v>
+      </c>
+      <c r="F96" s="9">
+        <v>4.74324950677173</v>
+      </c>
+      <c r="G96" s="9">
+        <v>5.5464524627549201</v>
+      </c>
+      <c r="H96" s="9">
+        <v>6.2608778092638202</v>
+      </c>
+      <c r="I96" s="9">
+        <v>6.8675369926338004</v>
+      </c>
+    </row>
+    <row r="97" spans="3:9" ht="12" thickBot="1">
+      <c r="C97" s="9">
+        <v>2.0107327805475701</v>
+      </c>
+      <c r="D97" s="9">
+        <v>3.0758046554362299</v>
+      </c>
+      <c r="E97" s="9">
+        <v>4.1730985580345701</v>
+      </c>
+      <c r="F97" s="9">
+        <v>4.9392475556104003</v>
+      </c>
+      <c r="G97" s="9">
+        <v>5.4428802960770497</v>
+      </c>
+      <c r="H97" s="9">
+        <v>6.8632786212476597</v>
+      </c>
+      <c r="I97" s="9">
+        <v>6.1100939292703504</v>
+      </c>
+    </row>
+    <row r="98" spans="3:9" ht="12" thickBot="1">
+      <c r="C98" s="10">
+        <v>2.6974671401147599</v>
+      </c>
+      <c r="D98" s="10">
+        <v>3.2784773882692799</v>
+      </c>
+      <c r="E98" s="10">
+        <v>4.0905991453236696</v>
+      </c>
+      <c r="F98" s="10">
+        <v>5.0285343191152796</v>
+      </c>
+      <c r="G98" s="10">
+        <v>5.61479224218502</v>
+      </c>
+      <c r="H98" s="10">
+        <v>6.0906238928344001</v>
+      </c>
+      <c r="I98" s="10">
+        <v>7.0255592167739298</v>
+      </c>
+    </row>
+    <row r="99" spans="3:9" ht="12" thickBot="1">
+      <c r="C99" s="9">
+        <v>2.5311868285515202</v>
+      </c>
+      <c r="D99" s="9">
+        <v>3.3636553211442699</v>
+      </c>
+      <c r="E99" s="9">
+        <v>3.8750236974814598</v>
+      </c>
+      <c r="F99" s="9">
+        <v>4.54291037917117</v>
+      </c>
+      <c r="G99" s="9">
+        <v>5.6230753298431697</v>
+      </c>
+      <c r="H99" s="9">
+        <v>6.80045376739342</v>
+      </c>
+      <c r="I99" s="9">
+        <v>6.11558074105728</v>
+      </c>
+    </row>
+    <row r="100" spans="3:9" ht="12" thickBot="1">
+      <c r="C100" s="10">
+        <v>2.5070244825905301</v>
+      </c>
+      <c r="D100" s="10">
+        <v>3.44037881867821</v>
+      </c>
+      <c r="E100" s="10">
+        <v>4.0087159964772896</v>
+      </c>
+      <c r="F100" s="10">
+        <v>4.9618140022233304</v>
+      </c>
+      <c r="G100" s="10">
+        <v>5.2233408944788504</v>
+      </c>
+      <c r="H100" s="10">
+        <v>6.2215187671685799</v>
+      </c>
+      <c r="I100" s="10">
+        <v>6.6713339091958899</v>
+      </c>
+    </row>
+    <row r="101" spans="3:9" ht="12" thickBot="1">
+      <c r="C101" s="9">
+        <v>2.5604415654722201</v>
+      </c>
+      <c r="D101" s="9">
+        <v>3.4792756047273001</v>
+      </c>
+      <c r="E101" s="9">
+        <v>4.0355414307669104</v>
+      </c>
+      <c r="F101" s="9">
+        <v>4.7672056465192698</v>
+      </c>
+      <c r="G101" s="9">
+        <v>5.5242727186662197</v>
+      </c>
+      <c r="H101" s="9">
+        <v>6.1202239724457899</v>
+      </c>
+      <c r="I101" s="9">
+        <v>6.6877055577190001</v>
+      </c>
+    </row>
+    <row r="102" spans="3:9" ht="12" thickBot="1">
+      <c r="C102" s="40">
+        <v>2.3064</v>
+      </c>
+      <c r="D102" s="40">
+        <v>3.3633999999999999</v>
+      </c>
+      <c r="E102" s="40">
+        <v>4.2771999999999997</v>
+      </c>
+      <c r="F102" s="40">
+        <v>4.8792</v>
+      </c>
+      <c r="G102" s="40">
+        <v>5.4634</v>
+      </c>
+      <c r="H102" s="40">
+        <v>6.2066999999999997</v>
+      </c>
+      <c r="I102" s="40">
+        <v>6.7763999999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="3:9" ht="12" thickBot="1">
+      <c r="C103" s="41">
+        <v>2.6823000000000001</v>
+      </c>
+      <c r="D103" s="41">
+        <v>3.3778000000000001</v>
+      </c>
+      <c r="E103" s="41">
+        <v>4.2999000000000001</v>
+      </c>
+      <c r="F103" s="41">
+        <v>4.9175000000000004</v>
+      </c>
+      <c r="G103" s="41">
+        <v>5.4294000000000002</v>
+      </c>
+      <c r="H103" s="41">
+        <v>6.2111999999999998</v>
+      </c>
+      <c r="I103" s="41">
+        <v>6.7485999999999997</v>
+      </c>
+    </row>
+    <row r="104" spans="3:9" ht="12" thickBot="1">
+      <c r="C104" s="40">
+        <v>1.9056999999999999</v>
+      </c>
+      <c r="D104" s="40">
+        <v>3.327</v>
+      </c>
+      <c r="E104" s="40">
+        <v>3.7966000000000002</v>
+      </c>
+      <c r="F104" s="40">
+        <v>4.6798999999999999</v>
+      </c>
+      <c r="G104" s="40">
+        <v>5.5164999999999997</v>
+      </c>
+      <c r="H104" s="40">
+        <v>6.2895000000000003</v>
+      </c>
+      <c r="I104" s="40">
+        <v>6.8658000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="3:9" ht="12" thickBot="1">
+      <c r="C105" s="41">
+        <v>2.4213</v>
+      </c>
+      <c r="D105" s="41">
+        <v>3.2823000000000002</v>
+      </c>
+      <c r="E105" s="41">
+        <v>3.9481000000000002</v>
+      </c>
+      <c r="F105" s="41">
+        <v>5.0632000000000001</v>
+      </c>
+      <c r="G105" s="41">
+        <v>5.4447000000000001</v>
+      </c>
+      <c r="H105" s="41">
+        <v>6.0975999999999999</v>
+      </c>
+      <c r="I105" s="41">
+        <v>6.9965999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="3:9" ht="12" thickBot="1">
+      <c r="C106" s="40">
+        <v>2.7612000000000001</v>
+      </c>
+      <c r="D106" s="40">
+        <v>3.6739999999999999</v>
+      </c>
+      <c r="E106" s="40">
+        <v>4.1380999999999997</v>
+      </c>
+      <c r="F106" s="40">
+        <v>4.7430000000000003</v>
+      </c>
+      <c r="G106" s="40">
+        <v>5.3981000000000003</v>
+      </c>
+      <c r="H106" s="40">
+        <v>6.1783000000000001</v>
+      </c>
+      <c r="I106" s="40">
+        <v>6.8837999999999999</v>
+      </c>
+    </row>
+    <row r="107" spans="3:9" ht="12" thickBot="1">
+      <c r="C107" s="40">
+        <v>2.4045000000000001</v>
+      </c>
+      <c r="D107" s="40">
+        <v>3.4190999999999998</v>
+      </c>
+      <c r="E107" s="40">
+        <v>4.2716000000000003</v>
+      </c>
+      <c r="F107" s="40">
+        <v>4.8118999999999996</v>
+      </c>
+      <c r="G107" s="40">
+        <v>5.4255000000000004</v>
+      </c>
+      <c r="H107" s="40">
+        <v>6.0941000000000001</v>
+      </c>
+      <c r="I107" s="40">
+        <v>6.6664000000000003</v>
+      </c>
+    </row>
+    <row r="108" spans="3:9" ht="12" thickBot="1">
+      <c r="C108" s="41">
+        <v>2.5324</v>
+      </c>
+      <c r="D108" s="41">
+        <v>3.4769999999999999</v>
+      </c>
+      <c r="E108" s="41">
+        <v>4.0773999999999999</v>
+      </c>
+      <c r="F108" s="41">
+        <v>4.7896000000000001</v>
+      </c>
+      <c r="G108" s="41">
+        <v>5.6021999999999998</v>
+      </c>
+      <c r="H108" s="41">
+        <v>6.1962000000000002</v>
+      </c>
+      <c r="I108" s="41">
+        <v>6.8151000000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="3:9" ht="12" thickBot="1">
+      <c r="C109" s="40">
+        <v>2.5682</v>
+      </c>
+      <c r="D109" s="40">
+        <v>3.5226000000000002</v>
+      </c>
+      <c r="E109" s="40">
+        <v>4.1885000000000003</v>
+      </c>
+      <c r="F109" s="40">
+        <v>4.9166999999999996</v>
+      </c>
+      <c r="G109" s="40">
+        <v>5.2797999999999998</v>
+      </c>
+      <c r="H109" s="40">
+        <v>6.1487999999999996</v>
+      </c>
+      <c r="I109" s="40">
+        <v>6.7389999999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="3:9" ht="12" thickBot="1">
+      <c r="C110" s="41">
+        <v>2.5514999999999999</v>
+      </c>
+      <c r="D110" s="41">
+        <v>3.5802999999999998</v>
+      </c>
+      <c r="E110" s="41">
+        <v>4.2439</v>
+      </c>
+      <c r="F110" s="41">
+        <v>4.9805000000000001</v>
+      </c>
+      <c r="G110" s="41">
+        <v>5.4591000000000003</v>
+      </c>
+      <c r="H110" s="41">
+        <v>6.2847</v>
+      </c>
+      <c r="I110" s="41">
+        <v>6.8053999999999997</v>
+      </c>
+    </row>
+    <row r="111" spans="3:9" ht="12" thickBot="1">
+      <c r="C111" s="40">
+        <v>2.63</v>
+      </c>
+      <c r="D111" s="40">
+        <v>3.5163000000000002</v>
+      </c>
+      <c r="E111" s="40">
+        <v>4.3341000000000003</v>
+      </c>
+      <c r="F111" s="40">
+        <v>4.9184999999999999</v>
+      </c>
+      <c r="G111" s="40">
+        <v>5.4588999999999999</v>
+      </c>
+      <c r="H111" s="40">
+        <v>6.1791999999999998</v>
+      </c>
+      <c r="I111" s="40">
+        <v>6.8718000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -15231,7 +17428,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:D26"/>
+      <selection activeCell="L48" sqref="L48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -15939,7 +18136,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:D27"/>
+      <selection activeCell="K19" activeCellId="1" sqref="E16:K17 E19:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -16669,14 +18866,14 @@
       <c r="B1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="35" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -16693,7 +18890,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="34"/>
+      <c r="A3" s="36"/>
       <c r="B3" s="16" t="s">
         <v>24</v>
       </c>
@@ -16708,7 +18905,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="34"/>
+      <c r="A4" s="36"/>
       <c r="B4" s="16" t="s">
         <v>25</v>
       </c>
@@ -16723,7 +18920,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="34"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="16" t="s">
         <v>26</v>
       </c>
@@ -16738,7 +18935,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="34"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="16" t="s">
         <v>27</v>
       </c>
@@ -16753,7 +18950,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="34"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="16" t="s">
         <v>28</v>
       </c>
@@ -16768,7 +18965,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="35"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="16" t="s">
         <v>29</v>
       </c>
@@ -16814,7 +19011,7 @@
     </row>
     <row r="15" spans="1:5" ht="5" customHeight="1"/>
     <row r="16" spans="1:5">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="38" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -16829,7 +19026,7 @@
       <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A17" s="37"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="21" t="s">
         <v>37</v>
       </c>
@@ -16899,7 +19096,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:D27"/>
+      <selection activeCell="K17" sqref="E17:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -17612,7 +19809,7 @@
   <dimension ref="A1:Y33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27:Q27"/>
+      <selection activeCell="K23" activeCellId="1" sqref="E16:K21 E23:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -18820,7 +21017,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="K16" activeCellId="2" sqref="E23:K25 E19:K21 E16:K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -19533,7 +21730,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:D26"/>
+      <selection activeCell="K23" activeCellId="1" sqref="E15:K21 E23:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -20241,7 +22438,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="P59" sqref="P59"/>
+      <selection activeCell="E23" activeCellId="3" sqref="E15:K15 E17:K18 E20:K20 E23:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -20949,7 +23146,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56"/>
+      <selection activeCell="E21" activeCellId="1" sqref="E16:K19 E21:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -20985,7 +23182,7 @@
       <c r="D2" s="5">
         <v>800</v>
       </c>
-      <c r="E2" s="39" t="s">
+      <c r="E2" s="31" t="s">
         <v>106</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -21670,7 +23867,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="K25" activeCellId="3" sqref="E16:K17 E19:K19 E21:K23 E25:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -21706,7 +23903,7 @@
       <c r="D2" s="13">
         <v>850</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="30" t="s">
         <v>108</v>
       </c>
       <c r="F2" s="4" t="s">
@@ -22391,7 +24588,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+      <selection activeCell="E19" activeCellId="1" sqref="E17:K17 E19:K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -23098,8 +25295,8 @@
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="N49" sqref="N49"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E24" activeCellId="2" sqref="E16:K18 E20:K22 E24:K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -23135,7 +25332,7 @@
       <c r="D2" s="13">
         <v>850</v>
       </c>
-      <c r="E2" s="38"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="4" t="s">
         <v>82</v>
       </c>

--- a/model_cv_log.xlsx
+++ b/model_cv_log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12540" yWindow="0" windowWidth="52100" windowHeight="27200" tabRatio="838" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="62200" windowHeight="25480" tabRatio="838" firstSheet="3" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -35,6 +35,7 @@
     <sheet name="cv_leaf_2" sheetId="26" r:id="rId26"/>
     <sheet name="cv_n_6" sheetId="27" r:id="rId27"/>
     <sheet name="cv_leaf_3" sheetId="28" r:id="rId28"/>
+    <sheet name="cv_meta" sheetId="29" r:id="rId29"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="109">
   <si>
     <t>rsme+kappa</t>
   </si>
@@ -759,7 +760,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="149">
+  <cellStyleXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -909,6 +910,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -971,6 +976,12 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -995,14 +1006,8 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="149">
+  <cellStyles count="153">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1076,6 +1081,8 @@
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1149,6 +1156,8 @@
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Linked Cell" xfId="21" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="90" builtinId="5"/>
@@ -1266,11 +1275,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2104505304"/>
-        <c:axId val="2104517880"/>
+        <c:axId val="2120977032"/>
+        <c:axId val="2120979624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2104505304"/>
+        <c:axId val="2120977032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1280,12 +1289,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104517880"/>
+        <c:crossAx val="2120979624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2104517880"/>
+        <c:axId val="2120979624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1295,7 +1304,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104505304"/>
+        <c:crossAx val="2120977032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1432,11 +1441,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2131481256"/>
-        <c:axId val="2131484136"/>
+        <c:axId val="-2138529432"/>
+        <c:axId val="-2138526552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2131481256"/>
+        <c:axId val="-2138529432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1446,12 +1455,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131484136"/>
+        <c:crossAx val="-2138526552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2131484136"/>
+        <c:axId val="-2138526552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1461,7 +1470,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131481256"/>
+        <c:crossAx val="-2138529432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1628,11 +1637,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2131536264"/>
-        <c:axId val="2131539144"/>
+        <c:axId val="2121282056"/>
+        <c:axId val="2121279192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2131536264"/>
+        <c:axId val="2121282056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1642,12 +1651,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131539144"/>
+        <c:crossAx val="2121279192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2131539144"/>
+        <c:axId val="2121279192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1657,7 +1666,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131536264"/>
+        <c:crossAx val="2121282056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1824,11 +1833,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2131566824"/>
-        <c:axId val="2131569704"/>
+        <c:axId val="-2137717496"/>
+        <c:axId val="-2137714616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2131566824"/>
+        <c:axId val="-2137717496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1838,12 +1847,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131569704"/>
+        <c:crossAx val="-2137714616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2131569704"/>
+        <c:axId val="-2137714616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1853,7 +1862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131566824"/>
+        <c:crossAx val="-2137717496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2020,11 +2029,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2131615032"/>
-        <c:axId val="2131617912"/>
+        <c:axId val="-2137669384"/>
+        <c:axId val="-2137666504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2131615032"/>
+        <c:axId val="-2137669384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2034,12 +2043,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131617912"/>
+        <c:crossAx val="-2137666504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2131617912"/>
+        <c:axId val="-2137666504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2049,7 +2058,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131615032"/>
+        <c:crossAx val="-2137669384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2216,11 +2225,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2131645592"/>
-        <c:axId val="2131648472"/>
+        <c:axId val="-2137638824"/>
+        <c:axId val="-2137635944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2131645592"/>
+        <c:axId val="-2137638824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2230,12 +2239,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131648472"/>
+        <c:crossAx val="-2137635944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2131648472"/>
+        <c:axId val="-2137635944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2245,7 +2254,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131645592"/>
+        <c:crossAx val="-2137638824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2412,11 +2421,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2131695320"/>
-        <c:axId val="2131698200"/>
+        <c:axId val="-2137589192"/>
+        <c:axId val="-2137586312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2131695320"/>
+        <c:axId val="-2137589192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2426,12 +2435,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131698200"/>
+        <c:crossAx val="-2137586312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2131698200"/>
+        <c:axId val="-2137586312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2441,7 +2450,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131695320"/>
+        <c:crossAx val="-2137589192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2608,11 +2617,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2131726120"/>
-        <c:axId val="2131729000"/>
+        <c:axId val="-2137558392"/>
+        <c:axId val="-2137555512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2131726120"/>
+        <c:axId val="-2137558392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2622,12 +2631,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131729000"/>
+        <c:crossAx val="-2137555512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2131729000"/>
+        <c:axId val="-2137555512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2637,7 +2646,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131726120"/>
+        <c:crossAx val="-2137558392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2804,11 +2813,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2130997048"/>
-        <c:axId val="2130994184"/>
+        <c:axId val="-2137508456"/>
+        <c:axId val="-2137505576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2130997048"/>
+        <c:axId val="-2137508456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2818,12 +2827,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130994184"/>
+        <c:crossAx val="-2137505576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2130994184"/>
+        <c:axId val="-2137505576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2833,7 +2842,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130997048"/>
+        <c:crossAx val="-2137508456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3000,11 +3009,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2130967336"/>
-        <c:axId val="2130964472"/>
+        <c:axId val="-2137477368"/>
+        <c:axId val="-2137474488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2130967336"/>
+        <c:axId val="-2137477368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3014,12 +3023,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130964472"/>
+        <c:crossAx val="-2137474488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2130964472"/>
+        <c:axId val="-2137474488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3029,7 +3038,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130967336"/>
+        <c:crossAx val="-2137477368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3196,11 +3205,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2130917656"/>
-        <c:axId val="2130914792"/>
+        <c:axId val="-2137427784"/>
+        <c:axId val="-2137424904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2130917656"/>
+        <c:axId val="-2137427784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3210,12 +3219,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130914792"/>
+        <c:crossAx val="-2137424904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2130914792"/>
+        <c:axId val="-2137424904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3225,7 +3234,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130917656"/>
+        <c:crossAx val="-2137427784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3362,11 +3371,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2131117640"/>
-        <c:axId val="2131120520"/>
+        <c:axId val="2073143752"/>
+        <c:axId val="2073140888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2131117640"/>
+        <c:axId val="2073143752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3376,12 +3385,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131120520"/>
+        <c:crossAx val="2073140888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2131120520"/>
+        <c:axId val="2073140888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3391,7 +3400,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131117640"/>
+        <c:crossAx val="2073143752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3558,11 +3567,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2130886296"/>
-        <c:axId val="2130883432"/>
+        <c:axId val="-2137396424"/>
+        <c:axId val="-2137393544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2130886296"/>
+        <c:axId val="-2137396424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3572,12 +3581,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130883432"/>
+        <c:crossAx val="-2137393544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2130883432"/>
+        <c:axId val="-2137393544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3587,7 +3596,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130886296"/>
+        <c:crossAx val="-2137396424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3754,11 +3763,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2130836248"/>
-        <c:axId val="2130833384"/>
+        <c:axId val="-2137346456"/>
+        <c:axId val="-2137343576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2130836248"/>
+        <c:axId val="-2137346456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3768,12 +3777,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130833384"/>
+        <c:crossAx val="-2137343576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2130833384"/>
+        <c:axId val="-2137343576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3783,7 +3792,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130836248"/>
+        <c:crossAx val="-2137346456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3950,11 +3959,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2130805448"/>
-        <c:axId val="2130802584"/>
+        <c:axId val="-2137315656"/>
+        <c:axId val="-2137312776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2130805448"/>
+        <c:axId val="-2137315656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3964,12 +3973,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130802584"/>
+        <c:crossAx val="-2137312776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2130802584"/>
+        <c:axId val="-2137312776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3979,7 +3988,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130805448"/>
+        <c:crossAx val="-2137315656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4146,11 +4155,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2130754792"/>
-        <c:axId val="2130751928"/>
+        <c:axId val="-2137265096"/>
+        <c:axId val="-2137262216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2130754792"/>
+        <c:axId val="-2137265096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4160,12 +4169,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130751928"/>
+        <c:crossAx val="-2137262216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2130751928"/>
+        <c:axId val="-2137262216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4175,7 +4184,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130754792"/>
+        <c:crossAx val="-2137265096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4342,11 +4351,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2130723992"/>
-        <c:axId val="2130721128"/>
+        <c:axId val="-2137234296"/>
+        <c:axId val="-2137231416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2130723992"/>
+        <c:axId val="-2137234296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4356,12 +4365,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130721128"/>
+        <c:crossAx val="-2137231416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2130721128"/>
+        <c:axId val="-2137231416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4371,7 +4380,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130723992"/>
+        <c:crossAx val="-2137234296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4538,11 +4547,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2132122328"/>
-        <c:axId val="2132125208"/>
+        <c:axId val="-2137175960"/>
+        <c:axId val="-2137173080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2132122328"/>
+        <c:axId val="-2137175960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4552,12 +4561,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132125208"/>
+        <c:crossAx val="-2137173080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2132125208"/>
+        <c:axId val="-2137173080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4567,7 +4576,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132122328"/>
+        <c:crossAx val="-2137175960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4734,11 +4743,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2132153128"/>
-        <c:axId val="2132156008"/>
+        <c:axId val="-2137145160"/>
+        <c:axId val="-2137142280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2132153128"/>
+        <c:axId val="-2137145160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4748,12 +4757,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132156008"/>
+        <c:crossAx val="-2137142280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2132156008"/>
+        <c:axId val="-2137142280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4763,7 +4772,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132153128"/>
+        <c:crossAx val="-2137145160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4930,11 +4939,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2132201640"/>
-        <c:axId val="2132204520"/>
+        <c:axId val="2071963048"/>
+        <c:axId val="2071965928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2132201640"/>
+        <c:axId val="2071963048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4944,12 +4953,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132204520"/>
+        <c:crossAx val="2071965928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2132204520"/>
+        <c:axId val="2071965928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4959,7 +4968,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132201640"/>
+        <c:crossAx val="2071963048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5126,11 +5135,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2132232440"/>
-        <c:axId val="2132235320"/>
+        <c:axId val="2071215544"/>
+        <c:axId val="2071212680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2132232440"/>
+        <c:axId val="2071215544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5140,12 +5149,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132235320"/>
+        <c:crossAx val="2071212680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2132235320"/>
+        <c:axId val="2071212680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5155,7 +5164,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132232440"/>
+        <c:crossAx val="2071215544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5322,11 +5331,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2132283112"/>
-        <c:axId val="2132285992"/>
+        <c:axId val="2071158360"/>
+        <c:axId val="2071155496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2132283112"/>
+        <c:axId val="2071158360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5336,12 +5345,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132285992"/>
+        <c:crossAx val="2071155496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2132285992"/>
+        <c:axId val="2071155496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5351,7 +5360,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132283112"/>
+        <c:crossAx val="2071158360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5488,11 +5497,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2131162776"/>
-        <c:axId val="2131165656"/>
+        <c:axId val="2073098616"/>
+        <c:axId val="2073095752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2131162776"/>
+        <c:axId val="2073098616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5502,12 +5511,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131165656"/>
+        <c:crossAx val="2073095752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2131165656"/>
+        <c:axId val="2073095752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5517,7 +5526,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131162776"/>
+        <c:crossAx val="2073098616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5684,11 +5693,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2132314472"/>
-        <c:axId val="2132317352"/>
+        <c:axId val="2071127000"/>
+        <c:axId val="2071124136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2132314472"/>
+        <c:axId val="2071127000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5698,12 +5707,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132317352"/>
+        <c:crossAx val="2071124136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2132317352"/>
+        <c:axId val="2071124136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5713,7 +5722,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132314472"/>
+        <c:crossAx val="2071127000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5880,11 +5889,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2104415864"/>
-        <c:axId val="2104418744"/>
+        <c:axId val="2071076008"/>
+        <c:axId val="2071073144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2104415864"/>
+        <c:axId val="2071076008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5894,12 +5903,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104418744"/>
+        <c:crossAx val="2071073144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2104418744"/>
+        <c:axId val="2071073144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5909,7 +5918,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104415864"/>
+        <c:crossAx val="2071076008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6076,11 +6085,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2104447032"/>
-        <c:axId val="2104449912"/>
+        <c:axId val="2071045208"/>
+        <c:axId val="2071042344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2104447032"/>
+        <c:axId val="2071045208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6090,12 +6099,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104449912"/>
+        <c:crossAx val="2071042344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2104449912"/>
+        <c:axId val="2071042344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6105,7 +6114,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2104447032"/>
+        <c:crossAx val="2071045208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6272,11 +6281,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2102344264"/>
-        <c:axId val="2102347144"/>
+        <c:axId val="2070996264"/>
+        <c:axId val="2070993400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2102344264"/>
+        <c:axId val="2070996264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6286,12 +6295,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102347144"/>
+        <c:crossAx val="2070993400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2102347144"/>
+        <c:axId val="2070993400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6301,7 +6310,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2102344264"/>
+        <c:crossAx val="2070996264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6468,11 +6477,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2101669176"/>
-        <c:axId val="2101666312"/>
+        <c:axId val="2070964920"/>
+        <c:axId val="2070962056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2101669176"/>
+        <c:axId val="2070964920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6482,12 +6491,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101666312"/>
+        <c:crossAx val="2070962056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2101666312"/>
+        <c:axId val="2070962056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6497,7 +6506,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101669176"/>
+        <c:crossAx val="2070964920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6664,11 +6673,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2101614040"/>
-        <c:axId val="2101611176"/>
+        <c:axId val="-2136665496"/>
+        <c:axId val="-2136662616"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2101614040"/>
+        <c:axId val="-2136665496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6678,12 +6687,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101611176"/>
+        <c:crossAx val="-2136662616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2101611176"/>
+        <c:axId val="-2136662616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6693,7 +6702,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101614040"/>
+        <c:crossAx val="-2136665496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6860,11 +6869,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2101583240"/>
-        <c:axId val="2101580376"/>
+        <c:axId val="-2136634696"/>
+        <c:axId val="-2136631816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2101583240"/>
+        <c:axId val="-2136634696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6874,12 +6883,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101580376"/>
+        <c:crossAx val="-2136631816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2101580376"/>
+        <c:axId val="-2136631816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6889,7 +6898,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101583240"/>
+        <c:crossAx val="-2136634696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7056,11 +7065,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2132377304"/>
-        <c:axId val="2132380184"/>
+        <c:axId val="-2136586168"/>
+        <c:axId val="-2136583288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2132377304"/>
+        <c:axId val="-2136586168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7070,12 +7079,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132380184"/>
+        <c:crossAx val="-2136583288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2132380184"/>
+        <c:axId val="-2136583288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7085,7 +7094,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132377304"/>
+        <c:crossAx val="-2136586168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7252,11 +7261,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2132408072"/>
-        <c:axId val="2132410952"/>
+        <c:axId val="-2136555448"/>
+        <c:axId val="-2136552568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2132408072"/>
+        <c:axId val="-2136555448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7266,12 +7275,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132410952"/>
+        <c:crossAx val="-2136552568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2132410952"/>
+        <c:axId val="-2136552568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7281,7 +7290,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132408072"/>
+        <c:crossAx val="-2136555448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7448,11 +7457,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2132457416"/>
-        <c:axId val="2132460296"/>
+        <c:axId val="-2136506136"/>
+        <c:axId val="-2136503256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2132457416"/>
+        <c:axId val="-2136506136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7462,12 +7471,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132460296"/>
+        <c:crossAx val="-2136503256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2132460296"/>
+        <c:axId val="-2136503256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7477,7 +7486,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132457416"/>
+        <c:crossAx val="-2136506136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7614,11 +7623,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2131207880"/>
-        <c:axId val="2131210760"/>
+        <c:axId val="2073053512"/>
+        <c:axId val="2073050648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2131207880"/>
+        <c:axId val="2073053512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7628,12 +7637,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131210760"/>
+        <c:crossAx val="2073050648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2131210760"/>
+        <c:axId val="2073050648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7643,7 +7652,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131207880"/>
+        <c:crossAx val="2073053512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7810,11 +7819,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2132488776"/>
-        <c:axId val="2132491656"/>
+        <c:axId val="-2136474776"/>
+        <c:axId val="-2136471896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2132488776"/>
+        <c:axId val="-2136474776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7824,12 +7833,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132491656"/>
+        <c:crossAx val="-2136471896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2132491656"/>
+        <c:axId val="-2136471896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7839,7 +7848,399 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2132488776"/>
+        <c:crossAx val="-2136474776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="700">
+          <a:latin typeface="Lucida Sans" panose="020B0602040502020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cv_meta!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>optim_kappa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>cv_meta!$B$16:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.635002661123789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.622036960555239</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.620213087976653</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.604511799498081</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.624070506802649</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.631173128207339</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.608241750377045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.626962541189369</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.626031838596045</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.625093026544989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>cv_meta!$C$16:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.684127414777021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.667121552029176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.662855618994768</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.652358686019956</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.659486145726021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.671741447552719</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.651654383429209</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.668963912688506</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.667914940812177</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.671127712399643</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2133004296"/>
+        <c:axId val="-2133001416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2133004296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2133001416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2133001416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2133004296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="700">
+          <a:latin typeface="Lucida Sans" panose="020B0602040502020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cv_meta!$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fixed_kappa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>cv_meta!$B$16:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.635002661123789</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.622036960555239</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.620213087976653</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.604511799498081</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.624070506802649</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.631173128207339</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.608241750377045</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.626962541189369</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.626031838596045</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.625093026544989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>cv_meta!$D$16:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.679261220843016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.661480294810942</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.659339521561088</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.643794077151279</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.663022640235353</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.667772637332161</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65195848227219</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.665131209830472</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.665755318947317</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.663580352241834</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2123855896"/>
+        <c:axId val="-2123853016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2123855896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2123853016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2123853016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2123855896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7976,11 +8377,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2131253608"/>
-        <c:axId val="2131256488"/>
+        <c:axId val="-2138756856"/>
+        <c:axId val="-2138753976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2131253608"/>
+        <c:axId val="-2138756856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7990,12 +8391,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131256488"/>
+        <c:crossAx val="-2138753976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2131256488"/>
+        <c:axId val="-2138753976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8005,7 +8406,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131253608"/>
+        <c:crossAx val="-2138756856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8142,11 +8543,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2131298712"/>
-        <c:axId val="2131301592"/>
+        <c:axId val="-2138711768"/>
+        <c:axId val="-2138708888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2131298712"/>
+        <c:axId val="-2138711768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8156,12 +8557,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131301592"/>
+        <c:crossAx val="-2138708888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2131301592"/>
+        <c:axId val="-2138708888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8171,7 +8572,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131298712"/>
+        <c:crossAx val="-2138711768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8308,11 +8709,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2131343960"/>
-        <c:axId val="2131346840"/>
+        <c:axId val="-2138666520"/>
+        <c:axId val="-2138663640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2131343960"/>
+        <c:axId val="-2138666520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8322,12 +8723,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131346840"/>
+        <c:crossAx val="-2138663640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2131346840"/>
+        <c:axId val="-2138663640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8337,7 +8738,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131343960"/>
+        <c:crossAx val="-2138666520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8474,11 +8875,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2131388424"/>
-        <c:axId val="2131391304"/>
+        <c:axId val="-2138622056"/>
+        <c:axId val="-2138619176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2131388424"/>
+        <c:axId val="-2138622056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8488,12 +8889,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131391304"/>
+        <c:crossAx val="-2138619176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2131391304"/>
+        <c:axId val="-2138619176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8503,7 +8904,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131388424"/>
+        <c:crossAx val="-2138622056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8640,11 +9041,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2131434552"/>
-        <c:axId val="2131437432"/>
+        <c:axId val="-2138575928"/>
+        <c:axId val="-2138573048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2131434552"/>
+        <c:axId val="-2138575928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8654,12 +9055,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131437432"/>
+        <c:crossAx val="-2138573048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2131437432"/>
+        <c:axId val="-2138573048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8669,7 +9070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131434552"/>
+        <c:crossAx val="-2138575928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9849,6 +10250,75 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing26.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -11966,8 +12436,8 @@
   </sheetPr>
   <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -14347,232 +14817,232 @@
       </c>
     </row>
     <row r="102" spans="3:9" ht="12" thickBot="1">
-      <c r="C102" s="40">
+      <c r="C102" s="32">
         <v>2.3064</v>
       </c>
-      <c r="D102" s="40">
+      <c r="D102" s="32">
         <v>3.3633999999999999</v>
       </c>
-      <c r="E102" s="40">
+      <c r="E102" s="32">
         <v>4.2771999999999997</v>
       </c>
-      <c r="F102" s="40">
+      <c r="F102" s="32">
         <v>4.8792</v>
       </c>
-      <c r="G102" s="40">
+      <c r="G102" s="32">
         <v>5.4634</v>
       </c>
-      <c r="H102" s="40">
+      <c r="H102" s="32">
         <v>6.2066999999999997</v>
       </c>
-      <c r="I102" s="40">
+      <c r="I102" s="32">
         <v>6.7763999999999998</v>
       </c>
     </row>
     <row r="103" spans="3:9" ht="12" thickBot="1">
-      <c r="C103" s="41">
+      <c r="C103" s="33">
         <v>2.6823000000000001</v>
       </c>
-      <c r="D103" s="41">
+      <c r="D103" s="33">
         <v>3.3778000000000001</v>
       </c>
-      <c r="E103" s="41">
+      <c r="E103" s="33">
         <v>4.2999000000000001</v>
       </c>
-      <c r="F103" s="41">
+      <c r="F103" s="33">
         <v>4.9175000000000004</v>
       </c>
-      <c r="G103" s="41">
+      <c r="G103" s="33">
         <v>5.4294000000000002</v>
       </c>
-      <c r="H103" s="41">
+      <c r="H103" s="33">
         <v>6.2111999999999998</v>
       </c>
-      <c r="I103" s="41">
+      <c r="I103" s="33">
         <v>6.7485999999999997</v>
       </c>
     </row>
     <row r="104" spans="3:9" ht="12" thickBot="1">
-      <c r="C104" s="40">
+      <c r="C104" s="32">
         <v>1.9056999999999999</v>
       </c>
-      <c r="D104" s="40">
+      <c r="D104" s="32">
         <v>3.327</v>
       </c>
-      <c r="E104" s="40">
+      <c r="E104" s="32">
         <v>3.7966000000000002</v>
       </c>
-      <c r="F104" s="40">
+      <c r="F104" s="32">
         <v>4.6798999999999999</v>
       </c>
-      <c r="G104" s="40">
+      <c r="G104" s="32">
         <v>5.5164999999999997</v>
       </c>
-      <c r="H104" s="40">
+      <c r="H104" s="32">
         <v>6.2895000000000003</v>
       </c>
-      <c r="I104" s="40">
+      <c r="I104" s="32">
         <v>6.8658000000000001</v>
       </c>
     </row>
     <row r="105" spans="3:9" ht="12" thickBot="1">
-      <c r="C105" s="41">
+      <c r="C105" s="33">
         <v>2.4213</v>
       </c>
-      <c r="D105" s="41">
+      <c r="D105" s="33">
         <v>3.2823000000000002</v>
       </c>
-      <c r="E105" s="41">
+      <c r="E105" s="33">
         <v>3.9481000000000002</v>
       </c>
-      <c r="F105" s="41">
+      <c r="F105" s="33">
         <v>5.0632000000000001</v>
       </c>
-      <c r="G105" s="41">
+      <c r="G105" s="33">
         <v>5.4447000000000001</v>
       </c>
-      <c r="H105" s="41">
+      <c r="H105" s="33">
         <v>6.0975999999999999</v>
       </c>
-      <c r="I105" s="41">
+      <c r="I105" s="33">
         <v>6.9965999999999999</v>
       </c>
     </row>
     <row r="106" spans="3:9" ht="12" thickBot="1">
-      <c r="C106" s="40">
+      <c r="C106" s="32">
         <v>2.7612000000000001</v>
       </c>
-      <c r="D106" s="40">
+      <c r="D106" s="32">
         <v>3.6739999999999999</v>
       </c>
-      <c r="E106" s="40">
+      <c r="E106" s="32">
         <v>4.1380999999999997</v>
       </c>
-      <c r="F106" s="40">
+      <c r="F106" s="32">
         <v>4.7430000000000003</v>
       </c>
-      <c r="G106" s="40">
+      <c r="G106" s="32">
         <v>5.3981000000000003</v>
       </c>
-      <c r="H106" s="40">
+      <c r="H106" s="32">
         <v>6.1783000000000001</v>
       </c>
-      <c r="I106" s="40">
+      <c r="I106" s="32">
         <v>6.8837999999999999</v>
       </c>
     </row>
     <row r="107" spans="3:9" ht="12" thickBot="1">
-      <c r="C107" s="40">
+      <c r="C107" s="32">
         <v>2.4045000000000001</v>
       </c>
-      <c r="D107" s="40">
+      <c r="D107" s="32">
         <v>3.4190999999999998</v>
       </c>
-      <c r="E107" s="40">
+      <c r="E107" s="32">
         <v>4.2716000000000003</v>
       </c>
-      <c r="F107" s="40">
+      <c r="F107" s="32">
         <v>4.8118999999999996</v>
       </c>
-      <c r="G107" s="40">
+      <c r="G107" s="32">
         <v>5.4255000000000004</v>
       </c>
-      <c r="H107" s="40">
+      <c r="H107" s="32">
         <v>6.0941000000000001</v>
       </c>
-      <c r="I107" s="40">
+      <c r="I107" s="32">
         <v>6.6664000000000003</v>
       </c>
     </row>
     <row r="108" spans="3:9" ht="12" thickBot="1">
-      <c r="C108" s="41">
+      <c r="C108" s="33">
         <v>2.5324</v>
       </c>
-      <c r="D108" s="41">
+      <c r="D108" s="33">
         <v>3.4769999999999999</v>
       </c>
-      <c r="E108" s="41">
+      <c r="E108" s="33">
         <v>4.0773999999999999</v>
       </c>
-      <c r="F108" s="41">
+      <c r="F108" s="33">
         <v>4.7896000000000001</v>
       </c>
-      <c r="G108" s="41">
+      <c r="G108" s="33">
         <v>5.6021999999999998</v>
       </c>
-      <c r="H108" s="41">
+      <c r="H108" s="33">
         <v>6.1962000000000002</v>
       </c>
-      <c r="I108" s="41">
+      <c r="I108" s="33">
         <v>6.8151000000000002</v>
       </c>
     </row>
     <row r="109" spans="3:9" ht="12" thickBot="1">
-      <c r="C109" s="40">
+      <c r="C109" s="32">
         <v>2.5682</v>
       </c>
-      <c r="D109" s="40">
+      <c r="D109" s="32">
         <v>3.5226000000000002</v>
       </c>
-      <c r="E109" s="40">
+      <c r="E109" s="32">
         <v>4.1885000000000003</v>
       </c>
-      <c r="F109" s="40">
+      <c r="F109" s="32">
         <v>4.9166999999999996</v>
       </c>
-      <c r="G109" s="40">
+      <c r="G109" s="32">
         <v>5.2797999999999998</v>
       </c>
-      <c r="H109" s="40">
+      <c r="H109" s="32">
         <v>6.1487999999999996</v>
       </c>
-      <c r="I109" s="40">
+      <c r="I109" s="32">
         <v>6.7389999999999999</v>
       </c>
     </row>
     <row r="110" spans="3:9" ht="12" thickBot="1">
-      <c r="C110" s="41">
+      <c r="C110" s="33">
         <v>2.5514999999999999</v>
       </c>
-      <c r="D110" s="41">
+      <c r="D110" s="33">
         <v>3.5802999999999998</v>
       </c>
-      <c r="E110" s="41">
+      <c r="E110" s="33">
         <v>4.2439</v>
       </c>
-      <c r="F110" s="41">
+      <c r="F110" s="33">
         <v>4.9805000000000001</v>
       </c>
-      <c r="G110" s="41">
+      <c r="G110" s="33">
         <v>5.4591000000000003</v>
       </c>
-      <c r="H110" s="41">
+      <c r="H110" s="33">
         <v>6.2847</v>
       </c>
-      <c r="I110" s="41">
+      <c r="I110" s="33">
         <v>6.8053999999999997</v>
       </c>
     </row>
     <row r="111" spans="3:9" ht="12" thickBot="1">
-      <c r="C111" s="40">
+      <c r="C111" s="32">
         <v>2.63</v>
       </c>
-      <c r="D111" s="40">
+      <c r="D111" s="32">
         <v>3.5163000000000002</v>
       </c>
-      <c r="E111" s="40">
+      <c r="E111" s="32">
         <v>4.3341000000000003</v>
       </c>
-      <c r="F111" s="40">
+      <c r="F111" s="32">
         <v>4.9184999999999999</v>
       </c>
-      <c r="G111" s="40">
+      <c r="G111" s="32">
         <v>5.4588999999999999</v>
       </c>
-      <c r="H111" s="40">
+      <c r="H111" s="32">
         <v>6.1791999999999998</v>
       </c>
-      <c r="I111" s="40">
+      <c r="I111" s="32">
         <v>6.8718000000000004</v>
       </c>
     </row>
@@ -18866,14 +19336,14 @@
       <c r="B1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="34"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="35" t="s">
+      <c r="A2" s="37" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -18890,7 +19360,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="36"/>
+      <c r="A3" s="38"/>
       <c r="B3" s="16" t="s">
         <v>24</v>
       </c>
@@ -18905,7 +19375,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="36"/>
+      <c r="A4" s="38"/>
       <c r="B4" s="16" t="s">
         <v>25</v>
       </c>
@@ -18920,7 +19390,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="36"/>
+      <c r="A5" s="38"/>
       <c r="B5" s="16" t="s">
         <v>26</v>
       </c>
@@ -18935,7 +19405,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="36"/>
+      <c r="A6" s="38"/>
       <c r="B6" s="16" t="s">
         <v>27</v>
       </c>
@@ -18950,7 +19420,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="36"/>
+      <c r="A7" s="38"/>
       <c r="B7" s="16" t="s">
         <v>28</v>
       </c>
@@ -18965,7 +19435,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="37"/>
+      <c r="A8" s="39"/>
       <c r="B8" s="16" t="s">
         <v>29</v>
       </c>
@@ -19011,7 +19481,7 @@
     </row>
     <row r="15" spans="1:5" ht="5" customHeight="1"/>
     <row r="16" spans="1:5">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="40" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -19026,7 +19496,7 @@
       <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A17" s="39"/>
+      <c r="A17" s="41"/>
       <c r="B17" s="21" t="s">
         <v>37</v>
       </c>
@@ -21017,7 +21487,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="K16" activeCellId="2" sqref="E23:K25 E19:K21 E16:K17"/>
+      <selection activeCell="K20" sqref="E20:K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -25295,8 +25765,8 @@
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E24" activeCellId="2" sqref="E16:K18 E20:K22 E24:K25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="W50" sqref="W50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -25989,6 +26459,727 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{074F09EB-1575-D141-86BB-70E95A722D2E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L16:L25</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="6" customWidth="1"/>
+    <col min="5" max="11" width="7.6640625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="13" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" ht="12" thickTop="1">
+      <c r="A2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="13">
+        <v>850</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="24"/>
+      <c r="C8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="13">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="24"/>
+      <c r="C9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="24"/>
+      <c r="C10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="8" customFormat="1" ht="13" thickBot="1">
+      <c r="A14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" ht="24" thickTop="1" thickBot="1">
+      <c r="A15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="12" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0.635002661123789</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.68412741477702099</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.67926122084301599</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2.8831176197329702</v>
+      </c>
+      <c r="F16" s="9">
+        <v>3.69840365664809</v>
+      </c>
+      <c r="G16" s="9">
+        <v>3.9617095802189701</v>
+      </c>
+      <c r="H16" s="9">
+        <v>4.7761273082602997</v>
+      </c>
+      <c r="I16" s="9">
+        <v>5.3052288322461303</v>
+      </c>
+      <c r="J16" s="9">
+        <v>6.3307219052065999</v>
+      </c>
+      <c r="K16" s="9">
+        <v>6.9096763509816901</v>
+      </c>
+      <c r="L16" s="12">
+        <f>C16-D16</f>
+        <v>4.8661939340050031E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="12" thickBot="1">
+      <c r="A17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0.62203696055523905</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.667121552029176</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.66148029481094195</v>
+      </c>
+      <c r="E17" s="10">
+        <v>2.90894264175077</v>
+      </c>
+      <c r="F17" s="10">
+        <v>3.4168861238853401</v>
+      </c>
+      <c r="G17" s="10">
+        <v>3.9752312023846201</v>
+      </c>
+      <c r="H17" s="10">
+        <v>4.7864576859348498</v>
+      </c>
+      <c r="I17" s="10">
+        <v>5.5841686420776897</v>
+      </c>
+      <c r="J17" s="10">
+        <v>6.1307422039231803</v>
+      </c>
+      <c r="K17" s="10">
+        <v>7.0074511439183</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" ref="L17:L25" si="0">C17-D17</f>
+        <v>5.6412572182340526E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="12" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.62021308797665298</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.66285561899476797</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.65933952156108799</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2.41490754420535</v>
+      </c>
+      <c r="F18" s="9">
+        <v>3.4314181259066001</v>
+      </c>
+      <c r="G18" s="9">
+        <v>4.0933357870459597</v>
+      </c>
+      <c r="H18" s="9">
+        <v>4.9654798930493502</v>
+      </c>
+      <c r="I18" s="9">
+        <v>5.5917097924860197</v>
+      </c>
+      <c r="J18" s="9">
+        <v>6.1589111974803297</v>
+      </c>
+      <c r="K18" s="9">
+        <v>6.7619571327471899</v>
+      </c>
+      <c r="L18" s="12">
+        <f t="shared" si="0"/>
+        <v>3.5160974336799766E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="12" thickBot="1">
+      <c r="A19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0.60451179949808098</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.65235868601995595</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.64379407715127901</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2.6562333388039501</v>
+      </c>
+      <c r="F19" s="10">
+        <v>3.4787889505046898</v>
+      </c>
+      <c r="G19" s="10">
+        <v>4.2296109186526003</v>
+      </c>
+      <c r="H19" s="10">
+        <v>4.7722760295476299</v>
+      </c>
+      <c r="I19" s="10">
+        <v>5.3937298018295703</v>
+      </c>
+      <c r="J19" s="10">
+        <v>6.1059840841941497</v>
+      </c>
+      <c r="K19" s="10">
+        <v>6.78563494900951</v>
+      </c>
+      <c r="L19" s="12">
+        <f t="shared" si="0"/>
+        <v>8.5646088686769373E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="12" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="9">
+        <v>0.62407050680264897</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.65948614572602104</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.66302264023535296</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2.0083216350692701</v>
+      </c>
+      <c r="F20" s="9">
+        <v>3.01222167541352</v>
+      </c>
+      <c r="G20" s="9">
+        <v>3.9315006589102701</v>
+      </c>
+      <c r="H20" s="9">
+        <v>4.8584308037455797</v>
+      </c>
+      <c r="I20" s="9">
+        <v>5.5738860771484697</v>
+      </c>
+      <c r="J20" s="9">
+        <v>6.38280143554329</v>
+      </c>
+      <c r="K20" s="9">
+        <v>6.86459649343987</v>
+      </c>
+      <c r="L20" s="12">
+        <f t="shared" si="0"/>
+        <v>-3.5364945093319111E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="12" thickBot="1">
+      <c r="A21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="9">
+        <v>0.63117312820733895</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.67174144755271903</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.66777263733216097</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2.47972788689817</v>
+      </c>
+      <c r="F21" s="9">
+        <v>3.7252818787558599</v>
+      </c>
+      <c r="G21" s="9">
+        <v>4.2533003204715802</v>
+      </c>
+      <c r="H21" s="9">
+        <v>4.66049796311533</v>
+      </c>
+      <c r="I21" s="9">
+        <v>5.2816239549718</v>
+      </c>
+      <c r="J21" s="9">
+        <v>6.4044153302379998</v>
+      </c>
+      <c r="K21" s="9">
+        <v>6.7893536157102998</v>
+      </c>
+      <c r="L21" s="12">
+        <f t="shared" si="0"/>
+        <v>3.9688102205580611E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="12" thickBot="1">
+      <c r="A22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="10">
+        <v>0.60824175037704498</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.65165438342920901</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.65195848227219</v>
+      </c>
+      <c r="E22" s="10">
+        <v>2.59853359068275</v>
+      </c>
+      <c r="F22" s="10">
+        <v>3.0523626471977301</v>
+      </c>
+      <c r="G22" s="10">
+        <v>3.87584695978722</v>
+      </c>
+      <c r="H22" s="10">
+        <v>4.9105727442197002</v>
+      </c>
+      <c r="I22" s="10">
+        <v>5.3791898139482601</v>
+      </c>
+      <c r="J22" s="10">
+        <v>6.2148104748383801</v>
+      </c>
+      <c r="K22" s="10">
+        <v>6.6032701294095997</v>
+      </c>
+      <c r="L22" s="12">
+        <f t="shared" si="0"/>
+        <v>-3.0409884298099321E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="12" thickBot="1">
+      <c r="A23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="9">
+        <v>0.626962541189369</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0.66896391268850597</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.66513120983047203</v>
+      </c>
+      <c r="E23" s="9">
+        <v>2.49497520407549</v>
+      </c>
+      <c r="F23" s="9">
+        <v>3.4617385205401998</v>
+      </c>
+      <c r="G23" s="9">
+        <v>4.1974584646895803</v>
+      </c>
+      <c r="H23" s="9">
+        <v>4.6104064423020903</v>
+      </c>
+      <c r="I23" s="9">
+        <v>5.4352512412384097</v>
+      </c>
+      <c r="J23" s="9">
+        <v>6.1872517756069003</v>
+      </c>
+      <c r="K23" s="9">
+        <v>6.7911605590804003</v>
+      </c>
+      <c r="L23" s="12">
+        <f t="shared" si="0"/>
+        <v>3.8327028580339428E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="12" thickBot="1">
+      <c r="A24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="10">
+        <v>0.62603183859604505</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.66791494081217695</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.66575531894731699</v>
+      </c>
+      <c r="E24" s="10">
+        <v>2.3543378373555401</v>
+      </c>
+      <c r="F24" s="10">
+        <v>3.2996493646564802</v>
+      </c>
+      <c r="G24" s="10">
+        <v>3.9000591826362498</v>
+      </c>
+      <c r="H24" s="10">
+        <v>4.91567937720085</v>
+      </c>
+      <c r="I24" s="10">
+        <v>5.5017796748195904</v>
+      </c>
+      <c r="J24" s="10">
+        <v>6.2307901153889498</v>
+      </c>
+      <c r="K24" s="10">
+        <v>6.9482149994909097</v>
+      </c>
+      <c r="L24" s="12">
+        <f t="shared" si="0"/>
+        <v>2.1596218648599619E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="12" thickBot="1">
+      <c r="A25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="9">
+        <v>0.62509302654498899</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.67112771239964297</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.66358035224183398</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2.36426294973481</v>
+      </c>
+      <c r="F25" s="9">
+        <v>3.3714737871293798</v>
+      </c>
+      <c r="G25" s="9">
+        <v>4.3217834785620504</v>
+      </c>
+      <c r="H25" s="9">
+        <v>4.8007304522648599</v>
+      </c>
+      <c r="I25" s="9">
+        <v>5.4315205419410297</v>
+      </c>
+      <c r="J25" s="9">
+        <v>6.2282130838850502</v>
+      </c>
+      <c r="K25" s="9">
+        <v>6.7122030711485801</v>
+      </c>
+      <c r="L25" s="12">
+        <f t="shared" si="0"/>
+        <v>7.5473601578089911E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="B26" s="11">
+        <f>AVERAGE(B16:B25)</f>
+        <v>0.62233373008711967</v>
+      </c>
+      <c r="C26" s="11">
+        <f t="shared" ref="C26:K26" si="1">AVERAGE(C16:C25)</f>
+        <v>0.66573518144291954</v>
+      </c>
+      <c r="D26" s="11">
+        <f t="shared" si="1"/>
+        <v>0.66210957552256511</v>
+      </c>
+      <c r="E26" s="11">
+        <f t="shared" si="1"/>
+        <v>2.5163360248309075</v>
+      </c>
+      <c r="F26" s="11">
+        <f t="shared" si="1"/>
+        <v>3.394822473063789</v>
+      </c>
+      <c r="G26" s="11">
+        <f t="shared" si="1"/>
+        <v>4.0739836553359101</v>
+      </c>
+      <c r="H26" s="11">
+        <f t="shared" si="1"/>
+        <v>4.805665869964054</v>
+      </c>
+      <c r="I26" s="11">
+        <f t="shared" si="1"/>
+        <v>5.4478088372706965</v>
+      </c>
+      <c r="J26" s="11">
+        <f t="shared" si="1"/>
+        <v>6.2374641606304833</v>
+      </c>
+      <c r="K26" s="11">
+        <f t="shared" si="1"/>
+        <v>6.8173518444936345</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="B27" s="29">
+        <f>VAR(B16:B25)</f>
+        <v>8.9462119887903836E-5</v>
+      </c>
+      <c r="C27" s="29">
+        <f>VAR(C16:C25)</f>
+        <v>9.3896531030096208E-5</v>
+      </c>
+      <c r="D27" s="29">
+        <f>VAR(D16:D25)</f>
+        <v>8.8693240502809101E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:12" ht="13" thickBot="1">
+      <c r="A29" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" ht="12" thickTop="1">
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="L16:L25">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{00424E11-0E57-944E-A43B-BC3F31D66FA4}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{00424E11-0E57-944E-A43B-BC3F31D66FA4}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/model_cv_log.xlsx
+++ b/model_cv_log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="62200" windowHeight="25480" tabRatio="838" firstSheet="3" activeTab="27"/>
+    <workbookView xWindow="31480" yWindow="0" windowWidth="30720" windowHeight="25480" tabRatio="831" firstSheet="12" activeTab="29"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -36,6 +36,7 @@
     <sheet name="cv_n_6" sheetId="27" r:id="rId27"/>
     <sheet name="cv_leaf_3" sheetId="28" r:id="rId28"/>
     <sheet name="cv_meta" sheetId="29" r:id="rId29"/>
+    <sheet name="cv_h2o_glm" sheetId="30" r:id="rId30"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="109">
   <si>
     <t>rsme+kappa</t>
   </si>
@@ -1275,11 +1276,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2120977032"/>
-        <c:axId val="2120979624"/>
+        <c:axId val="2106687016"/>
+        <c:axId val="2106688632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2120977032"/>
+        <c:axId val="2106687016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1289,12 +1290,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120979624"/>
+        <c:crossAx val="2106688632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2120979624"/>
+        <c:axId val="2106688632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1304,7 +1305,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120977032"/>
+        <c:crossAx val="2106687016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1441,11 +1442,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2138529432"/>
-        <c:axId val="-2138526552"/>
+        <c:axId val="2108416184"/>
+        <c:axId val="2108419064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2138529432"/>
+        <c:axId val="2108416184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,12 +1456,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138526552"/>
+        <c:crossAx val="2108419064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2138526552"/>
+        <c:axId val="2108419064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1470,7 +1471,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138529432"/>
+        <c:crossAx val="2108416184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1637,11 +1638,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2121282056"/>
-        <c:axId val="2121279192"/>
+        <c:axId val="2108471064"/>
+        <c:axId val="2108473944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2121282056"/>
+        <c:axId val="2108471064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1651,12 +1652,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121279192"/>
+        <c:crossAx val="2108473944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2121279192"/>
+        <c:axId val="2108473944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1666,7 +1667,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121282056"/>
+        <c:crossAx val="2108471064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1833,11 +1834,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2137717496"/>
-        <c:axId val="-2137714616"/>
+        <c:axId val="2108501624"/>
+        <c:axId val="2108504504"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2137717496"/>
+        <c:axId val="2108501624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1847,12 +1848,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137714616"/>
+        <c:crossAx val="2108504504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2137714616"/>
+        <c:axId val="2108504504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1862,7 +1863,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137717496"/>
+        <c:crossAx val="2108501624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2029,11 +2030,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2137669384"/>
-        <c:axId val="-2137666504"/>
+        <c:axId val="2108549832"/>
+        <c:axId val="2108552712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2137669384"/>
+        <c:axId val="2108549832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2043,12 +2044,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137666504"/>
+        <c:crossAx val="2108552712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2137666504"/>
+        <c:axId val="2108552712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2058,7 +2059,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137669384"/>
+        <c:crossAx val="2108549832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2225,11 +2226,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2137638824"/>
-        <c:axId val="-2137635944"/>
+        <c:axId val="2108580392"/>
+        <c:axId val="2108583272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2137638824"/>
+        <c:axId val="2108580392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2239,12 +2240,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137635944"/>
+        <c:crossAx val="2108583272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2137635944"/>
+        <c:axId val="2108583272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2254,7 +2255,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137638824"/>
+        <c:crossAx val="2108580392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2421,11 +2422,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2137589192"/>
-        <c:axId val="-2137586312"/>
+        <c:axId val="2108630312"/>
+        <c:axId val="2108633192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2137589192"/>
+        <c:axId val="2108630312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2435,12 +2436,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137586312"/>
+        <c:crossAx val="2108633192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2137586312"/>
+        <c:axId val="2108633192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2450,7 +2451,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137589192"/>
+        <c:crossAx val="2108630312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2617,11 +2618,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2137558392"/>
-        <c:axId val="-2137555512"/>
+        <c:axId val="2108661112"/>
+        <c:axId val="2108663992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2137558392"/>
+        <c:axId val="2108661112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2631,12 +2632,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137555512"/>
+        <c:crossAx val="2108663992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2137555512"/>
+        <c:axId val="2108663992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2646,7 +2647,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137558392"/>
+        <c:crossAx val="2108661112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2813,11 +2814,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2137508456"/>
-        <c:axId val="-2137505576"/>
+        <c:axId val="2107870792"/>
+        <c:axId val="2107867928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2137508456"/>
+        <c:axId val="2107870792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2827,12 +2828,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137505576"/>
+        <c:crossAx val="2107867928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2137505576"/>
+        <c:axId val="2107867928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2842,7 +2843,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137508456"/>
+        <c:crossAx val="2107870792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3009,11 +3010,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2137477368"/>
-        <c:axId val="-2137474488"/>
+        <c:axId val="2107841144"/>
+        <c:axId val="2107838280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2137477368"/>
+        <c:axId val="2107841144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3023,12 +3024,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137474488"/>
+        <c:crossAx val="2107838280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2137474488"/>
+        <c:axId val="2107838280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3038,7 +3039,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137477368"/>
+        <c:crossAx val="2107841144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3205,11 +3206,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2137427784"/>
-        <c:axId val="-2137424904"/>
+        <c:axId val="2107791464"/>
+        <c:axId val="2107788600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2137427784"/>
+        <c:axId val="2107791464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3219,12 +3220,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137424904"/>
+        <c:crossAx val="2107788600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2137424904"/>
+        <c:axId val="2107788600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3234,7 +3235,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137427784"/>
+        <c:crossAx val="2107791464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3371,11 +3372,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2073143752"/>
-        <c:axId val="2073140888"/>
+        <c:axId val="2108052552"/>
+        <c:axId val="2108055432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2073143752"/>
+        <c:axId val="2108052552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3385,12 +3386,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073140888"/>
+        <c:crossAx val="2108055432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2073140888"/>
+        <c:axId val="2108055432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3400,7 +3401,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073143752"/>
+        <c:crossAx val="2108052552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3567,11 +3568,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2137396424"/>
-        <c:axId val="-2137393544"/>
+        <c:axId val="2107760104"/>
+        <c:axId val="2107757240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2137396424"/>
+        <c:axId val="2107760104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3581,12 +3582,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137393544"/>
+        <c:crossAx val="2107757240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2137393544"/>
+        <c:axId val="2107757240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3596,7 +3597,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137396424"/>
+        <c:crossAx val="2107760104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3763,11 +3764,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2137346456"/>
-        <c:axId val="-2137343576"/>
+        <c:axId val="2107710040"/>
+        <c:axId val="2107707176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2137346456"/>
+        <c:axId val="2107710040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3777,12 +3778,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137343576"/>
+        <c:crossAx val="2107707176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2137343576"/>
+        <c:axId val="2107707176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3792,7 +3793,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137346456"/>
+        <c:crossAx val="2107710040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3959,11 +3960,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2137315656"/>
-        <c:axId val="-2137312776"/>
+        <c:axId val="2107679240"/>
+        <c:axId val="2107676376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2137315656"/>
+        <c:axId val="2107679240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3973,12 +3974,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137312776"/>
+        <c:crossAx val="2107676376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2137312776"/>
+        <c:axId val="2107676376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3988,7 +3989,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137315656"/>
+        <c:crossAx val="2107679240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4155,11 +4156,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2137265096"/>
-        <c:axId val="-2137262216"/>
+        <c:axId val="2108968152"/>
+        <c:axId val="2108971032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2137265096"/>
+        <c:axId val="2108968152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4169,12 +4170,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137262216"/>
+        <c:crossAx val="2108971032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2137262216"/>
+        <c:axId val="2108971032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4184,7 +4185,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137265096"/>
+        <c:crossAx val="2108968152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4351,11 +4352,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2137234296"/>
-        <c:axId val="-2137231416"/>
+        <c:axId val="2108998952"/>
+        <c:axId val="2109001832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2137234296"/>
+        <c:axId val="2108998952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4365,12 +4366,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137231416"/>
+        <c:crossAx val="2109001832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2137231416"/>
+        <c:axId val="2109001832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4380,7 +4381,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137234296"/>
+        <c:crossAx val="2108998952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4547,11 +4548,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2137175960"/>
-        <c:axId val="-2137173080"/>
+        <c:axId val="2109057288"/>
+        <c:axId val="2109060168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2137175960"/>
+        <c:axId val="2109057288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4561,12 +4562,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137173080"/>
+        <c:crossAx val="2109060168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2137173080"/>
+        <c:axId val="2109060168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4576,7 +4577,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137175960"/>
+        <c:crossAx val="2109057288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4743,11 +4744,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2137145160"/>
-        <c:axId val="-2137142280"/>
+        <c:axId val="2106634264"/>
+        <c:axId val="2106631400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2137145160"/>
+        <c:axId val="2106634264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4757,12 +4758,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137142280"/>
+        <c:crossAx val="2106631400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2137142280"/>
+        <c:axId val="2106631400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4772,7 +4773,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137145160"/>
+        <c:crossAx val="2106634264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4939,11 +4940,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2071963048"/>
-        <c:axId val="2071965928"/>
+        <c:axId val="2110017752"/>
+        <c:axId val="2110020632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2071963048"/>
+        <c:axId val="2110017752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4953,12 +4954,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2071965928"/>
+        <c:crossAx val="2110020632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2071965928"/>
+        <c:axId val="2110020632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4968,7 +4969,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2071963048"/>
+        <c:crossAx val="2110017752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5135,11 +5136,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2071215544"/>
-        <c:axId val="2071212680"/>
+        <c:axId val="2110048552"/>
+        <c:axId val="2110051432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2071215544"/>
+        <c:axId val="2110048552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5149,12 +5150,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2071212680"/>
+        <c:crossAx val="2110051432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2071212680"/>
+        <c:axId val="2110051432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5164,7 +5165,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2071215544"/>
+        <c:crossAx val="2110048552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5331,11 +5332,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2071158360"/>
-        <c:axId val="2071155496"/>
+        <c:axId val="2110099416"/>
+        <c:axId val="2110102296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2071158360"/>
+        <c:axId val="2110099416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5345,12 +5346,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2071155496"/>
+        <c:crossAx val="2110102296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2071155496"/>
+        <c:axId val="2110102296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5360,7 +5361,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2071158360"/>
+        <c:crossAx val="2110099416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5497,11 +5498,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2073098616"/>
-        <c:axId val="2073095752"/>
+        <c:axId val="2108097592"/>
+        <c:axId val="2108100472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2073098616"/>
+        <c:axId val="2108097592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5511,12 +5512,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073095752"/>
+        <c:crossAx val="2108100472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2073095752"/>
+        <c:axId val="2108100472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5526,7 +5527,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073098616"/>
+        <c:crossAx val="2108097592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5693,11 +5694,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2071127000"/>
-        <c:axId val="2071124136"/>
+        <c:axId val="2110131224"/>
+        <c:axId val="2110134104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2071127000"/>
+        <c:axId val="2110131224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5707,12 +5708,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2071124136"/>
+        <c:crossAx val="2110134104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2071124136"/>
+        <c:axId val="2110134104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5722,7 +5723,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2071127000"/>
+        <c:crossAx val="2110131224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5889,11 +5890,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2071076008"/>
-        <c:axId val="2071073144"/>
+        <c:axId val="2105590552"/>
+        <c:axId val="2105587688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2071076008"/>
+        <c:axId val="2105590552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5903,12 +5904,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2071073144"/>
+        <c:crossAx val="2105587688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2071073144"/>
+        <c:axId val="2105587688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5918,7 +5919,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2071076008"/>
+        <c:crossAx val="2105590552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6085,11 +6086,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2071045208"/>
-        <c:axId val="2071042344"/>
+        <c:axId val="2105559752"/>
+        <c:axId val="2105556888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2071045208"/>
+        <c:axId val="2105559752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6099,12 +6100,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2071042344"/>
+        <c:crossAx val="2105556888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2071042344"/>
+        <c:axId val="2105556888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6114,7 +6115,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2071045208"/>
+        <c:crossAx val="2105559752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6281,11 +6282,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2070996264"/>
-        <c:axId val="2070993400"/>
+        <c:axId val="2111085928"/>
+        <c:axId val="2111088808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2070996264"/>
+        <c:axId val="2111085928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6295,12 +6296,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070993400"/>
+        <c:crossAx val="2111088808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2070993400"/>
+        <c:axId val="2111088808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6310,7 +6311,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070996264"/>
+        <c:crossAx val="2111085928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6477,11 +6478,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2070964920"/>
-        <c:axId val="2070962056"/>
+        <c:axId val="2111117272"/>
+        <c:axId val="2111120152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2070964920"/>
+        <c:axId val="2111117272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6491,12 +6492,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070962056"/>
+        <c:crossAx val="2111120152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2070962056"/>
+        <c:axId val="2111120152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6506,7 +6507,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2070964920"/>
+        <c:crossAx val="2111117272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6673,11 +6674,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2136665496"/>
-        <c:axId val="-2136662616"/>
+        <c:axId val="2111165496"/>
+        <c:axId val="2111168376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2136665496"/>
+        <c:axId val="2111165496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6687,12 +6688,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136662616"/>
+        <c:crossAx val="2111168376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2136662616"/>
+        <c:axId val="2111168376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6702,7 +6703,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136665496"/>
+        <c:crossAx val="2111165496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6869,11 +6870,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2136634696"/>
-        <c:axId val="-2136631816"/>
+        <c:axId val="2111196296"/>
+        <c:axId val="2111199176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2136634696"/>
+        <c:axId val="2111196296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6883,12 +6884,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136631816"/>
+        <c:crossAx val="2111199176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2136631816"/>
+        <c:axId val="2111199176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6898,7 +6899,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136634696"/>
+        <c:crossAx val="2111196296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7065,11 +7066,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2136586168"/>
-        <c:axId val="-2136583288"/>
+        <c:axId val="2111245096"/>
+        <c:axId val="2111247976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2136586168"/>
+        <c:axId val="2111245096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7079,12 +7080,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136583288"/>
+        <c:crossAx val="2111247976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2136583288"/>
+        <c:axId val="2111247976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7094,7 +7095,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136586168"/>
+        <c:crossAx val="2111245096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7261,11 +7262,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2136555448"/>
-        <c:axId val="-2136552568"/>
+        <c:axId val="2111275816"/>
+        <c:axId val="2111278696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2136555448"/>
+        <c:axId val="2111275816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7275,12 +7276,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136552568"/>
+        <c:crossAx val="2111278696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2136552568"/>
+        <c:axId val="2111278696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7290,7 +7291,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136555448"/>
+        <c:crossAx val="2111275816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7457,11 +7458,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2136506136"/>
-        <c:axId val="-2136503256"/>
+        <c:axId val="2111323928"/>
+        <c:axId val="2111326808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2136506136"/>
+        <c:axId val="2111323928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7471,12 +7472,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136503256"/>
+        <c:crossAx val="2111326808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2136503256"/>
+        <c:axId val="2111326808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7486,7 +7487,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136506136"/>
+        <c:crossAx val="2111323928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7623,11 +7624,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2073053512"/>
-        <c:axId val="2073050648"/>
+        <c:axId val="2108142600"/>
+        <c:axId val="2108145480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2073053512"/>
+        <c:axId val="2108142600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7637,12 +7638,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073050648"/>
+        <c:crossAx val="2108145480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2073050648"/>
+        <c:axId val="2108145480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7652,7 +7653,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073053512"/>
+        <c:crossAx val="2108142600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7819,11 +7820,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2136474776"/>
-        <c:axId val="-2136471896"/>
+        <c:axId val="2111356344"/>
+        <c:axId val="2111359224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2136474776"/>
+        <c:axId val="2111356344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7833,12 +7834,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136471896"/>
+        <c:crossAx val="2111359224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2136471896"/>
+        <c:axId val="2111359224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7848,7 +7849,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136474776"/>
+        <c:crossAx val="2111356344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8015,11 +8016,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2133004296"/>
-        <c:axId val="-2133001416"/>
+        <c:axId val="2111406520"/>
+        <c:axId val="2111409400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2133004296"/>
+        <c:axId val="2111406520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8029,12 +8030,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133001416"/>
+        <c:crossAx val="2111409400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2133001416"/>
+        <c:axId val="2111409400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8044,7 +8045,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133004296"/>
+        <c:crossAx val="2111406520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8211,11 +8212,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2123855896"/>
-        <c:axId val="-2123853016"/>
+        <c:axId val="2111437240"/>
+        <c:axId val="2111440120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2123855896"/>
+        <c:axId val="2111437240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8225,12 +8226,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123853016"/>
+        <c:crossAx val="2111440120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2123853016"/>
+        <c:axId val="2111440120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8240,7 +8241,279 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123855896"/>
+        <c:crossAx val="2111437240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="700">
+          <a:latin typeface="Lucida Sans" panose="020B0602040502020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cv_h2o_glm!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>optim_kappa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>cv_h2o_glm!$B$16:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>cv_h2o_glm!$C$16:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2122822344"/>
+        <c:axId val="2122825224"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2122822344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2122825224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2122825224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2122822344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="700">
+          <a:latin typeface="Lucida Sans" panose="020B0602040502020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cv_h2o_glm!$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fixed_kappa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>cv_h2o_glm!$B$16:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>cv_h2o_glm!$D$16:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2120195832"/>
+        <c:axId val="2120198712"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2120195832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2120198712"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2120198712"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2120195832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8377,11 +8650,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2138756856"/>
-        <c:axId val="-2138753976"/>
+        <c:axId val="2108188232"/>
+        <c:axId val="2108191112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2138756856"/>
+        <c:axId val="2108188232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8391,12 +8664,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138753976"/>
+        <c:crossAx val="2108191112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2138753976"/>
+        <c:axId val="2108191112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8406,7 +8679,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138756856"/>
+        <c:crossAx val="2108188232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8543,11 +8816,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2138711768"/>
-        <c:axId val="-2138708888"/>
+        <c:axId val="2108233320"/>
+        <c:axId val="2108236200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2138711768"/>
+        <c:axId val="2108233320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8557,12 +8830,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138708888"/>
+        <c:crossAx val="2108236200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2138708888"/>
+        <c:axId val="2108236200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8572,7 +8845,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138711768"/>
+        <c:crossAx val="2108233320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8709,11 +8982,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2138666520"/>
-        <c:axId val="-2138663640"/>
+        <c:axId val="2108278568"/>
+        <c:axId val="2108281448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2138666520"/>
+        <c:axId val="2108278568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8723,12 +8996,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138663640"/>
+        <c:crossAx val="2108281448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2138663640"/>
+        <c:axId val="2108281448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8738,7 +9011,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138666520"/>
+        <c:crossAx val="2108278568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8875,11 +9148,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2138622056"/>
-        <c:axId val="-2138619176"/>
+        <c:axId val="2108323032"/>
+        <c:axId val="2108325912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2138622056"/>
+        <c:axId val="2108323032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8889,12 +9162,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138619176"/>
+        <c:crossAx val="2108325912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2138619176"/>
+        <c:axId val="2108325912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8904,7 +9177,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138622056"/>
+        <c:crossAx val="2108323032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9041,11 +9314,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2138575928"/>
-        <c:axId val="-2138573048"/>
+        <c:axId val="2108369160"/>
+        <c:axId val="2108372040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2138575928"/>
+        <c:axId val="2108369160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9055,12 +9328,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138573048"/>
+        <c:crossAx val="2108372040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2138573048"/>
+        <c:axId val="2108372040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9070,7 +9343,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2138575928"/>
+        <c:crossAx val="2108369160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10319,6 +10592,75 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing27.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -25765,8 +26107,8 @@
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="W50" sqref="W50"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -27635,6 +27977,527 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:L33"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="6" customWidth="1"/>
+    <col min="5" max="11" width="7.6640625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="13" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" ht="12" thickTop="1">
+      <c r="A2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="13">
+        <v>850</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="24"/>
+      <c r="C8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="13">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="24"/>
+      <c r="C9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="24"/>
+      <c r="C10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="8" customFormat="1" ht="13" thickBot="1">
+      <c r="A14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" ht="24" thickTop="1" thickBot="1">
+      <c r="A15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="12" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="12">
+        <f>C16-D16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="12" thickBot="1">
+      <c r="A17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="12">
+        <f t="shared" ref="L17:L25" si="0">C17-D17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="12" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="9"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="12" thickBot="1">
+      <c r="A19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="12" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="12" thickBot="1">
+      <c r="A21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="12" thickBot="1">
+      <c r="A22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="12" thickBot="1">
+      <c r="A23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="12" thickBot="1">
+      <c r="A24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="12" thickBot="1">
+      <c r="A25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="B26" s="11" t="e">
+        <f>AVERAGE(B16:B25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C26" s="11" t="e">
+        <f t="shared" ref="C26:K26" si="1">AVERAGE(C16:C25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G26" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H26" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I26" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J26" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K26" s="11" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="B27" s="29" t="e">
+        <f>VAR(B16:B25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C27" s="29" t="e">
+        <f>VAR(C16:C25)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="29" t="e">
+        <f>VAR(D16:D25)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:12" ht="13" thickBot="1">
+      <c r="A29" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" ht="12" thickTop="1">
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="L16:L25">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{84E00765-C005-FF48-BE79-3FE785D2AD0E}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{84E00765-C005-FF48-BE79-3FE785D2AD0E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L16:L25</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">

--- a/model_cv_log.xlsx
+++ b/model_cv_log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="31480" yWindow="0" windowWidth="30720" windowHeight="25480" tabRatio="831" firstSheet="12" activeTab="29"/>
+    <workbookView xWindow="36940" yWindow="300" windowWidth="30720" windowHeight="25480" tabRatio="831" firstSheet="13" activeTab="30"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -37,6 +37,7 @@
     <sheet name="cv_leaf_3" sheetId="28" r:id="rId28"/>
     <sheet name="cv_meta" sheetId="29" r:id="rId29"/>
     <sheet name="cv_h2o_glm" sheetId="30" r:id="rId30"/>
+    <sheet name="cv_h2o_dl" sheetId="31" r:id="rId31"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="122">
   <si>
     <t>rsme+kappa</t>
   </si>
@@ -375,6 +376,45 @@
   </si>
   <si>
     <t>155-433</t>
+  </si>
+  <si>
+    <t>fit &lt;-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            h2o.deeplearning(</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                y = dependent, x = independent, training_frame = train_df, overwrite_with_best_model = T, #autoencoder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                use_all_factor_levels = T, activation = "RectifierWithDropout",#TanhWithDropout "RectifierWithDropout"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                hidden = c(256,128), epochs = 9, train_samples_per_iteration = -2, adaptive_rate = T, rho = 0.99,  #c(300,150,75)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                epsilon = 1e-6, rate = 0.01, rate_decay = 0.9, momentum_start = 0.9, momentum_stable = 0.99,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                nesterov_accelerated_gradient = T, input_dropout_ratio = 0.5, hidden_dropout_ratios = c(0.5,0.5), </t>
+  </si>
+  <si>
+    <t xml:space="preserve">                l1 = 1e-5, l2 = 3e-5, loss = 'MeanSquare', classification_stop = 0.01,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                diagnostics = T, variable_importances = F, fast_mode = F, ignore_const_cols = T,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                force_load_balance = F, replicate_training_data = T, shuffle_training_data = T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> fit &lt;-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                epsilon = 1e-6, rate = 0.035, rate_decay = 0.9, momentum_start = 0.9, momentum_stable = 0.99,</t>
   </si>
 </sst>
 </file>
@@ -761,7 +801,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="153">
+  <cellStyleXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -853,6 +893,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1008,7 +1058,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="153">
+  <cellStyles count="163">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1084,6 +1134,11 @@
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1159,6 +1214,11 @@
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Linked Cell" xfId="21" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="90" builtinId="5"/>
@@ -8326,6 +8386,36 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.633583784927689</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.623884418325379</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.618686602150298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.625607971784159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.616255844220249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.609803799103802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.601629791471475</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.614582324509757</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.591842955867094</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.605301291524931</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8335,6 +8425,36 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.681174738863999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.67106434032721</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.662750618168135</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.668398507951764</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.661319781803853</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.656145357270006</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.643533674205361</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.654893408628989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.646033753711721</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.657457932184642</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8462,6 +8582,36 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.633583784927689</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.623884418325379</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.618686602150298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.625607971784159</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.616255844220249</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.609803799103802</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.601629791471475</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.614582324509757</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.591842955867094</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.605301291524931</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8471,6 +8621,36 @@
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.67403158410614</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.666672484312782</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.659349539852048</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.671272489685421</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.656652836047931</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.653665017226379</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.643137881518884</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.656798048952223</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.650972256169465</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.656332033518333</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8514,6 +8694,326 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="2120195832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="700">
+          <a:latin typeface="Lucida Sans" panose="020B0602040502020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cv_h2o_dl!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>optim_kappa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>cv_h2o_dl!$B$16:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.622374639112563</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5035973322019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63200462991904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.623438255225325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>cv_h2o_dl!$C$16:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.654355605803868</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.610689953388698</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.651236525248361</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.648594706131896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2123965576"/>
+        <c:axId val="2124177080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2123965576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2124177080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2124177080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2123965576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="700">
+          <a:latin typeface="Lucida Sans" panose="020B0602040502020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>cv_h2o_dl!$D$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>fixed_kappa</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:trendline>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>cv_h2o_dl!$B$16:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.622374639112563</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5035973322019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.63200462991904</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.623438255225325</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>cv_h2o_dl!$D$16:$D$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.651619813780787</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.585806254977712</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.648157686834272</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.646663420387858</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2121520328"/>
+        <c:axId val="2121523288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2121520328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2121523288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2121523288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2121520328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10661,6 +11161,75 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing28.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -27984,8 +28553,8 @@
   </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -28185,246 +28754,446 @@
       <c r="A16" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="B16" s="9">
+        <v>0.63358378492768896</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.68117473886399904</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.67403158410613995</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2.36174637286934</v>
+      </c>
+      <c r="F16" s="9">
+        <v>3.5306736611393998</v>
+      </c>
+      <c r="G16" s="9">
+        <v>4.3667905405008902</v>
+      </c>
+      <c r="H16" s="9">
+        <v>4.6543142091885699</v>
+      </c>
+      <c r="I16" s="9">
+        <v>5.3890520993784197</v>
+      </c>
+      <c r="J16" s="9">
+        <v>6.2634179549285198</v>
+      </c>
+      <c r="K16" s="9">
+        <v>6.8176869708684196</v>
+      </c>
       <c r="L16" s="12">
         <f>C16-D16</f>
-        <v>0</v>
+        <v>7.1431547578590937E-3</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="12" thickBot="1">
       <c r="A17" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
+      <c r="B17" s="10">
+        <v>0.623884418325379</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.67106434032720996</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.66667248431278203</v>
+      </c>
+      <c r="E17" s="10">
+        <v>2.7005837431312201</v>
+      </c>
+      <c r="F17" s="10">
+        <v>3.54809686244307</v>
+      </c>
+      <c r="G17" s="10">
+        <v>4.2565088123752703</v>
+      </c>
+      <c r="H17" s="10">
+        <v>5.0304228748925004</v>
+      </c>
+      <c r="I17" s="10">
+        <v>5.3928904576382797</v>
+      </c>
+      <c r="J17" s="10">
+        <v>6.1360669387438103</v>
+      </c>
+      <c r="K17" s="10">
+        <v>6.6878511312405804</v>
+      </c>
       <c r="L17" s="12">
         <f t="shared" ref="L17:L25" si="0">C17-D17</f>
-        <v>0</v>
+        <v>4.3918560144279306E-3</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="12" thickBot="1">
       <c r="A18" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="B18" s="9">
+        <v>0.61868660215029803</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.66275061816813496</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.65934953985204803</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2.77805425980827</v>
+      </c>
+      <c r="F18" s="9">
+        <v>3.6308073819094702</v>
+      </c>
+      <c r="G18" s="9">
+        <v>4.4494045235556197</v>
+      </c>
+      <c r="H18" s="9">
+        <v>5.1172476719770597</v>
+      </c>
+      <c r="I18" s="9">
+        <v>5.4532444663910002</v>
+      </c>
+      <c r="J18" s="9">
+        <v>6.2422123505702398</v>
+      </c>
+      <c r="K18" s="9">
+        <v>6.7596836049134001</v>
+      </c>
       <c r="L18" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4010783160869362E-3</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="12" thickBot="1">
       <c r="A19" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
+      <c r="B19" s="10">
+        <v>0.62560797178415894</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.66839850795176403</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.67127248968542097</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1.61246994013441</v>
+      </c>
+      <c r="F19" s="10">
+        <v>3.2551721439237302</v>
+      </c>
+      <c r="G19" s="10">
+        <v>4.15308608163906</v>
+      </c>
+      <c r="H19" s="10">
+        <v>4.8868711985839797</v>
+      </c>
+      <c r="I19" s="10">
+        <v>5.5382427720751997</v>
+      </c>
+      <c r="J19" s="10">
+        <v>6.1705910185012502</v>
+      </c>
+      <c r="K19" s="10">
+        <v>6.8245442425633298</v>
+      </c>
       <c r="L19" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-2.8739817336569384E-3</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="12" thickBot="1">
       <c r="A20" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="B20" s="9">
+        <v>0.61625584422024904</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.66131978180385298</v>
+      </c>
+      <c r="D20" s="9">
+        <v>0.65665283604793101</v>
+      </c>
+      <c r="E20" s="9">
+        <v>2.7006930025671698</v>
+      </c>
+      <c r="F20" s="9">
+        <v>4.2355868063178796</v>
+      </c>
+      <c r="G20" s="9">
+        <v>3.5383707305558101</v>
+      </c>
+      <c r="H20" s="9">
+        <v>4.8385286638876002</v>
+      </c>
+      <c r="I20" s="9">
+        <v>5.5325503503967397</v>
+      </c>
+      <c r="J20" s="9">
+        <v>6.1076309593073796</v>
+      </c>
+      <c r="K20" s="9">
+        <v>6.7657863231249804</v>
+      </c>
       <c r="L20" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.6669457559219696E-3</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="12" thickBot="1">
       <c r="A21" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="B21" s="9">
+        <v>0.609803799103802</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.656145357270006</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.65366501722637904</v>
+      </c>
+      <c r="E21" s="9">
+        <v>2.4433557882763202</v>
+      </c>
+      <c r="F21" s="9">
+        <v>3.34657037902595</v>
+      </c>
+      <c r="G21" s="9">
+        <v>4.1649554758074103</v>
+      </c>
+      <c r="H21" s="9">
+        <v>4.9983561329374204</v>
+      </c>
+      <c r="I21" s="9">
+        <v>5.4730328396105703</v>
+      </c>
+      <c r="J21" s="9">
+        <v>6.3357751088665903</v>
+      </c>
+      <c r="K21" s="9">
+        <v>6.7116415703146401</v>
+      </c>
       <c r="L21" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.4803400436269607E-3</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="12" thickBot="1">
       <c r="A22" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
+      <c r="B22" s="10">
+        <v>0.601629791471475</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0.64353367420536101</v>
+      </c>
+      <c r="D22" s="10">
+        <v>0.64313788151888396</v>
+      </c>
+      <c r="E22" s="10">
+        <v>2.5332408648196401</v>
+      </c>
+      <c r="F22" s="10">
+        <v>4.0768375641568797</v>
+      </c>
+      <c r="G22" s="10">
+        <v>3.2855626779332301</v>
+      </c>
+      <c r="H22" s="10">
+        <v>4.67394493301948</v>
+      </c>
+      <c r="I22" s="10">
+        <v>5.44312066888914</v>
+      </c>
+      <c r="J22" s="10">
+        <v>6.1513037096516596</v>
+      </c>
+      <c r="K22" s="10">
+        <v>6.6715243806078401</v>
+      </c>
       <c r="L22" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.9579268647704779E-4</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="12" thickBot="1">
       <c r="A23" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="B23" s="9">
+        <v>0.61458232450975703</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0.65489340862898904</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.65679804895222305</v>
+      </c>
+      <c r="E23" s="9">
+        <v>1.5310082800874301</v>
+      </c>
+      <c r="F23" s="9">
+        <v>3.5432279954457702</v>
+      </c>
+      <c r="G23" s="9">
+        <v>4.1508218685255001</v>
+      </c>
+      <c r="H23" s="9">
+        <v>4.7448387285749201</v>
+      </c>
+      <c r="I23" s="9">
+        <v>5.4627910614251496</v>
+      </c>
+      <c r="J23" s="9">
+        <v>6.3144933539957604</v>
+      </c>
+      <c r="K23" s="9">
+        <v>6.7256546967336801</v>
+      </c>
       <c r="L23" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1.9046403232340081E-3</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="12" thickBot="1">
       <c r="A24" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
+      <c r="B24" s="10">
+        <v>0.59184295586709401</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0.646033753711721</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0.65097225616946497</v>
+      </c>
+      <c r="E24" s="10">
+        <v>0.636509916232329</v>
+      </c>
+      <c r="F24" s="10">
+        <v>3.462174529551</v>
+      </c>
+      <c r="G24" s="10">
+        <v>4.4813988237494096</v>
+      </c>
+      <c r="H24" s="10">
+        <v>5.5613480453310604</v>
+      </c>
+      <c r="I24" s="10">
+        <v>5.0724956805652504</v>
+      </c>
+      <c r="J24" s="10">
+        <v>6.3693793361495796</v>
+      </c>
+      <c r="K24" s="10">
+        <v>6.8967579144147804</v>
+      </c>
       <c r="L24" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-4.9385024577439651E-3</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="12" thickBot="1">
       <c r="A25" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="B25" s="9">
+        <v>0.60530129152493095</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.65745793218464199</v>
+      </c>
+      <c r="D25" s="9">
+        <v>0.65633203351833302</v>
+      </c>
+      <c r="E25" s="9">
+        <v>2.4198170840692899</v>
+      </c>
+      <c r="F25" s="9">
+        <v>3.1731694581837302</v>
+      </c>
+      <c r="G25" s="9">
+        <v>4.40663658706519</v>
+      </c>
+      <c r="H25" s="9">
+        <v>4.7744576976311404</v>
+      </c>
+      <c r="I25" s="9">
+        <v>5.2965998642488801</v>
+      </c>
+      <c r="J25" s="9">
+        <v>6.2562364454889003</v>
+      </c>
+      <c r="K25" s="9">
+        <v>6.7713821225593396</v>
+      </c>
       <c r="L25" s="12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.1258986663089665E-3</v>
       </c>
     </row>
     <row r="26" spans="1:12">
-      <c r="B26" s="11" t="e">
+      <c r="B26" s="11">
         <f>AVERAGE(B16:B25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C26" s="11" t="e">
+        <v>0.61411787838848331</v>
+      </c>
+      <c r="C26" s="11">
         <f t="shared" ref="C26:K26" si="1">AVERAGE(C16:C25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D26" s="11" t="e">
+        <v>0.66027721131156791</v>
+      </c>
+      <c r="D26" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E26" s="11" t="e">
+        <v>0.65888841713896062</v>
+      </c>
+      <c r="E26" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="11" t="e">
+        <v>2.1717479251995417</v>
+      </c>
+      <c r="F26" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G26" s="11" t="e">
+        <v>3.5802316782096879</v>
+      </c>
+      <c r="G26" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H26" s="11" t="e">
+        <v>4.1253536121707386</v>
+      </c>
+      <c r="H26" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I26" s="11" t="e">
+        <v>4.9280330156023728</v>
+      </c>
+      <c r="I26" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" s="11" t="e">
+        <v>5.4054020260618634</v>
+      </c>
+      <c r="J26" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K26" s="11" t="e">
+        <v>6.2347107176203682</v>
+      </c>
+      <c r="K26" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>6.7632512957340989</v>
       </c>
     </row>
     <row r="27" spans="1:12">
-      <c r="B27" s="29" t="e">
+      <c r="B27" s="29">
         <f>VAR(B16:B25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C27" s="29" t="e">
+        <v>1.5338409811780911E-4</v>
+      </c>
+      <c r="C27" s="29">
         <f>VAR(C16:C25)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D27" s="29" t="e">
+        <v>1.2927299635545348E-4</v>
+      </c>
+      <c r="D27" s="29">
         <f>VAR(D16:D25)</f>
-        <v>#DIV/0!</v>
+        <v>8.860183746694303E-5</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -28478,6 +29247,717 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{84E00765-C005-FF48-BE79-3FE785D2AD0E}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>L16:L25</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:L72"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="N51" sqref="N51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" style="6" customWidth="1"/>
+    <col min="5" max="11" width="7.6640625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="8" customFormat="1" ht="13" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:12" ht="12" thickTop="1">
+      <c r="A2" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="13">
+        <v>850</v>
+      </c>
+      <c r="E2" s="30"/>
+      <c r="F2" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="24"/>
+      <c r="C8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="13">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="24"/>
+      <c r="C9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="24"/>
+      <c r="C10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="24" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="8" customFormat="1" ht="13" thickBot="1">
+      <c r="A14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+    </row>
+    <row r="15" spans="1:12" ht="24" thickTop="1" thickBot="1">
+      <c r="A15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="12" thickBot="1">
+      <c r="A16" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" s="9">
+        <v>0.62237463911256297</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.65435560580386798</v>
+      </c>
+      <c r="D16" s="9">
+        <v>0.65161981378078704</v>
+      </c>
+      <c r="E16" s="9">
+        <v>2.3941678847032102</v>
+      </c>
+      <c r="F16" s="9">
+        <v>3.0295967325006301</v>
+      </c>
+      <c r="G16" s="9">
+        <v>4.0110371615516298</v>
+      </c>
+      <c r="H16" s="9">
+        <v>4.8528968501805503</v>
+      </c>
+      <c r="I16" s="9">
+        <v>5.4432562639526596</v>
+      </c>
+      <c r="J16" s="9">
+        <v>6.1964757343085601</v>
+      </c>
+      <c r="K16" s="9">
+        <v>6.7993137514731696</v>
+      </c>
+      <c r="L16" s="12">
+        <f>C16-D16</f>
+        <v>2.7357920230809407E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="12" thickBot="1">
+      <c r="A17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0.50359733220189995</v>
+      </c>
+      <c r="C17" s="10">
+        <v>0.61068995338869803</v>
+      </c>
+      <c r="D17" s="10">
+        <v>0.58580625497771199</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1.7517812256489</v>
+      </c>
+      <c r="F17" s="10">
+        <v>2.66319837378702</v>
+      </c>
+      <c r="G17" s="10">
+        <v>4.6926774221125997</v>
+      </c>
+      <c r="H17" s="10">
+        <v>5.0441352360150002</v>
+      </c>
+      <c r="I17" s="10">
+        <v>5.4944733702262898</v>
+      </c>
+      <c r="J17" s="10">
+        <v>5.93327607857782</v>
+      </c>
+      <c r="K17" s="10">
+        <v>6.4517582030504999</v>
+      </c>
+      <c r="L17" s="12">
+        <f t="shared" ref="L17:L25" si="0">C17-D17</f>
+        <v>2.4883698410986033E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="12" thickBot="1">
+      <c r="A18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="9">
+        <v>0.63200462991904005</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0.65123652524836095</v>
+      </c>
+      <c r="D18" s="9">
+        <v>0.648157686834272</v>
+      </c>
+      <c r="E18" s="9">
+        <v>2.4878830487794201</v>
+      </c>
+      <c r="F18" s="9">
+        <v>3.0816999683854198</v>
+      </c>
+      <c r="G18" s="9">
+        <v>3.9940542444176601</v>
+      </c>
+      <c r="H18" s="9">
+        <v>4.7801220108670597</v>
+      </c>
+      <c r="I18" s="9">
+        <v>5.5184901642875497</v>
+      </c>
+      <c r="J18" s="9">
+        <v>6.2170381007641202</v>
+      </c>
+      <c r="K18" s="9">
+        <v>7.0089694501860098</v>
+      </c>
+      <c r="L18" s="12">
+        <f t="shared" si="0"/>
+        <v>3.078838414088958E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="12" thickBot="1">
+      <c r="A19" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0.62343825522532503</v>
+      </c>
+      <c r="C19" s="10">
+        <v>0.64859470613189596</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0.64666342038785796</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2.5574607597780901</v>
+      </c>
+      <c r="F19" s="10">
+        <v>3.1450254182855102</v>
+      </c>
+      <c r="G19" s="10">
+        <v>4.3061521252714297</v>
+      </c>
+      <c r="H19" s="10">
+        <v>4.9349066672524904</v>
+      </c>
+      <c r="I19" s="10">
+        <v>5.6704319387989397</v>
+      </c>
+      <c r="J19" s="10">
+        <v>6.3774777992641702</v>
+      </c>
+      <c r="K19" s="10">
+        <v>6.91431558157959</v>
+      </c>
+      <c r="L19" s="12">
+        <f t="shared" si="0"/>
+        <v>1.9312857440380027E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="12" thickBot="1">
+      <c r="A20" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="12" thickBot="1">
+      <c r="A21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="12" thickBot="1">
+      <c r="A22" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="12" thickBot="1">
+      <c r="A23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="12" thickBot="1">
+      <c r="A24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="12" thickBot="1">
+      <c r="A25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="B26" s="11">
+        <f>AVERAGE(B16:B25)</f>
+        <v>0.59535371411470694</v>
+      </c>
+      <c r="C26" s="11">
+        <f t="shared" ref="C26:K26" si="1">AVERAGE(C16:C25)</f>
+        <v>0.64121919764320578</v>
+      </c>
+      <c r="D26" s="11">
+        <f t="shared" si="1"/>
+        <v>0.63306179399515727</v>
+      </c>
+      <c r="E26" s="11">
+        <f t="shared" si="1"/>
+        <v>2.2978232297274053</v>
+      </c>
+      <c r="F26" s="11">
+        <f t="shared" si="1"/>
+        <v>2.9798801232396448</v>
+      </c>
+      <c r="G26" s="11">
+        <f t="shared" si="1"/>
+        <v>4.2509802383383297</v>
+      </c>
+      <c r="H26" s="11">
+        <f t="shared" si="1"/>
+        <v>4.9030151910787758</v>
+      </c>
+      <c r="I26" s="11">
+        <f t="shared" si="1"/>
+        <v>5.5316629343163601</v>
+      </c>
+      <c r="J26" s="11">
+        <f t="shared" si="1"/>
+        <v>6.1810669282286677</v>
+      </c>
+      <c r="K26" s="11">
+        <f t="shared" si="1"/>
+        <v>6.793589246572318</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="B27" s="29">
+        <f>VAR(B16:B25)</f>
+        <v>3.7604650293863221E-3</v>
+      </c>
+      <c r="C27" s="29">
+        <f>VAR(C16:C25)</f>
+        <v>4.1978165064355063E-4</v>
+      </c>
+      <c r="D27" s="29">
+        <f>VAR(D16:D25)</f>
+        <v>9.9679209577658873E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+    </row>
+    <row r="29" spans="1:12" ht="13" thickBot="1">
+      <c r="A29" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" ht="12" thickTop="1">
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="L16:L25">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{61EAAF6D-77B5-8E45-8B4F-E75B7BE897AE}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{61EAAF6D-77B5-8E45-8B4F-E75B7BE897AE}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>

--- a/model_cv_log.xlsx
+++ b/model_cv_log.xlsx
@@ -801,7 +801,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="163">
+  <cellStyleXfs count="165">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -893,6 +893,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1058,7 +1060,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="163">
+  <cellStyles count="165">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1139,6 +1141,7 @@
     <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1219,6 +1222,7 @@
     <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="Linked Cell" xfId="21" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="90" builtinId="5"/>
@@ -1336,11 +1340,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2106687016"/>
-        <c:axId val="2106688632"/>
+        <c:axId val="-2143748440"/>
+        <c:axId val="-2143745592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2106687016"/>
+        <c:axId val="-2143748440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1350,12 +1354,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106688632"/>
+        <c:crossAx val="-2143745592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2106688632"/>
+        <c:axId val="-2143745592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1365,7 +1369,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106687016"/>
+        <c:crossAx val="-2143748440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1502,11 +1506,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2108416184"/>
-        <c:axId val="2108419064"/>
+        <c:axId val="2077545288"/>
+        <c:axId val="2077548168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2108416184"/>
+        <c:axId val="2077545288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1516,12 +1520,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108419064"/>
+        <c:crossAx val="2077548168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2108419064"/>
+        <c:axId val="2077548168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1531,7 +1535,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108416184"/>
+        <c:crossAx val="2077545288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1698,11 +1702,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2108471064"/>
-        <c:axId val="2108473944"/>
+        <c:axId val="-2143562296"/>
+        <c:axId val="-2143559416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2108471064"/>
+        <c:axId val="-2143562296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1712,12 +1716,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108473944"/>
+        <c:crossAx val="-2143559416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2108473944"/>
+        <c:axId val="-2143559416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1727,7 +1731,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108471064"/>
+        <c:crossAx val="-2143562296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1894,11 +1898,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2108501624"/>
-        <c:axId val="2108504504"/>
+        <c:axId val="-2143531736"/>
+        <c:axId val="-2143528856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2108501624"/>
+        <c:axId val="-2143531736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1908,12 +1912,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108504504"/>
+        <c:crossAx val="-2143528856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2108504504"/>
+        <c:axId val="-2143528856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1923,7 +1927,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108501624"/>
+        <c:crossAx val="-2143531736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2090,11 +2094,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2108549832"/>
-        <c:axId val="2108552712"/>
+        <c:axId val="-2143483624"/>
+        <c:axId val="-2143480744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2108549832"/>
+        <c:axId val="-2143483624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2104,12 +2108,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108552712"/>
+        <c:crossAx val="-2143480744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2108552712"/>
+        <c:axId val="-2143480744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2119,7 +2123,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108549832"/>
+        <c:crossAx val="-2143483624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2286,11 +2290,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2108580392"/>
-        <c:axId val="2108583272"/>
+        <c:axId val="-2143453064"/>
+        <c:axId val="-2143450184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2108580392"/>
+        <c:axId val="-2143453064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2300,12 +2304,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108583272"/>
+        <c:crossAx val="-2143450184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2108583272"/>
+        <c:axId val="-2143450184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2315,7 +2319,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108580392"/>
+        <c:crossAx val="-2143453064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2482,11 +2486,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2108630312"/>
-        <c:axId val="2108633192"/>
+        <c:axId val="-2143403432"/>
+        <c:axId val="-2143400552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2108630312"/>
+        <c:axId val="-2143403432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2496,12 +2500,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108633192"/>
+        <c:crossAx val="-2143400552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2108633192"/>
+        <c:axId val="-2143400552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2511,7 +2515,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108630312"/>
+        <c:crossAx val="-2143403432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2678,11 +2682,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2108661112"/>
-        <c:axId val="2108663992"/>
+        <c:axId val="-2143372632"/>
+        <c:axId val="-2143369752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2108661112"/>
+        <c:axId val="-2143372632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2692,12 +2696,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108663992"/>
+        <c:crossAx val="-2143369752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2108663992"/>
+        <c:axId val="-2143369752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2707,7 +2711,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108661112"/>
+        <c:crossAx val="-2143372632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2874,11 +2878,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2107870792"/>
-        <c:axId val="2107867928"/>
+        <c:axId val="-2143323960"/>
+        <c:axId val="-2143321080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2107870792"/>
+        <c:axId val="-2143323960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2888,12 +2892,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107867928"/>
+        <c:crossAx val="-2143321080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2107867928"/>
+        <c:axId val="-2143321080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2903,7 +2907,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107870792"/>
+        <c:crossAx val="-2143323960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3070,11 +3074,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2107841144"/>
-        <c:axId val="2107838280"/>
+        <c:axId val="-2144088216"/>
+        <c:axId val="-2144091080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2107841144"/>
+        <c:axId val="-2144088216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3084,12 +3088,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107838280"/>
+        <c:crossAx val="-2144091080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2107838280"/>
+        <c:axId val="-2144091080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3099,7 +3103,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107841144"/>
+        <c:crossAx val="-2144088216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3266,11 +3270,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2107791464"/>
-        <c:axId val="2107788600"/>
+        <c:axId val="-2144137800"/>
+        <c:axId val="-2144140664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2107791464"/>
+        <c:axId val="-2144137800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3280,12 +3284,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107788600"/>
+        <c:crossAx val="-2144140664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2107788600"/>
+        <c:axId val="-2144140664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3295,7 +3299,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107791464"/>
+        <c:crossAx val="-2144137800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3432,11 +3436,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2108052552"/>
-        <c:axId val="2108055432"/>
+        <c:axId val="-2145551960"/>
+        <c:axId val="-2145549080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2108052552"/>
+        <c:axId val="-2145551960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3446,12 +3450,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108055432"/>
+        <c:crossAx val="-2145549080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2108055432"/>
+        <c:axId val="-2145549080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3461,7 +3465,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108052552"/>
+        <c:crossAx val="-2145551960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3628,11 +3632,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2107760104"/>
-        <c:axId val="2107757240"/>
+        <c:axId val="-2144169160"/>
+        <c:axId val="-2144172024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2107760104"/>
+        <c:axId val="-2144169160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3642,12 +3646,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107757240"/>
+        <c:crossAx val="-2144172024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2107757240"/>
+        <c:axId val="-2144172024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3657,7 +3661,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107760104"/>
+        <c:crossAx val="-2144169160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3824,11 +3828,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2107710040"/>
-        <c:axId val="2107707176"/>
+        <c:axId val="-2144219128"/>
+        <c:axId val="-2144221992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2107710040"/>
+        <c:axId val="-2144219128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3838,12 +3842,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107707176"/>
+        <c:crossAx val="-2144221992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2107707176"/>
+        <c:axId val="-2144221992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3853,7 +3857,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107710040"/>
+        <c:crossAx val="-2144219128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4020,11 +4024,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2107679240"/>
-        <c:axId val="2107676376"/>
+        <c:axId val="-2146226072"/>
+        <c:axId val="-2146228920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2107679240"/>
+        <c:axId val="-2146226072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4034,12 +4038,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107676376"/>
+        <c:crossAx val="-2146228920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2107676376"/>
+        <c:axId val="-2146228920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4049,7 +4053,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2107679240"/>
+        <c:crossAx val="-2146226072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4216,11 +4220,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2108968152"/>
-        <c:axId val="2108971032"/>
+        <c:axId val="-2146286456"/>
+        <c:axId val="-2146289320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2108968152"/>
+        <c:axId val="-2146286456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4230,12 +4234,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108971032"/>
+        <c:crossAx val="-2146289320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2108971032"/>
+        <c:axId val="-2146289320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4245,7 +4249,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108968152"/>
+        <c:crossAx val="-2146286456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4412,11 +4416,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2108998952"/>
-        <c:axId val="2109001832"/>
+        <c:axId val="-2146317256"/>
+        <c:axId val="-2146320120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2108998952"/>
+        <c:axId val="-2146317256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4426,12 +4430,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109001832"/>
+        <c:crossAx val="-2146320120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2109001832"/>
+        <c:axId val="-2146320120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4441,7 +4445,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108998952"/>
+        <c:crossAx val="-2146317256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4608,11 +4612,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2109057288"/>
-        <c:axId val="2109060168"/>
+        <c:axId val="-2144592536"/>
+        <c:axId val="-2144589656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2109057288"/>
+        <c:axId val="-2144592536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4622,12 +4626,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109060168"/>
+        <c:crossAx val="-2144589656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2109060168"/>
+        <c:axId val="-2144589656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4637,7 +4641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2109057288"/>
+        <c:crossAx val="-2144592536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4804,11 +4808,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2106634264"/>
-        <c:axId val="2106631400"/>
+        <c:axId val="-2144561736"/>
+        <c:axId val="-2144558856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2106634264"/>
+        <c:axId val="-2144561736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4818,12 +4822,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106631400"/>
+        <c:crossAx val="-2144558856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2106631400"/>
+        <c:axId val="-2144558856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4833,7 +4837,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2106634264"/>
+        <c:crossAx val="-2144561736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5000,11 +5004,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2110017752"/>
-        <c:axId val="2110020632"/>
+        <c:axId val="-2144513176"/>
+        <c:axId val="-2144510296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2110017752"/>
+        <c:axId val="-2144513176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5014,12 +5018,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110020632"/>
+        <c:crossAx val="-2144510296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2110020632"/>
+        <c:axId val="-2144510296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5029,7 +5033,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110017752"/>
+        <c:crossAx val="-2144513176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5196,11 +5200,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2110048552"/>
-        <c:axId val="2110051432"/>
+        <c:axId val="-2144481928"/>
+        <c:axId val="-2144479048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2110048552"/>
+        <c:axId val="-2144481928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5210,12 +5214,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110051432"/>
+        <c:crossAx val="-2144479048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2110051432"/>
+        <c:axId val="-2144479048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5225,7 +5229,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110048552"/>
+        <c:crossAx val="-2144481928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5392,11 +5396,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2110099416"/>
-        <c:axId val="2110102296"/>
+        <c:axId val="-2144431064"/>
+        <c:axId val="-2144428184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2110099416"/>
+        <c:axId val="-2144431064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5406,12 +5410,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110102296"/>
+        <c:crossAx val="-2144428184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2110102296"/>
+        <c:axId val="-2144428184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5421,7 +5425,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110099416"/>
+        <c:crossAx val="-2144431064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5558,11 +5562,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2108097592"/>
-        <c:axId val="2108100472"/>
+        <c:axId val="-2145506792"/>
+        <c:axId val="-2145503912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2108097592"/>
+        <c:axId val="-2145506792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5572,12 +5576,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108100472"/>
+        <c:crossAx val="-2145503912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2108100472"/>
+        <c:axId val="-2145503912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5587,7 +5591,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108097592"/>
+        <c:crossAx val="-2145506792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5754,11 +5758,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2110131224"/>
-        <c:axId val="2110134104"/>
+        <c:axId val="-2144399704"/>
+        <c:axId val="-2144396824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2110131224"/>
+        <c:axId val="-2144399704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5768,12 +5772,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110134104"/>
+        <c:crossAx val="-2144396824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2110134104"/>
+        <c:axId val="-2144396824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5783,7 +5787,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2110131224"/>
+        <c:crossAx val="-2144399704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5950,11 +5954,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2105590552"/>
-        <c:axId val="2105587688"/>
+        <c:axId val="-2145130264"/>
+        <c:axId val="-2145133128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2105590552"/>
+        <c:axId val="-2145130264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5964,12 +5968,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105587688"/>
+        <c:crossAx val="-2145133128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2105587688"/>
+        <c:axId val="-2145133128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5979,7 +5983,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105590552"/>
+        <c:crossAx val="-2145130264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6146,11 +6150,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2105559752"/>
-        <c:axId val="2105556888"/>
+        <c:axId val="-2145161064"/>
+        <c:axId val="-2145163928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2105559752"/>
+        <c:axId val="-2145161064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6160,12 +6164,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105556888"/>
+        <c:crossAx val="-2145163928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2105556888"/>
+        <c:axId val="-2145163928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6175,7 +6179,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2105559752"/>
+        <c:crossAx val="-2145161064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6342,11 +6346,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2111085928"/>
-        <c:axId val="2111088808"/>
+        <c:axId val="-2145210008"/>
+        <c:axId val="-2145212872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2111085928"/>
+        <c:axId val="-2145210008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6356,12 +6360,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111088808"/>
+        <c:crossAx val="-2145212872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2111088808"/>
+        <c:axId val="-2145212872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6371,7 +6375,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111085928"/>
+        <c:crossAx val="-2145210008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6538,11 +6542,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2111117272"/>
-        <c:axId val="2111120152"/>
+        <c:axId val="-2145241352"/>
+        <c:axId val="-2145244216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2111117272"/>
+        <c:axId val="-2145241352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6552,12 +6556,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111120152"/>
+        <c:crossAx val="-2145244216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2111120152"/>
+        <c:axId val="-2145244216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6567,7 +6571,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111117272"/>
+        <c:crossAx val="-2145241352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6734,11 +6738,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2111165496"/>
-        <c:axId val="2111168376"/>
+        <c:axId val="-2145289848"/>
+        <c:axId val="-2145292712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2111165496"/>
+        <c:axId val="-2145289848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6748,12 +6752,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111168376"/>
+        <c:crossAx val="-2145292712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2111168376"/>
+        <c:axId val="-2145292712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6763,7 +6767,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111165496"/>
+        <c:crossAx val="-2145289848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6930,11 +6934,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2111196296"/>
-        <c:axId val="2111199176"/>
+        <c:axId val="-2145320648"/>
+        <c:axId val="-2145323512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2111196296"/>
+        <c:axId val="-2145320648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6944,12 +6948,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111199176"/>
+        <c:crossAx val="-2145323512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2111199176"/>
+        <c:axId val="-2145323512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6959,7 +6963,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111196296"/>
+        <c:crossAx val="-2145320648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7126,11 +7130,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2111245096"/>
-        <c:axId val="2111247976"/>
+        <c:axId val="-2145369128"/>
+        <c:axId val="-2145371992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2111245096"/>
+        <c:axId val="-2145369128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7140,12 +7144,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111247976"/>
+        <c:crossAx val="-2145371992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2111247976"/>
+        <c:axId val="-2145371992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7155,7 +7159,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111245096"/>
+        <c:crossAx val="-2145369128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7322,11 +7326,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2111275816"/>
-        <c:axId val="2111278696"/>
+        <c:axId val="-2143014936"/>
+        <c:axId val="-2143012056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2111275816"/>
+        <c:axId val="-2143014936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7336,12 +7340,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111278696"/>
+        <c:crossAx val="-2143012056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2111278696"/>
+        <c:axId val="-2143012056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7351,7 +7355,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111275816"/>
+        <c:crossAx val="-2143014936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7518,11 +7522,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2111323928"/>
-        <c:axId val="2111326808"/>
+        <c:axId val="-2142965656"/>
+        <c:axId val="-2142962776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2111323928"/>
+        <c:axId val="-2142965656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7532,12 +7536,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111326808"/>
+        <c:crossAx val="-2142962776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2111326808"/>
+        <c:axId val="-2142962776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7547,7 +7551,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111323928"/>
+        <c:crossAx val="-2142965656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7684,11 +7688,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2108142600"/>
-        <c:axId val="2108145480"/>
+        <c:axId val="-2145461688"/>
+        <c:axId val="-2145458808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2108142600"/>
+        <c:axId val="-2145461688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7698,12 +7702,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108145480"/>
+        <c:crossAx val="-2145458808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2108145480"/>
+        <c:axId val="-2145458808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7713,7 +7717,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108142600"/>
+        <c:crossAx val="-2145461688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7880,11 +7884,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2111356344"/>
-        <c:axId val="2111359224"/>
+        <c:axId val="-2142934296"/>
+        <c:axId val="-2142931416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2111356344"/>
+        <c:axId val="-2142934296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7894,12 +7898,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111359224"/>
+        <c:crossAx val="-2142931416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2111359224"/>
+        <c:axId val="-2142931416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7909,7 +7913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111356344"/>
+        <c:crossAx val="-2142934296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8076,11 +8080,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2111406520"/>
-        <c:axId val="2111409400"/>
+        <c:axId val="-2142885464"/>
+        <c:axId val="-2142882584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2111406520"/>
+        <c:axId val="-2142885464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8090,12 +8094,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111409400"/>
+        <c:crossAx val="-2142882584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2111409400"/>
+        <c:axId val="-2142882584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8105,7 +8109,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111406520"/>
+        <c:crossAx val="-2142885464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8272,11 +8276,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2111437240"/>
-        <c:axId val="2111440120"/>
+        <c:axId val="-2142854744"/>
+        <c:axId val="-2142851864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2111437240"/>
+        <c:axId val="-2142854744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8286,12 +8290,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111440120"/>
+        <c:crossAx val="-2142851864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2111440120"/>
+        <c:axId val="-2142851864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8301,7 +8305,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2111437240"/>
+        <c:crossAx val="-2142854744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8468,11 +8472,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2122822344"/>
-        <c:axId val="2122825224"/>
+        <c:axId val="-2144262920"/>
+        <c:axId val="-2144265784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2122822344"/>
+        <c:axId val="-2144262920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8482,12 +8486,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122825224"/>
+        <c:crossAx val="-2144265784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2122825224"/>
+        <c:axId val="-2144265784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8497,7 +8501,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122822344"/>
+        <c:crossAx val="-2144262920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8664,11 +8668,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2120195832"/>
-        <c:axId val="2120198712"/>
+        <c:axId val="-2144293768"/>
+        <c:axId val="-2144296632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2120195832"/>
+        <c:axId val="-2144293768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8678,12 +8682,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120198712"/>
+        <c:crossAx val="-2144296632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2120198712"/>
+        <c:axId val="-2144296632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8693,7 +8697,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2120195832"/>
+        <c:crossAx val="-2144293768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8781,9 +8785,6 @@
                 <c:pt idx="0">
                   <c:v>0.622374639112563</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5035973322019</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>0.63200462991904</c:v>
                 </c:pt>
@@ -8801,9 +8802,6 @@
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.654355605803868</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.610689953388698</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.651236525248361</c:v>
@@ -8824,11 +8822,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2123965576"/>
-        <c:axId val="2124177080"/>
+        <c:axId val="-2141973832"/>
+        <c:axId val="-2141970952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2123965576"/>
+        <c:axId val="-2141973832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8838,12 +8836,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2124177080"/>
+        <c:crossAx val="-2141970952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2124177080"/>
+        <c:axId val="-2141970952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8853,7 +8851,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2123965576"/>
+        <c:crossAx val="-2141973832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8941,9 +8939,6 @@
                 <c:pt idx="0">
                   <c:v>0.622374639112563</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5035973322019</c:v>
-                </c:pt>
                 <c:pt idx="2">
                   <c:v>0.63200462991904</c:v>
                 </c:pt>
@@ -8961,9 +8956,6 @@
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.651619813780787</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.585806254977712</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.648157686834272</c:v>
@@ -8984,11 +8976,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2121520328"/>
-        <c:axId val="2121523288"/>
+        <c:axId val="-2141943032"/>
+        <c:axId val="-2141940152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2121520328"/>
+        <c:axId val="-2141943032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8998,12 +8990,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121523288"/>
+        <c:crossAx val="-2141940152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2121523288"/>
+        <c:axId val="-2141940152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9013,7 +9005,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121520328"/>
+        <c:crossAx val="-2141943032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9150,11 +9142,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2108188232"/>
-        <c:axId val="2108191112"/>
+        <c:axId val="-2145415960"/>
+        <c:axId val="-2145413080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2108188232"/>
+        <c:axId val="-2145415960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9164,12 +9156,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108191112"/>
+        <c:crossAx val="-2145413080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2108191112"/>
+        <c:axId val="-2145413080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9179,7 +9171,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108188232"/>
+        <c:crossAx val="-2145415960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9316,11 +9308,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2108233320"/>
-        <c:axId val="2108236200"/>
+        <c:axId val="-2146207208"/>
+        <c:axId val="-2146210072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2108233320"/>
+        <c:axId val="-2146207208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9330,12 +9322,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108236200"/>
+        <c:crossAx val="-2146210072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2108236200"/>
+        <c:axId val="-2146210072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9345,7 +9337,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108233320"/>
+        <c:crossAx val="-2146207208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9482,11 +9474,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2108278568"/>
-        <c:axId val="2108281448"/>
+        <c:axId val="-2143705576"/>
+        <c:axId val="-2143702696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2108278568"/>
+        <c:axId val="-2143705576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9496,12 +9488,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108281448"/>
+        <c:crossAx val="-2143702696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2108281448"/>
+        <c:axId val="-2143702696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9511,7 +9503,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108278568"/>
+        <c:crossAx val="-2143705576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9648,11 +9640,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2108323032"/>
-        <c:axId val="2108325912"/>
+        <c:axId val="-2143660600"/>
+        <c:axId val="-2143657720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2108323032"/>
+        <c:axId val="-2143660600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9662,12 +9654,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108325912"/>
+        <c:crossAx val="-2143657720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2108325912"/>
+        <c:axId val="-2143657720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9677,7 +9669,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108323032"/>
+        <c:crossAx val="-2143660600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9814,11 +9806,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2108369160"/>
-        <c:axId val="2108372040"/>
+        <c:axId val="-2143613160"/>
+        <c:axId val="-2143610280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2108369160"/>
+        <c:axId val="-2143613160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9828,12 +9820,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108372040"/>
+        <c:crossAx val="-2143610280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2108372040"/>
+        <c:axId val="-2143610280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9843,7 +9835,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2108369160"/>
+        <c:crossAx val="-2143613160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -29274,8 +29266,8 @@
   </sheetPr>
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
@@ -29514,39 +29506,19 @@
       <c r="A17" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B17" s="10">
-        <v>0.50359733220189995</v>
-      </c>
-      <c r="C17" s="10">
-        <v>0.61068995338869803</v>
-      </c>
-      <c r="D17" s="10">
-        <v>0.58580625497771199</v>
-      </c>
-      <c r="E17" s="10">
-        <v>1.7517812256489</v>
-      </c>
-      <c r="F17" s="10">
-        <v>2.66319837378702</v>
-      </c>
-      <c r="G17" s="10">
-        <v>4.6926774221125997</v>
-      </c>
-      <c r="H17" s="10">
-        <v>5.0441352360150002</v>
-      </c>
-      <c r="I17" s="10">
-        <v>5.4944733702262898</v>
-      </c>
-      <c r="J17" s="10">
-        <v>5.93327607857782</v>
-      </c>
-      <c r="K17" s="10">
-        <v>6.4517582030504999</v>
-      </c>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
       <c r="L17" s="12">
         <f t="shared" ref="L17:L25" si="0">C17-D17</f>
-        <v>2.4883698410986033E-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="12" thickBot="1">
@@ -29744,57 +29716,57 @@
     <row r="26" spans="1:12">
       <c r="B26" s="11">
         <f>AVERAGE(B16:B25)</f>
-        <v>0.59535371411470694</v>
+        <v>0.62593917475230931</v>
       </c>
       <c r="C26" s="11">
         <f t="shared" ref="C26:K26" si="1">AVERAGE(C16:C25)</f>
-        <v>0.64121919764320578</v>
+        <v>0.65139561239470833</v>
       </c>
       <c r="D26" s="11">
         <f t="shared" si="1"/>
-        <v>0.63306179399515727</v>
+        <v>0.64881364033430566</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="1"/>
-        <v>2.2978232297274053</v>
+        <v>2.4798372310869068</v>
       </c>
       <c r="F26" s="11">
         <f t="shared" si="1"/>
-        <v>2.9798801232396448</v>
+        <v>3.08544070639052</v>
       </c>
       <c r="G26" s="11">
         <f t="shared" si="1"/>
-        <v>4.2509802383383297</v>
+        <v>4.1037478437469064</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="1"/>
-        <v>4.9030151910787758</v>
+        <v>4.855975176100034</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" si="1"/>
-        <v>5.5316629343163601</v>
+        <v>5.544059455679716</v>
       </c>
       <c r="J26" s="11">
         <f t="shared" si="1"/>
-        <v>6.1810669282286677</v>
+        <v>6.2636638781122835</v>
       </c>
       <c r="K26" s="11">
         <f t="shared" si="1"/>
-        <v>6.793589246572318</v>
+        <v>6.9075329277462565</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="B27" s="29">
         <f>VAR(B16:B25)</f>
-        <v>3.7604650293863221E-3</v>
+        <v>2.7875129593546885E-5</v>
       </c>
       <c r="C27" s="29">
         <f>VAR(C16:C25)</f>
-        <v>4.1978165064355063E-4</v>
+        <v>8.3159727977315366E-6</v>
       </c>
       <c r="D27" s="29">
         <f>VAR(D16:D25)</f>
-        <v>9.9679209577658873E-4</v>
+        <v>6.464165112022578E-6</v>
       </c>
     </row>
     <row r="28" spans="1:12">

--- a/model_cv_log.xlsx
+++ b/model_cv_log.xlsx
@@ -4,40 +4,41 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="36940" yWindow="300" windowWidth="30720" windowHeight="25480" tabRatio="831" firstSheet="13" activeTab="30"/>
+    <workbookView xWindow="36940" yWindow="300" windowWidth="30720" windowHeight="25480" tabRatio="831" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
-    <sheet name="Plan" sheetId="2" r:id="rId2"/>
-    <sheet name="cv_bmk" sheetId="3" r:id="rId3"/>
-    <sheet name="cv_2" sheetId="4" r:id="rId4"/>
-    <sheet name="cv_3" sheetId="5" r:id="rId5"/>
-    <sheet name="cv_4" sheetId="6" r:id="rId6"/>
-    <sheet name="cv_bmk_mc" sheetId="7" r:id="rId7"/>
-    <sheet name="cv_2_mc" sheetId="8" r:id="rId8"/>
-    <sheet name="cv_3_mc" sheetId="9" r:id="rId9"/>
-    <sheet name="cv_4_mc" sheetId="10" r:id="rId10"/>
-    <sheet name="cv_5_mc" sheetId="11" r:id="rId11"/>
-    <sheet name="cv_6_mc" sheetId="12" r:id="rId12"/>
-    <sheet name="optimal_cutoff" sheetId="13" r:id="rId13"/>
-    <sheet name="cv_n_1" sheetId="14" r:id="rId14"/>
-    <sheet name="cv_n_2" sheetId="15" r:id="rId15"/>
-    <sheet name="cv_n_3" sheetId="16" r:id="rId16"/>
-    <sheet name="cv_n_4" sheetId="17" r:id="rId17"/>
-    <sheet name="cv_n_5" sheetId="18" r:id="rId18"/>
-    <sheet name="cv_lf_1" sheetId="19" r:id="rId19"/>
-    <sheet name="cv_meta_1" sheetId="20" r:id="rId20"/>
-    <sheet name="cv_meta_2" sheetId="22" r:id="rId21"/>
-    <sheet name="cv_meta_3" sheetId="24" r:id="rId22"/>
-    <sheet name="cv_dist_1" sheetId="21" r:id="rId23"/>
-    <sheet name="cv_dist_2" sheetId="23" r:id="rId24"/>
-    <sheet name="cv_leaf_1" sheetId="25" r:id="rId25"/>
-    <sheet name="cv_leaf_2" sheetId="26" r:id="rId26"/>
-    <sheet name="cv_n_6" sheetId="27" r:id="rId27"/>
-    <sheet name="cv_leaf_3" sheetId="28" r:id="rId28"/>
-    <sheet name="cv_meta" sheetId="29" r:id="rId29"/>
-    <sheet name="cv_h2o_glm" sheetId="30" r:id="rId30"/>
-    <sheet name="cv_h2o_dl" sheetId="31" r:id="rId31"/>
+    <sheet name="FM command" sheetId="32" r:id="rId2"/>
+    <sheet name="Plan" sheetId="2" r:id="rId3"/>
+    <sheet name="cv_bmk" sheetId="3" r:id="rId4"/>
+    <sheet name="cv_2" sheetId="4" r:id="rId5"/>
+    <sheet name="cv_3" sheetId="5" r:id="rId6"/>
+    <sheet name="cv_4" sheetId="6" r:id="rId7"/>
+    <sheet name="cv_bmk_mc" sheetId="7" r:id="rId8"/>
+    <sheet name="cv_2_mc" sheetId="8" r:id="rId9"/>
+    <sheet name="cv_3_mc" sheetId="9" r:id="rId10"/>
+    <sheet name="cv_4_mc" sheetId="10" r:id="rId11"/>
+    <sheet name="cv_5_mc" sheetId="11" r:id="rId12"/>
+    <sheet name="cv_6_mc" sheetId="12" r:id="rId13"/>
+    <sheet name="optimal_cutoff" sheetId="13" r:id="rId14"/>
+    <sheet name="cv_n_1" sheetId="14" r:id="rId15"/>
+    <sheet name="cv_n_2" sheetId="15" r:id="rId16"/>
+    <sheet name="cv_n_3" sheetId="16" r:id="rId17"/>
+    <sheet name="cv_n_4" sheetId="17" r:id="rId18"/>
+    <sheet name="cv_n_5" sheetId="18" r:id="rId19"/>
+    <sheet name="cv_lf_1" sheetId="19" r:id="rId20"/>
+    <sheet name="cv_meta_1" sheetId="20" r:id="rId21"/>
+    <sheet name="cv_meta_2" sheetId="22" r:id="rId22"/>
+    <sheet name="cv_meta_3" sheetId="24" r:id="rId23"/>
+    <sheet name="cv_dist_1" sheetId="21" r:id="rId24"/>
+    <sheet name="cv_dist_2" sheetId="23" r:id="rId25"/>
+    <sheet name="cv_leaf_1" sheetId="25" r:id="rId26"/>
+    <sheet name="cv_leaf_2" sheetId="26" r:id="rId27"/>
+    <sheet name="cv_n_6" sheetId="27" r:id="rId28"/>
+    <sheet name="cv_leaf_3" sheetId="28" r:id="rId29"/>
+    <sheet name="cv_meta" sheetId="29" r:id="rId30"/>
+    <sheet name="cv_h2o_glm" sheetId="30" r:id="rId31"/>
+    <sheet name="cv_h2o_dl" sheetId="31" r:id="rId32"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="175">
   <si>
     <t>rsme+kappa</t>
   </si>
@@ -416,6 +417,205 @@
   <si>
     <t xml:space="preserve">                epsilon = 1e-6, rate = 0.035, rate_decay = 0.9, momentum_start = 0.9, momentum_stable = 0.99,</t>
   </si>
+  <si>
+    <t>./svm-train -s 0 -c 10 -t 2 -g 0.5 -e 0.001 -m 12000 -b 1 -h 0 train.scale</t>
+  </si>
+  <si>
+    <t>nu = 0.58</t>
+  </si>
+  <si>
+    <t>./ffm-train -p valid_ffm.txt -l 0.00002 -k 4 -r 0.015 -t 50 -s 4 --auto-stop train_ffm.txt</t>
+  </si>
+  <si>
+    <t>./svm-train -s 0 -c 1 -t 2 -e 0.0001 -m 8000 -b 1 -h 0 total.scale</t>
+  </si>
+  <si>
+    <t>nu = 0.679</t>
+  </si>
+  <si>
+    <t>./ffm-predict valid_ffm.txt train_ffm.txt.model output_file.csv</t>
+  </si>
+  <si>
+    <t>./svm-train -s 0 -c 100 -t 2 -e 0.0001 -m 8000 -b 1 -h 0 total.scale</t>
+  </si>
+  <si>
+    <t>./ffm-train -p valid_ffm.txt -l 0.00002 -k 16 -r 0.1 -t 50 -s 1 train_ffm.txt</t>
+  </si>
+  <si>
+    <t>./svm-train -s 0 -c 1 -t 0 -e 0.0001 -m 8000 -b 1 -h 0 total.scale</t>
+  </si>
+  <si>
+    <t>./svm-train -s 0 -c 10 -t 0 -e 0.0001 -m 8000 -b 1 -h 1 total.scale</t>
+  </si>
+  <si>
+    <t>./svm-train -s 0 -c 10 -t 2 -e 0.0001 -m 8000 -b 1 -h 0 total.scale</t>
+  </si>
+  <si>
+    <t>./ffm-train -p valid_ffm.txt -l 0.0000002 -k 2 -r 0.15 -t 46 total_ffm.txt</t>
+  </si>
+  <si>
+    <t>./svm-train -s 1 -c 100 -t 0 -e 0.0001 -m 8000 -b 1 -h 0 total.scale</t>
+  </si>
+  <si>
+    <t>./ffm-train -p valid_ffm.txt -l 0.000002 -k 12 -r 0.5 -t 16 -s 12 train_ffm.txt</t>
+  </si>
+  <si>
+    <t>./ffm-predict test_ffm.txt total_ffm.txt.model libffm_predict.csv</t>
+  </si>
+  <si>
+    <t>./svm-train -s 1 -c 100 -t 1 -e 0.0001 -m 8000 -b 1 -h 0 total.scale</t>
+  </si>
+  <si>
+    <t>./ffm-predict total_ffm.txt total_ffm.txt.model ffm_meta_feature.csv</t>
+  </si>
+  <si>
+    <t>./svm-train -s 0 -c 100 -t 2 -e 0.0001 -m 8000 -b 1 -h 0 total_n.scale</t>
+  </si>
+  <si>
+    <t>./svm-scale -l -1 -u 1 -s range total_n_svm.txt &gt; total_n.scale</t>
+  </si>
+  <si>
+    <t>./svm-scale -r range test_n_svm.txt &gt; test_n.scale</t>
+  </si>
+  <si>
+    <t>./svm-scale -l -1 -u 1 -s range total_svm.txt &gt; total.scale</t>
+  </si>
+  <si>
+    <t>./svm-scale -r range train_svm.txt &gt; train.scale</t>
+  </si>
+  <si>
+    <t>./svm-scale -r range test_svm.txt &gt; test.scale</t>
+  </si>
+  <si>
+    <t>./svm-scale -r range valid_svm.txt &gt; valid.scale</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">./svm-train </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-s 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -c 100 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-t 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -e 0.01 -m 12288 -b 1 -h 0 total.scale</t>
+    </r>
+  </si>
+  <si>
+    <t>./svm-predict -b 1 test.scale total.scale.model output_file.csv</t>
+  </si>
+  <si>
+    <t>./svm-predict -b 1 test.scale total.scale.model submission_20151130_libsvm_0_2_c100.csv</t>
+  </si>
+  <si>
+    <t>œ</t>
+  </si>
+  <si>
+    <t>-s svm_type : set type of SVM (default 0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        0 -- C-SVC              (multi-class classification)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1 -- nu-SVC             (multi-class classification)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2 -- one-class SVM      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        3 -- epsilon-SVR        (regression)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        4 -- nu-SVR             (regression)</t>
+  </si>
+  <si>
+    <t>-t kernel_type : set type of kernel function (default 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        0 -- linear: u'*v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        1 -- polynomial: (gamma*u'*v + coef0)^degree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        2 -- radial basis function: exp(-gamma*|u-v|^2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        3 -- sigmoid: tanh(gamma*u'*v + coef0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        4 -- precomputed kernel (kernel values in training_set_file)</t>
+  </si>
+  <si>
+    <t>-d degree : set degree in kernel function (default 3)</t>
+  </si>
+  <si>
+    <t>-g gamma : set gamma in kernel function (default 1/num_features)</t>
+  </si>
+  <si>
+    <t>-r coef0 : set coef0 in kernel function (default 0)</t>
+  </si>
+  <si>
+    <t>-c cost : set the parameter C of C-SVC, epsilon-SVR, and nu-SVR (default 1)</t>
+  </si>
+  <si>
+    <t>-n nu : set the parameter nu of nu-SVC, one-class SVM, and nu-SVR (default 0.5)</t>
+  </si>
+  <si>
+    <t>-p epsilon : set the epsilon in loss function of epsilon-SVR (default 0.1)</t>
+  </si>
+  <si>
+    <t>-m cachesize : set cache memory size in MB (default 100)</t>
+  </si>
+  <si>
+    <t>-e epsilon : set tolerance of termination criterion (default 0.001)</t>
+  </si>
+  <si>
+    <t>-h shrinking : whether to use the shrinking heuristics, 0 or 1 (default 1)</t>
+  </si>
+  <si>
+    <t>-b probability_estimates : whether to train a SVC or SVR model for probability estimates, 0 or 1 (default 0)</t>
+  </si>
+  <si>
+    <t>-wi weight : set the parameter C of class i to weight*C, for C-SVC (default 1)</t>
+  </si>
+  <si>
+    <t>-v n: n-fold cross validation mode</t>
+  </si>
+  <si>
+    <t>-q : quiet mode (no outputs)</t>
+  </si>
 </sst>
 </file>
 
@@ -425,7 +625,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -528,6 +728,26 @@
       <sz val="8"/>
       <color rgb="FFFA7D00"/>
       <name val="Lucida Sans"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -968,7 +1188,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1059,6 +1279,10 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="165">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1340,11 +1564,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2143748440"/>
-        <c:axId val="-2143745592"/>
+        <c:axId val="2065140920"/>
+        <c:axId val="2065143848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2143748440"/>
+        <c:axId val="2065140920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1354,12 +1578,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143745592"/>
+        <c:crossAx val="2065143848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2143745592"/>
+        <c:axId val="2065143848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1369,7 +1593,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143748440"/>
+        <c:crossAx val="2065140920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1506,11 +1730,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2077545288"/>
-        <c:axId val="2077548168"/>
+        <c:axId val="-2126529656"/>
+        <c:axId val="-2127477816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2077545288"/>
+        <c:axId val="-2126529656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1520,12 +1744,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2077548168"/>
+        <c:crossAx val="-2127477816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2077548168"/>
+        <c:axId val="-2127477816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1535,7 +1759,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2077545288"/>
+        <c:crossAx val="-2126529656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1702,11 +1926,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2143562296"/>
-        <c:axId val="-2143559416"/>
+        <c:axId val="-2127519016"/>
+        <c:axId val="-2127521880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2143562296"/>
+        <c:axId val="-2127519016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1716,12 +1940,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143559416"/>
+        <c:crossAx val="-2127521880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2143559416"/>
+        <c:axId val="-2127521880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1731,7 +1955,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143562296"/>
+        <c:crossAx val="-2127519016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1898,11 +2122,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2143531736"/>
-        <c:axId val="-2143528856"/>
+        <c:axId val="-2127549784"/>
+        <c:axId val="-2127552648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2143531736"/>
+        <c:axId val="-2127549784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1912,12 +2136,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143528856"/>
+        <c:crossAx val="-2127552648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2143528856"/>
+        <c:axId val="-2127552648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1927,7 +2151,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143531736"/>
+        <c:crossAx val="-2127549784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2094,11 +2318,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2143483624"/>
-        <c:axId val="-2143480744"/>
+        <c:axId val="-2126120312"/>
+        <c:axId val="-2126117432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2143483624"/>
+        <c:axId val="-2126120312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2108,12 +2332,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143480744"/>
+        <c:crossAx val="-2126117432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2143480744"/>
+        <c:axId val="-2126117432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2123,7 +2347,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143483624"/>
+        <c:crossAx val="-2126120312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2290,11 +2514,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2143453064"/>
-        <c:axId val="-2143450184"/>
+        <c:axId val="-2125312072"/>
+        <c:axId val="-2125309192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2143453064"/>
+        <c:axId val="-2125312072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2304,12 +2528,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143450184"/>
+        <c:crossAx val="-2125309192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2143450184"/>
+        <c:axId val="-2125309192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2319,7 +2543,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143453064"/>
+        <c:crossAx val="-2125312072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2486,11 +2710,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2143403432"/>
-        <c:axId val="-2143400552"/>
+        <c:axId val="-2125255720"/>
+        <c:axId val="-2125252840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2143403432"/>
+        <c:axId val="-2125255720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2500,12 +2724,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143400552"/>
+        <c:crossAx val="-2125252840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2143400552"/>
+        <c:axId val="-2125252840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2515,7 +2739,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143403432"/>
+        <c:crossAx val="-2125255720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2682,11 +2906,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2143372632"/>
-        <c:axId val="-2143369752"/>
+        <c:axId val="-2125224856"/>
+        <c:axId val="-2125221976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2143372632"/>
+        <c:axId val="-2125224856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2696,12 +2920,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143369752"/>
+        <c:crossAx val="-2125221976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2143369752"/>
+        <c:axId val="-2125221976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2711,7 +2935,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143372632"/>
+        <c:crossAx val="-2125224856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2878,11 +3102,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2143323960"/>
-        <c:axId val="-2143321080"/>
+        <c:axId val="-2127710856"/>
+        <c:axId val="-2127707976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2143323960"/>
+        <c:axId val="-2127710856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2892,12 +3116,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143321080"/>
+        <c:crossAx val="-2127707976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2143321080"/>
+        <c:axId val="-2127707976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2907,7 +3131,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143323960"/>
+        <c:crossAx val="-2127710856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3074,11 +3298,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144088216"/>
-        <c:axId val="-2144091080"/>
+        <c:axId val="-2127680984"/>
+        <c:axId val="-2127678104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144088216"/>
+        <c:axId val="-2127680984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3088,12 +3312,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144091080"/>
+        <c:crossAx val="-2127678104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2144091080"/>
+        <c:axId val="-2127678104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3103,7 +3327,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144088216"/>
+        <c:crossAx val="-2127680984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3270,11 +3494,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144137800"/>
-        <c:axId val="-2144140664"/>
+        <c:axId val="-2126145432"/>
+        <c:axId val="-2126134840"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144137800"/>
+        <c:axId val="-2126145432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3284,12 +3508,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144140664"/>
+        <c:crossAx val="-2126134840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2144140664"/>
+        <c:axId val="-2126134840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3299,7 +3523,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144137800"/>
+        <c:crossAx val="-2126145432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3436,11 +3660,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2145551960"/>
-        <c:axId val="-2145549080"/>
+        <c:axId val="-2126710776"/>
+        <c:axId val="-2126707896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2145551960"/>
+        <c:axId val="-2126710776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3450,12 +3674,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145549080"/>
+        <c:crossAx val="-2126707896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2145549080"/>
+        <c:axId val="-2126707896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3465,7 +3689,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145551960"/>
+        <c:crossAx val="-2126710776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3632,11 +3856,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144169160"/>
-        <c:axId val="-2144172024"/>
+        <c:axId val="-2126079256"/>
+        <c:axId val="-2126076376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144169160"/>
+        <c:axId val="-2126079256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3646,12 +3870,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144172024"/>
+        <c:crossAx val="-2126076376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2144172024"/>
+        <c:axId val="-2126076376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3661,7 +3885,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144169160"/>
+        <c:crossAx val="-2126079256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3828,11 +4052,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144219128"/>
-        <c:axId val="-2144221992"/>
+        <c:axId val="-2124282408"/>
+        <c:axId val="-2124279528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144219128"/>
+        <c:axId val="-2124282408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3842,12 +4066,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144221992"/>
+        <c:crossAx val="-2124279528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2144221992"/>
+        <c:axId val="-2124279528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3857,7 +4081,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144219128"/>
+        <c:crossAx val="-2124282408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4024,11 +4248,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2146226072"/>
-        <c:axId val="-2146228920"/>
+        <c:axId val="-2124251608"/>
+        <c:axId val="-2124248728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2146226072"/>
+        <c:axId val="-2124251608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4038,12 +4262,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146228920"/>
+        <c:crossAx val="-2124248728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2146228920"/>
+        <c:axId val="-2124248728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4053,7 +4277,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146226072"/>
+        <c:crossAx val="-2124251608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4220,11 +4444,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2146286456"/>
-        <c:axId val="-2146289320"/>
+        <c:axId val="-2126038024"/>
+        <c:axId val="-2126035144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2146286456"/>
+        <c:axId val="-2126038024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4234,12 +4458,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146289320"/>
+        <c:crossAx val="-2126035144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2146289320"/>
+        <c:axId val="-2126035144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4249,7 +4473,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146286456"/>
+        <c:crossAx val="-2126038024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4416,11 +4640,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2146317256"/>
-        <c:axId val="-2146320120"/>
+        <c:axId val="-2126004648"/>
+        <c:axId val="2065156392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2146317256"/>
+        <c:axId val="-2126004648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4430,12 +4654,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146320120"/>
+        <c:crossAx val="2065156392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2146320120"/>
+        <c:axId val="2065156392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4445,7 +4669,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146317256"/>
+        <c:crossAx val="-2126004648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4612,11 +4836,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144592536"/>
-        <c:axId val="-2144589656"/>
+        <c:axId val="2065182488"/>
+        <c:axId val="2065185368"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144592536"/>
+        <c:axId val="2065182488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4626,12 +4850,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144589656"/>
+        <c:crossAx val="2065185368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2144589656"/>
+        <c:axId val="2065185368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4641,7 +4865,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144592536"/>
+        <c:crossAx val="2065182488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4808,11 +5032,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144561736"/>
-        <c:axId val="-2144558856"/>
+        <c:axId val="-2127664280"/>
+        <c:axId val="-2127661400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144561736"/>
+        <c:axId val="-2127664280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4822,12 +5046,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144558856"/>
+        <c:crossAx val="-2127661400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2144558856"/>
+        <c:axId val="-2127661400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4837,7 +5061,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144561736"/>
+        <c:crossAx val="-2127664280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5004,11 +5228,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144513176"/>
-        <c:axId val="-2144510296"/>
+        <c:axId val="-2125157352"/>
+        <c:axId val="-2125154472"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144513176"/>
+        <c:axId val="-2125157352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5018,12 +5242,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144510296"/>
+        <c:crossAx val="-2125154472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2144510296"/>
+        <c:axId val="-2125154472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5033,7 +5257,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144513176"/>
+        <c:crossAx val="-2125157352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5200,11 +5424,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144481928"/>
-        <c:axId val="-2144479048"/>
+        <c:axId val="-2125992632"/>
+        <c:axId val="-2125989752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144481928"/>
+        <c:axId val="-2125992632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5214,12 +5438,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144479048"/>
+        <c:crossAx val="-2125989752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2144479048"/>
+        <c:axId val="-2125989752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5229,7 +5453,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144481928"/>
+        <c:crossAx val="-2125992632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5396,11 +5620,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144431064"/>
-        <c:axId val="-2144428184"/>
+        <c:axId val="-2125930312"/>
+        <c:axId val="-2125927432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144431064"/>
+        <c:axId val="-2125930312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5410,12 +5634,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144428184"/>
+        <c:crossAx val="-2125927432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2144428184"/>
+        <c:axId val="-2125927432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5425,7 +5649,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144431064"/>
+        <c:crossAx val="-2125930312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5562,11 +5786,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2145506792"/>
-        <c:axId val="-2145503912"/>
+        <c:axId val="2068296424"/>
+        <c:axId val="2068299304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2145506792"/>
+        <c:axId val="2068296424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5576,12 +5800,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145503912"/>
+        <c:crossAx val="2068299304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2145503912"/>
+        <c:axId val="2068299304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5591,7 +5815,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145506792"/>
+        <c:crossAx val="2068296424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5758,11 +5982,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144399704"/>
-        <c:axId val="-2144396824"/>
+        <c:axId val="-2125898952"/>
+        <c:axId val="-2125896072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144399704"/>
+        <c:axId val="-2125898952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5772,12 +5996,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144396824"/>
+        <c:crossAx val="-2125896072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2144396824"/>
+        <c:axId val="-2125896072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5787,7 +6011,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144399704"/>
+        <c:crossAx val="-2125898952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5954,11 +6178,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2145130264"/>
-        <c:axId val="-2145133128"/>
+        <c:axId val="2065196536"/>
+        <c:axId val="2065199416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2145130264"/>
+        <c:axId val="2065196536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5968,12 +6192,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145133128"/>
+        <c:crossAx val="2065199416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2145133128"/>
+        <c:axId val="2065199416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5983,7 +6207,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145130264"/>
+        <c:crossAx val="2065196536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6150,11 +6374,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2145161064"/>
-        <c:axId val="-2145163928"/>
+        <c:axId val="-2127624312"/>
+        <c:axId val="-2127621432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2145161064"/>
+        <c:axId val="-2127624312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6164,12 +6388,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145163928"/>
+        <c:crossAx val="-2127621432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2145163928"/>
+        <c:axId val="-2127621432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6179,7 +6403,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145161064"/>
+        <c:crossAx val="-2127624312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6346,11 +6570,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2145210008"/>
-        <c:axId val="-2145212872"/>
+        <c:axId val="-2125112184"/>
+        <c:axId val="-2125109304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2145210008"/>
+        <c:axId val="-2125112184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6360,12 +6584,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145212872"/>
+        <c:crossAx val="-2125109304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2145212872"/>
+        <c:axId val="-2125109304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6375,7 +6599,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145210008"/>
+        <c:crossAx val="-2125112184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6542,11 +6766,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2145241352"/>
-        <c:axId val="-2145244216"/>
+        <c:axId val="-2125080792"/>
+        <c:axId val="-2125077912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2145241352"/>
+        <c:axId val="-2125080792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6556,12 +6780,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145244216"/>
+        <c:crossAx val="-2125077912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2145244216"/>
+        <c:axId val="-2125077912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6571,7 +6795,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145241352"/>
+        <c:crossAx val="-2125080792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6738,11 +6962,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2145289848"/>
-        <c:axId val="-2145292712"/>
+        <c:axId val="-2128528648"/>
+        <c:axId val="-2128531512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2145289848"/>
+        <c:axId val="-2128528648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6752,12 +6976,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145292712"/>
+        <c:crossAx val="-2128531512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2145292712"/>
+        <c:axId val="-2128531512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6767,7 +6991,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145289848"/>
+        <c:crossAx val="-2128528648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6934,11 +7158,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2145320648"/>
-        <c:axId val="-2145323512"/>
+        <c:axId val="-2128559448"/>
+        <c:axId val="-2128562312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2145320648"/>
+        <c:axId val="-2128559448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6948,12 +7172,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145323512"/>
+        <c:crossAx val="-2128562312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2145323512"/>
+        <c:axId val="-2128562312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6963,7 +7187,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145320648"/>
+        <c:crossAx val="-2128559448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7130,11 +7354,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2145369128"/>
-        <c:axId val="-2145371992"/>
+        <c:axId val="-2125839240"/>
+        <c:axId val="-2125836360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2145369128"/>
+        <c:axId val="-2125839240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7144,12 +7368,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145371992"/>
+        <c:crossAx val="-2125836360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2145371992"/>
+        <c:axId val="-2125836360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7159,7 +7383,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145369128"/>
+        <c:crossAx val="-2125839240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7326,11 +7550,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2143014936"/>
-        <c:axId val="-2143012056"/>
+        <c:axId val="-2128568280"/>
+        <c:axId val="-2128550168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2143014936"/>
+        <c:axId val="-2128568280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7340,12 +7564,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143012056"/>
+        <c:crossAx val="-2128550168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2143012056"/>
+        <c:axId val="-2128550168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7355,7 +7579,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143014936"/>
+        <c:crossAx val="-2128568280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7522,11 +7746,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142965656"/>
-        <c:axId val="-2142962776"/>
+        <c:axId val="-2124188920"/>
+        <c:axId val="-2124186040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142965656"/>
+        <c:axId val="-2124188920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7536,12 +7760,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142962776"/>
+        <c:crossAx val="-2124186040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142962776"/>
+        <c:axId val="-2124186040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7551,7 +7775,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142965656"/>
+        <c:crossAx val="-2124188920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7688,11 +7912,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2145461688"/>
-        <c:axId val="-2145458808"/>
+        <c:axId val="-2126688184"/>
+        <c:axId val="-2126685304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2145461688"/>
+        <c:axId val="-2126688184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7702,12 +7926,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145458808"/>
+        <c:crossAx val="-2126685304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2145458808"/>
+        <c:axId val="-2126685304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7717,7 +7941,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145461688"/>
+        <c:crossAx val="-2126688184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7884,11 +8108,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142934296"/>
-        <c:axId val="-2142931416"/>
+        <c:axId val="-2124157512"/>
+        <c:axId val="-2124154632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142934296"/>
+        <c:axId val="-2124157512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7898,12 +8122,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142931416"/>
+        <c:crossAx val="-2124154632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142931416"/>
+        <c:axId val="-2124154632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7913,7 +8137,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142934296"/>
+        <c:crossAx val="-2124157512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8080,11 +8304,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142885464"/>
-        <c:axId val="-2142882584"/>
+        <c:axId val="-2125036472"/>
+        <c:axId val="-2125033592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142885464"/>
+        <c:axId val="-2125036472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8094,12 +8318,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142882584"/>
+        <c:crossAx val="-2125033592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142882584"/>
+        <c:axId val="-2125033592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8109,7 +8333,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142885464"/>
+        <c:crossAx val="-2125036472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8276,11 +8500,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2142854744"/>
-        <c:axId val="-2142851864"/>
+        <c:axId val="-2125006680"/>
+        <c:axId val="-2125003800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2142854744"/>
+        <c:axId val="-2125006680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8290,12 +8514,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142851864"/>
+        <c:crossAx val="-2125003800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2142851864"/>
+        <c:axId val="-2125003800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8305,7 +8529,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2142854744"/>
+        <c:crossAx val="-2125006680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8472,11 +8696,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144262920"/>
-        <c:axId val="-2144265784"/>
+        <c:axId val="-2124145416"/>
+        <c:axId val="-2124142536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144262920"/>
+        <c:axId val="-2124145416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8486,12 +8710,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144265784"/>
+        <c:crossAx val="-2124142536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2144265784"/>
+        <c:axId val="-2124142536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8501,7 +8725,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144262920"/>
+        <c:crossAx val="-2124145416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8668,11 +8892,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2144293768"/>
-        <c:axId val="-2144296632"/>
+        <c:axId val="-2124107592"/>
+        <c:axId val="-2124104712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2144293768"/>
+        <c:axId val="-2124107592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8682,12 +8906,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144296632"/>
+        <c:crossAx val="-2124104712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2144296632"/>
+        <c:axId val="-2124104712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8697,7 +8921,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2144293768"/>
+        <c:crossAx val="-2124107592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8822,11 +9046,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2141973832"/>
-        <c:axId val="-2141970952"/>
+        <c:axId val="-2124992280"/>
+        <c:axId val="-2124989400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2141973832"/>
+        <c:axId val="-2124992280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8836,12 +9060,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141970952"/>
+        <c:crossAx val="-2124989400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2141970952"/>
+        <c:axId val="-2124989400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8851,7 +9075,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141973832"/>
+        <c:crossAx val="-2124992280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8976,11 +9200,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2141943032"/>
-        <c:axId val="-2141940152"/>
+        <c:axId val="-2124957288"/>
+        <c:axId val="-2124954408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2141943032"/>
+        <c:axId val="-2124957288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8990,12 +9214,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141940152"/>
+        <c:crossAx val="-2124954408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2141940152"/>
+        <c:axId val="-2124954408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9005,7 +9229,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141943032"/>
+        <c:crossAx val="-2124957288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9142,11 +9366,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2145415960"/>
-        <c:axId val="-2145413080"/>
+        <c:axId val="-2125339528"/>
+        <c:axId val="-2125336648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2145415960"/>
+        <c:axId val="-2125339528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9156,12 +9380,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145413080"/>
+        <c:crossAx val="-2125336648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2145413080"/>
+        <c:axId val="-2125336648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9171,7 +9395,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2145415960"/>
+        <c:crossAx val="-2125339528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9308,11 +9532,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2146207208"/>
-        <c:axId val="-2146210072"/>
+        <c:axId val="-2126638968"/>
+        <c:axId val="-2126636088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2146207208"/>
+        <c:axId val="-2126638968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9322,12 +9546,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146210072"/>
+        <c:crossAx val="-2126636088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2146210072"/>
+        <c:axId val="-2126636088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9337,7 +9561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2146207208"/>
+        <c:crossAx val="-2126638968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9474,11 +9698,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2143705576"/>
-        <c:axId val="-2143702696"/>
+        <c:axId val="-2127766040"/>
+        <c:axId val="-2127763160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2143705576"/>
+        <c:axId val="-2127766040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9488,12 +9712,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143702696"/>
+        <c:crossAx val="-2127763160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2143702696"/>
+        <c:axId val="-2127763160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9503,7 +9727,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143705576"/>
+        <c:crossAx val="-2127766040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9640,11 +9864,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2143660600"/>
-        <c:axId val="-2143657720"/>
+        <c:axId val="-2126595800"/>
+        <c:axId val="-2126592920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2143660600"/>
+        <c:axId val="-2126595800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9654,12 +9878,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143657720"/>
+        <c:crossAx val="-2126592920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2143657720"/>
+        <c:axId val="-2126592920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9669,7 +9893,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143660600"/>
+        <c:crossAx val="-2126595800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9806,11 +10030,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2143613160"/>
-        <c:axId val="-2143610280"/>
+        <c:axId val="-2126587448"/>
+        <c:axId val="-2126584568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2143613160"/>
+        <c:axId val="-2126587448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9820,12 +10044,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143610280"/>
+        <c:crossAx val="-2126584568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2143610280"/>
+        <c:axId val="-2126584568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9835,7 +10059,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2143613160"/>
+        <c:crossAx val="-2126587448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12020,7 +12244,7 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="9" tint="-0.249977111117893"/>
+    <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -12052,7 +12276,7 @@
       <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:11" ht="12" thickTop="1">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="4" t="s">
         <v>63</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -12100,9 +12324,6 @@
       <c r="D5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="6" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="4" t="s">
@@ -12113,9 +12334,6 @@
       </c>
       <c r="D6" s="5">
         <v>3.5000000000000003E-2</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -12213,31 +12431,31 @@
         <v>74</v>
       </c>
       <c r="B15" s="9">
-        <v>0.62011793099828605</v>
+        <v>0.61959623506486095</v>
       </c>
       <c r="C15" s="9">
-        <v>0.66352727705092596</v>
+        <v>0.66405061863720605</v>
       </c>
       <c r="D15" s="9">
-        <v>2.7008929226863798</v>
+        <v>3.01452788605167</v>
       </c>
       <c r="E15" s="9">
-        <v>3.5222533432780598</v>
+        <v>3.4831443767686898</v>
       </c>
       <c r="F15" s="9">
-        <v>3.9786591965464599</v>
+        <v>4.1030653255512402</v>
       </c>
       <c r="G15" s="9">
-        <v>4.7909817381822704</v>
+        <v>4.8258765102472898</v>
       </c>
       <c r="H15" s="9">
-        <v>5.4303343420112498</v>
+        <v>5.4183430672878501</v>
       </c>
       <c r="I15" s="9">
-        <v>6.4481661651364801</v>
+        <v>6.1729303625711998</v>
       </c>
       <c r="J15" s="9">
-        <v>6.7539945646642003</v>
+        <v>6.8569107477479996</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12" thickBot="1">
@@ -12245,31 +12463,31 @@
         <v>75</v>
       </c>
       <c r="B16" s="10">
-        <v>0.61960418574089204</v>
+        <v>0.61895881390722296</v>
       </c>
       <c r="C16" s="10">
-        <v>0.66694575363836295</v>
+        <v>0.66686417826211997</v>
       </c>
       <c r="D16" s="10">
-        <v>2.76429672772188</v>
+        <v>2.7530410354087298</v>
       </c>
       <c r="E16" s="10">
-        <v>3.44317722130537</v>
+        <v>3.6477216661115901</v>
       </c>
       <c r="F16" s="10">
-        <v>4.1672979726159003</v>
+        <v>4.3107534056737604</v>
       </c>
       <c r="G16" s="10">
-        <v>4.8952252682620401</v>
+        <v>5.0233186213791203</v>
       </c>
       <c r="H16" s="10">
-        <v>5.3310670486578902</v>
+        <v>5.5538901655734803</v>
       </c>
       <c r="I16" s="10">
-        <v>6.2148213475829799</v>
+        <v>6.1129435042874301</v>
       </c>
       <c r="J16" s="10">
-        <v>6.9388974406861301</v>
+        <v>6.7610158587790101</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="12" thickBot="1">
@@ -12277,31 +12495,31 @@
         <v>76</v>
       </c>
       <c r="B17" s="9">
-        <v>0.61793578561981599</v>
+        <v>0.61735133704067102</v>
       </c>
       <c r="C17" s="9">
-        <v>0.66228545107064596</v>
+        <v>0.65809158857677696</v>
       </c>
       <c r="D17" s="9">
-        <v>2.4567874444901698</v>
+        <v>1.99063672693537</v>
       </c>
       <c r="E17" s="9">
-        <v>3.5921730621100001</v>
+        <v>3.49530278850201</v>
       </c>
       <c r="F17" s="9">
-        <v>4.3036091215537402</v>
+        <v>4.0950601538952096</v>
       </c>
       <c r="G17" s="9">
-        <v>4.7970827344943201</v>
+        <v>4.8044678104111398</v>
       </c>
       <c r="H17" s="9">
-        <v>5.4660446435385301</v>
+        <v>5.2882976129994601</v>
       </c>
       <c r="I17" s="9">
-        <v>6.2263504158113996</v>
+        <v>6.3684764544370598</v>
       </c>
       <c r="J17" s="9">
-        <v>6.9061879219392601</v>
+        <v>6.7662670876523796</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="12" thickBot="1">
@@ -12309,31 +12527,31 @@
         <v>77</v>
       </c>
       <c r="B18" s="10">
-        <v>0.61940095314921595</v>
+        <v>0.61877686956688305</v>
       </c>
       <c r="C18" s="10">
-        <v>0.65740938992508002</v>
+        <v>0.66074293909069504</v>
       </c>
       <c r="D18" s="10">
-        <v>1.50038939546475</v>
+        <v>2.6218370401712701</v>
       </c>
       <c r="E18" s="10">
-        <v>3.5377062114364901</v>
+        <v>4.06003919373416</v>
       </c>
       <c r="F18" s="10">
-        <v>4.1445935085419698</v>
+        <v>3.2517103512354302</v>
       </c>
       <c r="G18" s="10">
-        <v>4.8869220325560496</v>
+        <v>4.7486908846323601</v>
       </c>
       <c r="H18" s="10">
-        <v>5.4324552643399597</v>
+        <v>5.3965719281343398</v>
       </c>
       <c r="I18" s="10">
-        <v>6.2619272717806798</v>
+        <v>6.1635841392441897</v>
       </c>
       <c r="J18" s="10">
-        <v>6.72889111638698</v>
+        <v>6.6428315963850899</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="12" thickBot="1">
@@ -12341,79 +12559,79 @@
         <v>78</v>
       </c>
       <c r="B19" s="9">
-        <v>0.61443347352015798</v>
+        <v>0.61487646004893504</v>
       </c>
       <c r="C19" s="9">
-        <v>0.65398894385935302</v>
+        <v>0.66116849596693605</v>
       </c>
       <c r="D19" s="9">
-        <v>2.1655213432182099</v>
+        <v>3.4956877942267002</v>
       </c>
       <c r="E19" s="9">
-        <v>3.2106490617643102</v>
+        <v>2.9606202805374999</v>
       </c>
       <c r="F19" s="9">
-        <v>3.8466957080770001</v>
+        <v>4.5191289719740704</v>
       </c>
       <c r="G19" s="9">
-        <v>4.9835278684364797</v>
+        <v>4.98721495618351</v>
       </c>
       <c r="H19" s="9">
-        <v>5.7294874572529597</v>
+        <v>5.7036946510497604</v>
       </c>
       <c r="I19" s="9">
-        <v>6.1391941241205101</v>
+        <v>6.1828954340008204</v>
       </c>
       <c r="J19" s="9">
-        <v>6.6864073229171002</v>
+        <v>6.71506095555445</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" s="11">
         <f>AVERAGE(B15:B19)</f>
-        <v>0.6182984658056736</v>
+        <v>0.61791194312571462</v>
       </c>
       <c r="C20" s="11">
         <f>AVERAGE(C15:C19)</f>
-        <v>0.66083136310887358</v>
+        <v>0.66218356410674672</v>
       </c>
       <c r="D20" s="11">
         <f t="shared" ref="D20:J20" si="0">AVERAGE(D15:D19)</f>
-        <v>2.3175775667162775</v>
+        <v>2.7751460965587484</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>3.4611917799788459</v>
+        <v>3.5293656611307904</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="0"/>
-        <v>4.0881711014670135</v>
+        <v>4.0559436416659418</v>
       </c>
       <c r="G20" s="11">
         <f t="shared" si="0"/>
-        <v>4.8707479283862316</v>
+        <v>4.8779137565706838</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="0"/>
-        <v>5.4778777511601175</v>
+        <v>5.4721594850089783</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="0"/>
-        <v>6.2580918648864108</v>
+        <v>6.2001659789081396</v>
       </c>
       <c r="J20" s="11">
         <f t="shared" si="0"/>
-        <v>6.8028756733187334</v>
+        <v>6.7484172492237864</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="B21" s="29">
         <f>VAR(B15:B19)/B20</f>
-        <v>8.6125633255370775E-6</v>
+        <v>5.7489227907647496E-6</v>
       </c>
       <c r="C21" s="29">
         <f>VAR(C15:C19)/C20</f>
-        <v>3.983493477521919E-5</v>
+        <v>1.7081392323375241E-5</v>
       </c>
       <c r="D21" s="4"/>
     </row>
@@ -12501,7 +12719,9 @@
       <c r="D2" s="5">
         <v>800</v>
       </c>
-      <c r="F2" s="24"/>
+      <c r="F2" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="4" t="s">
@@ -12513,7 +12733,9 @@
       <c r="D3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="24"/>
+      <c r="F3" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="4" t="s">
@@ -12649,31 +12871,31 @@
         <v>74</v>
       </c>
       <c r="B15" s="9">
-        <v>0.620016417052494</v>
+        <v>0.62011793099828605</v>
       </c>
       <c r="C15" s="9">
-        <v>0.65806614220889703</v>
+        <v>0.66352727705092596</v>
       </c>
       <c r="D15" s="9">
-        <v>1.81532760850481</v>
+        <v>2.7008929226863798</v>
       </c>
       <c r="E15" s="9">
-        <v>3.4802937876028599</v>
+        <v>3.5222533432780598</v>
       </c>
       <c r="F15" s="9">
-        <v>3.8848337598749501</v>
+        <v>3.9786591965464599</v>
       </c>
       <c r="G15" s="9">
-        <v>4.7478703872922798</v>
+        <v>4.7909817381822704</v>
       </c>
       <c r="H15" s="9">
-        <v>5.5348490361766496</v>
+        <v>5.4303343420112498</v>
       </c>
       <c r="I15" s="9">
-        <v>6.3105535279609404</v>
+        <v>6.4481661651364801</v>
       </c>
       <c r="J15" s="9">
-        <v>6.7530002293282596</v>
+        <v>6.7539945646642003</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12" thickBot="1">
@@ -12681,31 +12903,31 @@
         <v>75</v>
       </c>
       <c r="B16" s="10">
-        <v>0.61823316463121003</v>
+        <v>0.61960418574089204</v>
       </c>
       <c r="C16" s="10">
-        <v>0.66233271497617896</v>
+        <v>0.66694575363836295</v>
       </c>
       <c r="D16" s="10">
-        <v>2.2585978017374702</v>
+        <v>2.76429672772188</v>
       </c>
       <c r="E16" s="10">
-        <v>3.5057039639113601</v>
+        <v>3.44317722130537</v>
       </c>
       <c r="F16" s="10">
-        <v>4.0815831403204603</v>
+        <v>4.1672979726159003</v>
       </c>
       <c r="G16" s="10">
-        <v>4.90665682319311</v>
+        <v>4.8952252682620401</v>
       </c>
       <c r="H16" s="10">
-        <v>5.4422109949112496</v>
+        <v>5.3310670486578902</v>
       </c>
       <c r="I16" s="10">
-        <v>6.1791852739352704</v>
+        <v>6.2148213475829799</v>
       </c>
       <c r="J16" s="10">
-        <v>6.6469834027188801</v>
+        <v>6.9388974406861301</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="12" thickBot="1">
@@ -12713,31 +12935,31 @@
         <v>76</v>
       </c>
       <c r="B17" s="9">
-        <v>0.61790883508594396</v>
+        <v>0.61793578561981599</v>
       </c>
       <c r="C17" s="9">
-        <v>0.65777901691041796</v>
+        <v>0.66228545107064596</v>
       </c>
       <c r="D17" s="9">
-        <v>2.1625663901196899</v>
+        <v>2.4567874444901698</v>
       </c>
       <c r="E17" s="9">
-        <v>3.08200629256392</v>
+        <v>3.5921730621100001</v>
       </c>
       <c r="F17" s="9">
-        <v>4.2125197762448199</v>
+        <v>4.3036091215537402</v>
       </c>
       <c r="G17" s="9">
-        <v>4.7533876548787202</v>
+        <v>4.7970827344943201</v>
       </c>
       <c r="H17" s="9">
-        <v>5.4817652192711304</v>
+        <v>5.4660446435385301</v>
       </c>
       <c r="I17" s="9">
-        <v>6.2943561309926297</v>
+        <v>6.2263504158113996</v>
       </c>
       <c r="J17" s="9">
-        <v>6.9039620470046996</v>
+        <v>6.9061879219392601</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="12" thickBot="1">
@@ -12745,31 +12967,31 @@
         <v>77</v>
       </c>
       <c r="B18" s="10">
-        <v>0.61876512294090502</v>
+        <v>0.61940095314921595</v>
       </c>
       <c r="C18" s="10">
-        <v>0.66168767560576902</v>
+        <v>0.65740938992508002</v>
       </c>
       <c r="D18" s="10">
-        <v>2.56421671707507</v>
+        <v>1.50038939546475</v>
       </c>
       <c r="E18" s="10">
-        <v>3.3778076264516002</v>
+        <v>3.5377062114364901</v>
       </c>
       <c r="F18" s="10">
-        <v>4.1556832758477098</v>
+        <v>4.1445935085419698</v>
       </c>
       <c r="G18" s="10">
-        <v>4.6150188397256802</v>
+        <v>4.8869220325560496</v>
       </c>
       <c r="H18" s="10">
-        <v>5.4367873931973003</v>
+        <v>5.4324552643399597</v>
       </c>
       <c r="I18" s="10">
-        <v>6.47103154684073</v>
+        <v>6.2619272717806798</v>
       </c>
       <c r="J18" s="10">
-        <v>6.7265596154556899</v>
+        <v>6.72889111638698</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="12" thickBot="1">
@@ -12777,79 +12999,79 @@
         <v>78</v>
       </c>
       <c r="B19" s="9">
-        <v>0.613936560978388</v>
+        <v>0.61443347352015798</v>
       </c>
       <c r="C19" s="9">
-        <v>0.66053467311799097</v>
+        <v>0.65398894385935302</v>
       </c>
       <c r="D19" s="9">
-        <v>3.0014713807212701</v>
+        <v>2.1655213432182099</v>
       </c>
       <c r="E19" s="9">
-        <v>3.8353339797674799</v>
+        <v>3.2106490617643102</v>
       </c>
       <c r="F19" s="9">
-        <v>3.6480764639080898</v>
+        <v>3.8466957080770001</v>
       </c>
       <c r="G19" s="9">
-        <v>5.14241308491194</v>
+        <v>4.9835278684364797</v>
       </c>
       <c r="H19" s="9">
-        <v>5.4230073361216196</v>
+        <v>5.7294874572529597</v>
       </c>
       <c r="I19" s="9">
-        <v>6.1497453930441699</v>
+        <v>6.1391941241205101</v>
       </c>
       <c r="J19" s="9">
-        <v>6.9122246915866397</v>
+        <v>6.6864073229171002</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" s="11">
         <f>AVERAGE(B15:B19)</f>
-        <v>0.6177720201377882</v>
+        <v>0.6182984658056736</v>
       </c>
       <c r="C20" s="11">
         <f>AVERAGE(C15:C19)</f>
-        <v>0.66008004456385072</v>
+        <v>0.66083136310887358</v>
       </c>
       <c r="D20" s="11">
         <f t="shared" ref="D20:J20" si="0">AVERAGE(D15:D19)</f>
-        <v>2.3604359796316619</v>
+        <v>2.3175775667162775</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>3.4562291300594437</v>
+        <v>3.4611917799788459</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="0"/>
-        <v>3.9965392832392062</v>
+        <v>4.0881711014670135</v>
       </c>
       <c r="G20" s="11">
         <f t="shared" si="0"/>
-        <v>4.8330693580003459</v>
+        <v>4.8707479283862316</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="0"/>
-        <v>5.4637239959355899</v>
+        <v>5.4778777511601175</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="0"/>
-        <v>6.2809743745547486</v>
+        <v>6.2580918648864108</v>
       </c>
       <c r="J20" s="11">
         <f t="shared" si="0"/>
-        <v>6.7885459972188329</v>
+        <v>6.8028756733187334</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="B21" s="29">
         <f>VAR(B15:B19)/B20</f>
-        <v>8.4843961615897547E-6</v>
+        <v>8.6125633255370775E-6</v>
       </c>
       <c r="C21" s="29">
         <f>VAR(C15:C19)/C20</f>
-        <v>6.5205045110415398E-6</v>
+        <v>3.983493477521919E-5</v>
       </c>
       <c r="D21" s="4"/>
     </row>
@@ -12894,6 +13116,442 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:K27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="8.6640625" style="6" customWidth="1"/>
+    <col min="12" max="16384" width="8.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="8" customFormat="1" ht="13" thickBot="1">
+      <c r="A1" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="F1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:11" ht="12" thickTop="1">
+      <c r="A2" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="5">
+        <v>800</v>
+      </c>
+      <c r="F2" s="24"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" s="24"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="24"/>
+      <c r="C8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="24"/>
+      <c r="C9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="24"/>
+      <c r="C10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="8" customFormat="1" ht="13" thickBot="1">
+      <c r="A13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="1:11" ht="13" thickTop="1" thickBot="1">
+      <c r="A14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="12" thickBot="1">
+      <c r="A15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" s="9">
+        <v>0.620016417052494</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.65806614220889703</v>
+      </c>
+      <c r="D15" s="9">
+        <v>1.81532760850481</v>
+      </c>
+      <c r="E15" s="9">
+        <v>3.4802937876028599</v>
+      </c>
+      <c r="F15" s="9">
+        <v>3.8848337598749501</v>
+      </c>
+      <c r="G15" s="9">
+        <v>4.7478703872922798</v>
+      </c>
+      <c r="H15" s="9">
+        <v>5.5348490361766496</v>
+      </c>
+      <c r="I15" s="9">
+        <v>6.3105535279609404</v>
+      </c>
+      <c r="J15" s="9">
+        <v>6.7530002293282596</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="12" thickBot="1">
+      <c r="A16" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0.61823316463121003</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.66233271497617896</v>
+      </c>
+      <c r="D16" s="10">
+        <v>2.2585978017374702</v>
+      </c>
+      <c r="E16" s="10">
+        <v>3.5057039639113601</v>
+      </c>
+      <c r="F16" s="10">
+        <v>4.0815831403204603</v>
+      </c>
+      <c r="G16" s="10">
+        <v>4.90665682319311</v>
+      </c>
+      <c r="H16" s="10">
+        <v>5.4422109949112496</v>
+      </c>
+      <c r="I16" s="10">
+        <v>6.1791852739352704</v>
+      </c>
+      <c r="J16" s="10">
+        <v>6.6469834027188801</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="12" thickBot="1">
+      <c r="A17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="9">
+        <v>0.61790883508594396</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.65777901691041796</v>
+      </c>
+      <c r="D17" s="9">
+        <v>2.1625663901196899</v>
+      </c>
+      <c r="E17" s="9">
+        <v>3.08200629256392</v>
+      </c>
+      <c r="F17" s="9">
+        <v>4.2125197762448199</v>
+      </c>
+      <c r="G17" s="9">
+        <v>4.7533876548787202</v>
+      </c>
+      <c r="H17" s="9">
+        <v>5.4817652192711304</v>
+      </c>
+      <c r="I17" s="9">
+        <v>6.2943561309926297</v>
+      </c>
+      <c r="J17" s="9">
+        <v>6.9039620470046996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="12" thickBot="1">
+      <c r="A18" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="10">
+        <v>0.61876512294090502</v>
+      </c>
+      <c r="C18" s="10">
+        <v>0.66168767560576902</v>
+      </c>
+      <c r="D18" s="10">
+        <v>2.56421671707507</v>
+      </c>
+      <c r="E18" s="10">
+        <v>3.3778076264516002</v>
+      </c>
+      <c r="F18" s="10">
+        <v>4.1556832758477098</v>
+      </c>
+      <c r="G18" s="10">
+        <v>4.6150188397256802</v>
+      </c>
+      <c r="H18" s="10">
+        <v>5.4367873931973003</v>
+      </c>
+      <c r="I18" s="10">
+        <v>6.47103154684073</v>
+      </c>
+      <c r="J18" s="10">
+        <v>6.7265596154556899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="12" thickBot="1">
+      <c r="A19" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="9">
+        <v>0.613936560978388</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.66053467311799097</v>
+      </c>
+      <c r="D19" s="9">
+        <v>3.0014713807212701</v>
+      </c>
+      <c r="E19" s="9">
+        <v>3.8353339797674799</v>
+      </c>
+      <c r="F19" s="9">
+        <v>3.6480764639080898</v>
+      </c>
+      <c r="G19" s="9">
+        <v>5.14241308491194</v>
+      </c>
+      <c r="H19" s="9">
+        <v>5.4230073361216196</v>
+      </c>
+      <c r="I19" s="9">
+        <v>6.1497453930441699</v>
+      </c>
+      <c r="J19" s="9">
+        <v>6.9122246915866397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="B20" s="11">
+        <f>AVERAGE(B15:B19)</f>
+        <v>0.6177720201377882</v>
+      </c>
+      <c r="C20" s="11">
+        <f>AVERAGE(C15:C19)</f>
+        <v>0.66008004456385072</v>
+      </c>
+      <c r="D20" s="11">
+        <f t="shared" ref="D20:J20" si="0">AVERAGE(D15:D19)</f>
+        <v>2.3604359796316619</v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" si="0"/>
+        <v>3.4562291300594437</v>
+      </c>
+      <c r="F20" s="11">
+        <f t="shared" si="0"/>
+        <v>3.9965392832392062</v>
+      </c>
+      <c r="G20" s="11">
+        <f t="shared" si="0"/>
+        <v>4.8330693580003459</v>
+      </c>
+      <c r="H20" s="11">
+        <f t="shared" si="0"/>
+        <v>5.4637239959355899</v>
+      </c>
+      <c r="I20" s="11">
+        <f t="shared" si="0"/>
+        <v>6.2809743745547486</v>
+      </c>
+      <c r="J20" s="11">
+        <f t="shared" si="0"/>
+        <v>6.7885459972188329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="B21" s="29">
+        <f>VAR(B15:B19)/B20</f>
+        <v>8.4843961615897547E-6</v>
+      </c>
+      <c r="C21" s="29">
+        <f>VAR(C15:C19)/C20</f>
+        <v>6.5205045110415398E-6</v>
+      </c>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+    </row>
+    <row r="23" spans="1:10" ht="13" thickBot="1">
+      <c r="A23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:10" ht="12" thickTop="1">
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
@@ -13332,7 +13990,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6" tint="-0.249977111117893"/>
@@ -15960,7 +16618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7"/>
@@ -16670,7 +17328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7"/>
@@ -17380,7 +18038,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7"/>
@@ -18085,7 +18743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="-0.249977111117893"/>
@@ -18793,7 +19451,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7"/>
@@ -19501,7 +20159,310 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:Q52"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="15" width="10.83203125" style="42"/>
+    <col min="16" max="16" width="53" style="42" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17">
+      <c r="O2" s="43">
+        <v>0.63549999999999995</v>
+      </c>
+      <c r="P2" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q2" s="43" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17">
+      <c r="B3" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="O3" s="43">
+        <v>0.64039999999999997</v>
+      </c>
+      <c r="P3" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q3" s="43" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="O4" s="43">
+        <v>0.65200000000000002</v>
+      </c>
+      <c r="P4" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q4" s="43">
+        <v>0.64517199999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="O5" s="43">
+        <v>0.60929999999999995</v>
+      </c>
+      <c r="P5" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q5" s="43"/>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="O6" s="43">
+        <v>0.61009999999999998</v>
+      </c>
+      <c r="P6" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q6" s="43"/>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="O7" s="43">
+        <v>0.51</v>
+      </c>
+      <c r="P7" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q7" s="43"/>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="I8" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q8" s="43"/>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="I9" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q9" s="43"/>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="42" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="O13" s="42" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="O14" s="45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="O15" s="45" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" s="45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
+      <c r="B18" s="45" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
+      <c r="B19" s="45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15">
+      <c r="B21" s="45" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15">
+      <c r="B22" s="45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15">
+      <c r="B23" s="42" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15">
+      <c r="O27" s="42" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15">
+      <c r="B28" s="44" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15">
+      <c r="B29" s="45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15">
+      <c r="B30" s="45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15">
+      <c r="B31" s="45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15">
+      <c r="B32" s="45" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="45" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="44" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="45" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="45" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="45" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="45" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="45" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="44" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="44" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="45" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="44" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="44" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="45" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="44" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="44" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="45" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="45" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="45" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="8"/>
@@ -20214,254 +21175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="20.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.1640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="38"/>
-      <c r="B3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="38"/>
-      <c r="B4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="38"/>
-      <c r="B5" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="38"/>
-      <c r="B6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="38"/>
-      <c r="B7" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="39"/>
-      <c r="B8" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="7" customHeight="1"/>
-    <row r="10" spans="1:5">
-      <c r="A10" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="17"/>
-    </row>
-    <row r="11" spans="1:5" ht="6" customHeight="1"/>
-    <row r="12" spans="1:5">
-      <c r="A12" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="17"/>
-    </row>
-    <row r="13" spans="1:5" ht="6" customHeight="1"/>
-    <row r="14" spans="1:5">
-      <c r="A14" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="1:5" ht="5" customHeight="1"/>
-    <row r="16" spans="1:5">
-      <c r="A16" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="20"/>
-    </row>
-    <row r="17" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A17" s="41"/>
-      <c r="B17" s="21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="27"/>
-      <c r="B21" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="27"/>
-      <c r="B22" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="27"/>
-      <c r="B23" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="27"/>
-      <c r="B24" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="A2:A8"/>
-    <mergeCell ref="A16:A17"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="8"/>
@@ -21174,7 +21888,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="8"/>
@@ -22382,7 +23096,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FF008000"/>
@@ -23095,7 +23809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="8"/>
@@ -23803,7 +24517,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="8"/>
@@ -24511,7 +25225,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
@@ -25232,7 +25946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="5"/>
@@ -25953,7 +26667,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="7" tint="-0.249977111117893"/>
@@ -26661,7 +27375,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
@@ -27382,7 +28096,254 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.1640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="38"/>
+      <c r="B3" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="38"/>
+      <c r="B4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="38"/>
+      <c r="B5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="38"/>
+      <c r="B6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="38"/>
+      <c r="B7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="39"/>
+      <c r="B8" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="7" customHeight="1"/>
+    <row r="10" spans="1:5">
+      <c r="A10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" ht="6" customHeight="1"/>
+    <row r="12" spans="1:5">
+      <c r="A12" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" ht="6" customHeight="1"/>
+    <row r="14" spans="1:5">
+      <c r="A14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:5" ht="5" customHeight="1"/>
+    <row r="16" spans="1:5">
+      <c r="A16" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" ht="16" customHeight="1" thickBot="1">
+      <c r="A17" s="41"/>
+      <c r="B17" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="27"/>
+      <c r="B21" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="27"/>
+      <c r="B22" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="27"/>
+      <c r="B23" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="27"/>
+      <c r="B24" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A16:A17"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
@@ -28103,442 +29064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="4" tint="-0.249977111117893"/>
-  </sheetPr>
-  <dimension ref="A1:K27"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21:C21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="11" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="15.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.1640625" style="6" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="11" width="8.6640625" style="6" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" s="8" customFormat="1" ht="13" thickBot="1">
-      <c r="A1" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D1" s="7"/>
-      <c r="F1" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="1:11" ht="12" thickTop="1">
-      <c r="A2" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="5">
-        <v>800</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="5">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0.67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="8" customFormat="1" ht="13" thickBot="1">
-      <c r="A13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="6"/>
-    </row>
-    <row r="14" spans="1:11" ht="13" thickTop="1" thickBot="1">
-      <c r="A14" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="12" thickBot="1">
-      <c r="A15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="9">
-        <v>0.61901751459276</v>
-      </c>
-      <c r="C15" s="9">
-        <v>0.663622086680284</v>
-      </c>
-      <c r="D15" s="9">
-        <v>2.8621085880635202</v>
-      </c>
-      <c r="E15" s="9">
-        <v>3.6597347905350199</v>
-      </c>
-      <c r="F15" s="9">
-        <v>4.1236000143547002</v>
-      </c>
-      <c r="G15" s="9">
-        <v>4.84296828997444</v>
-      </c>
-      <c r="H15" s="9">
-        <v>5.5325035609609499</v>
-      </c>
-      <c r="I15" s="9">
-        <v>6.0389756722365</v>
-      </c>
-      <c r="J15" s="9">
-        <v>6.6911006953449803</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="12" thickBot="1">
-      <c r="A16" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B16" s="10">
-        <v>0.61931506464039898</v>
-      </c>
-      <c r="C16" s="10">
-        <v>0.66724040819910402</v>
-      </c>
-      <c r="D16" s="10">
-        <v>2.8841945880118001</v>
-      </c>
-      <c r="E16" s="10">
-        <v>3.4658375971714599</v>
-      </c>
-      <c r="F16" s="10">
-        <v>4.2446975459655896</v>
-      </c>
-      <c r="G16" s="10">
-        <v>4.8020760308857202</v>
-      </c>
-      <c r="H16" s="10">
-        <v>5.5148473075662903</v>
-      </c>
-      <c r="I16" s="10">
-        <v>6.15053797411095</v>
-      </c>
-      <c r="J16" s="10">
-        <v>6.9220464526529399</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="12" thickBot="1">
-      <c r="A17" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B17" s="9">
-        <v>0.618065115489004</v>
-      </c>
-      <c r="C17" s="9">
-        <v>0.65658122035271604</v>
-      </c>
-      <c r="D17" s="9">
-        <v>1.44819487895618</v>
-      </c>
-      <c r="E17" s="9">
-        <v>3.3312834097750001</v>
-      </c>
-      <c r="F17" s="9">
-        <v>4.2064462212114204</v>
-      </c>
-      <c r="G17" s="9">
-        <v>4.83075895878821</v>
-      </c>
-      <c r="H17" s="9">
-        <v>5.5444500349728996</v>
-      </c>
-      <c r="I17" s="9">
-        <v>6.2916565808728704</v>
-      </c>
-      <c r="J17" s="9">
-        <v>6.8616747026675</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="12" thickBot="1">
-      <c r="A18" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B18" s="10">
-        <v>0.61945466853967701</v>
-      </c>
-      <c r="C18" s="10">
-        <v>0.66363376459410495</v>
-      </c>
-      <c r="D18" s="10">
-        <v>2.5903584521609999</v>
-      </c>
-      <c r="E18" s="10">
-        <v>3.4352689576678501</v>
-      </c>
-      <c r="F18" s="10">
-        <v>4.2837751001695903</v>
-      </c>
-      <c r="G18" s="10">
-        <v>4.9360565412809203</v>
-      </c>
-      <c r="H18" s="10">
-        <v>5.4248217864553796</v>
-      </c>
-      <c r="I18" s="10">
-        <v>6.3424205318981599</v>
-      </c>
-      <c r="J18" s="10">
-        <v>6.7332206592583903</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" ht="12" thickBot="1">
-      <c r="A19" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B19" s="9">
-        <v>0.61174478394752696</v>
-      </c>
-      <c r="C19" s="9">
-        <v>0.65430944980911199</v>
-      </c>
-      <c r="D19" s="9">
-        <v>2.3494622505486098</v>
-      </c>
-      <c r="E19" s="9">
-        <v>4.04472154209033</v>
-      </c>
-      <c r="F19" s="9">
-        <v>3.1330131778763901</v>
-      </c>
-      <c r="G19" s="9">
-        <v>4.8172056190296004</v>
-      </c>
-      <c r="H19" s="9">
-        <v>5.5512828871497204</v>
-      </c>
-      <c r="I19" s="9">
-        <v>5.9926080622839804</v>
-      </c>
-      <c r="J19" s="9">
-        <v>6.7673124139589396</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="B20" s="11">
-        <f>AVERAGE(B15:B19)</f>
-        <v>0.61751942944187344</v>
-      </c>
-      <c r="C20" s="11">
-        <f>AVERAGE(C15:C19)</f>
-        <v>0.66107738592706422</v>
-      </c>
-      <c r="D20" s="11">
-        <f t="shared" ref="D20:J20" si="0">AVERAGE(D15:D19)</f>
-        <v>2.4268637515482223</v>
-      </c>
-      <c r="E20" s="11">
-        <f t="shared" si="0"/>
-        <v>3.5873692594479323</v>
-      </c>
-      <c r="F20" s="11">
-        <f t="shared" si="0"/>
-        <v>3.998306411915538</v>
-      </c>
-      <c r="G20" s="11">
-        <f t="shared" si="0"/>
-        <v>4.845813087991778</v>
-      </c>
-      <c r="H20" s="11">
-        <f t="shared" si="0"/>
-        <v>5.5135811154210481</v>
-      </c>
-      <c r="I20" s="11">
-        <f t="shared" si="0"/>
-        <v>6.1632397642804921</v>
-      </c>
-      <c r="J20" s="11">
-        <f t="shared" si="0"/>
-        <v>6.7950709847765491</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="B21" s="29">
-        <f>VAR(B15:B19)/B20</f>
-        <v>1.7350878796357578E-5</v>
-      </c>
-      <c r="C21" s="29">
-        <f>VAR(C15:C19)/C20</f>
-        <v>4.4251204169893815E-5</v>
-      </c>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-    </row>
-    <row r="23" spans="1:10" ht="13" thickBot="1">
-      <c r="A23" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="24" spans="1:10" ht="12" thickTop="1">
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
@@ -29259,14 +29785,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
   <dimension ref="A1:L72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="E26" sqref="E26:K26"/>
     </sheetView>
   </sheetViews>
@@ -30041,8 +30567,8 @@
       <c r="C6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="13">
-        <v>0.05</v>
+      <c r="D6" s="5">
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -30141,31 +30667,31 @@
         <v>74</v>
       </c>
       <c r="B15" s="9">
-        <v>0.62075253093753702</v>
+        <v>0.61901751459276</v>
       </c>
       <c r="C15" s="9">
-        <v>0.66286709811516598</v>
+        <v>0.663622086680284</v>
       </c>
       <c r="D15" s="9">
-        <v>2.5802557688549199</v>
+        <v>2.8621085880635202</v>
       </c>
       <c r="E15" s="9">
-        <v>3.5213908105700198</v>
+        <v>3.6597347905350199</v>
       </c>
       <c r="F15" s="9">
-        <v>4.16940919207308</v>
+        <v>4.1236000143547002</v>
       </c>
       <c r="G15" s="9">
-        <v>4.6285478072077701</v>
+        <v>4.84296828997444</v>
       </c>
       <c r="H15" s="9">
-        <v>5.5436680966998999</v>
+        <v>5.5325035609609499</v>
       </c>
       <c r="I15" s="9">
-        <v>6.18849968469162</v>
+        <v>6.0389756722365</v>
       </c>
       <c r="J15" s="9">
-        <v>6.8945906286312697</v>
+        <v>6.6911006953449803</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12" thickBot="1">
@@ -30173,31 +30699,31 @@
         <v>75</v>
       </c>
       <c r="B16" s="10">
-        <v>0.61801806464507603</v>
+        <v>0.61931506464039898</v>
       </c>
       <c r="C16" s="10">
-        <v>0.66267799732677701</v>
+        <v>0.66724040819910402</v>
       </c>
       <c r="D16" s="10">
-        <v>2.7022640974551502</v>
+        <v>2.8841945880118001</v>
       </c>
       <c r="E16" s="10">
-        <v>3.6532039626258199</v>
+        <v>3.4658375971714599</v>
       </c>
       <c r="F16" s="10">
-        <v>4.0728955542214598</v>
+        <v>4.2446975459655896</v>
       </c>
       <c r="G16" s="10">
-        <v>4.9363275114127996</v>
+        <v>4.8020760308857202</v>
       </c>
       <c r="H16" s="10">
-        <v>5.7094980921189702</v>
+        <v>5.5148473075662903</v>
       </c>
       <c r="I16" s="10">
-        <v>6.1047704818742101</v>
+        <v>6.15053797411095</v>
       </c>
       <c r="J16" s="10">
-        <v>6.8281100199846199</v>
+        <v>6.9220464526529399</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="12" thickBot="1">
@@ -30205,31 +30731,31 @@
         <v>76</v>
       </c>
       <c r="B17" s="9">
-        <v>0.61823670450496704</v>
+        <v>0.618065115489004</v>
       </c>
       <c r="C17" s="9">
-        <v>0.657632173733112</v>
+        <v>0.65658122035271604</v>
       </c>
       <c r="D17" s="9">
-        <v>2.1175955578170802</v>
+        <v>1.44819487895618</v>
       </c>
       <c r="E17" s="9">
-        <v>3.3044991684499201</v>
+        <v>3.3312834097750001</v>
       </c>
       <c r="F17" s="9">
-        <v>3.9691719178534601</v>
+        <v>4.2064462212114204</v>
       </c>
       <c r="G17" s="9">
-        <v>4.8221251512258201</v>
+        <v>4.83075895878821</v>
       </c>
       <c r="H17" s="9">
-        <v>5.3362974431162904</v>
+        <v>5.5444500349728996</v>
       </c>
       <c r="I17" s="9">
-        <v>6.1836466665611596</v>
+        <v>6.2916565808728704</v>
       </c>
       <c r="J17" s="9">
-        <v>6.8673344011032498</v>
+        <v>6.8616747026675</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="12" thickBot="1">
@@ -30237,31 +30763,31 @@
         <v>77</v>
       </c>
       <c r="B18" s="10">
-        <v>0.61795415045153701</v>
+        <v>0.61945466853967701</v>
       </c>
       <c r="C18" s="10">
-        <v>0.65625061810033503</v>
+        <v>0.66363376459410495</v>
       </c>
       <c r="D18" s="10">
-        <v>1.6989353074592899</v>
+        <v>2.5903584521609999</v>
       </c>
       <c r="E18" s="10">
-        <v>3.3699035321096402</v>
+        <v>3.4352689576678501</v>
       </c>
       <c r="F18" s="10">
-        <v>4.1174253474001503</v>
+        <v>4.2837751001695903</v>
       </c>
       <c r="G18" s="10">
-        <v>4.8569299252702098</v>
+        <v>4.9360565412809203</v>
       </c>
       <c r="H18" s="10">
-        <v>5.6206779486196696</v>
+        <v>5.4248217864553796</v>
       </c>
       <c r="I18" s="10">
-        <v>6.33806757729457</v>
+        <v>6.3424205318981599</v>
       </c>
       <c r="J18" s="10">
-        <v>6.7412807395396701</v>
+        <v>6.7332206592583903</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="12" thickBot="1">
@@ -30269,79 +30795,79 @@
         <v>78</v>
       </c>
       <c r="B19" s="9">
-        <v>0.61176572296971599</v>
+        <v>0.61174478394752696</v>
       </c>
       <c r="C19" s="9">
-        <v>0.65542912104940099</v>
+        <v>0.65430944980911199</v>
       </c>
       <c r="D19" s="9">
-        <v>2.8231052944042498</v>
+        <v>2.3494622505486098</v>
       </c>
       <c r="E19" s="9">
-        <v>4.1433904036175804</v>
+        <v>4.04472154209033</v>
       </c>
       <c r="F19" s="9">
-        <v>3.5662273370209499</v>
+        <v>3.1330131778763901</v>
       </c>
       <c r="G19" s="9">
-        <v>4.9967830242193099</v>
+        <v>4.8172056190296004</v>
       </c>
       <c r="H19" s="9">
-        <v>5.5459755427404396</v>
+        <v>5.5512828871497204</v>
       </c>
       <c r="I19" s="9">
-        <v>6.0687955798765403</v>
+        <v>5.9926080622839804</v>
       </c>
       <c r="J19" s="9">
-        <v>6.79904394187857</v>
+        <v>6.7673124139589396</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" s="11">
         <f>AVERAGE(B15:B19)</f>
-        <v>0.61734543470176662</v>
+        <v>0.61751942944187344</v>
       </c>
       <c r="C20" s="11">
         <f>AVERAGE(C15:C19)</f>
-        <v>0.65897140166495816</v>
+        <v>0.66107738592706422</v>
       </c>
       <c r="D20" s="11">
         <f t="shared" ref="D20:J20" si="0">AVERAGE(D15:D19)</f>
-        <v>2.3844312051981378</v>
+        <v>2.4268637515482223</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>3.5984775754745959</v>
+        <v>3.5873692594479323</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="0"/>
-        <v>3.9790258697138206</v>
+        <v>3.998306411915538</v>
       </c>
       <c r="G20" s="11">
         <f t="shared" si="0"/>
-        <v>4.8481426838671826</v>
+        <v>4.845813087991778</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="0"/>
-        <v>5.5512234246590539</v>
+        <v>5.5135811154210481</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="0"/>
-        <v>6.1767559980596198</v>
+        <v>6.1632397642804921</v>
       </c>
       <c r="J20" s="11">
         <f t="shared" si="0"/>
-        <v>6.8260719462274766</v>
+        <v>6.7950709847765491</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="B21" s="29">
         <f>VAR(B15:B19)/B20</f>
-        <v>1.7963531049988835E-5</v>
+        <v>1.7350878796357578E-5</v>
       </c>
       <c r="C21" s="29">
         <f>VAR(C15:C19)/C20</f>
-        <v>1.9219061981556711E-5</v>
+        <v>4.4251204169893815E-5</v>
       </c>
       <c r="D21" s="4"/>
     </row>
@@ -30414,7 +30940,7 @@
         <v>54</v>
       </c>
       <c r="D1" s="7"/>
-      <c r="G1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>81</v>
       </c>
       <c r="K1" s="6"/>
@@ -30429,7 +30955,7 @@
       <c r="D2" s="5">
         <v>800</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>82</v>
       </c>
     </row>
@@ -30443,7 +30969,7 @@
       <c r="D3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="F3" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -30476,8 +31002,8 @@
       <c r="C6" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="5">
-        <v>3.5000000000000003E-2</v>
+      <c r="D6" s="13">
+        <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -30514,7 +31040,9 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="24"/>
+      <c r="A10" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="C10" s="4" t="s">
         <v>53</v>
       </c>
@@ -30574,31 +31102,31 @@
         <v>74</v>
       </c>
       <c r="B15" s="9">
-        <v>0.61483278721934698</v>
+        <v>0.62075253093753702</v>
       </c>
       <c r="C15" s="9">
-        <v>0.65554359188815403</v>
+        <v>0.66286709811516598</v>
       </c>
       <c r="D15" s="9">
-        <v>2.1041379698940501</v>
+        <v>2.5802557688549199</v>
       </c>
       <c r="E15" s="9">
-        <v>3.2430636921141498</v>
+        <v>3.5213908105700198</v>
       </c>
       <c r="F15" s="9">
-        <v>3.83403320126776</v>
+        <v>4.16940919207308</v>
       </c>
       <c r="G15" s="9">
-        <v>4.8078792609137597</v>
+        <v>4.6285478072077701</v>
       </c>
       <c r="H15" s="9">
-        <v>5.5037630783102696</v>
+        <v>5.5436680966998999</v>
       </c>
       <c r="I15" s="9">
-        <v>6.3882074940139297</v>
+        <v>6.18849968469162</v>
       </c>
       <c r="J15" s="9">
-        <v>6.6732832938810702</v>
+        <v>6.8945906286312697</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12" thickBot="1">
@@ -30606,31 +31134,31 @@
         <v>75</v>
       </c>
       <c r="B16" s="10">
-        <v>0.615076082735593</v>
+        <v>0.61801806464507603</v>
       </c>
       <c r="C16" s="10">
-        <v>0.66487922452318904</v>
+        <v>0.66267799732677701</v>
       </c>
       <c r="D16" s="10">
-        <v>2.8105796355574699</v>
+        <v>2.7022640974551502</v>
       </c>
       <c r="E16" s="10">
-        <v>3.7367573937201399</v>
+        <v>3.6532039626258199</v>
       </c>
       <c r="F16" s="10">
-        <v>4.3722801792226704</v>
+        <v>4.0728955542214598</v>
       </c>
       <c r="G16" s="10">
-        <v>4.9931611402057001</v>
+        <v>4.9363275114127996</v>
       </c>
       <c r="H16" s="10">
-        <v>5.8263812258921401</v>
+        <v>5.7094980921189702</v>
       </c>
       <c r="I16" s="10">
-        <v>6.12692413832987</v>
+        <v>6.1047704818742101</v>
       </c>
       <c r="J16" s="10">
-        <v>6.8058979518198699</v>
+        <v>6.8281100199846199</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="12" thickBot="1">
@@ -30638,31 +31166,31 @@
         <v>76</v>
       </c>
       <c r="B17" s="9">
-        <v>0.61165539913087896</v>
+        <v>0.61823670450496704</v>
       </c>
       <c r="C17" s="9">
-        <v>0.65414150091685297</v>
+        <v>0.657632173733112</v>
       </c>
       <c r="D17" s="9">
-        <v>1.85315376091719</v>
+        <v>2.1175955578170802</v>
       </c>
       <c r="E17" s="9">
-        <v>3.3363711742519899</v>
+        <v>3.3044991684499201</v>
       </c>
       <c r="F17" s="9">
-        <v>3.9494846521528499</v>
+        <v>3.9691719178534601</v>
       </c>
       <c r="G17" s="9">
-        <v>4.6584942969050003</v>
+        <v>4.8221251512258201</v>
       </c>
       <c r="H17" s="9">
-        <v>5.5455421566415897</v>
+        <v>5.3362974431162904</v>
       </c>
       <c r="I17" s="9">
-        <v>6.2590028612044097</v>
+        <v>6.1836466665611596</v>
       </c>
       <c r="J17" s="9">
-        <v>6.7521977702184799</v>
+        <v>6.8673344011032498</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="12" thickBot="1">
@@ -30670,31 +31198,31 @@
         <v>77</v>
       </c>
       <c r="B18" s="10">
-        <v>0.61193721721300998</v>
+        <v>0.61795415045153701</v>
       </c>
       <c r="C18" s="10">
-        <v>0.65437034396508498</v>
+        <v>0.65625061810033503</v>
       </c>
       <c r="D18" s="10">
-        <v>1.91448444665412</v>
+        <v>1.6989353074592899</v>
       </c>
       <c r="E18" s="10">
-        <v>3.2262300580462999</v>
+        <v>3.3699035321096402</v>
       </c>
       <c r="F18" s="10">
-        <v>3.9654635961766198</v>
+        <v>4.1174253474001503</v>
       </c>
       <c r="G18" s="10">
-        <v>4.9215855515398603</v>
+        <v>4.8569299252702098</v>
       </c>
       <c r="H18" s="10">
-        <v>5.6243964381916598</v>
+        <v>5.6206779486196696</v>
       </c>
       <c r="I18" s="10">
-        <v>6.3678957145810902</v>
+        <v>6.33806757729457</v>
       </c>
       <c r="J18" s="10">
-        <v>6.6996182245403899</v>
+        <v>6.7412807395396701</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="12" thickBot="1">
@@ -30702,79 +31230,79 @@
         <v>78</v>
       </c>
       <c r="B19" s="9">
-        <v>0.60718470513969902</v>
+        <v>0.61176572296971599</v>
       </c>
       <c r="C19" s="9">
-        <v>0.65509666409851997</v>
+        <v>0.65542912104940099</v>
       </c>
       <c r="D19" s="9">
-        <v>2.29908945117778</v>
+        <v>2.8231052944042498</v>
       </c>
       <c r="E19" s="9">
-        <v>3.2513907462991298</v>
+        <v>4.1433904036175804</v>
       </c>
       <c r="F19" s="9">
-        <v>4.2666266510558799</v>
+        <v>3.5662273370209499</v>
       </c>
       <c r="G19" s="9">
-        <v>4.9991509938420702</v>
+        <v>4.9967830242193099</v>
       </c>
       <c r="H19" s="9">
-        <v>5.6305218737560701</v>
+        <v>5.5459755427404396</v>
       </c>
       <c r="I19" s="9">
-        <v>6.2215205212345701</v>
+        <v>6.0687955798765403</v>
       </c>
       <c r="J19" s="9">
-        <v>6.7753519223685599</v>
+        <v>6.79904394187857</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" s="11">
         <f>AVERAGE(B15:B19)</f>
-        <v>0.6121372382877055</v>
+        <v>0.61734543470176662</v>
       </c>
       <c r="C20" s="11">
         <f>AVERAGE(C15:C19)</f>
-        <v>0.65680626507836026</v>
+        <v>0.65897140166495816</v>
       </c>
       <c r="D20" s="11">
         <f t="shared" ref="D20:J20" si="0">AVERAGE(D15:D19)</f>
-        <v>2.1962890528401218</v>
+        <v>2.3844312051981378</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>3.3587626128863421</v>
+        <v>3.5984775754745959</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="0"/>
-        <v>4.0775776559751558</v>
+        <v>3.9790258697138206</v>
       </c>
       <c r="G20" s="11">
         <f t="shared" si="0"/>
-        <v>4.8760542486812781</v>
+        <v>4.8481426838671826</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="0"/>
-        <v>5.6261209545583464</v>
+        <v>5.5512234246590539</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="0"/>
-        <v>6.2727101458727734</v>
+        <v>6.1767559980596198</v>
       </c>
       <c r="J20" s="11">
         <f t="shared" si="0"/>
-        <v>6.7412698325656732</v>
+        <v>6.8260719462274766</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="B21" s="29">
         <f>VAR(B15:B19)/B20</f>
-        <v>1.6623132106406441E-5</v>
+        <v>1.7963531049988835E-5</v>
       </c>
       <c r="C21" s="29">
         <f>VAR(C15:C19)/C20</f>
-        <v>3.1487379688008592E-5</v>
+        <v>1.9219061981556711E-5</v>
       </c>
       <c r="D21" s="4"/>
     </row>
@@ -30847,7 +31375,7 @@
         <v>54</v>
       </c>
       <c r="D1" s="7"/>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>81</v>
       </c>
       <c r="K1" s="6"/>
@@ -30862,7 +31390,7 @@
       <c r="D2" s="5">
         <v>800</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>82</v>
       </c>
     </row>
@@ -30876,7 +31404,7 @@
       <c r="D3" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -30936,7 +31464,9 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="24"/>
+      <c r="A9" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="C9" s="4" t="s">
         <v>52</v>
       </c>
@@ -30945,9 +31475,7 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="A10" s="24"/>
       <c r="C10" s="4" t="s">
         <v>53</v>
       </c>
@@ -31007,31 +31535,31 @@
         <v>74</v>
       </c>
       <c r="B15" s="9">
-        <v>0.62157620223119303</v>
+        <v>0.61483278721934698</v>
       </c>
       <c r="C15" s="9">
-        <v>0.66414203507166303</v>
+        <v>0.65554359188815403</v>
       </c>
       <c r="D15" s="9">
-        <v>2.5617987035712901</v>
+        <v>2.1041379698940501</v>
       </c>
       <c r="E15" s="9">
-        <v>4.1949315346700002</v>
+        <v>3.2430636921141498</v>
       </c>
       <c r="F15" s="9">
-        <v>3.5861846022540602</v>
+        <v>3.83403320126776</v>
       </c>
       <c r="G15" s="9">
-        <v>4.8305317106075103</v>
+        <v>4.8078792609137597</v>
       </c>
       <c r="H15" s="9">
-        <v>5.4783836238655699</v>
+        <v>5.5037630783102696</v>
       </c>
       <c r="I15" s="9">
-        <v>6.1346422001132801</v>
+        <v>6.3882074940139297</v>
       </c>
       <c r="J15" s="9">
-        <v>6.7646727651795198</v>
+        <v>6.6732832938810702</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12" thickBot="1">
@@ -31039,31 +31567,31 @@
         <v>75</v>
       </c>
       <c r="B16" s="10">
-        <v>0.61998481275890605</v>
+        <v>0.615076082735593</v>
       </c>
       <c r="C16" s="10">
-        <v>0.66767753928015094</v>
+        <v>0.66487922452318904</v>
       </c>
       <c r="D16" s="10">
-        <v>2.8676559263154</v>
+        <v>2.8105796355574699</v>
       </c>
       <c r="E16" s="10">
-        <v>3.5768441203528298</v>
+        <v>3.7367573937201399</v>
       </c>
       <c r="F16" s="10">
-        <v>4.17056230279763</v>
+        <v>4.3722801792226704</v>
       </c>
       <c r="G16" s="10">
-        <v>4.9580985561554298</v>
+        <v>4.9931611402057001</v>
       </c>
       <c r="H16" s="10">
-        <v>5.5271425351110901</v>
+        <v>5.8263812258921401</v>
       </c>
       <c r="I16" s="10">
-        <v>6.0614550093436996</v>
+        <v>6.12692413832987</v>
       </c>
       <c r="J16" s="10">
-        <v>6.8661599101624704</v>
+        <v>6.8058979518198699</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="12" thickBot="1">
@@ -31071,31 +31599,31 @@
         <v>76</v>
       </c>
       <c r="B17" s="9">
-        <v>0.61888993513951196</v>
+        <v>0.61165539913087896</v>
       </c>
       <c r="C17" s="9">
-        <v>0.65776407092896405</v>
+        <v>0.65414150091685297</v>
       </c>
       <c r="D17" s="9">
-        <v>1.59001014622979</v>
+        <v>1.85315376091719</v>
       </c>
       <c r="E17" s="9">
-        <v>3.6068160979109001</v>
+        <v>3.3363711742519899</v>
       </c>
       <c r="F17" s="9">
-        <v>4.0444140974754896</v>
+        <v>3.9494846521528499</v>
       </c>
       <c r="G17" s="9">
-        <v>4.7992341986336102</v>
+        <v>4.6584942969050003</v>
       </c>
       <c r="H17" s="9">
-        <v>5.4411604141111898</v>
+        <v>5.5455421566415897</v>
       </c>
       <c r="I17" s="9">
-        <v>6.2520118016065602</v>
+        <v>6.2590028612044097</v>
       </c>
       <c r="J17" s="9">
-        <v>6.90951404167199</v>
+        <v>6.7521977702184799</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="12" thickBot="1">
@@ -31103,31 +31631,31 @@
         <v>77</v>
       </c>
       <c r="B18" s="10">
-        <v>0.61671904333622596</v>
+        <v>0.61193721721300998</v>
       </c>
       <c r="C18" s="10">
-        <v>0.66014947955449199</v>
+        <v>0.65437034396508498</v>
       </c>
       <c r="D18" s="10">
-        <v>2.3113761935347301</v>
+        <v>1.91448444665412</v>
       </c>
       <c r="E18" s="10">
-        <v>3.5099297792571602</v>
+        <v>3.2262300580462999</v>
       </c>
       <c r="F18" s="10">
-        <v>4.2424106253477696</v>
+        <v>3.9654635961766198</v>
       </c>
       <c r="G18" s="10">
-        <v>4.6184080544808497</v>
+        <v>4.9215855515398603</v>
       </c>
       <c r="H18" s="10">
-        <v>5.4257488593908398</v>
+        <v>5.6243964381916598</v>
       </c>
       <c r="I18" s="10">
-        <v>6.3243996802025704</v>
+        <v>6.3678957145810902</v>
       </c>
       <c r="J18" s="10">
-        <v>6.6797353308937897</v>
+        <v>6.6996182245403899</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="12" thickBot="1">
@@ -31135,79 +31663,79 @@
         <v>78</v>
       </c>
       <c r="B19" s="9">
-        <v>0.61443536230951301</v>
+        <v>0.60718470513969902</v>
       </c>
       <c r="C19" s="9">
-        <v>0.66004127748671804</v>
+        <v>0.65509666409851997</v>
       </c>
       <c r="D19" s="9">
-        <v>2.6557812765633302</v>
+        <v>2.29908945117778</v>
       </c>
       <c r="E19" s="9">
-        <v>3.5342616846374102</v>
+        <v>3.2513907462991298</v>
       </c>
       <c r="F19" s="9">
-        <v>4.0728631542486102</v>
+        <v>4.2666266510558799</v>
       </c>
       <c r="G19" s="9">
-        <v>5.1117216944851203</v>
+        <v>4.9991509938420702</v>
       </c>
       <c r="H19" s="9">
-        <v>5.5373455762499297</v>
+        <v>5.6305218737560701</v>
       </c>
       <c r="I19" s="9">
-        <v>6.2148593196845399</v>
+        <v>6.2215205212345701</v>
       </c>
       <c r="J19" s="9">
-        <v>6.8260659342616696</v>
+        <v>6.7753519223685599</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" s="11">
         <f>AVERAGE(B15:B19)</f>
-        <v>0.61832107115506996</v>
+        <v>0.6121372382877055</v>
       </c>
       <c r="C20" s="11">
         <f>AVERAGE(C15:C19)</f>
-        <v>0.66195488046439765</v>
+        <v>0.65680626507836026</v>
       </c>
       <c r="D20" s="11">
         <f t="shared" ref="D20:J20" si="0">AVERAGE(D15:D19)</f>
-        <v>2.397324449242908</v>
+        <v>2.1962890528401218</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>3.68455664336566</v>
+        <v>3.3587626128863421</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="0"/>
-        <v>4.0232869564247125</v>
+        <v>4.0775776559751558</v>
       </c>
       <c r="G20" s="11">
         <f t="shared" si="0"/>
-        <v>4.8635988428725039</v>
+        <v>4.8760542486812781</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="0"/>
-        <v>5.4819562017457244</v>
+        <v>5.6261209545583464</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="0"/>
-        <v>6.1974736021901302</v>
+        <v>6.2727101458727734</v>
       </c>
       <c r="J20" s="11">
         <f t="shared" si="0"/>
-        <v>6.8092295964338891</v>
+        <v>6.7412698325656732</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="B21" s="29">
         <f>VAR(B15:B19)/B20</f>
-        <v>1.2676564210440358E-5</v>
+        <v>1.6623132106406441E-5</v>
       </c>
       <c r="C21" s="29">
         <f>VAR(C15:C19)/C20</f>
-        <v>2.342180124045864E-5</v>
+        <v>3.1487379688008592E-5</v>
       </c>
       <c r="D21" s="4"/>
     </row>
@@ -31254,7 +31782,7 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor theme="9" tint="-0.249977111117893"/>
+    <tabColor theme="4" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -31369,9 +31897,7 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="4" t="s">
-        <v>61</v>
-      </c>
+      <c r="A9" s="24"/>
       <c r="C9" s="4" t="s">
         <v>52</v>
       </c>
@@ -31381,18 +31907,13 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="4" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>53</v>
       </c>
       <c r="D10" s="5">
         <v>0.67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="4" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:11" s="8" customFormat="1" ht="13" thickBot="1">
@@ -31447,31 +31968,31 @@
         <v>74</v>
       </c>
       <c r="B15" s="9">
-        <v>0.619497793066761</v>
+        <v>0.62157620223119303</v>
       </c>
       <c r="C15" s="9">
-        <v>0.665445992805064</v>
+        <v>0.66414203507166303</v>
       </c>
       <c r="D15" s="9">
-        <v>2.8163140517590701</v>
+        <v>2.5617987035712901</v>
       </c>
       <c r="E15" s="9">
-        <v>3.5408119394078001</v>
+        <v>4.1949315346700002</v>
       </c>
       <c r="F15" s="9">
-        <v>4.0862827165023603</v>
+        <v>3.5861846022540602</v>
       </c>
       <c r="G15" s="9">
-        <v>4.7636327803166099</v>
+        <v>4.8305317106075103</v>
       </c>
       <c r="H15" s="9">
-        <v>5.4455804170697597</v>
+        <v>5.4783836238655699</v>
       </c>
       <c r="I15" s="9">
-        <v>6.2590691577973097</v>
+        <v>6.1346422001132801</v>
       </c>
       <c r="J15" s="9">
-        <v>6.8968759963197703</v>
+        <v>6.7646727651795198</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12" thickBot="1">
@@ -31479,31 +32000,31 @@
         <v>75</v>
       </c>
       <c r="B16" s="10">
-        <v>0.61712559117176702</v>
+        <v>0.61998481275890605</v>
       </c>
       <c r="C16" s="10">
-        <v>0.66019230736238699</v>
+        <v>0.66767753928015094</v>
       </c>
       <c r="D16" s="10">
-        <v>1.9546472861152</v>
+        <v>2.8676559263154</v>
       </c>
       <c r="E16" s="10">
-        <v>4.1323391928120596</v>
+        <v>3.5768441203528298</v>
       </c>
       <c r="F16" s="10">
-        <v>3.33096175520493</v>
+        <v>4.17056230279763</v>
       </c>
       <c r="G16" s="10">
-        <v>4.8204673385758001</v>
+        <v>4.9580985561554298</v>
       </c>
       <c r="H16" s="10">
-        <v>5.4201043239289497</v>
+        <v>5.5271425351110901</v>
       </c>
       <c r="I16" s="10">
-        <v>6.2496106746781201</v>
+        <v>6.0614550093436996</v>
       </c>
       <c r="J16" s="10">
-        <v>6.6855282194435803</v>
+        <v>6.8661599101624704</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="12" thickBot="1">
@@ -31511,31 +32032,31 @@
         <v>76</v>
       </c>
       <c r="B17" s="9">
-        <v>0.616478893769003</v>
+        <v>0.61888993513951196</v>
       </c>
       <c r="C17" s="9">
-        <v>0.65467666063762697</v>
+        <v>0.65776407092896405</v>
       </c>
       <c r="D17" s="9">
-        <v>1.8383245536138</v>
+        <v>1.59001014622979</v>
       </c>
       <c r="E17" s="9">
-        <v>3.4136506324259899</v>
+        <v>3.6068160979109001</v>
       </c>
       <c r="F17" s="9">
-        <v>4.01879908620894</v>
+        <v>4.0444140974754896</v>
       </c>
       <c r="G17" s="9">
-        <v>4.6642855226494797</v>
+        <v>4.7992341986336102</v>
       </c>
       <c r="H17" s="9">
-        <v>5.49023015050855</v>
+        <v>5.4411604141111898</v>
       </c>
       <c r="I17" s="9">
-        <v>6.1643612636166898</v>
+        <v>6.2520118016065602</v>
       </c>
       <c r="J17" s="9">
-        <v>6.9024331543366797</v>
+        <v>6.90951404167199</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="12" thickBot="1">
@@ -31543,31 +32064,31 @@
         <v>77</v>
       </c>
       <c r="B18" s="10">
-        <v>0.61763391506038101</v>
+        <v>0.61671904333622596</v>
       </c>
       <c r="C18" s="10">
-        <v>0.66154988027029404</v>
+        <v>0.66014947955449199</v>
       </c>
       <c r="D18" s="10">
-        <v>2.72754269715016</v>
+        <v>2.3113761935347301</v>
       </c>
       <c r="E18" s="10">
-        <v>3.37196467731067</v>
+        <v>3.5099297792571602</v>
       </c>
       <c r="F18" s="10">
-        <v>4.1549769003653303</v>
+        <v>4.2424106253477696</v>
       </c>
       <c r="G18" s="10">
-        <v>4.8588148509394102</v>
+        <v>4.6184080544808497</v>
       </c>
       <c r="H18" s="10">
-        <v>5.5915870300876502</v>
+        <v>5.4257488593908398</v>
       </c>
       <c r="I18" s="10">
-        <v>6.28544945815612</v>
+        <v>6.3243996802025704</v>
       </c>
       <c r="J18" s="10">
-        <v>6.7941315272638603</v>
+        <v>6.6797353308937897</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="12" thickBot="1">
@@ -31575,79 +32096,79 @@
         <v>78</v>
       </c>
       <c r="B19" s="9">
-        <v>0.61652292623364202</v>
+        <v>0.61443536230951301</v>
       </c>
       <c r="C19" s="9">
-        <v>0.65565618720965002</v>
+        <v>0.66004127748671804</v>
       </c>
       <c r="D19" s="9">
-        <v>2.22939277624346</v>
+        <v>2.6557812765633302</v>
       </c>
       <c r="E19" s="9">
-        <v>3.1616965156335399</v>
+        <v>3.5342616846374102</v>
       </c>
       <c r="F19" s="9">
-        <v>4.4236544985052602</v>
+        <v>4.0728631542486102</v>
       </c>
       <c r="G19" s="9">
-        <v>5.0768605950572203</v>
+        <v>5.1117216944851203</v>
       </c>
       <c r="H19" s="9">
-        <v>5.5322414109571199</v>
+        <v>5.5373455762499297</v>
       </c>
       <c r="I19" s="9">
-        <v>6.2651742732805697</v>
+        <v>6.2148593196845399</v>
       </c>
       <c r="J19" s="9">
-        <v>6.8560905320351901</v>
+        <v>6.8260659342616696</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" s="11">
         <f>AVERAGE(B15:B19)</f>
-        <v>0.61745182386031083</v>
+        <v>0.61832107115506996</v>
       </c>
       <c r="C20" s="11">
         <f>AVERAGE(C15:C19)</f>
-        <v>0.65950420565700441</v>
+        <v>0.66195488046439765</v>
       </c>
       <c r="D20" s="11">
         <f t="shared" ref="D20:J20" si="0">AVERAGE(D15:D19)</f>
-        <v>2.3132442729763381</v>
+        <v>2.397324449242908</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>3.5240925915180119</v>
+        <v>3.68455664336566</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="0"/>
-        <v>4.002934991357364</v>
+        <v>4.0232869564247125</v>
       </c>
       <c r="G20" s="11">
         <f t="shared" si="0"/>
-        <v>4.8368122175077044</v>
+        <v>4.8635988428725039</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="0"/>
-        <v>5.4959486665104063</v>
+        <v>5.4819562017457244</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="0"/>
-        <v>6.2447329655057615</v>
+        <v>6.1974736021901302</v>
       </c>
       <c r="J20" s="11">
         <f t="shared" si="0"/>
-        <v>6.8270118858798172</v>
+        <v>6.8092295964338891</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="B21" s="29">
         <f>VAR(B15:B19)/B20</f>
-        <v>2.4840070481154819E-6</v>
+        <v>1.2676564210440358E-5</v>
       </c>
       <c r="C21" s="29">
         <f>VAR(C15:C19)/C20</f>
-        <v>2.9596301020086071E-5</v>
+        <v>2.342180124045864E-5</v>
       </c>
       <c r="D21" s="4"/>
     </row>
@@ -31809,7 +32330,9 @@
       </c>
     </row>
     <row r="9" spans="1:11">
-      <c r="A9" s="24"/>
+      <c r="A9" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="C9" s="4" t="s">
         <v>52</v>
       </c>
@@ -31818,7 +32341,9 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="24"/>
+      <c r="A10" s="4" t="s">
+        <v>80</v>
+      </c>
       <c r="C10" s="4" t="s">
         <v>53</v>
       </c>
@@ -31883,31 +32408,31 @@
         <v>74</v>
       </c>
       <c r="B15" s="9">
-        <v>0.62002361515329496</v>
+        <v>0.619497793066761</v>
       </c>
       <c r="C15" s="9">
-        <v>0.662289396600237</v>
+        <v>0.665445992805064</v>
       </c>
       <c r="D15" s="9">
-        <v>2.2483909922016601</v>
+        <v>2.8163140517590701</v>
       </c>
       <c r="E15" s="9">
-        <v>4.0059265579861503</v>
+        <v>3.5408119394078001</v>
       </c>
       <c r="F15" s="9">
-        <v>3.5235072562841601</v>
+        <v>4.0862827165023603</v>
       </c>
       <c r="G15" s="9">
-        <v>4.8577321407071397</v>
+        <v>4.7636327803166099</v>
       </c>
       <c r="H15" s="9">
-        <v>5.3592541159690699</v>
+        <v>5.4455804170697597</v>
       </c>
       <c r="I15" s="9">
-        <v>6.1645622011860102</v>
+        <v>6.2590691577973097</v>
       </c>
       <c r="J15" s="9">
-        <v>6.6553388696042601</v>
+        <v>6.8968759963197703</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12" thickBot="1">
@@ -31915,31 +32440,31 @@
         <v>75</v>
       </c>
       <c r="B16" s="10">
-        <v>0.62155618201284901</v>
+        <v>0.61712559117176702</v>
       </c>
       <c r="C16" s="10">
-        <v>0.65913295712833198</v>
+        <v>0.66019230736238699</v>
       </c>
       <c r="D16" s="10">
-        <v>1.1536224714185399</v>
+        <v>1.9546472861152</v>
       </c>
       <c r="E16" s="10">
-        <v>3.5278130217416899</v>
+        <v>4.1323391928120596</v>
       </c>
       <c r="F16" s="10">
-        <v>4.2669370174699202</v>
+        <v>3.33096175520493</v>
       </c>
       <c r="G16" s="10">
-        <v>4.8980796983074102</v>
+        <v>4.8204673385758001</v>
       </c>
       <c r="H16" s="10">
-        <v>5.4753955958026204</v>
+        <v>5.4201043239289497</v>
       </c>
       <c r="I16" s="10">
-        <v>6.2875615772513198</v>
+        <v>6.2496106746781201</v>
       </c>
       <c r="J16" s="10">
-        <v>6.7549522318119903</v>
+        <v>6.6855282194435803</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="12" thickBot="1">
@@ -31947,31 +32472,31 @@
         <v>76</v>
       </c>
       <c r="B17" s="9">
-        <v>0.62109213712048095</v>
+        <v>0.616478893769003</v>
       </c>
       <c r="C17" s="9">
-        <v>0.65964616378167196</v>
+        <v>0.65467666063762697</v>
       </c>
       <c r="D17" s="9">
-        <v>2.5951925950693999</v>
+        <v>1.8383245536138</v>
       </c>
       <c r="E17" s="9">
-        <v>3.10285788152922</v>
+        <v>3.4136506324259899</v>
       </c>
       <c r="F17" s="9">
-        <v>3.9504226887096299</v>
+        <v>4.01879908620894</v>
       </c>
       <c r="G17" s="9">
-        <v>5.0239550091137</v>
+        <v>4.6642855226494797</v>
       </c>
       <c r="H17" s="9">
-        <v>5.6244478739460604</v>
+        <v>5.49023015050855</v>
       </c>
       <c r="I17" s="9">
-        <v>6.27737361192818</v>
+        <v>6.1643612636166898</v>
       </c>
       <c r="J17" s="9">
-        <v>6.9523943933410202</v>
+        <v>6.9024331543366797</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="12" thickBot="1">
@@ -31979,31 +32504,31 @@
         <v>77</v>
       </c>
       <c r="B18" s="10">
-        <v>0.61944308536344495</v>
+        <v>0.61763391506038101</v>
       </c>
       <c r="C18" s="10">
-        <v>0.66068952010285198</v>
+        <v>0.66154988027029404</v>
       </c>
       <c r="D18" s="10">
-        <v>2.67716900337444</v>
+        <v>2.72754269715016</v>
       </c>
       <c r="E18" s="10">
-        <v>3.6103568420569201</v>
+        <v>3.37196467731067</v>
       </c>
       <c r="F18" s="10">
-        <v>4.3237034963097702</v>
+        <v>4.1549769003653303</v>
       </c>
       <c r="G18" s="10">
-        <v>4.7512647273475199</v>
+        <v>4.8588148509394102</v>
       </c>
       <c r="H18" s="10">
-        <v>5.4501678952657704</v>
+        <v>5.5915870300876502</v>
       </c>
       <c r="I18" s="10">
-        <v>5.9781455372810903</v>
+        <v>6.28544945815612</v>
       </c>
       <c r="J18" s="10">
-        <v>6.8505522098505196</v>
+        <v>6.7941315272638603</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="12" thickBot="1">
@@ -32011,79 +32536,79 @@
         <v>78</v>
       </c>
       <c r="B19" s="9">
-        <v>0.613651298931431</v>
+        <v>0.61652292623364202</v>
       </c>
       <c r="C19" s="9">
-        <v>0.65969622220947699</v>
+        <v>0.65565618720965002</v>
       </c>
       <c r="D19" s="9">
-        <v>2.9937229644864001</v>
+        <v>2.22939277624346</v>
       </c>
       <c r="E19" s="9">
-        <v>3.4617294552787401</v>
+        <v>3.1616965156335399</v>
       </c>
       <c r="F19" s="9">
-        <v>3.8168641558418699</v>
+        <v>4.4236544985052602</v>
       </c>
       <c r="G19" s="9">
-        <v>5.1123049059667203</v>
+        <v>5.0768605950572203</v>
       </c>
       <c r="H19" s="9">
-        <v>5.4760962075137796</v>
+        <v>5.5322414109571199</v>
       </c>
       <c r="I19" s="9">
-        <v>6.2145120055375598</v>
+        <v>6.2651742732805697</v>
       </c>
       <c r="J19" s="9">
-        <v>7.0390763744732796</v>
+        <v>6.8560905320351901</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" s="11">
         <f>AVERAGE(B15:B19)</f>
-        <v>0.6191532637163002</v>
+        <v>0.61745182386031083</v>
       </c>
       <c r="C20" s="11">
         <f>AVERAGE(C15:C19)</f>
-        <v>0.66029085196451398</v>
+        <v>0.65950420565700441</v>
       </c>
       <c r="D20" s="11">
         <f t="shared" ref="D20:J20" si="0">AVERAGE(D15:D19)</f>
-        <v>2.3336196053100879</v>
+        <v>2.3132442729763381</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>3.5417367517185441</v>
+        <v>3.5240925915180119</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="0"/>
-        <v>3.9762869229230704</v>
+        <v>4.002934991357364</v>
       </c>
       <c r="G20" s="11">
         <f t="shared" si="0"/>
-        <v>4.9286672962884985</v>
+        <v>4.8368122175077044</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="0"/>
-        <v>5.4770723376994601</v>
+        <v>5.4959486665104063</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="0"/>
-        <v>6.1844309866368317</v>
+        <v>6.2447329655057615</v>
       </c>
       <c r="J20" s="11">
         <f t="shared" si="0"/>
-        <v>6.8504628158162149</v>
+        <v>6.8270118858798172</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="B21" s="29">
         <f>VAR(B15:B19)/B20</f>
-        <v>1.6412079812974312E-5</v>
+        <v>2.4840070481154819E-6</v>
       </c>
       <c r="C21" s="29">
         <f>VAR(C15:C19)/C20</f>
-        <v>2.3713204481016335E-6</v>
+        <v>2.9596301020086071E-5</v>
       </c>
       <c r="D21" s="4"/>
     </row>
@@ -32130,7 +32655,7 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
-    <tabColor rgb="FFFF0000"/>
+    <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
   <dimension ref="A1:K27"/>
   <sheetViews>
@@ -32234,7 +32759,9 @@
       </c>
     </row>
     <row r="8" spans="1:11">
-      <c r="A8" s="24"/>
+      <c r="A8" s="4" t="s">
+        <v>60</v>
+      </c>
       <c r="C8" s="4" t="s">
         <v>51</v>
       </c>
@@ -32317,31 +32844,31 @@
         <v>74</v>
       </c>
       <c r="B15" s="9">
-        <v>0.61959623506486095</v>
+        <v>0.62002361515329496</v>
       </c>
       <c r="C15" s="9">
-        <v>0.66405061863720605</v>
+        <v>0.662289396600237</v>
       </c>
       <c r="D15" s="9">
-        <v>3.01452788605167</v>
+        <v>2.2483909922016601</v>
       </c>
       <c r="E15" s="9">
-        <v>3.4831443767686898</v>
+        <v>4.0059265579861503</v>
       </c>
       <c r="F15" s="9">
-        <v>4.1030653255512402</v>
+        <v>3.5235072562841601</v>
       </c>
       <c r="G15" s="9">
-        <v>4.8258765102472898</v>
+        <v>4.8577321407071397</v>
       </c>
       <c r="H15" s="9">
-        <v>5.4183430672878501</v>
+        <v>5.3592541159690699</v>
       </c>
       <c r="I15" s="9">
-        <v>6.1729303625711998</v>
+        <v>6.1645622011860102</v>
       </c>
       <c r="J15" s="9">
-        <v>6.8569107477479996</v>
+        <v>6.6553388696042601</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12" thickBot="1">
@@ -32349,31 +32876,31 @@
         <v>75</v>
       </c>
       <c r="B16" s="10">
-        <v>0.61895881390722296</v>
+        <v>0.62155618201284901</v>
       </c>
       <c r="C16" s="10">
-        <v>0.66686417826211997</v>
+        <v>0.65913295712833198</v>
       </c>
       <c r="D16" s="10">
-        <v>2.7530410354087298</v>
+        <v>1.1536224714185399</v>
       </c>
       <c r="E16" s="10">
-        <v>3.6477216661115901</v>
+        <v>3.5278130217416899</v>
       </c>
       <c r="F16" s="10">
-        <v>4.3107534056737604</v>
+        <v>4.2669370174699202</v>
       </c>
       <c r="G16" s="10">
-        <v>5.0233186213791203</v>
+        <v>4.8980796983074102</v>
       </c>
       <c r="H16" s="10">
-        <v>5.5538901655734803</v>
+        <v>5.4753955958026204</v>
       </c>
       <c r="I16" s="10">
-        <v>6.1129435042874301</v>
+        <v>6.2875615772513198</v>
       </c>
       <c r="J16" s="10">
-        <v>6.7610158587790101</v>
+        <v>6.7549522318119903</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="12" thickBot="1">
@@ -32381,31 +32908,31 @@
         <v>76</v>
       </c>
       <c r="B17" s="9">
-        <v>0.61735133704067102</v>
+        <v>0.62109213712048095</v>
       </c>
       <c r="C17" s="9">
-        <v>0.65809158857677696</v>
+        <v>0.65964616378167196</v>
       </c>
       <c r="D17" s="9">
-        <v>1.99063672693537</v>
+        <v>2.5951925950693999</v>
       </c>
       <c r="E17" s="9">
-        <v>3.49530278850201</v>
+        <v>3.10285788152922</v>
       </c>
       <c r="F17" s="9">
-        <v>4.0950601538952096</v>
+        <v>3.9504226887096299</v>
       </c>
       <c r="G17" s="9">
-        <v>4.8044678104111398</v>
+        <v>5.0239550091137</v>
       </c>
       <c r="H17" s="9">
-        <v>5.2882976129994601</v>
+        <v>5.6244478739460604</v>
       </c>
       <c r="I17" s="9">
-        <v>6.3684764544370598</v>
+        <v>6.27737361192818</v>
       </c>
       <c r="J17" s="9">
-        <v>6.7662670876523796</v>
+        <v>6.9523943933410202</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="12" thickBot="1">
@@ -32413,31 +32940,31 @@
         <v>77</v>
       </c>
       <c r="B18" s="10">
-        <v>0.61877686956688305</v>
+        <v>0.61944308536344495</v>
       </c>
       <c r="C18" s="10">
-        <v>0.66074293909069504</v>
+        <v>0.66068952010285198</v>
       </c>
       <c r="D18" s="10">
-        <v>2.6218370401712701</v>
+        <v>2.67716900337444</v>
       </c>
       <c r="E18" s="10">
-        <v>4.06003919373416</v>
+        <v>3.6103568420569201</v>
       </c>
       <c r="F18" s="10">
-        <v>3.2517103512354302</v>
+        <v>4.3237034963097702</v>
       </c>
       <c r="G18" s="10">
-        <v>4.7486908846323601</v>
+        <v>4.7512647273475199</v>
       </c>
       <c r="H18" s="10">
-        <v>5.3965719281343398</v>
+        <v>5.4501678952657704</v>
       </c>
       <c r="I18" s="10">
-        <v>6.1635841392441897</v>
+        <v>5.9781455372810903</v>
       </c>
       <c r="J18" s="10">
-        <v>6.6428315963850899</v>
+        <v>6.8505522098505196</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="12" thickBot="1">
@@ -32445,79 +32972,79 @@
         <v>78</v>
       </c>
       <c r="B19" s="9">
-        <v>0.61487646004893504</v>
+        <v>0.613651298931431</v>
       </c>
       <c r="C19" s="9">
-        <v>0.66116849596693605</v>
+        <v>0.65969622220947699</v>
       </c>
       <c r="D19" s="9">
-        <v>3.4956877942267002</v>
+        <v>2.9937229644864001</v>
       </c>
       <c r="E19" s="9">
-        <v>2.9606202805374999</v>
+        <v>3.4617294552787401</v>
       </c>
       <c r="F19" s="9">
-        <v>4.5191289719740704</v>
+        <v>3.8168641558418699</v>
       </c>
       <c r="G19" s="9">
-        <v>4.98721495618351</v>
+        <v>5.1123049059667203</v>
       </c>
       <c r="H19" s="9">
-        <v>5.7036946510497604</v>
+        <v>5.4760962075137796</v>
       </c>
       <c r="I19" s="9">
-        <v>6.1828954340008204</v>
+        <v>6.2145120055375598</v>
       </c>
       <c r="J19" s="9">
-        <v>6.71506095555445</v>
+        <v>7.0390763744732796</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="B20" s="11">
         <f>AVERAGE(B15:B19)</f>
-        <v>0.61791194312571462</v>
+        <v>0.6191532637163002</v>
       </c>
       <c r="C20" s="11">
         <f>AVERAGE(C15:C19)</f>
-        <v>0.66218356410674672</v>
+        <v>0.66029085196451398</v>
       </c>
       <c r="D20" s="11">
         <f t="shared" ref="D20:J20" si="0">AVERAGE(D15:D19)</f>
-        <v>2.7751460965587484</v>
+        <v>2.3336196053100879</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>3.5293656611307904</v>
+        <v>3.5417367517185441</v>
       </c>
       <c r="F20" s="11">
         <f t="shared" si="0"/>
-        <v>4.0559436416659418</v>
+        <v>3.9762869229230704</v>
       </c>
       <c r="G20" s="11">
         <f t="shared" si="0"/>
-        <v>4.8779137565706838</v>
+        <v>4.9286672962884985</v>
       </c>
       <c r="H20" s="11">
         <f t="shared" si="0"/>
-        <v>5.4721594850089783</v>
+        <v>5.4770723376994601</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="0"/>
-        <v>6.2001659789081396</v>
+        <v>6.1844309866368317</v>
       </c>
       <c r="J20" s="11">
         <f t="shared" si="0"/>
-        <v>6.7484172492237864</v>
+        <v>6.8504628158162149</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="B21" s="29">
         <f>VAR(B15:B19)/B20</f>
-        <v>5.7489227907647496E-6</v>
+        <v>1.6412079812974312E-5</v>
       </c>
       <c r="C21" s="29">
         <f>VAR(C15:C19)/C20</f>
-        <v>1.7081392323375241E-5</v>
+        <v>2.3713204481016335E-6</v>
       </c>
       <c r="D21" s="4"/>
     </row>

--- a/model_cv_log.xlsx
+++ b/model_cv_log.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1490" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1497" uniqueCount="179">
   <si>
     <t>rsme+kappa</t>
   </si>
@@ -616,6 +616,58 @@
   <si>
     <t>-q : quiet mode (no outputs)</t>
   </si>
+  <si>
+    <t>./svm-predict -b 0 test.scale total.scale.model submission_20160215_libsvm_0_2_c100.csv</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">./svm-train </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-s 3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -c 100 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-t 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Calibri"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> -e 0.01 -m 12288 -b 1 -h 1 train.scale</t>
+    </r>
+  </si>
+  <si>
+    <t>./ffm-train -p test_ffm.txt -l 0.00002 -k 4 -r 0.015 -t 50 -s 4 --auto-stop train_ffm.txt</t>
+  </si>
+  <si>
+    <t>./svm-scale -l -1 -u 1 -s range total_svm.txt &gt; train.scale</t>
+  </si>
 </sst>
 </file>
 
@@ -1021,7 +1073,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="165">
+  <cellStyleXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1113,6 +1165,44 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1284,7 +1374,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="165">
+  <cellStyles count="203">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1366,6 +1456,25 @@
     <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1447,6 +1556,25 @@
     <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="Linked Cell" xfId="21" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="90" builtinId="5"/>
@@ -20161,10 +20289,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:Q52"/>
+  <dimension ref="B2:Q63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -20431,24 +20559,55 @@
         <v>170</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:11">
       <c r="B49" s="44" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:11">
       <c r="B50" s="45" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:11">
       <c r="B51" s="45" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:11">
       <c r="B52" s="45" t="s">
         <v>174</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11">
+      <c r="C59" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="K59" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11">
+      <c r="C60" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="K60" s="42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11">
+      <c r="C61" s="45" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11">
+      <c r="C62" s="45" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11">
+      <c r="C63" s="42" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/model_cv_log.xlsx
+++ b/model_cv_log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="36940" yWindow="300" windowWidth="30720" windowHeight="25480" tabRatio="831" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="37580" yWindow="12920" windowWidth="30720" windowHeight="14140" tabRatio="831" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -617,7 +617,10 @@
     <t>-q : quiet mode (no outputs)</t>
   </si>
   <si>
-    <t>./svm-predict -b 0 test.scale total.scale.model submission_20160215_libsvm_0_2_c100.csv</t>
+    <t>./ffm-train -p test_ffm.txt -l 0.00002 -k 4 -r 0.015 -t 50 -s 4 --auto-stop train_ffm.txt</t>
+  </si>
+  <si>
+    <t>./svm-scale -l -1 -u 1 -s range total_svm.txt &gt; train.scale</t>
   </si>
   <si>
     <r>
@@ -640,7 +643,7 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> -c 100 </t>
+      <t xml:space="preserve"> </t>
     </r>
     <r>
       <rPr>
@@ -659,14 +662,11 @@
         <rFont val="Calibri"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> -e 0.01 -m 12288 -b 1 -h 1 train.scale</t>
+      <t xml:space="preserve"> -e 0.001 -m 12288 -h 1 train.scale</t>
     </r>
   </si>
   <si>
-    <t>./ffm-train -p test_ffm.txt -l 0.00002 -k 4 -r 0.015 -t 50 -s 4 --auto-stop train_ffm.txt</t>
-  </si>
-  <si>
-    <t>./svm-scale -l -1 -u 1 -s range total_svm.txt &gt; train.scale</t>
+    <t>./svm-predict -b 0 test.scale total.scale.model submission_20160215_libsvm_epsilon.csv</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1073,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="203">
+  <cellStyleXfs count="215">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1165,6 +1165,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1374,7 +1386,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="203">
+  <cellStyles count="215">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1475,6 +1487,12 @@
     <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1575,6 +1593,12 @@
     <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
     <cellStyle name="Linked Cell" xfId="21" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="90" builtinId="5"/>
@@ -20291,8 +20315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B30" workbookViewId="0">
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -20581,10 +20605,10 @@
     </row>
     <row r="59" spans="2:11">
       <c r="C59" s="42" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K59" s="42" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="2:11">
@@ -20602,12 +20626,12 @@
     </row>
     <row r="62" spans="2:11">
       <c r="C62" s="45" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="2:11">
       <c r="C63" s="42" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/model_cv_log.xlsx
+++ b/model_cv_log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="37580" yWindow="12920" windowWidth="30720" windowHeight="14140" tabRatio="831" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="831" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -666,7 +666,7 @@
     </r>
   </si>
   <si>
-    <t>./svm-predict -b 0 test.scale total.scale.model submission_20160215_libsvm_epsilon.csv</t>
+    <t>./svm-predict -b 0 test.scale train.scale.model submission_20160215_libsvm_epsilon.csv</t>
   </si>
 </sst>
 </file>
@@ -1073,7 +1073,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="215">
+  <cellStyleXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1289,6 +1289,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1357,6 +1361,10 @@
     <xf numFmtId="164" fontId="9" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1381,12 +1389,8 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="215">
+  <cellStyles count="219">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1493,6 +1497,8 @@
     <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1599,6 +1605,8 @@
     <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
     <cellStyle name="Linked Cell" xfId="21" builtinId="24"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="90" builtinId="5"/>
@@ -1716,11 +1724,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2065140920"/>
-        <c:axId val="2065143848"/>
+        <c:axId val="2108147144"/>
+        <c:axId val="2108149992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2065140920"/>
+        <c:axId val="2108147144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1730,12 +1738,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2065143848"/>
+        <c:crossAx val="2108149992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2065143848"/>
+        <c:axId val="2108149992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1745,7 +1753,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2065140920"/>
+        <c:crossAx val="2108147144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1882,11 +1890,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2126529656"/>
-        <c:axId val="-2127477816"/>
+        <c:axId val="2069841032"/>
+        <c:axId val="2069843912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2126529656"/>
+        <c:axId val="2069841032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1896,12 +1904,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127477816"/>
+        <c:crossAx val="2069843912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2127477816"/>
+        <c:axId val="2069843912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1911,7 +1919,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126529656"/>
+        <c:crossAx val="2069841032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2078,11 +2086,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2127519016"/>
-        <c:axId val="-2127521880"/>
+        <c:axId val="2106569784"/>
+        <c:axId val="2105885960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2127519016"/>
+        <c:axId val="2106569784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2092,12 +2100,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127521880"/>
+        <c:crossAx val="2105885960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2127521880"/>
+        <c:axId val="2105885960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2107,7 +2115,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127519016"/>
+        <c:crossAx val="2106569784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2274,11 +2282,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2127549784"/>
-        <c:axId val="-2127552648"/>
+        <c:axId val="2105858552"/>
+        <c:axId val="2105855688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2127549784"/>
+        <c:axId val="2105858552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2288,12 +2296,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127552648"/>
+        <c:crossAx val="2105855688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2127552648"/>
+        <c:axId val="2105855688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2303,7 +2311,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127549784"/>
+        <c:crossAx val="2105858552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2470,11 +2478,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2126120312"/>
-        <c:axId val="-2126117432"/>
+        <c:axId val="2105810344"/>
+        <c:axId val="2105807480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2126120312"/>
+        <c:axId val="2105810344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2484,12 +2492,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126117432"/>
+        <c:crossAx val="2105807480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2126117432"/>
+        <c:axId val="2105807480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2499,7 +2507,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126120312"/>
+        <c:crossAx val="2105810344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2666,11 +2674,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2125312072"/>
-        <c:axId val="-2125309192"/>
+        <c:axId val="2105779784"/>
+        <c:axId val="2105776920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2125312072"/>
+        <c:axId val="2105779784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2680,12 +2688,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125309192"/>
+        <c:crossAx val="2105776920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2125309192"/>
+        <c:axId val="2105776920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2695,7 +2703,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125312072"/>
+        <c:crossAx val="2105779784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2862,11 +2870,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2125255720"/>
-        <c:axId val="-2125252840"/>
+        <c:axId val="2105730056"/>
+        <c:axId val="2105727192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2125255720"/>
+        <c:axId val="2105730056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2876,12 +2884,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125252840"/>
+        <c:crossAx val="2105727192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2125252840"/>
+        <c:axId val="2105727192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2891,7 +2899,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125255720"/>
+        <c:crossAx val="2105730056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3058,11 +3066,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2125224856"/>
-        <c:axId val="-2125221976"/>
+        <c:axId val="2105699256"/>
+        <c:axId val="2105696392"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2125224856"/>
+        <c:axId val="2105699256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3072,12 +3080,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125221976"/>
+        <c:crossAx val="2105696392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2125221976"/>
+        <c:axId val="2105696392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3087,7 +3095,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125224856"/>
+        <c:crossAx val="2105699256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3254,11 +3262,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2127710856"/>
-        <c:axId val="-2127707976"/>
+        <c:axId val="2105649224"/>
+        <c:axId val="2105646360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2127710856"/>
+        <c:axId val="2105649224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3268,12 +3276,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127707976"/>
+        <c:crossAx val="2105646360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2127707976"/>
+        <c:axId val="2105646360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3283,7 +3291,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127710856"/>
+        <c:crossAx val="2105649224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3450,11 +3458,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2127680984"/>
-        <c:axId val="-2127678104"/>
+        <c:axId val="2105618136"/>
+        <c:axId val="2105615272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2127680984"/>
+        <c:axId val="2105618136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3464,12 +3472,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127678104"/>
+        <c:crossAx val="2105615272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2127678104"/>
+        <c:axId val="2105615272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3479,7 +3487,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127680984"/>
+        <c:crossAx val="2105618136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3646,11 +3654,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2126145432"/>
-        <c:axId val="-2126134840"/>
+        <c:axId val="2105568456"/>
+        <c:axId val="2105565592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2126145432"/>
+        <c:axId val="2105568456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3660,12 +3668,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126134840"/>
+        <c:crossAx val="2105565592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2126134840"/>
+        <c:axId val="2105565592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3675,7 +3683,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126145432"/>
+        <c:crossAx val="2105568456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3812,11 +3820,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2126710776"/>
-        <c:axId val="-2126707896"/>
+        <c:axId val="2108239896"/>
+        <c:axId val="2108242776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2126710776"/>
+        <c:axId val="2108239896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3826,12 +3834,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126707896"/>
+        <c:crossAx val="2108242776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2126707896"/>
+        <c:axId val="2108242776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3841,7 +3849,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126710776"/>
+        <c:crossAx val="2108239896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4008,11 +4016,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2126079256"/>
-        <c:axId val="-2126076376"/>
+        <c:axId val="2110083784"/>
+        <c:axId val="2110086664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2126079256"/>
+        <c:axId val="2110083784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4022,12 +4030,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126076376"/>
+        <c:crossAx val="2110086664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2126076376"/>
+        <c:axId val="2110086664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4037,7 +4045,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126079256"/>
+        <c:crossAx val="2110083784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4204,11 +4212,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2124282408"/>
-        <c:axId val="-2124279528"/>
+        <c:axId val="2110133848"/>
+        <c:axId val="2110136728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2124282408"/>
+        <c:axId val="2110133848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4218,12 +4226,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124279528"/>
+        <c:crossAx val="2110136728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2124279528"/>
+        <c:axId val="2110136728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4233,7 +4241,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124282408"/>
+        <c:crossAx val="2110133848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4400,11 +4408,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2124251608"/>
-        <c:axId val="-2124248728"/>
+        <c:axId val="2110164648"/>
+        <c:axId val="2110167528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2124251608"/>
+        <c:axId val="2110164648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4414,12 +4422,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124248728"/>
+        <c:crossAx val="2110167528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2124248728"/>
+        <c:axId val="2110167528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4429,7 +4437,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124251608"/>
+        <c:crossAx val="2110164648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4596,11 +4604,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2126038024"/>
-        <c:axId val="-2126035144"/>
+        <c:axId val="2110215304"/>
+        <c:axId val="2110218184"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2126038024"/>
+        <c:axId val="2110215304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4610,12 +4618,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126035144"/>
+        <c:crossAx val="2110218184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2126035144"/>
+        <c:axId val="2110218184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4625,7 +4633,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126038024"/>
+        <c:crossAx val="2110215304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4792,11 +4800,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2126004648"/>
-        <c:axId val="2065156392"/>
+        <c:axId val="2110246104"/>
+        <c:axId val="2110248984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2126004648"/>
+        <c:axId val="2110246104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4806,12 +4814,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2065156392"/>
+        <c:crossAx val="2110248984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2065156392"/>
+        <c:axId val="2110248984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4821,7 +4829,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126004648"/>
+        <c:crossAx val="2110246104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4988,11 +4996,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2065182488"/>
-        <c:axId val="2065185368"/>
+        <c:axId val="2110304536"/>
+        <c:axId val="2110307416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2065182488"/>
+        <c:axId val="2110304536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5002,12 +5010,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2065185368"/>
+        <c:crossAx val="2110307416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2065185368"/>
+        <c:axId val="2110307416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5017,7 +5025,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2065182488"/>
+        <c:crossAx val="2110304536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5184,11 +5192,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2127664280"/>
-        <c:axId val="-2127661400"/>
+        <c:axId val="2110335336"/>
+        <c:axId val="2110338216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2127664280"/>
+        <c:axId val="2110335336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5198,12 +5206,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127661400"/>
+        <c:crossAx val="2110338216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2127661400"/>
+        <c:axId val="2110338216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5213,7 +5221,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127664280"/>
+        <c:crossAx val="2110335336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5380,11 +5388,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2125157352"/>
-        <c:axId val="-2125154472"/>
+        <c:axId val="2110384344"/>
+        <c:axId val="2110387224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2125157352"/>
+        <c:axId val="2110384344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5394,12 +5402,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125154472"/>
+        <c:crossAx val="2110387224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2125154472"/>
+        <c:axId val="2110387224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5409,7 +5417,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125157352"/>
+        <c:crossAx val="2110384344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5576,11 +5584,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2125992632"/>
-        <c:axId val="-2125989752"/>
+        <c:axId val="2110415144"/>
+        <c:axId val="2110418024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2125992632"/>
+        <c:axId val="2110415144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5590,12 +5598,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125989752"/>
+        <c:crossAx val="2110418024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2125989752"/>
+        <c:axId val="2110418024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5605,7 +5613,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125992632"/>
+        <c:crossAx val="2110415144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5772,11 +5780,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2125930312"/>
-        <c:axId val="-2125927432"/>
+        <c:axId val="2108607656"/>
+        <c:axId val="2108610536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2125930312"/>
+        <c:axId val="2108607656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5786,12 +5794,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125927432"/>
+        <c:crossAx val="2108610536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2125927432"/>
+        <c:axId val="2108610536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5801,7 +5809,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125930312"/>
+        <c:crossAx val="2108607656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5938,11 +5946,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2068296424"/>
-        <c:axId val="2068299304"/>
+        <c:axId val="2108285064"/>
+        <c:axId val="2108287944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2068296424"/>
+        <c:axId val="2108285064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5952,12 +5960,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2068299304"/>
+        <c:crossAx val="2108287944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2068299304"/>
+        <c:axId val="2108287944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5967,7 +5975,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2068296424"/>
+        <c:crossAx val="2108285064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6134,11 +6142,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2125898952"/>
-        <c:axId val="-2125896072"/>
+        <c:axId val="2108639016"/>
+        <c:axId val="2108641896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2125898952"/>
+        <c:axId val="2108639016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6148,12 +6156,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125896072"/>
+        <c:crossAx val="2108641896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2125896072"/>
+        <c:axId val="2108641896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6163,7 +6171,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125898952"/>
+        <c:crossAx val="2108639016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6330,11 +6338,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2065196536"/>
-        <c:axId val="2065199416"/>
+        <c:axId val="2107963736"/>
+        <c:axId val="2107960872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2065196536"/>
+        <c:axId val="2107963736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6344,12 +6352,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2065199416"/>
+        <c:crossAx val="2107960872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2065199416"/>
+        <c:axId val="2107960872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6359,7 +6367,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2065196536"/>
+        <c:crossAx val="2107963736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6526,11 +6534,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2127624312"/>
-        <c:axId val="-2127621432"/>
+        <c:axId val="2107932936"/>
+        <c:axId val="2107930072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2127624312"/>
+        <c:axId val="2107932936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6540,12 +6548,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127621432"/>
+        <c:crossAx val="2107930072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2127621432"/>
+        <c:axId val="2107930072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6555,7 +6563,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127624312"/>
+        <c:crossAx val="2107932936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6722,11 +6730,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2125112184"/>
-        <c:axId val="-2125109304"/>
+        <c:axId val="2107883992"/>
+        <c:axId val="2107881128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2125112184"/>
+        <c:axId val="2107883992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6736,12 +6744,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125109304"/>
+        <c:crossAx val="2107881128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2125109304"/>
+        <c:axId val="2107881128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6751,7 +6759,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125112184"/>
+        <c:crossAx val="2107883992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6918,11 +6926,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2125080792"/>
-        <c:axId val="-2125077912"/>
+        <c:axId val="2107852648"/>
+        <c:axId val="2107849784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2125080792"/>
+        <c:axId val="2107852648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6932,12 +6940,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125077912"/>
+        <c:crossAx val="2107849784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2125077912"/>
+        <c:axId val="2107849784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6947,7 +6955,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125080792"/>
+        <c:crossAx val="2107852648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7114,11 +7122,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2128528648"/>
-        <c:axId val="-2128531512"/>
+        <c:axId val="2107804152"/>
+        <c:axId val="2107801288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2128528648"/>
+        <c:axId val="2107804152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7128,12 +7136,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128531512"/>
+        <c:crossAx val="2107801288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2128531512"/>
+        <c:axId val="2107801288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7143,7 +7151,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128528648"/>
+        <c:crossAx val="2107804152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7310,11 +7318,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2128559448"/>
-        <c:axId val="-2128562312"/>
+        <c:axId val="2107773352"/>
+        <c:axId val="2107770488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2128559448"/>
+        <c:axId val="2107773352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7324,12 +7332,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128562312"/>
+        <c:crossAx val="2107770488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2128562312"/>
+        <c:axId val="2107770488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7339,7 +7347,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128559448"/>
+        <c:crossAx val="2107773352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7506,11 +7514,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2125839240"/>
-        <c:axId val="-2125836360"/>
+        <c:axId val="2107724824"/>
+        <c:axId val="2107721960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2125839240"/>
+        <c:axId val="2107724824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7520,12 +7528,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125836360"/>
+        <c:crossAx val="2107721960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2125836360"/>
+        <c:axId val="2107721960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7535,7 +7543,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125839240"/>
+        <c:crossAx val="2107724824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7702,11 +7710,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2128568280"/>
-        <c:axId val="-2128550168"/>
+        <c:axId val="2107694104"/>
+        <c:axId val="2107691240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2128568280"/>
+        <c:axId val="2107694104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7716,12 +7724,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128550168"/>
+        <c:crossAx val="2107691240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2128550168"/>
+        <c:axId val="2107691240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7731,7 +7739,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2128568280"/>
+        <c:crossAx val="2107694104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7898,11 +7906,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2124188920"/>
-        <c:axId val="-2124186040"/>
+        <c:axId val="2107644872"/>
+        <c:axId val="2107642008"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2124188920"/>
+        <c:axId val="2107644872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7912,12 +7920,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124186040"/>
+        <c:crossAx val="2107642008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2124186040"/>
+        <c:axId val="2107642008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7927,7 +7935,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124188920"/>
+        <c:crossAx val="2107644872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8064,11 +8072,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2126688184"/>
-        <c:axId val="-2126685304"/>
+        <c:axId val="2108330424"/>
+        <c:axId val="2108333304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2126688184"/>
+        <c:axId val="2108330424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8078,12 +8086,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126685304"/>
+        <c:crossAx val="2108333304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2126685304"/>
+        <c:axId val="2108333304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8093,7 +8101,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126688184"/>
+        <c:crossAx val="2108330424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8260,11 +8268,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2124157512"/>
-        <c:axId val="-2124154632"/>
+        <c:axId val="2111153096"/>
+        <c:axId val="2111155976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2124157512"/>
+        <c:axId val="2111153096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8274,12 +8282,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124154632"/>
+        <c:crossAx val="2111155976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2124154632"/>
+        <c:axId val="2111155976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8289,7 +8297,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124157512"/>
+        <c:crossAx val="2111153096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8456,11 +8464,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2125036472"/>
-        <c:axId val="-2125033592"/>
+        <c:axId val="2111201880"/>
+        <c:axId val="2111204760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2125036472"/>
+        <c:axId val="2111201880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8470,12 +8478,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125033592"/>
+        <c:crossAx val="2111204760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2125033592"/>
+        <c:axId val="2111204760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8485,7 +8493,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125036472"/>
+        <c:crossAx val="2111201880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8652,11 +8660,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2125006680"/>
-        <c:axId val="-2125003800"/>
+        <c:axId val="2111232600"/>
+        <c:axId val="2111235480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2125006680"/>
+        <c:axId val="2111232600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8666,12 +8674,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125003800"/>
+        <c:crossAx val="2111235480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2125003800"/>
+        <c:axId val="2111235480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8681,7 +8689,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125006680"/>
+        <c:crossAx val="2111232600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -8848,11 +8856,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2124145416"/>
-        <c:axId val="-2124142536"/>
+        <c:axId val="2111281848"/>
+        <c:axId val="2111284728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2124145416"/>
+        <c:axId val="2111281848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8862,12 +8870,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124142536"/>
+        <c:crossAx val="2111284728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2124142536"/>
+        <c:axId val="2111284728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8877,7 +8885,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124145416"/>
+        <c:crossAx val="2111281848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9044,11 +9052,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2124107592"/>
-        <c:axId val="-2124104712"/>
+        <c:axId val="2111312648"/>
+        <c:axId val="2111315528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2124107592"/>
+        <c:axId val="2111312648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9058,12 +9066,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124104712"/>
+        <c:crossAx val="2111315528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2124104712"/>
+        <c:axId val="2111315528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9073,7 +9081,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124107592"/>
+        <c:crossAx val="2111312648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9198,11 +9206,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2124992280"/>
-        <c:axId val="-2124989400"/>
+        <c:axId val="2111362376"/>
+        <c:axId val="2111365256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2124992280"/>
+        <c:axId val="2111362376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9212,12 +9220,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124989400"/>
+        <c:crossAx val="2111365256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2124989400"/>
+        <c:axId val="2111365256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9227,7 +9235,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124992280"/>
+        <c:crossAx val="2111362376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9352,11 +9360,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2124957288"/>
-        <c:axId val="-2124954408"/>
+        <c:axId val="2111393176"/>
+        <c:axId val="2111396056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2124957288"/>
+        <c:axId val="2111393176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9366,12 +9374,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124954408"/>
+        <c:crossAx val="2111396056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2124954408"/>
+        <c:axId val="2111396056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9381,7 +9389,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2124957288"/>
+        <c:crossAx val="2111393176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9518,11 +9526,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2125339528"/>
-        <c:axId val="-2125336648"/>
+        <c:axId val="2108375896"/>
+        <c:axId val="2108378776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2125339528"/>
+        <c:axId val="2108375896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9532,12 +9540,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125336648"/>
+        <c:crossAx val="2108378776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2125336648"/>
+        <c:axId val="2108378776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9547,7 +9555,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2125339528"/>
+        <c:crossAx val="2108375896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9684,11 +9692,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2126638968"/>
-        <c:axId val="-2126636088"/>
+        <c:axId val="2108421064"/>
+        <c:axId val="2108423944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2126638968"/>
+        <c:axId val="2108421064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9698,12 +9706,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126636088"/>
+        <c:crossAx val="2108423944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2126636088"/>
+        <c:axId val="2108423944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9713,7 +9721,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126638968"/>
+        <c:crossAx val="2108421064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9850,11 +9858,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2127766040"/>
-        <c:axId val="-2127763160"/>
+        <c:axId val="2108466616"/>
+        <c:axId val="2108469496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2127766040"/>
+        <c:axId val="2108466616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9864,12 +9872,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127763160"/>
+        <c:crossAx val="2108469496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2127763160"/>
+        <c:axId val="2108469496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9879,7 +9887,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127766040"/>
+        <c:crossAx val="2108466616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10016,11 +10024,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2126595800"/>
-        <c:axId val="-2126592920"/>
+        <c:axId val="2108511080"/>
+        <c:axId val="2108513960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2126595800"/>
+        <c:axId val="2108511080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10030,12 +10038,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126592920"/>
+        <c:crossAx val="2108513960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2126592920"/>
+        <c:axId val="2108513960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10045,7 +10053,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126595800"/>
+        <c:crossAx val="2108511080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10182,11 +10190,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2126587448"/>
-        <c:axId val="-2126584568"/>
+        <c:axId val="2108557208"/>
+        <c:axId val="2108560088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2126587448"/>
+        <c:axId val="2108557208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10196,12 +10204,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126584568"/>
+        <c:crossAx val="2108560088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2126584568"/>
+        <c:axId val="2108560088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10211,7 +10219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126587448"/>
+        <c:crossAx val="2108557208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -20315,322 +20323,322 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:Q63"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B30" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B52" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="15" width="10.83203125" style="42"/>
-    <col min="16" max="16" width="53" style="42" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="10.83203125" style="42"/>
+    <col min="1" max="15" width="10.83203125" style="34"/>
+    <col min="16" max="16" width="53" style="34" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="10.83203125" style="34"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
-      <c r="O2" s="43">
+      <c r="O2" s="35">
         <v>0.63549999999999995</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="35" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="O3" s="43">
+      <c r="O3" s="35">
         <v>0.64039999999999997</v>
       </c>
-      <c r="P3" s="43" t="s">
+      <c r="P3" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="Q3" s="43" t="s">
+      <c r="Q3" s="35" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="O4" s="43">
+      <c r="O4" s="35">
         <v>0.65200000000000002</v>
       </c>
-      <c r="P4" s="43" t="s">
+      <c r="P4" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="Q4" s="43">
+      <c r="Q4" s="35">
         <v>0.64517199999999997</v>
       </c>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="34" t="s">
         <v>129</v>
       </c>
-      <c r="O5" s="43">
+      <c r="O5" s="35">
         <v>0.60929999999999995</v>
       </c>
-      <c r="P5" s="43" t="s">
+      <c r="P5" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="Q5" s="43"/>
+      <c r="Q5" s="35"/>
     </row>
     <row r="6" spans="2:17">
-      <c r="O6" s="43">
+      <c r="O6" s="35">
         <v>0.61009999999999998</v>
       </c>
-      <c r="P6" s="43" t="s">
+      <c r="P6" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="Q6" s="43"/>
+      <c r="Q6" s="35"/>
     </row>
     <row r="7" spans="2:17">
-      <c r="O7" s="43">
+      <c r="O7" s="35">
         <v>0.51</v>
       </c>
-      <c r="P7" s="43" t="s">
+      <c r="P7" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="Q7" s="43"/>
+      <c r="Q7" s="35"/>
     </row>
     <row r="8" spans="2:17">
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="O8" s="43"/>
-      <c r="P8" s="43" t="s">
+      <c r="O8" s="35"/>
+      <c r="P8" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="Q8" s="43"/>
+      <c r="Q8" s="35"/>
     </row>
     <row r="9" spans="2:17">
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="O9" s="43"/>
-      <c r="P9" s="43" t="s">
+      <c r="O9" s="35"/>
+      <c r="P9" s="35" t="s">
         <v>137</v>
       </c>
-      <c r="Q9" s="43"/>
+      <c r="Q9" s="35"/>
     </row>
     <row r="10" spans="2:17">
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="34" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="13" spans="2:17">
-      <c r="O13" s="42" t="s">
+      <c r="O13" s="34" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="14" spans="2:17">
-      <c r="O14" s="45" t="s">
+      <c r="O14" s="37" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="15" spans="2:17">
-      <c r="O15" s="45" t="s">
+      <c r="O15" s="37" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="16" spans="2:17">
-      <c r="B16" s="45" t="s">
+      <c r="B16" s="37" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="17" spans="2:15">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="37" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="18" spans="2:15">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="37" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="19" spans="2:15">
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="37" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="21" spans="2:15">
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="37" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="22" spans="2:15">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="37" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="23" spans="2:15">
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="34" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="27" spans="2:15">
-      <c r="O27" s="42" t="s">
+      <c r="O27" s="34" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="28" spans="2:15">
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="36" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="29" spans="2:15">
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="37" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="30" spans="2:15">
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="37" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="31" spans="2:15">
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="37" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="32" spans="2:15">
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="37" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="33" spans="2:2">
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="37" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="34" spans="2:2">
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="36" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="35" spans="2:2">
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="37" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="36" spans="2:2">
-      <c r="B36" s="45" t="s">
+      <c r="B36" s="37" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="37" spans="2:2">
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="37" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="38" spans="2:2">
-      <c r="B38" s="45" t="s">
+      <c r="B38" s="37" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="39" spans="2:2">
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="37" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="40" spans="2:2">
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="36" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="41" spans="2:2">
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="36" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="45" t="s">
+      <c r="B42" s="37" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="43" spans="2:2">
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="36" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="44" spans="2:2">
-      <c r="B44" s="44" t="s">
+      <c r="B44" s="36" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="45" spans="2:2">
-      <c r="B45" s="45" t="s">
+      <c r="B45" s="37" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="46" spans="2:2">
-      <c r="B46" s="44" t="s">
+      <c r="B46" s="36" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="47" spans="2:2">
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="36" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="48" spans="2:2">
-      <c r="B48" s="44" t="s">
+      <c r="B48" s="36" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="49" spans="2:11">
-      <c r="B49" s="44" t="s">
+      <c r="B49" s="36" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="50" spans="2:11">
-      <c r="B50" s="45" t="s">
+      <c r="B50" s="37" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="51" spans="2:11">
-      <c r="B51" s="45" t="s">
+      <c r="B51" s="37" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="52" spans="2:11">
-      <c r="B52" s="45" t="s">
+      <c r="B52" s="37" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="59" spans="2:11">
-      <c r="C59" s="42" t="s">
+      <c r="C59" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="K59" s="42" t="s">
+      <c r="K59" s="34" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="60" spans="2:11">
-      <c r="C60" s="45" t="s">
+      <c r="C60" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="K60" s="42" t="s">
+      <c r="K60" s="34" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="61" spans="2:11">
-      <c r="C61" s="45" t="s">
+      <c r="C61" s="37" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="62" spans="2:11">
-      <c r="C62" s="45" t="s">
+      <c r="C62" s="37" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="63" spans="2:11">
-      <c r="C63" s="42" t="s">
+      <c r="C63" s="34" t="s">
         <v>178</v>
       </c>
     </row>
@@ -28304,14 +28312,14 @@
       <c r="B1" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="40"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="41" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="16" t="s">
@@ -28328,7 +28336,7 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="38"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="16" t="s">
         <v>24</v>
       </c>
@@ -28343,7 +28351,7 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="38"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="16" t="s">
         <v>25</v>
       </c>
@@ -28358,7 +28366,7 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="38"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="16" t="s">
         <v>26</v>
       </c>
@@ -28373,7 +28381,7 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="38"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="16" t="s">
         <v>27</v>
       </c>
@@ -28388,7 +28396,7 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="38"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="16" t="s">
         <v>28</v>
       </c>
@@ -28403,7 +28411,7 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="39"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="16" t="s">
         <v>29</v>
       </c>
@@ -28449,7 +28457,7 @@
     </row>
     <row r="15" spans="1:5" ht="5" customHeight="1"/>
     <row r="16" spans="1:5">
-      <c r="A16" s="40" t="s">
+      <c r="A16" s="44" t="s">
         <v>33</v>
       </c>
       <c r="B16" s="19" t="s">
@@ -28464,7 +28472,7 @@
       <c r="E16" s="20"/>
     </row>
     <row r="17" spans="1:5" ht="16" customHeight="1" thickBot="1">
-      <c r="A17" s="41"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="21" t="s">
         <v>37</v>
       </c>
